--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6240D3A7-ED12-4002-8728-A9293F1F3CD6}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C26579-51CD-49A7-B372-D15CDFD40AAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$O$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="552">
   <si>
     <t>Quando</t>
   </si>
@@ -1525,7 +1525,195 @@
     <t>Conseguiu fazer contato?</t>
   </si>
   <si>
-    <t>Formula</t>
+    <t>Rodrigo Almeida</t>
+  </si>
+  <si>
+    <t>21 99604-1664</t>
+  </si>
+  <si>
+    <t>Entrei em contato e o dono do número informou que o número estava errado.Na verdade era uma mulher chamada Camila. Ela informou que o número estava errado e eu a convidei assim mesmo para conhecer nossa igreja.
+Mandei o Instagram da Igreja para ela conhecer.</t>
+  </si>
+  <si>
+    <t>Já havia entrado em contato com o Gabriel no dia 02/02/25. Entrei em contato novamente e me coloquei à disposição. Perguntei sobre o GC.</t>
+  </si>
+  <si>
+    <t>Orlando Gouvea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardim Oceanico </t>
+  </si>
+  <si>
+    <t>21 99636-6685</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Falei sobre GC e dei as boas vindas</t>
+  </si>
+  <si>
+    <t>Raphael De Freitas Moreira</t>
+  </si>
+  <si>
+    <t>Taquara</t>
+  </si>
+  <si>
+    <t>21 97900-7999</t>
+  </si>
+  <si>
+    <t>Abraão Nunes Vasconcelos</t>
+  </si>
+  <si>
+    <t>21 99659-4949</t>
+  </si>
+  <si>
+    <t>Número errado.</t>
+  </si>
+  <si>
+    <t>Matheus De Góis Santos</t>
+  </si>
+  <si>
+    <t>Catumbi</t>
+  </si>
+  <si>
+    <t>21 98979-0703</t>
+  </si>
+  <si>
+    <t>Paulo Calarge Filho</t>
+  </si>
+  <si>
+    <t>21 99988-2230</t>
+  </si>
+  <si>
+    <t>Henrique Leite Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidigal </t>
+  </si>
+  <si>
+    <t>21 97876-1508</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Falei sobre GC e dei as boas vindas. Encaminhei para o líder do NEXTEEN.</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>Felipe Gabriel</t>
+  </si>
+  <si>
+    <t>Gamboa</t>
+  </si>
+  <si>
+    <t>21 99256-1102</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Falei sobre o NEXTEEN e dei as boas vindas. Encaminhei para o líder do NEXTEEN. Disse que conhece o Gylsinho e a galera do NEXTEEN. Reforcei a necessidade de não andar sozinho.</t>
+  </si>
+  <si>
+    <t>André Silva Entre</t>
+  </si>
+  <si>
+    <t>Santa Teresa</t>
+  </si>
+  <si>
+    <t>21 97289-8303</t>
+  </si>
+  <si>
+    <t>Lierte Honorato Risperi Junior</t>
+  </si>
+  <si>
+    <t>Higienópolis</t>
+  </si>
+  <si>
+    <t>21 99992-8273</t>
+  </si>
+  <si>
+    <t>culto maximos</t>
+  </si>
+  <si>
+    <t>Noé Júnior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocinha </t>
+  </si>
+  <si>
+    <t>21 97428-5527</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Falei sobre GC e dei as boas vindas.
+Se abriu comigo e disse que fez seminário, foi obreiro, foi diácono, frequentou a Lagoinha de BH. Pediu que eu orasse por ele e eu orei.</t>
+  </si>
+  <si>
+    <t>enviei mensagem / respondeu/ encaminhada para gc da tijuca/falei com Jena</t>
+  </si>
+  <si>
+    <t>Paloma Bastos</t>
+  </si>
+  <si>
+    <t>21 99297-8615</t>
+  </si>
+  <si>
+    <t>enviei mensagem /respondeu dizendo que gostaria de se batizar e frequentar gc. Encaminhei para Supervisora Fran.</t>
+  </si>
+  <si>
+    <t>Ana Clara Freitas</t>
+  </si>
+  <si>
+    <t>Bonsucesso</t>
+  </si>
+  <si>
+    <t>21 97875-3731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth </t>
+  </si>
+  <si>
+    <t>21 98885-4914</t>
+  </si>
+  <si>
+    <t>Efigênia Oliveira</t>
+  </si>
+  <si>
+    <t>21 96916-9736</t>
+  </si>
+  <si>
+    <t>Patrícia Da Silva</t>
+  </si>
+  <si>
+    <t>21 99940-9926</t>
+  </si>
+  <si>
+    <t>Daniela Andrade</t>
+  </si>
+  <si>
+    <t>Pinheiros</t>
+  </si>
+  <si>
+    <t>São Paulo / SP</t>
+  </si>
+  <si>
+    <t>47 99911-4205</t>
+  </si>
+  <si>
+    <t>Julia Dias Fernandes</t>
+  </si>
+  <si>
+    <t>11 98109-1555</t>
+  </si>
+  <si>
+    <t>Rabeche Martins</t>
+  </si>
+  <si>
+    <t>São Cristóvão</t>
+  </si>
+  <si>
+    <t>21 99129-8846</t>
+  </si>
+  <si>
+    <t>Alessandra Mestre</t>
+  </si>
+  <si>
+    <t>21 99024-8229</t>
   </si>
 </sst>
 </file>
@@ -1918,11 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,10 +2129,9 @@
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="130" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,11 +2177,8 @@
       <c r="O1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2041,12 +2224,8 @@
       <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="P2">
-        <f>IF(O2="Não",0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2092,12 +2271,8 @@
       <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">IF(O3="Não",0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2143,12 +2318,8 @@
       <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2194,12 +2365,8 @@
       <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2245,12 +2412,8 @@
       <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2296,12 +2459,8 @@
       <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2347,12 +2506,8 @@
       <c r="O8" t="s">
         <v>24</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2398,12 +2553,8 @@
       <c r="O9" t="s">
         <v>80</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2449,12 +2600,8 @@
       <c r="O10" t="s">
         <v>80</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2500,12 +2647,8 @@
       <c r="O11" t="s">
         <v>80</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2551,12 +2694,8 @@
       <c r="O12" t="s">
         <v>80</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2602,12 +2741,8 @@
       <c r="O13" t="s">
         <v>24</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2653,12 +2788,8 @@
       <c r="O14" t="s">
         <v>80</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2704,12 +2835,8 @@
       <c r="O15" t="s">
         <v>80</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2755,12 +2882,8 @@
       <c r="O16" t="s">
         <v>24</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2806,12 +2929,8 @@
       <c r="O17" t="s">
         <v>24</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2857,12 +2976,8 @@
       <c r="O18" t="s">
         <v>80</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2908,12 +3023,8 @@
       <c r="O19" t="s">
         <v>80</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2959,12 +3070,8 @@
       <c r="O20" t="s">
         <v>24</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -3010,12 +3117,8 @@
       <c r="O21" t="s">
         <v>24</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3061,12 +3164,8 @@
       <c r="O22" t="s">
         <v>24</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3112,12 +3211,8 @@
       <c r="O23" t="s">
         <v>80</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3163,12 +3258,8 @@
       <c r="O24" t="s">
         <v>80</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3214,12 +3305,8 @@
       <c r="O25" t="s">
         <v>80</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3265,12 +3352,8 @@
       <c r="O26" t="s">
         <v>80</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3316,12 +3399,8 @@
       <c r="O27" t="s">
         <v>80</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3367,12 +3446,8 @@
       <c r="O28" t="s">
         <v>80</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3418,12 +3493,8 @@
       <c r="O29" t="s">
         <v>24</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3469,12 +3540,8 @@
       <c r="O30" t="s">
         <v>80</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3520,12 +3587,8 @@
       <c r="O31" t="s">
         <v>80</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3571,12 +3634,8 @@
       <c r="O32" t="s">
         <v>24</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3622,12 +3681,8 @@
       <c r="O33" t="s">
         <v>80</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3673,12 +3728,8 @@
       <c r="O34" t="s">
         <v>24</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3724,12 +3775,8 @@
       <c r="O35" t="s">
         <v>80</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3775,12 +3822,8 @@
       <c r="O36" t="s">
         <v>80</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3826,12 +3869,8 @@
       <c r="O37" t="s">
         <v>24</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3877,12 +3916,8 @@
       <c r="O38" t="s">
         <v>80</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3928,12 +3963,8 @@
       <c r="O39" t="s">
         <v>80</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3979,12 +4010,8 @@
       <c r="O40" t="s">
         <v>24</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -4030,12 +4057,8 @@
       <c r="O41" t="s">
         <v>80</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -4081,12 +4104,8 @@
       <c r="O42" t="s">
         <v>80</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -4129,12 +4148,8 @@
       <c r="O43" t="s">
         <v>24</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -4180,12 +4195,8 @@
       <c r="O44" t="s">
         <v>80</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -4231,12 +4242,8 @@
       <c r="O45" t="s">
         <v>24</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -4279,12 +4286,8 @@
       <c r="O46" t="s">
         <v>80</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -4330,12 +4333,8 @@
       <c r="O47" t="s">
         <v>80</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
@@ -4381,12 +4380,8 @@
       <c r="O48" t="s">
         <v>80</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -4432,12 +4427,8 @@
       <c r="O49" t="s">
         <v>24</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -4483,12 +4474,8 @@
       <c r="O50" t="s">
         <v>24</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -4534,12 +4521,8 @@
       <c r="O51" t="s">
         <v>80</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -4585,12 +4568,8 @@
       <c r="O52" t="s">
         <v>24</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -4636,12 +4615,8 @@
       <c r="O53" t="s">
         <v>24</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>209</v>
       </c>
@@ -4687,12 +4662,8 @@
       <c r="O54" t="s">
         <v>80</v>
       </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -4738,12 +4709,8 @@
       <c r="O55" t="s">
         <v>24</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -4789,12 +4756,8 @@
       <c r="O56" t="s">
         <v>80</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -4840,12 +4803,8 @@
       <c r="O57" t="s">
         <v>24</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -4891,12 +4850,8 @@
       <c r="O58" t="s">
         <v>80</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -4942,12 +4897,8 @@
       <c r="O59" t="s">
         <v>80</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -4993,12 +4944,8 @@
       <c r="O60" t="s">
         <v>24</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -5044,12 +4991,8 @@
       <c r="O61" t="s">
         <v>24</v>
       </c>
-      <c r="P61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -5095,12 +5038,8 @@
       <c r="O62" t="s">
         <v>24</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>209</v>
       </c>
@@ -5146,12 +5085,8 @@
       <c r="O63" t="s">
         <v>80</v>
       </c>
-      <c r="P63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -5197,12 +5132,8 @@
       <c r="O64" t="s">
         <v>80</v>
       </c>
-      <c r="P64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -5248,12 +5179,8 @@
       <c r="O65" t="s">
         <v>24</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -5299,12 +5226,8 @@
       <c r="O66" t="s">
         <v>80</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -5350,12 +5273,8 @@
       <c r="O67" t="s">
         <v>24</v>
       </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P130" si="1">IF(O67="Não",0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>209</v>
       </c>
@@ -5401,12 +5320,8 @@
       <c r="O68" t="s">
         <v>80</v>
       </c>
-      <c r="P68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -5452,12 +5367,8 @@
       <c r="O69" t="s">
         <v>24</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -5503,12 +5414,8 @@
       <c r="O70" t="s">
         <v>80</v>
       </c>
-      <c r="P70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -5554,12 +5461,8 @@
       <c r="O71" t="s">
         <v>24</v>
       </c>
-      <c r="P71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>209</v>
       </c>
@@ -5605,12 +5508,8 @@
       <c r="O72" t="s">
         <v>80</v>
       </c>
-      <c r="P72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>295</v>
       </c>
@@ -5656,12 +5555,8 @@
       <c r="O73" t="s">
         <v>24</v>
       </c>
-      <c r="P73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>295</v>
       </c>
@@ -5707,12 +5602,8 @@
       <c r="O74" t="s">
         <v>80</v>
       </c>
-      <c r="P74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>295</v>
       </c>
@@ -5758,12 +5649,8 @@
       <c r="O75" t="s">
         <v>24</v>
       </c>
-      <c r="P75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -5809,12 +5696,8 @@
       <c r="O76" t="s">
         <v>24</v>
       </c>
-      <c r="P76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>295</v>
       </c>
@@ -5860,12 +5743,8 @@
       <c r="O77" t="s">
         <v>80</v>
       </c>
-      <c r="P77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -5911,12 +5790,8 @@
       <c r="O78" t="s">
         <v>80</v>
       </c>
-      <c r="P78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>295</v>
       </c>
@@ -5962,12 +5837,8 @@
       <c r="O79" t="s">
         <v>24</v>
       </c>
-      <c r="P79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>295</v>
       </c>
@@ -6013,12 +5884,8 @@
       <c r="O80" t="s">
         <v>80</v>
       </c>
-      <c r="P80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>295</v>
       </c>
@@ -6064,12 +5931,8 @@
       <c r="O81" t="s">
         <v>80</v>
       </c>
-      <c r="P81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>295</v>
       </c>
@@ -6115,12 +5978,8 @@
       <c r="O82" t="s">
         <v>24</v>
       </c>
-      <c r="P82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -6166,12 +6025,8 @@
       <c r="O83" t="s">
         <v>24</v>
       </c>
-      <c r="P83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -6217,12 +6072,8 @@
       <c r="O84" t="s">
         <v>24</v>
       </c>
-      <c r="P84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -6268,12 +6119,8 @@
       <c r="O85" t="s">
         <v>24</v>
       </c>
-      <c r="P85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>295</v>
       </c>
@@ -6319,12 +6166,8 @@
       <c r="O86" t="s">
         <v>80</v>
       </c>
-      <c r="P86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>295</v>
       </c>
@@ -6370,12 +6213,8 @@
       <c r="O87" t="s">
         <v>24</v>
       </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>348</v>
       </c>
@@ -6421,12 +6260,8 @@
       <c r="O88" t="s">
         <v>80</v>
       </c>
-      <c r="P88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>349</v>
       </c>
@@ -6472,12 +6307,8 @@
       <c r="O89" t="s">
         <v>80</v>
       </c>
-      <c r="P89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>349</v>
       </c>
@@ -6523,12 +6354,8 @@
       <c r="O90" t="s">
         <v>80</v>
       </c>
-      <c r="P90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -6574,12 +6401,8 @@
       <c r="O91" t="s">
         <v>24</v>
       </c>
-      <c r="P91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>349</v>
       </c>
@@ -6625,12 +6448,8 @@
       <c r="O92" t="s">
         <v>24</v>
       </c>
-      <c r="P92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>349</v>
       </c>
@@ -6676,12 +6495,8 @@
       <c r="O93" t="s">
         <v>24</v>
       </c>
-      <c r="P93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>349</v>
       </c>
@@ -6727,12 +6542,8 @@
       <c r="O94" t="s">
         <v>24</v>
       </c>
-      <c r="P94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>349</v>
       </c>
@@ -6778,12 +6589,8 @@
       <c r="O95" t="s">
         <v>80</v>
       </c>
-      <c r="P95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -6829,12 +6636,8 @@
       <c r="O96" t="s">
         <v>24</v>
       </c>
-      <c r="P96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -6880,12 +6683,8 @@
       <c r="O97" t="s">
         <v>24</v>
       </c>
-      <c r="P97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>350</v>
       </c>
@@ -6931,12 +6730,8 @@
       <c r="O98" t="s">
         <v>24</v>
       </c>
-      <c r="P98">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>350</v>
       </c>
@@ -6982,12 +6777,8 @@
       <c r="O99" t="s">
         <v>24</v>
       </c>
-      <c r="P99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>350</v>
       </c>
@@ -7033,12 +6824,8 @@
       <c r="O100" t="s">
         <v>24</v>
       </c>
-      <c r="P100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>350</v>
       </c>
@@ -7084,12 +6871,8 @@
       <c r="O101" t="s">
         <v>24</v>
       </c>
-      <c r="P101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>348</v>
       </c>
@@ -7135,12 +6918,8 @@
       <c r="O102" t="s">
         <v>24</v>
       </c>
-      <c r="P102">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>348</v>
       </c>
@@ -7186,12 +6965,8 @@
       <c r="O103" t="s">
         <v>80</v>
       </c>
-      <c r="P103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>349</v>
       </c>
@@ -7237,12 +7012,8 @@
       <c r="O104" t="s">
         <v>80</v>
       </c>
-      <c r="P104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>349</v>
       </c>
@@ -7288,12 +7059,8 @@
       <c r="O105" t="s">
         <v>80</v>
       </c>
-      <c r="P105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>349</v>
       </c>
@@ -7339,12 +7106,8 @@
       <c r="O106" t="s">
         <v>80</v>
       </c>
-      <c r="P106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>349</v>
       </c>
@@ -7390,12 +7153,8 @@
       <c r="O107" t="s">
         <v>80</v>
       </c>
-      <c r="P107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>349</v>
       </c>
@@ -7441,12 +7200,8 @@
       <c r="O108" t="s">
         <v>24</v>
       </c>
-      <c r="P108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>349</v>
       </c>
@@ -7492,12 +7247,8 @@
       <c r="O109" t="s">
         <v>24</v>
       </c>
-      <c r="P109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>349</v>
       </c>
@@ -7543,12 +7294,8 @@
       <c r="O110" t="s">
         <v>80</v>
       </c>
-      <c r="P110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>349</v>
       </c>
@@ -7594,12 +7341,8 @@
       <c r="O111" t="s">
         <v>80</v>
       </c>
-      <c r="P111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>349</v>
       </c>
@@ -7645,12 +7388,8 @@
       <c r="O112" t="s">
         <v>24</v>
       </c>
-      <c r="P112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>349</v>
       </c>
@@ -7696,12 +7435,8 @@
       <c r="O113" t="s">
         <v>80</v>
       </c>
-      <c r="P113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -7747,12 +7482,8 @@
       <c r="O114" t="s">
         <v>80</v>
       </c>
-      <c r="P114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -7798,12 +7529,8 @@
       <c r="O115" t="s">
         <v>24</v>
       </c>
-      <c r="P115">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>349</v>
       </c>
@@ -7849,12 +7576,8 @@
       <c r="O116" t="s">
         <v>80</v>
       </c>
-      <c r="P116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -7900,12 +7623,8 @@
       <c r="O117" t="s">
         <v>24</v>
       </c>
-      <c r="P117">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>349</v>
       </c>
@@ -7951,12 +7670,8 @@
       <c r="O118" t="s">
         <v>24</v>
       </c>
-      <c r="P118">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>349</v>
       </c>
@@ -8002,12 +7717,8 @@
       <c r="O119" t="s">
         <v>24</v>
       </c>
-      <c r="P119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>349</v>
       </c>
@@ -8053,12 +7764,8 @@
       <c r="O120" t="s">
         <v>80</v>
       </c>
-      <c r="P120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>349</v>
       </c>
@@ -8104,12 +7811,8 @@
       <c r="O121" t="s">
         <v>80</v>
       </c>
-      <c r="P121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>349</v>
       </c>
@@ -8155,12 +7858,8 @@
       <c r="O122" t="s">
         <v>80</v>
       </c>
-      <c r="P122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>349</v>
       </c>
@@ -8206,12 +7905,8 @@
       <c r="O123" t="s">
         <v>80</v>
       </c>
-      <c r="P123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>349</v>
       </c>
@@ -8257,12 +7952,8 @@
       <c r="O124" t="s">
         <v>80</v>
       </c>
-      <c r="P124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>349</v>
       </c>
@@ -8308,12 +7999,8 @@
       <c r="O125" t="s">
         <v>80</v>
       </c>
-      <c r="P125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>349</v>
       </c>
@@ -8359,12 +8046,8 @@
       <c r="O126" t="s">
         <v>80</v>
       </c>
-      <c r="P126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>350</v>
       </c>
@@ -8410,12 +8093,8 @@
       <c r="O127" t="s">
         <v>80</v>
       </c>
-      <c r="P127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>350</v>
       </c>
@@ -8461,12 +8140,8 @@
       <c r="O128" t="s">
         <v>80</v>
       </c>
-      <c r="P128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>350</v>
       </c>
@@ -8512,12 +8187,8 @@
       <c r="O129" t="s">
         <v>24</v>
       </c>
-      <c r="P129">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>350</v>
       </c>
@@ -8563,12 +8234,8 @@
       <c r="O130" t="s">
         <v>80</v>
       </c>
-      <c r="P130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>350</v>
       </c>
@@ -8614,12 +8281,8 @@
       <c r="O131" t="s">
         <v>80</v>
       </c>
-      <c r="P131">
-        <f t="shared" ref="P131:P135" si="2">IF(O131="Não",0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -8665,12 +8328,8 @@
       <c r="O132" t="s">
         <v>24</v>
       </c>
-      <c r="P132">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>350</v>
       </c>
@@ -8716,12 +8375,8 @@
       <c r="O133" t="s">
         <v>24</v>
       </c>
-      <c r="P133">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>350</v>
       </c>
@@ -8764,12 +8419,8 @@
       <c r="O134" t="s">
         <v>80</v>
       </c>
-      <c r="P134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>476</v>
       </c>
@@ -8812,19 +8463,1042 @@
       <c r="O135" t="s">
         <v>80</v>
       </c>
-      <c r="P135">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>476</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136">
+        <v>48</v>
+      </c>
+      <c r="H136" t="s">
+        <v>129</v>
+      </c>
+      <c r="I136" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" t="s">
+        <v>490</v>
+      </c>
+      <c r="K136" t="s">
+        <v>24</v>
+      </c>
+      <c r="L136" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N136" t="s">
+        <v>491</v>
+      </c>
+      <c r="O136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" t="s">
+        <v>296</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>297</v>
+      </c>
+      <c r="I137" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" t="s">
+        <v>298</v>
+      </c>
+      <c r="K137" t="s">
+        <v>24</v>
+      </c>
+      <c r="L137" t="s">
+        <v>46</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N137" t="s">
+        <v>492</v>
+      </c>
+      <c r="O137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>476</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>493</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>58</v>
+      </c>
+      <c r="G138">
+        <v>58</v>
+      </c>
+      <c r="H138" t="s">
+        <v>494</v>
+      </c>
+      <c r="I138" t="s">
+        <v>36</v>
+      </c>
+      <c r="J138" t="s">
+        <v>495</v>
+      </c>
+      <c r="K138" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N138" t="s">
+        <v>496</v>
+      </c>
+      <c r="O138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>476</v>
+      </c>
+      <c r="B139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>497</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139">
+        <v>40</v>
+      </c>
+      <c r="H139" t="s">
+        <v>498</v>
+      </c>
+      <c r="I139" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" t="s">
+        <v>499</v>
+      </c>
+      <c r="K139" t="s">
+        <v>24</v>
+      </c>
+      <c r="L139" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N139" t="s">
+        <v>496</v>
+      </c>
+      <c r="O139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>476</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>500</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" t="s">
+        <v>501</v>
+      </c>
+      <c r="K140" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N140" t="s">
+        <v>502</v>
+      </c>
+      <c r="O140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>476</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>503</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141">
+        <v>26</v>
+      </c>
+      <c r="H141" t="s">
+        <v>504</v>
+      </c>
+      <c r="I141" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" t="s">
+        <v>505</v>
+      </c>
+      <c r="K141" t="s">
+        <v>24</v>
+      </c>
+      <c r="L141" t="s">
+        <v>46</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N141" t="s">
+        <v>496</v>
+      </c>
+      <c r="O141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>476</v>
+      </c>
+      <c r="B142" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>506</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142">
+        <v>60</v>
+      </c>
+      <c r="H142" t="s">
+        <v>297</v>
+      </c>
+      <c r="I142" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" t="s">
+        <v>507</v>
+      </c>
+      <c r="K142" t="s">
+        <v>24</v>
+      </c>
+      <c r="L142" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N142" t="s">
+        <v>496</v>
+      </c>
+      <c r="O142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>476</v>
+      </c>
+      <c r="B143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" t="s">
+        <v>508</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>509</v>
+      </c>
+      <c r="I143" t="s">
+        <v>158</v>
+      </c>
+      <c r="J143" t="s">
+        <v>510</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N143" t="s">
+        <v>511</v>
+      </c>
+      <c r="O143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>512</v>
+      </c>
+      <c r="B144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>513</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>514</v>
+      </c>
+      <c r="I144" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" t="s">
+        <v>515</v>
+      </c>
+      <c r="K144" t="s">
+        <v>24</v>
+      </c>
+      <c r="L144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N144" t="s">
+        <v>516</v>
+      </c>
+      <c r="O144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>512</v>
+      </c>
+      <c r="B145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>517</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145">
+        <v>44</v>
+      </c>
+      <c r="H145" t="s">
+        <v>518</v>
+      </c>
+      <c r="I145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" t="s">
+        <v>519</v>
+      </c>
+      <c r="K145" t="s">
+        <v>24</v>
+      </c>
+      <c r="L145" t="s">
+        <v>46</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N145" t="s">
+        <v>496</v>
+      </c>
+      <c r="O145" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>512</v>
+      </c>
+      <c r="B146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>520</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146">
+        <v>39</v>
+      </c>
+      <c r="H146" t="s">
+        <v>521</v>
+      </c>
+      <c r="I146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" t="s">
+        <v>522</v>
+      </c>
+      <c r="K146" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N146" t="s">
+        <v>496</v>
+      </c>
+      <c r="O146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>512</v>
+      </c>
+      <c r="B147" t="s">
+        <v>523</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>524</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147">
+        <v>32</v>
+      </c>
+      <c r="H147" t="s">
+        <v>525</v>
+      </c>
+      <c r="I147" t="s">
+        <v>158</v>
+      </c>
+      <c r="J147" t="s">
+        <v>526</v>
+      </c>
+      <c r="K147" t="s">
+        <v>24</v>
+      </c>
+      <c r="L147" t="s">
+        <v>202</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N147" t="s">
+        <v>527</v>
+      </c>
+      <c r="O147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>476</v>
+      </c>
+      <c r="B148" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" t="s">
+        <v>477</v>
+      </c>
+      <c r="E148" t="s">
+        <v>65</v>
+      </c>
+      <c r="F148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148">
+        <v>35</v>
+      </c>
+      <c r="H148" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" t="s">
+        <v>478</v>
+      </c>
+      <c r="K148" t="s">
+        <v>24</v>
+      </c>
+      <c r="L148" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N148" t="s">
+        <v>528</v>
+      </c>
+      <c r="O148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" t="s">
+        <v>529</v>
+      </c>
+      <c r="E149" t="s">
+        <v>65</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149">
+        <v>39</v>
+      </c>
+      <c r="H149" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" t="s">
+        <v>530</v>
+      </c>
+      <c r="K149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" t="s">
+        <v>202</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N149" t="s">
+        <v>531</v>
+      </c>
+      <c r="O149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>476</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>532</v>
+      </c>
+      <c r="E150" t="s">
+        <v>65</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150">
+        <v>26</v>
+      </c>
+      <c r="H150" t="s">
+        <v>533</v>
+      </c>
+      <c r="I150" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>534</v>
+      </c>
+      <c r="K150" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N150" t="s">
+        <v>335</v>
+      </c>
+      <c r="O150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>535</v>
+      </c>
+      <c r="E151" t="s">
+        <v>65</v>
+      </c>
+      <c r="F151" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151">
+        <v>63</v>
+      </c>
+      <c r="H151" t="s">
+        <v>167</v>
+      </c>
+      <c r="I151" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" t="s">
+        <v>536</v>
+      </c>
+      <c r="K151" t="s">
+        <v>24</v>
+      </c>
+      <c r="L151" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N151" t="s">
+        <v>280</v>
+      </c>
+      <c r="O151" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>476</v>
+      </c>
+      <c r="B152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>537</v>
+      </c>
+      <c r="E152" t="s">
+        <v>65</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152">
+        <v>39</v>
+      </c>
+      <c r="H152" t="s">
+        <v>44</v>
+      </c>
+      <c r="I152" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" t="s">
+        <v>538</v>
+      </c>
+      <c r="K152" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N152" t="s">
+        <v>280</v>
+      </c>
+      <c r="O152" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>476</v>
+      </c>
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>539</v>
+      </c>
+      <c r="E153" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153">
+        <v>45</v>
+      </c>
+      <c r="H153" t="s">
+        <v>533</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" t="s">
+        <v>540</v>
+      </c>
+      <c r="K153" t="s">
+        <v>24</v>
+      </c>
+      <c r="L153" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N153" t="s">
+        <v>241</v>
+      </c>
+      <c r="O153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>541</v>
+      </c>
+      <c r="E154" t="s">
+        <v>65</v>
+      </c>
+      <c r="F154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154">
+        <v>33</v>
+      </c>
+      <c r="H154" t="s">
+        <v>542</v>
+      </c>
+      <c r="I154" t="s">
+        <v>543</v>
+      </c>
+      <c r="J154" t="s">
+        <v>544</v>
+      </c>
+      <c r="K154" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N154" t="s">
+        <v>280</v>
+      </c>
+      <c r="O154" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>512</v>
+      </c>
+      <c r="B155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" t="s">
+        <v>545</v>
+      </c>
+      <c r="E155" t="s">
+        <v>65</v>
+      </c>
+      <c r="F155" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155">
+        <v>32</v>
+      </c>
+      <c r="H155" t="s">
+        <v>179</v>
+      </c>
+      <c r="I155" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" t="s">
+        <v>546</v>
+      </c>
+      <c r="K155" t="s">
+        <v>24</v>
+      </c>
+      <c r="L155" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N155" t="s">
+        <v>280</v>
+      </c>
+      <c r="O155" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>512</v>
+      </c>
+      <c r="B156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" t="s">
+        <v>547</v>
+      </c>
+      <c r="E156" t="s">
+        <v>65</v>
+      </c>
+      <c r="F156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156">
+        <v>26</v>
+      </c>
+      <c r="H156" t="s">
+        <v>548</v>
+      </c>
+      <c r="I156" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" t="s">
+        <v>549</v>
+      </c>
+      <c r="K156" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156" t="s">
+        <v>25</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N156" t="s">
+        <v>280</v>
+      </c>
+      <c r="O156" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>512</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" t="s">
+        <v>550</v>
+      </c>
+      <c r="E157" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157">
+        <v>44</v>
+      </c>
+      <c r="H157" t="s">
+        <v>518</v>
+      </c>
+      <c r="I157" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" t="s">
+        <v>551</v>
+      </c>
+      <c r="K157" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N157" t="s">
+        <v>335</v>
+      </c>
+      <c r="O157" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P135" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="--"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F128272C-0C7D-4BF6-8DE8-F5EDD361F868}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C474DF-5B0B-44C7-91AA-E638F74B5780}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="758">
   <si>
     <t>Quando</t>
   </si>
@@ -1982,6 +1982,357 @@
   </si>
   <si>
     <t>21 98905-0813</t>
+  </si>
+  <si>
+    <t>Gabriele Matos</t>
+  </si>
+  <si>
+    <t>21 97301-8198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLENA - Enviamos para Caxias pois mora lá </t>
+  </si>
+  <si>
+    <t>Tatiane Barbosa</t>
+  </si>
+  <si>
+    <t>Alcântara</t>
+  </si>
+  <si>
+    <t>São Gonçalo / RJ</t>
+  </si>
+  <si>
+    <t>21 98001-8608</t>
+  </si>
+  <si>
+    <t>MILLENA - enviei mensagem e ainda não respondeu</t>
+  </si>
+  <si>
+    <t>Mariah Eduarda De Souza Ferreira</t>
+  </si>
+  <si>
+    <t>21 98167-7603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLENA - estamos tentando encaminhar para gc universitario. Quer apresentar a filha na igreja. </t>
+  </si>
+  <si>
+    <t>Juliana Fernandes Martins</t>
+  </si>
+  <si>
+    <t>21 99105-7547</t>
+  </si>
+  <si>
+    <t>MILLENA - encaminhada para GC na rocinha</t>
+  </si>
+  <si>
+    <t>Helen Silva</t>
+  </si>
+  <si>
+    <t>Andaraí</t>
+  </si>
+  <si>
+    <t>21 97984-3925</t>
+  </si>
+  <si>
+    <t>Thaisa Figueiredo Cardoso</t>
+  </si>
+  <si>
+    <t>Praça Da Bandeira</t>
+  </si>
+  <si>
+    <t>21 96980-9940</t>
+  </si>
+  <si>
+    <t>MILLENA</t>
+  </si>
+  <si>
+    <t>Laura Cardoso Alcantara</t>
+  </si>
+  <si>
+    <t>21 99945-5548</t>
+  </si>
+  <si>
+    <t>Artemísia Nunes</t>
+  </si>
+  <si>
+    <t>Urca</t>
+  </si>
+  <si>
+    <t>21 96559-0610</t>
+  </si>
+  <si>
+    <t>Luiza Lorenzoni Grillo</t>
+  </si>
+  <si>
+    <t>28 99986-1650</t>
+  </si>
+  <si>
+    <t>Letícia Da Silva Petronilho</t>
+  </si>
+  <si>
+    <t>21 98491-2875</t>
+  </si>
+  <si>
+    <t>Elizabeth Gracie</t>
+  </si>
+  <si>
+    <t>21 99929-6916</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM/respondeu dizendo que mora ao lado da igreja e que gostaria de ir a um gc. Encaminhei para a Rajana</t>
+  </si>
+  <si>
+    <t>Juliana Pires</t>
+  </si>
+  <si>
+    <t>Rio De Ja  / --</t>
+  </si>
+  <si>
+    <t>21 97549-6257</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM/ respondeu que tem interesse em um gc de casais/ encaminhada para Maryliz</t>
+  </si>
+  <si>
+    <t>Fabiana Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leblon </t>
+  </si>
+  <si>
+    <t>21 98310-3333</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM/ respondeu dizendo que gostaria de um gc no leblon. Passei o contato para a Rajana.</t>
+  </si>
+  <si>
+    <t>Amanda Fernandes</t>
+  </si>
+  <si>
+    <t>Barra Mansa  / --</t>
+  </si>
+  <si>
+    <t>24 98862-7531</t>
+  </si>
+  <si>
+    <t>NÃO TEM WHATS</t>
+  </si>
+  <si>
+    <t>Vitória Ferreira</t>
+  </si>
+  <si>
+    <t>21 97525-3428</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM / respondeu que já é da igreja e esta no gc de copacabana</t>
+  </si>
+  <si>
+    <t>Kamille Cristina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerem </t>
+  </si>
+  <si>
+    <t>Duque De Caxias  / RJ</t>
+  </si>
+  <si>
+    <t>21 98506-8576</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM</t>
+  </si>
+  <si>
+    <t>Simone Santos</t>
+  </si>
+  <si>
+    <t>11 95375-9035</t>
+  </si>
+  <si>
+    <t>Carla Andrade Pontes</t>
+  </si>
+  <si>
+    <t>21 99627-7834</t>
+  </si>
+  <si>
+    <t>encaminhada para gc mães /Rajana</t>
+  </si>
+  <si>
+    <t>Tatiana Fiche</t>
+  </si>
+  <si>
+    <t>São Conrado</t>
+  </si>
+  <si>
+    <t>Rio  / --</t>
+  </si>
+  <si>
+    <t>31 99391-0889</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM/ respondeu interessada em ir ao gc/ encaminhada para Rajana</t>
+  </si>
+  <si>
+    <t>Ana Paula Paes</t>
+  </si>
+  <si>
+    <t>Sao Goncalo  / RJ</t>
+  </si>
+  <si>
+    <t>21 99114-5978</t>
+  </si>
+  <si>
+    <t>ENVIEI MENSAGEM / RESPONDEU que esta mudando para são gonçalo e gostaria de participar de um gc/ encaminhada para Niteroi</t>
+  </si>
+  <si>
+    <t>Luana Ramos</t>
+  </si>
+  <si>
+    <t>21 97445-9927</t>
+  </si>
+  <si>
+    <t>CRIS</t>
+  </si>
+  <si>
+    <t>Vanessa Spath</t>
+  </si>
+  <si>
+    <t>21 96706-1111</t>
+  </si>
+  <si>
+    <t>Gabriela Alves</t>
+  </si>
+  <si>
+    <t>21 98620-2503</t>
+  </si>
+  <si>
+    <t>CRIS - respondeu e pediu uma oração por se sentir muito cansada</t>
+  </si>
+  <si>
+    <t>Bruna Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Tereza </t>
+  </si>
+  <si>
+    <t>21 98198-3214</t>
+  </si>
+  <si>
+    <t>CRIS - conversando para encamiha-la a um gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie </t>
+  </si>
+  <si>
+    <t>21 97224-0352</t>
+  </si>
+  <si>
+    <t>CRIS - responde e estamos tentando encaminhar para um gc</t>
+  </si>
+  <si>
+    <t>Luana Somente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Cristo </t>
+  </si>
+  <si>
+    <t>21 98772-1266</t>
+  </si>
+  <si>
+    <t>DANI  - encaminhada para o gc. Supervisora Marcia</t>
+  </si>
+  <si>
+    <t>Izabela Oliveira</t>
+  </si>
+  <si>
+    <t>48 99934-6725</t>
+  </si>
+  <si>
+    <t>DANI  - trabalha embarcada 15 dias. Fará o start</t>
+  </si>
+  <si>
+    <t>Emilly Correia</t>
+  </si>
+  <si>
+    <t>Sampaio</t>
+  </si>
+  <si>
+    <t>21 97179-7808</t>
+  </si>
+  <si>
+    <t>DANI  - estava ocupada e vamos retornar para tentar encaminhar para um gc</t>
+  </si>
+  <si>
+    <t>Rubia Somente</t>
+  </si>
+  <si>
+    <t>21 98102-1716</t>
+  </si>
+  <si>
+    <t>DANI  - aceitou oração mas não quer ir ao start e nem gc</t>
+  </si>
+  <si>
+    <t>Juliana Monte</t>
+  </si>
+  <si>
+    <t>21 97034-7752</t>
+  </si>
+  <si>
+    <t>DANI  - encaminhada para gc de casais. Maryliz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lene </t>
+  </si>
+  <si>
+    <t>21 97719-6659</t>
+  </si>
+  <si>
+    <t>Bruna Lima</t>
+  </si>
+  <si>
+    <t>21 96717-3893</t>
+  </si>
+  <si>
+    <t>Natália Rodrigues Paiva</t>
+  </si>
+  <si>
+    <t>21 97161-5471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela </t>
+  </si>
+  <si>
+    <t>21 98314-7362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larissa </t>
+  </si>
+  <si>
+    <t>21 97045-7685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandercleide </t>
+  </si>
+  <si>
+    <t>Nova Iguacu</t>
+  </si>
+  <si>
+    <t>21 98611-0767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aline </t>
+  </si>
+  <si>
+    <t>Sao Conrado</t>
+  </si>
+  <si>
+    <t>21 21977-2093</t>
+  </si>
+  <si>
+    <t>Clara Xavier</t>
+  </si>
+  <si>
+    <t>21 21999-2825</t>
   </si>
 </sst>
 </file>
@@ -2385,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10914,6 +11265,1789 @@
         <v>24</v>
       </c>
     </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>565</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>641</v>
+      </c>
+      <c r="E182" t="s">
+        <v>65</v>
+      </c>
+      <c r="F182" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>58</v>
+      </c>
+      <c r="I182" t="s">
+        <v>55</v>
+      </c>
+      <c r="J182" t="s">
+        <v>642</v>
+      </c>
+      <c r="K182" t="s">
+        <v>24</v>
+      </c>
+      <c r="L182" t="s">
+        <v>46</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N182" t="s">
+        <v>643</v>
+      </c>
+      <c r="O182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>565</v>
+      </c>
+      <c r="B183" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" t="s">
+        <v>644</v>
+      </c>
+      <c r="E183" t="s">
+        <v>65</v>
+      </c>
+      <c r="F183" t="s">
+        <v>91</v>
+      </c>
+      <c r="G183">
+        <v>42</v>
+      </c>
+      <c r="H183" t="s">
+        <v>645</v>
+      </c>
+      <c r="I183" t="s">
+        <v>646</v>
+      </c>
+      <c r="J183" t="s">
+        <v>647</v>
+      </c>
+      <c r="K183" t="s">
+        <v>24</v>
+      </c>
+      <c r="L183" t="s">
+        <v>25</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N183" t="s">
+        <v>648</v>
+      </c>
+      <c r="O183" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>565</v>
+      </c>
+      <c r="B184" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" t="s">
+        <v>649</v>
+      </c>
+      <c r="E184" t="s">
+        <v>65</v>
+      </c>
+      <c r="F184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184">
+        <v>23</v>
+      </c>
+      <c r="H184" t="s">
+        <v>573</v>
+      </c>
+      <c r="I184" t="s">
+        <v>157</v>
+      </c>
+      <c r="J184" t="s">
+        <v>650</v>
+      </c>
+      <c r="K184" t="s">
+        <v>24</v>
+      </c>
+      <c r="L184" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N184" t="s">
+        <v>651</v>
+      </c>
+      <c r="O184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>565</v>
+      </c>
+      <c r="B185" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" t="s">
+        <v>652</v>
+      </c>
+      <c r="E185" t="s">
+        <v>65</v>
+      </c>
+      <c r="F185" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185">
+        <v>33</v>
+      </c>
+      <c r="H185" t="s">
+        <v>618</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" t="s">
+        <v>653</v>
+      </c>
+      <c r="K185" t="s">
+        <v>24</v>
+      </c>
+      <c r="L185" t="s">
+        <v>25</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N185" t="s">
+        <v>654</v>
+      </c>
+      <c r="O185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>565</v>
+      </c>
+      <c r="B186" t="s">
+        <v>209</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>655</v>
+      </c>
+      <c r="E186" t="s">
+        <v>65</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186">
+        <v>33</v>
+      </c>
+      <c r="H186" t="s">
+        <v>656</v>
+      </c>
+      <c r="I186" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" t="s">
+        <v>657</v>
+      </c>
+      <c r="K186" t="s">
+        <v>24</v>
+      </c>
+      <c r="L186" t="s">
+        <v>25</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N186" t="s">
+        <v>651</v>
+      </c>
+      <c r="O186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>565</v>
+      </c>
+      <c r="B187" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>658</v>
+      </c>
+      <c r="E187" t="s">
+        <v>65</v>
+      </c>
+      <c r="F187" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187">
+        <v>26</v>
+      </c>
+      <c r="H187" t="s">
+        <v>659</v>
+      </c>
+      <c r="I187" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" t="s">
+        <v>660</v>
+      </c>
+      <c r="K187" t="s">
+        <v>24</v>
+      </c>
+      <c r="L187" t="s">
+        <v>46</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N187" t="s">
+        <v>661</v>
+      </c>
+      <c r="O187" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>565</v>
+      </c>
+      <c r="B188" t="s">
+        <v>58</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>662</v>
+      </c>
+      <c r="E188" t="s">
+        <v>65</v>
+      </c>
+      <c r="F188" t="s">
+        <v>29</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>58</v>
+      </c>
+      <c r="I188" t="s">
+        <v>55</v>
+      </c>
+      <c r="J188" t="s">
+        <v>663</v>
+      </c>
+      <c r="K188" t="s">
+        <v>24</v>
+      </c>
+      <c r="L188" t="s">
+        <v>201</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N188" t="s">
+        <v>661</v>
+      </c>
+      <c r="O188" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>565</v>
+      </c>
+      <c r="B189" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" t="s">
+        <v>664</v>
+      </c>
+      <c r="E189" t="s">
+        <v>65</v>
+      </c>
+      <c r="F189" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189">
+        <v>35</v>
+      </c>
+      <c r="H189" t="s">
+        <v>665</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" t="s">
+        <v>666</v>
+      </c>
+      <c r="K189" t="s">
+        <v>24</v>
+      </c>
+      <c r="L189" t="s">
+        <v>25</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N189" t="s">
+        <v>661</v>
+      </c>
+      <c r="O189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" t="s">
+        <v>209</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s">
+        <v>667</v>
+      </c>
+      <c r="E190" t="s">
+        <v>65</v>
+      </c>
+      <c r="F190" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190">
+        <v>25</v>
+      </c>
+      <c r="H190" t="s">
+        <v>281</v>
+      </c>
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" t="s">
+        <v>668</v>
+      </c>
+      <c r="K190" t="s">
+        <v>24</v>
+      </c>
+      <c r="L190" t="s">
+        <v>25</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N190" t="s">
+        <v>661</v>
+      </c>
+      <c r="O190" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>565</v>
+      </c>
+      <c r="B191" t="s">
+        <v>209</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" t="s">
+        <v>669</v>
+      </c>
+      <c r="E191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G191">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s">
+        <v>44</v>
+      </c>
+      <c r="I191" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" t="s">
+        <v>670</v>
+      </c>
+      <c r="K191" t="s">
+        <v>24</v>
+      </c>
+      <c r="L191" t="s">
+        <v>46</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N191" t="s">
+        <v>661</v>
+      </c>
+      <c r="O191" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>565</v>
+      </c>
+      <c r="B192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C192" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" t="s">
+        <v>671</v>
+      </c>
+      <c r="E192" t="s">
+        <v>65</v>
+      </c>
+      <c r="F192" t="s">
+        <v>91</v>
+      </c>
+      <c r="G192">
+        <v>71</v>
+      </c>
+      <c r="H192" t="s">
+        <v>296</v>
+      </c>
+      <c r="I192" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" t="s">
+        <v>672</v>
+      </c>
+      <c r="K192" t="s">
+        <v>24</v>
+      </c>
+      <c r="L192" t="s">
+        <v>25</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N192" t="s">
+        <v>673</v>
+      </c>
+      <c r="O192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>565</v>
+      </c>
+      <c r="B193" t="s">
+        <v>209</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>674</v>
+      </c>
+      <c r="E193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F193" t="s">
+        <v>19</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>573</v>
+      </c>
+      <c r="I193" t="s">
+        <v>675</v>
+      </c>
+      <c r="J193" t="s">
+        <v>676</v>
+      </c>
+      <c r="K193" t="s">
+        <v>24</v>
+      </c>
+      <c r="L193" t="s">
+        <v>46</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N193" t="s">
+        <v>677</v>
+      </c>
+      <c r="O193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>565</v>
+      </c>
+      <c r="B194" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>678</v>
+      </c>
+      <c r="E194" t="s">
+        <v>65</v>
+      </c>
+      <c r="F194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194">
+        <v>49</v>
+      </c>
+      <c r="H194" t="s">
+        <v>679</v>
+      </c>
+      <c r="I194" t="s">
+        <v>157</v>
+      </c>
+      <c r="J194" t="s">
+        <v>680</v>
+      </c>
+      <c r="K194" t="s">
+        <v>24</v>
+      </c>
+      <c r="L194" t="s">
+        <v>457</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N194" t="s">
+        <v>681</v>
+      </c>
+      <c r="O194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>565</v>
+      </c>
+      <c r="B195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C195" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" t="s">
+        <v>682</v>
+      </c>
+      <c r="E195" t="s">
+        <v>65</v>
+      </c>
+      <c r="F195" t="s">
+        <v>91</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>58</v>
+      </c>
+      <c r="I195" t="s">
+        <v>683</v>
+      </c>
+      <c r="J195" t="s">
+        <v>684</v>
+      </c>
+      <c r="K195" t="s">
+        <v>24</v>
+      </c>
+      <c r="L195" t="s">
+        <v>46</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N195" t="s">
+        <v>685</v>
+      </c>
+      <c r="O195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>565</v>
+      </c>
+      <c r="B196" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>686</v>
+      </c>
+      <c r="E196" t="s">
+        <v>65</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196">
+        <v>18</v>
+      </c>
+      <c r="H196" t="s">
+        <v>231</v>
+      </c>
+      <c r="I196" t="s">
+        <v>335</v>
+      </c>
+      <c r="J196" t="s">
+        <v>687</v>
+      </c>
+      <c r="K196" t="s">
+        <v>24</v>
+      </c>
+      <c r="L196" t="s">
+        <v>25</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N196" t="s">
+        <v>688</v>
+      </c>
+      <c r="O196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>565</v>
+      </c>
+      <c r="B197" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>689</v>
+      </c>
+      <c r="E197" t="s">
+        <v>65</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197">
+        <v>25</v>
+      </c>
+      <c r="H197" t="s">
+        <v>690</v>
+      </c>
+      <c r="I197" t="s">
+        <v>691</v>
+      </c>
+      <c r="J197" t="s">
+        <v>692</v>
+      </c>
+      <c r="K197" t="s">
+        <v>24</v>
+      </c>
+      <c r="L197" t="s">
+        <v>46</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N197" t="s">
+        <v>693</v>
+      </c>
+      <c r="O197" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>565</v>
+      </c>
+      <c r="B198" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>694</v>
+      </c>
+      <c r="E198" t="s">
+        <v>65</v>
+      </c>
+      <c r="F198" t="s">
+        <v>29</v>
+      </c>
+      <c r="G198">
+        <v>33</v>
+      </c>
+      <c r="H198" t="s">
+        <v>58</v>
+      </c>
+      <c r="I198" t="s">
+        <v>55</v>
+      </c>
+      <c r="J198" t="s">
+        <v>695</v>
+      </c>
+      <c r="K198" t="s">
+        <v>24</v>
+      </c>
+      <c r="L198" t="s">
+        <v>25</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N198" t="s">
+        <v>693</v>
+      </c>
+      <c r="O198" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>565</v>
+      </c>
+      <c r="B199" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" t="s">
+        <v>696</v>
+      </c>
+      <c r="E199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199">
+        <v>47</v>
+      </c>
+      <c r="H199" t="s">
+        <v>166</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+      <c r="J199" t="s">
+        <v>697</v>
+      </c>
+      <c r="K199" t="s">
+        <v>24</v>
+      </c>
+      <c r="L199" t="s">
+        <v>25</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N199" t="s">
+        <v>698</v>
+      </c>
+      <c r="O199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>565</v>
+      </c>
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>699</v>
+      </c>
+      <c r="E200" t="s">
+        <v>65</v>
+      </c>
+      <c r="F200" t="s">
+        <v>91</v>
+      </c>
+      <c r="G200">
+        <v>41</v>
+      </c>
+      <c r="H200" t="s">
+        <v>700</v>
+      </c>
+      <c r="I200" t="s">
+        <v>701</v>
+      </c>
+      <c r="J200" t="s">
+        <v>702</v>
+      </c>
+      <c r="K200" t="s">
+        <v>24</v>
+      </c>
+      <c r="L200" t="s">
+        <v>25</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N200" t="s">
+        <v>703</v>
+      </c>
+      <c r="O200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>565</v>
+      </c>
+      <c r="B201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" t="s">
+        <v>704</v>
+      </c>
+      <c r="E201" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201">
+        <v>35</v>
+      </c>
+      <c r="I201" t="s">
+        <v>705</v>
+      </c>
+      <c r="J201" t="s">
+        <v>706</v>
+      </c>
+      <c r="K201" t="s">
+        <v>24</v>
+      </c>
+      <c r="L201" t="s">
+        <v>148</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N201" t="s">
+        <v>707</v>
+      </c>
+      <c r="O201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>565</v>
+      </c>
+      <c r="B202" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>708</v>
+      </c>
+      <c r="E202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F202" t="s">
+        <v>58</v>
+      </c>
+      <c r="G202">
+        <v>34</v>
+      </c>
+      <c r="H202" t="s">
+        <v>58</v>
+      </c>
+      <c r="I202" t="s">
+        <v>55</v>
+      </c>
+      <c r="J202" t="s">
+        <v>709</v>
+      </c>
+      <c r="K202" t="s">
+        <v>24</v>
+      </c>
+      <c r="L202" t="s">
+        <v>25</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N202" t="s">
+        <v>710</v>
+      </c>
+      <c r="O202" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>565</v>
+      </c>
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="s">
+        <v>27</v>
+      </c>
+      <c r="D203" t="s">
+        <v>711</v>
+      </c>
+      <c r="E203" t="s">
+        <v>65</v>
+      </c>
+      <c r="F203" t="s">
+        <v>91</v>
+      </c>
+      <c r="G203">
+        <v>41</v>
+      </c>
+      <c r="H203" t="s">
+        <v>166</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+      <c r="J203" t="s">
+        <v>712</v>
+      </c>
+      <c r="K203" t="s">
+        <v>24</v>
+      </c>
+      <c r="L203" t="s">
+        <v>25</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N203" t="s">
+        <v>710</v>
+      </c>
+      <c r="O203" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>565</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" t="s">
+        <v>713</v>
+      </c>
+      <c r="E204" t="s">
+        <v>65</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204">
+        <v>31</v>
+      </c>
+      <c r="H204" t="s">
+        <v>58</v>
+      </c>
+      <c r="I204" t="s">
+        <v>55</v>
+      </c>
+      <c r="J204" t="s">
+        <v>714</v>
+      </c>
+      <c r="K204" t="s">
+        <v>24</v>
+      </c>
+      <c r="L204" t="s">
+        <v>25</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N204" t="s">
+        <v>715</v>
+      </c>
+      <c r="O204" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>565</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" t="s">
+        <v>716</v>
+      </c>
+      <c r="E205" t="s">
+        <v>65</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205">
+        <v>41</v>
+      </c>
+      <c r="H205" t="s">
+        <v>717</v>
+      </c>
+      <c r="I205" t="s">
+        <v>157</v>
+      </c>
+      <c r="J205" t="s">
+        <v>718</v>
+      </c>
+      <c r="K205" t="s">
+        <v>24</v>
+      </c>
+      <c r="L205" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N205" t="s">
+        <v>719</v>
+      </c>
+      <c r="O205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>565</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>720</v>
+      </c>
+      <c r="E206" t="s">
+        <v>65</v>
+      </c>
+      <c r="F206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206">
+        <v>43</v>
+      </c>
+      <c r="H206" t="s">
+        <v>58</v>
+      </c>
+      <c r="I206" t="s">
+        <v>55</v>
+      </c>
+      <c r="J206" t="s">
+        <v>721</v>
+      </c>
+      <c r="K206" t="s">
+        <v>24</v>
+      </c>
+      <c r="L206" t="s">
+        <v>445</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N206" t="s">
+        <v>722</v>
+      </c>
+      <c r="O206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>589</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" t="s">
+        <v>723</v>
+      </c>
+      <c r="E207" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" t="s">
+        <v>58</v>
+      </c>
+      <c r="G207">
+        <v>100</v>
+      </c>
+      <c r="H207" t="s">
+        <v>724</v>
+      </c>
+      <c r="I207" t="s">
+        <v>55</v>
+      </c>
+      <c r="J207" t="s">
+        <v>725</v>
+      </c>
+      <c r="K207" t="s">
+        <v>24</v>
+      </c>
+      <c r="L207" t="s">
+        <v>25</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N207" t="s">
+        <v>726</v>
+      </c>
+      <c r="O207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>589</v>
+      </c>
+      <c r="B208" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" t="s">
+        <v>727</v>
+      </c>
+      <c r="E208" t="s">
+        <v>65</v>
+      </c>
+      <c r="F208" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208">
+        <v>29</v>
+      </c>
+      <c r="H208" t="s">
+        <v>516</v>
+      </c>
+      <c r="I208" t="s">
+        <v>55</v>
+      </c>
+      <c r="J208" t="s">
+        <v>728</v>
+      </c>
+      <c r="K208" t="s">
+        <v>24</v>
+      </c>
+      <c r="L208" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N208" t="s">
+        <v>729</v>
+      </c>
+      <c r="O208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>589</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>730</v>
+      </c>
+      <c r="E209" t="s">
+        <v>65</v>
+      </c>
+      <c r="F209" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209">
+        <v>25</v>
+      </c>
+      <c r="H209" t="s">
+        <v>731</v>
+      </c>
+      <c r="I209" t="s">
+        <v>22</v>
+      </c>
+      <c r="J209" t="s">
+        <v>732</v>
+      </c>
+      <c r="K209" t="s">
+        <v>24</v>
+      </c>
+      <c r="L209" t="s">
+        <v>25</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N209" t="s">
+        <v>733</v>
+      </c>
+      <c r="O209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>589</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" t="s">
+        <v>734</v>
+      </c>
+      <c r="E210" t="s">
+        <v>65</v>
+      </c>
+      <c r="F210" t="s">
+        <v>58</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>58</v>
+      </c>
+      <c r="I210" t="s">
+        <v>55</v>
+      </c>
+      <c r="J210" t="s">
+        <v>735</v>
+      </c>
+      <c r="K210" t="s">
+        <v>24</v>
+      </c>
+      <c r="L210" t="s">
+        <v>25</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N210" t="s">
+        <v>736</v>
+      </c>
+      <c r="O210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>589</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" t="s">
+        <v>737</v>
+      </c>
+      <c r="E211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211">
+        <v>24</v>
+      </c>
+      <c r="H211" t="s">
+        <v>152</v>
+      </c>
+      <c r="I211" t="s">
+        <v>420</v>
+      </c>
+      <c r="J211" t="s">
+        <v>738</v>
+      </c>
+      <c r="K211" t="s">
+        <v>24</v>
+      </c>
+      <c r="L211" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N211" t="s">
+        <v>739</v>
+      </c>
+      <c r="O211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>589</v>
+      </c>
+      <c r="B212" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>740</v>
+      </c>
+      <c r="E212" t="s">
+        <v>65</v>
+      </c>
+      <c r="F212" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212">
+        <v>35</v>
+      </c>
+      <c r="H212" t="s">
+        <v>58</v>
+      </c>
+      <c r="I212" t="s">
+        <v>55</v>
+      </c>
+      <c r="J212" t="s">
+        <v>741</v>
+      </c>
+      <c r="K212" t="s">
+        <v>24</v>
+      </c>
+      <c r="L212" t="s">
+        <v>25</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N212" t="s">
+        <v>58</v>
+      </c>
+      <c r="O212" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>589</v>
+      </c>
+      <c r="B213" t="s">
+        <v>209</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" t="s">
+        <v>742</v>
+      </c>
+      <c r="E213" t="s">
+        <v>65</v>
+      </c>
+      <c r="F213" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213">
+        <v>29</v>
+      </c>
+      <c r="H213" t="s">
+        <v>618</v>
+      </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" t="s">
+        <v>743</v>
+      </c>
+      <c r="K213" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" t="s">
+        <v>25</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N213" t="s">
+        <v>58</v>
+      </c>
+      <c r="O213" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>589</v>
+      </c>
+      <c r="B214" t="s">
+        <v>209</v>
+      </c>
+      <c r="C214" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" t="s">
+        <v>744</v>
+      </c>
+      <c r="E214" t="s">
+        <v>65</v>
+      </c>
+      <c r="F214" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214">
+        <v>22</v>
+      </c>
+      <c r="H214" t="s">
+        <v>129</v>
+      </c>
+      <c r="I214" t="s">
+        <v>22</v>
+      </c>
+      <c r="J214" t="s">
+        <v>745</v>
+      </c>
+      <c r="K214" t="s">
+        <v>24</v>
+      </c>
+      <c r="L214" t="s">
+        <v>46</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N214" t="s">
+        <v>58</v>
+      </c>
+      <c r="O214" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>589</v>
+      </c>
+      <c r="B215" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" t="s">
+        <v>746</v>
+      </c>
+      <c r="E215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F215" t="s">
+        <v>58</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>129</v>
+      </c>
+      <c r="I215" t="s">
+        <v>55</v>
+      </c>
+      <c r="J215" t="s">
+        <v>747</v>
+      </c>
+      <c r="K215" t="s">
+        <v>24</v>
+      </c>
+      <c r="L215" t="s">
+        <v>25</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N215" t="s">
+        <v>58</v>
+      </c>
+      <c r="O215" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>589</v>
+      </c>
+      <c r="B216" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" t="s">
+        <v>748</v>
+      </c>
+      <c r="E216" t="s">
+        <v>65</v>
+      </c>
+      <c r="F216" t="s">
+        <v>58</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>281</v>
+      </c>
+      <c r="I216" t="s">
+        <v>85</v>
+      </c>
+      <c r="J216" t="s">
+        <v>749</v>
+      </c>
+      <c r="K216" t="s">
+        <v>24</v>
+      </c>
+      <c r="L216" t="s">
+        <v>25</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N216" t="s">
+        <v>58</v>
+      </c>
+      <c r="O216" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>589</v>
+      </c>
+      <c r="B217" t="s">
+        <v>209</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>750</v>
+      </c>
+      <c r="E217" t="s">
+        <v>65</v>
+      </c>
+      <c r="F217" t="s">
+        <v>58</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217" t="s">
+        <v>751</v>
+      </c>
+      <c r="I217" t="s">
+        <v>36</v>
+      </c>
+      <c r="J217" t="s">
+        <v>752</v>
+      </c>
+      <c r="K217" t="s">
+        <v>24</v>
+      </c>
+      <c r="L217" t="s">
+        <v>25</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N217" t="s">
+        <v>58</v>
+      </c>
+      <c r="O217" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>589</v>
+      </c>
+      <c r="B218" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" t="s">
+        <v>753</v>
+      </c>
+      <c r="E218" t="s">
+        <v>65</v>
+      </c>
+      <c r="F218" t="s">
+        <v>58</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218" t="s">
+        <v>754</v>
+      </c>
+      <c r="I218" t="s">
+        <v>36</v>
+      </c>
+      <c r="J218" t="s">
+        <v>755</v>
+      </c>
+      <c r="K218" t="s">
+        <v>24</v>
+      </c>
+      <c r="L218" t="s">
+        <v>25</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N218" t="s">
+        <v>58</v>
+      </c>
+      <c r="O218" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>589</v>
+      </c>
+      <c r="B219" t="s">
+        <v>209</v>
+      </c>
+      <c r="C219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s">
+        <v>756</v>
+      </c>
+      <c r="E219" t="s">
+        <v>65</v>
+      </c>
+      <c r="F219" t="s">
+        <v>58</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>178</v>
+      </c>
+      <c r="I219" t="s">
+        <v>36</v>
+      </c>
+      <c r="J219" t="s">
+        <v>757</v>
+      </c>
+      <c r="K219" t="s">
+        <v>24</v>
+      </c>
+      <c r="L219" t="s">
+        <v>25</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N219" t="s">
+        <v>58</v>
+      </c>
+      <c r="O219" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O157">
     <sortCondition descending="1" ref="A6:A157"/>

--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C474DF-5B0B-44C7-91AA-E638F74B5780}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056971E7-77A0-4371-B37F-94C67BEB721C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$O$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="759">
   <si>
     <t>Quando</t>
   </si>
@@ -2333,6 +2333,9 @@
   </si>
   <si>
     <t>21 21999-2825</t>
+  </si>
+  <si>
+    <t>Chave</t>
   </si>
 </sst>
 </file>
@@ -2413,10 +2416,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2736,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:P219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P180" sqref="P180"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2754,14 +2753,15 @@
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="130" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="130" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2793,22 +2793,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -2839,23 +2842,27 @@
       <c r="J2" t="s">
         <v>311</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(J2," ",""),"-","")</f>
+        <v>21989201250</v>
       </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -2886,23 +2893,27 @@
       <c r="J3" t="s">
         <v>313</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(SUBSTITUTE(J3," ",""),"-","")</f>
+        <v>21992859234</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -2933,23 +2944,27 @@
       <c r="J4" t="s">
         <v>316</v>
       </c>
-      <c r="K4" t="s">
-        <v>24</v>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>21969348279</v>
       </c>
       <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>213</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -2980,23 +2995,27 @@
       <c r="J5" t="s">
         <v>321</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>75982921674</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -3027,23 +3046,27 @@
       <c r="J6" t="s">
         <v>325</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>21980484783</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
         <v>213</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -3074,23 +3097,27 @@
       <c r="J7" t="s">
         <v>329</v>
       </c>
-      <c r="K7" t="s">
-        <v>24</v>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>21976877922</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -3121,23 +3148,27 @@
       <c r="J8" t="s">
         <v>332</v>
       </c>
-      <c r="K8" t="s">
-        <v>24</v>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>21965490278</v>
       </c>
       <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
         <v>148</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>333</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -3168,23 +3199,27 @@
       <c r="J9" t="s">
         <v>336</v>
       </c>
-      <c r="K9" t="s">
-        <v>24</v>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>21981075150</v>
       </c>
       <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -3215,23 +3250,27 @@
       <c r="J10" t="s">
         <v>340</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>21972494015</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -3262,23 +3301,27 @@
       <c r="J11" t="s">
         <v>343</v>
       </c>
-      <c r="K11" t="s">
-        <v>24</v>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>21966337493</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
         <v>213</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>294</v>
       </c>
@@ -3309,23 +3352,27 @@
       <c r="J12" t="s">
         <v>345</v>
       </c>
-      <c r="K12" t="s">
-        <v>24</v>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>21992611806</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
         <v>213</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -3356,23 +3403,27 @@
       <c r="J13" t="s">
         <v>297</v>
       </c>
-      <c r="K13" t="s">
-        <v>24</v>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>34991623548</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -3403,23 +3454,27 @@
       <c r="J14" t="s">
         <v>301</v>
       </c>
-      <c r="K14" t="s">
-        <v>24</v>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>21983115798</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -3450,23 +3505,27 @@
       <c r="J15" t="s">
         <v>304</v>
       </c>
-      <c r="K15" t="s">
-        <v>24</v>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>21999895205</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
         <v>213</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -3497,23 +3556,27 @@
       <c r="J16" t="s">
         <v>308</v>
       </c>
-      <c r="K16" t="s">
-        <v>24</v>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>21964117914</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -3544,23 +3607,27 @@
       <c r="J17" t="s">
         <v>239</v>
       </c>
-      <c r="K17" t="s">
-        <v>24</v>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>21981557361</v>
       </c>
       <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
         <v>148</v>
       </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -3591,23 +3658,27 @@
       <c r="J18" t="s">
         <v>242</v>
       </c>
-      <c r="K18" t="s">
-        <v>24</v>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>21978777637</v>
       </c>
       <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -3638,23 +3709,27 @@
       <c r="J19" t="s">
         <v>245</v>
       </c>
-      <c r="K19" t="s">
-        <v>24</v>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>21976346889</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
         <v>246</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -3685,23 +3760,27 @@
       <c r="J20" t="s">
         <v>249</v>
       </c>
-      <c r="K20" t="s">
-        <v>24</v>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>21964925966</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -3732,23 +3811,27 @@
       <c r="J21" t="s">
         <v>252</v>
       </c>
-      <c r="K21" t="s">
-        <v>24</v>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>21970659909</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -3779,23 +3862,27 @@
       <c r="J22" t="s">
         <v>256</v>
       </c>
-      <c r="K22" t="s">
-        <v>24</v>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>21983603632</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
         <v>213</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -3826,23 +3913,27 @@
       <c r="J23" t="s">
         <v>259</v>
       </c>
-      <c r="K23" t="s">
-        <v>24</v>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>21969252455</v>
       </c>
       <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
         <v>201</v>
       </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -3873,23 +3964,27 @@
       <c r="J24" t="s">
         <v>263</v>
       </c>
-      <c r="K24" t="s">
-        <v>24</v>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>22998398203</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
         <v>213</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -3920,23 +4015,27 @@
       <c r="J25" t="s">
         <v>265</v>
       </c>
-      <c r="K25" t="s">
-        <v>24</v>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>21997749297</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -3967,23 +4066,27 @@
       <c r="J26" t="s">
         <v>268</v>
       </c>
-      <c r="K26" t="s">
-        <v>24</v>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>21991979312</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
         <v>213</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -4014,23 +4117,27 @@
       <c r="J27" t="s">
         <v>271</v>
       </c>
-      <c r="K27" t="s">
-        <v>24</v>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>21980004274</v>
       </c>
       <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
         <v>201</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>213</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -4061,23 +4168,27 @@
       <c r="J28" t="s">
         <v>273</v>
       </c>
-      <c r="K28" t="s">
-        <v>24</v>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>21974153528</v>
       </c>
       <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
         <v>148</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -4108,23 +4219,27 @@
       <c r="J29" t="s">
         <v>278</v>
       </c>
-      <c r="K29" t="s">
-        <v>24</v>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>22998310271</v>
       </c>
       <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
         <v>46</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>213</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -4155,23 +4270,27 @@
       <c r="J30" t="s">
         <v>282</v>
       </c>
-      <c r="K30" t="s">
-        <v>24</v>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>21968323631</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
         <v>213</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -4202,23 +4321,27 @@
       <c r="J31" t="s">
         <v>287</v>
       </c>
-      <c r="K31" t="s">
-        <v>24</v>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>66984434520</v>
       </c>
       <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
         <v>46</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>213</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -4249,23 +4372,27 @@
       <c r="J32" t="s">
         <v>289</v>
       </c>
-      <c r="K32" t="s">
-        <v>24</v>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>21970256085</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
         <v>213</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -4296,23 +4423,27 @@
       <c r="J33" t="s">
         <v>293</v>
       </c>
-      <c r="K33" t="s">
-        <v>24</v>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>21992632121</v>
       </c>
       <c r="L33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
         <v>213</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="O33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -4343,23 +4474,27 @@
       <c r="J34" t="s">
         <v>212</v>
       </c>
-      <c r="K34" t="s">
-        <v>24</v>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>21975423270</v>
       </c>
       <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
         <v>148</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -4390,23 +4525,27 @@
       <c r="J35" t="s">
         <v>217</v>
       </c>
-      <c r="K35" t="s">
-        <v>24</v>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>21999082906</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4437,23 +4576,27 @@
       <c r="J36" t="s">
         <v>220</v>
       </c>
-      <c r="K36" t="s">
-        <v>24</v>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>21964213465</v>
       </c>
       <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
         <v>46</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -4484,23 +4627,27 @@
       <c r="J37" t="s">
         <v>223</v>
       </c>
-      <c r="K37" t="s">
-        <v>24</v>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>21982356990</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
         <v>27</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -4531,23 +4678,27 @@
       <c r="J38" t="s">
         <v>228</v>
       </c>
-      <c r="K38" t="s">
-        <v>24</v>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>21991626475</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -4578,23 +4729,27 @@
       <c r="J39" t="s">
         <v>232</v>
       </c>
-      <c r="K39" t="s">
-        <v>24</v>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>19989329116</v>
       </c>
       <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
         <v>46</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>47</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -4625,23 +4780,27 @@
       <c r="J40" t="s">
         <v>235</v>
       </c>
-      <c r="K40" t="s">
-        <v>24</v>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>21982221998</v>
       </c>
       <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
         <v>201</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -4672,23 +4831,27 @@
       <c r="J41" t="s">
         <v>175</v>
       </c>
-      <c r="K41" t="s">
-        <v>24</v>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>21974891078</v>
       </c>
       <c r="L41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
         <v>27</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -4719,23 +4882,27 @@
       <c r="J42" t="s">
         <v>179</v>
       </c>
-      <c r="K42" t="s">
-        <v>24</v>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>21990103442</v>
       </c>
       <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
         <v>46</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -4766,23 +4933,27 @@
       <c r="J43" t="s">
         <v>183</v>
       </c>
-      <c r="K43" t="s">
-        <v>24</v>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>21996650295</v>
       </c>
       <c r="L43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -4810,23 +4981,27 @@
       <c r="J44" t="s">
         <v>187</v>
       </c>
-      <c r="K44" t="s">
-        <v>24</v>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>21965271510</v>
       </c>
       <c r="L44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -4857,23 +5032,27 @@
       <c r="J45" t="s">
         <v>191</v>
       </c>
-      <c r="K45" t="s">
-        <v>24</v>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>21995175487</v>
       </c>
       <c r="L45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
         <v>47</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -4904,23 +5083,27 @@
       <c r="J46" t="s">
         <v>193</v>
       </c>
-      <c r="K46" t="s">
-        <v>24</v>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>21980637560</v>
       </c>
       <c r="L46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
         <v>47</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -4951,23 +5134,27 @@
       <c r="J47" t="s">
         <v>121</v>
       </c>
-      <c r="K47" t="s">
-        <v>24</v>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>21965760536</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="O47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -4998,23 +5185,27 @@
       <c r="J48" t="s">
         <v>198</v>
       </c>
-      <c r="K48" t="s">
-        <v>24</v>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>21981662340</v>
       </c>
       <c r="L48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
         <v>47</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -5045,23 +5236,27 @@
       <c r="J49" t="s">
         <v>200</v>
       </c>
-      <c r="K49" t="s">
-        <v>24</v>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>21999339613</v>
       </c>
       <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
         <v>201</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>27</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5092,23 +5287,27 @@
       <c r="J50" t="s">
         <v>82</v>
       </c>
-      <c r="K50" t="s">
-        <v>24</v>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>21979849966</v>
       </c>
       <c r="L50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
         <v>27</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -5139,23 +5338,27 @@
       <c r="J51" t="s">
         <v>86</v>
       </c>
-      <c r="K51" t="s">
-        <v>24</v>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>11989183907</v>
       </c>
       <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
         <v>46</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>27</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -5186,23 +5389,27 @@
       <c r="J52" t="s">
         <v>89</v>
       </c>
-      <c r="K52" t="s">
-        <v>24</v>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>21966594954</v>
       </c>
       <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
         <v>46</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>47</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -5233,23 +5440,27 @@
       <c r="J53" t="s">
         <v>94</v>
       </c>
-      <c r="K53" t="s">
-        <v>24</v>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>21972697787</v>
       </c>
       <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
         <v>46</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -5280,23 +5491,27 @@
       <c r="J54" t="s">
         <v>101</v>
       </c>
-      <c r="K54" t="s">
-        <v>24</v>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>21985795199</v>
       </c>
       <c r="L54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -5327,23 +5542,27 @@
       <c r="J55" t="s">
         <v>103</v>
       </c>
-      <c r="K55" t="s">
-        <v>24</v>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>22988347931</v>
       </c>
       <c r="L55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -5374,23 +5593,27 @@
       <c r="J56" t="s">
         <v>107</v>
       </c>
-      <c r="K56" t="s">
-        <v>24</v>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>21979955783</v>
       </c>
       <c r="L56" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" t="s">
         <v>46</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>27</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -5421,23 +5644,27 @@
       <c r="J57" t="s">
         <v>112</v>
       </c>
-      <c r="K57" t="s">
-        <v>24</v>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>51982255081</v>
       </c>
       <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s">
         <v>46</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -5468,23 +5695,27 @@
       <c r="J58" t="s">
         <v>118</v>
       </c>
-      <c r="K58" t="s">
-        <v>24</v>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>21973244590</v>
       </c>
       <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
         <v>46</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>47</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -5515,23 +5746,27 @@
       <c r="J59" t="s">
         <v>121</v>
       </c>
-      <c r="K59" t="s">
-        <v>24</v>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>21965760536</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -5562,23 +5797,27 @@
       <c r="J60" t="s">
         <v>125</v>
       </c>
-      <c r="K60" t="s">
-        <v>24</v>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>27997598283</v>
       </c>
       <c r="L60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
         <v>27</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -5609,23 +5848,27 @@
       <c r="J61" t="s">
         <v>127</v>
       </c>
-      <c r="K61" t="s">
-        <v>24</v>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>92992751430</v>
       </c>
       <c r="L61" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" t="s">
         <v>46</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -5656,23 +5899,27 @@
       <c r="J62" t="s">
         <v>130</v>
       </c>
-      <c r="K62" t="s">
-        <v>24</v>
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>21980664495</v>
       </c>
       <c r="L62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
         <v>27</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5703,23 +5950,27 @@
       <c r="J63" t="s">
         <v>133</v>
       </c>
-      <c r="K63" t="s">
-        <v>24</v>
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>21994863610</v>
       </c>
       <c r="L63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
         <v>47</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -5750,23 +6001,27 @@
       <c r="J64" t="s">
         <v>136</v>
       </c>
-      <c r="K64" t="s">
-        <v>24</v>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>21978797896</v>
       </c>
       <c r="L64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
         <v>27</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -5797,23 +6052,27 @@
       <c r="J65" t="s">
         <v>138</v>
       </c>
-      <c r="K65" t="s">
-        <v>24</v>
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>21991403861</v>
       </c>
       <c r="L65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
         <v>47</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -5844,23 +6103,27 @@
       <c r="J66" t="s">
         <v>140</v>
       </c>
-      <c r="K66" t="s">
-        <v>24</v>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>21966757596</v>
       </c>
       <c r="L66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
         <v>27</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="O66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5891,23 +6154,27 @@
       <c r="J67" t="s">
         <v>142</v>
       </c>
-      <c r="K67" t="s">
-        <v>24</v>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="1">SUBSTITUTE(SUBSTITUTE(J67," ",""),"-","")</f>
+        <v>21975661220</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
         <v>47</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -5938,23 +6205,27 @@
       <c r="J68" t="s">
         <v>144</v>
       </c>
-      <c r="K68" t="s">
-        <v>24</v>
+      <c r="K68" t="str">
+        <f t="shared" si="1"/>
+        <v>21997971656</v>
       </c>
       <c r="L68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
         <v>46</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>16</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -5985,23 +6256,27 @@
       <c r="J69" t="s">
         <v>147</v>
       </c>
-      <c r="K69" t="s">
-        <v>24</v>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>21991664331</v>
       </c>
       <c r="L69" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" t="s">
         <v>148</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>47</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -6032,23 +6307,27 @@
       <c r="J70" t="s">
         <v>153</v>
       </c>
-      <c r="K70" t="s">
-        <v>24</v>
+      <c r="K70" t="str">
+        <f t="shared" si="1"/>
+        <v>21988357628</v>
       </c>
       <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
         <v>46</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>27</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="O70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -6079,23 +6358,27 @@
       <c r="J71" t="s">
         <v>158</v>
       </c>
-      <c r="K71" t="s">
-        <v>24</v>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>21972034908</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
         <v>47</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -6126,23 +6409,27 @@
       <c r="J72" t="s">
         <v>160</v>
       </c>
-      <c r="K72" t="s">
-        <v>24</v>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>21969021547</v>
       </c>
       <c r="L72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
         <v>27</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -6173,23 +6460,27 @@
       <c r="J73" t="s">
         <v>164</v>
       </c>
-      <c r="K73" t="s">
-        <v>24</v>
+      <c r="K73" t="str">
+        <f t="shared" si="1"/>
+        <v>21999845604</v>
       </c>
       <c r="L73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
         <v>27</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -6220,23 +6511,27 @@
       <c r="J74" t="s">
         <v>167</v>
       </c>
-      <c r="K74" t="s">
-        <v>24</v>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>21987477070</v>
       </c>
       <c r="L74" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" t="s">
         <v>46</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>47</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -6267,23 +6562,27 @@
       <c r="J75" t="s">
         <v>169</v>
       </c>
-      <c r="K75" t="s">
-        <v>24</v>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>21989362130</v>
       </c>
       <c r="L75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
         <v>16</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -6314,23 +6613,27 @@
       <c r="J76" t="s">
         <v>172</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" t="str">
+        <f t="shared" si="1"/>
+        <v>21967076474</v>
+      </c>
+      <c r="L76" t="s">
         <v>80</v>
       </c>
-      <c r="L76" t="s">
-        <v>25</v>
-      </c>
       <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" t="s">
         <v>27</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -6361,23 +6664,27 @@
       <c r="J77" t="s">
         <v>45</v>
       </c>
-      <c r="K77" t="s">
-        <v>24</v>
+      <c r="K77" t="str">
+        <f t="shared" si="1"/>
+        <v>21969602402</v>
       </c>
       <c r="L77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" t="s">
         <v>46</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>47</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -6408,23 +6715,27 @@
       <c r="J78" t="s">
         <v>51</v>
       </c>
-      <c r="K78" t="s">
-        <v>24</v>
+      <c r="K78" t="str">
+        <f t="shared" si="1"/>
+        <v>21969528117</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
         <v>27</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -6455,23 +6766,27 @@
       <c r="J79" t="s">
         <v>56</v>
       </c>
-      <c r="K79" t="s">
-        <v>24</v>
+      <c r="K79" t="str">
+        <f t="shared" si="1"/>
+        <v>21991660307</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -6502,23 +6817,27 @@
       <c r="J80" t="s">
         <v>62</v>
       </c>
-      <c r="K80" t="s">
-        <v>24</v>
+      <c r="K80" t="str">
+        <f t="shared" si="1"/>
+        <v>21974231559</v>
       </c>
       <c r="L80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" t="s">
         <v>16</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -6549,23 +6868,27 @@
       <c r="J81" t="s">
         <v>544</v>
       </c>
-      <c r="K81" t="s">
-        <v>24</v>
+      <c r="K81" t="str">
+        <f t="shared" si="1"/>
+        <v>11981091555</v>
       </c>
       <c r="L81" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N81" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O81" t="s">
         <v>279</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -6596,23 +6919,27 @@
       <c r="J82" t="s">
         <v>547</v>
       </c>
-      <c r="K82" t="s">
-        <v>24</v>
+      <c r="K82" t="str">
+        <f t="shared" si="1"/>
+        <v>21991298846</v>
       </c>
       <c r="L82" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O82" t="s">
         <v>279</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -6643,23 +6970,27 @@
       <c r="J83" t="s">
         <v>549</v>
       </c>
-      <c r="K83" t="s">
-        <v>24</v>
+      <c r="K83" t="str">
+        <f t="shared" si="1"/>
+        <v>21990248229</v>
       </c>
       <c r="L83" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N83" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O83" t="s">
         <v>564</v>
       </c>
-      <c r="O83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>510</v>
       </c>
@@ -6690,23 +7021,27 @@
       <c r="J84" t="s">
         <v>513</v>
       </c>
-      <c r="K84" t="s">
-        <v>24</v>
+      <c r="K84" t="str">
+        <f t="shared" si="1"/>
+        <v>21992561102</v>
       </c>
       <c r="L84" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>514</v>
       </c>
-      <c r="O84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>510</v>
       </c>
@@ -6737,23 +7072,27 @@
       <c r="J85" t="s">
         <v>517</v>
       </c>
-      <c r="K85" t="s">
-        <v>24</v>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>21972898303</v>
       </c>
       <c r="L85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
         <v>46</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>494</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>510</v>
       </c>
@@ -6784,23 +7123,27 @@
       <c r="J86" t="s">
         <v>520</v>
       </c>
-      <c r="K86" t="s">
-        <v>24</v>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>21999928273</v>
       </c>
       <c r="L86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>494</v>
       </c>
-      <c r="O86" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -6831,23 +7174,27 @@
       <c r="J87" t="s">
         <v>524</v>
       </c>
-      <c r="K87" t="s">
-        <v>24</v>
+      <c r="K87" t="str">
+        <f t="shared" si="1"/>
+        <v>21974285527</v>
       </c>
       <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
         <v>201</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>525</v>
       </c>
-      <c r="O87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>474</v>
       </c>
@@ -6878,23 +7225,27 @@
       <c r="J88" t="s">
         <v>476</v>
       </c>
-      <c r="K88" t="s">
-        <v>24</v>
+      <c r="K88" t="str">
+        <f t="shared" si="1"/>
+        <v>21979410751</v>
       </c>
       <c r="L88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
         <v>213</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>474</v>
       </c>
@@ -6925,23 +7276,27 @@
       <c r="J89" t="s">
         <v>476</v>
       </c>
-      <c r="K89" t="s">
-        <v>24</v>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>21979410751</v>
       </c>
       <c r="L89" t="s">
-        <v>25</v>
-      </c>
-      <c r="M89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>526</v>
       </c>
-      <c r="O89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>474</v>
       </c>
@@ -6972,23 +7327,27 @@
       <c r="J90" t="s">
         <v>528</v>
       </c>
-      <c r="K90" t="s">
-        <v>24</v>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>21992978615</v>
       </c>
       <c r="L90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" t="s">
         <v>201</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N90" t="s">
+      <c r="N90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O90" t="s">
         <v>529</v>
       </c>
-      <c r="O90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>474</v>
       </c>
@@ -7019,23 +7378,27 @@
       <c r="J91" t="s">
         <v>532</v>
       </c>
-      <c r="K91" t="s">
-        <v>24</v>
+      <c r="K91" t="str">
+        <f t="shared" si="1"/>
+        <v>21978753731</v>
       </c>
       <c r="L91" t="s">
-        <v>25</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O91" t="s">
         <v>561</v>
       </c>
-      <c r="O91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>474</v>
       </c>
@@ -7066,23 +7429,27 @@
       <c r="J92" t="s">
         <v>534</v>
       </c>
-      <c r="K92" t="s">
-        <v>24</v>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>21988854914</v>
       </c>
       <c r="L92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>559</v>
       </c>
-      <c r="O92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>474</v>
       </c>
@@ -7113,23 +7480,27 @@
       <c r="J93" t="s">
         <v>536</v>
       </c>
-      <c r="K93" t="s">
-        <v>24</v>
+      <c r="K93" t="str">
+        <f t="shared" si="1"/>
+        <v>21969169736</v>
       </c>
       <c r="L93" t="s">
-        <v>25</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O93" t="s">
         <v>279</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>474</v>
       </c>
@@ -7160,23 +7531,27 @@
       <c r="J94" t="s">
         <v>538</v>
       </c>
-      <c r="K94" t="s">
-        <v>24</v>
+      <c r="K94" t="str">
+        <f t="shared" si="1"/>
+        <v>21999409926</v>
       </c>
       <c r="L94" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O94" t="s">
         <v>240</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>474</v>
       </c>
@@ -7207,23 +7582,27 @@
       <c r="J95" t="s">
         <v>542</v>
       </c>
-      <c r="K95" t="s">
-        <v>24</v>
+      <c r="K95" t="str">
+        <f t="shared" si="1"/>
+        <v>47999114205</v>
       </c>
       <c r="L95" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N95" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O95" t="s">
         <v>279</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>474</v>
       </c>
@@ -7254,23 +7633,27 @@
       <c r="J96" t="s">
         <v>488</v>
       </c>
-      <c r="K96" t="s">
-        <v>24</v>
+      <c r="K96" t="str">
+        <f t="shared" si="1"/>
+        <v>21996041664</v>
       </c>
       <c r="L96" t="s">
-        <v>25</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N96" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O96" t="s">
         <v>489</v>
       </c>
-      <c r="O96" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>474</v>
       </c>
@@ -7301,23 +7684,27 @@
       <c r="J97" t="s">
         <v>297</v>
       </c>
-      <c r="K97" t="s">
-        <v>24</v>
+      <c r="K97" t="str">
+        <f t="shared" si="1"/>
+        <v>34991623548</v>
       </c>
       <c r="L97" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" t="s">
         <v>46</v>
       </c>
-      <c r="M97" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N97" t="s">
+      <c r="N97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O97" t="s">
         <v>490</v>
       </c>
-      <c r="O97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>474</v>
       </c>
@@ -7348,23 +7735,27 @@
       <c r="J98" t="s">
         <v>493</v>
       </c>
-      <c r="K98" t="s">
-        <v>24</v>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>21996366685</v>
       </c>
       <c r="L98" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>494</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>474</v>
       </c>
@@ -7395,23 +7786,27 @@
       <c r="J99" t="s">
         <v>497</v>
       </c>
-      <c r="K99" t="s">
-        <v>24</v>
+      <c r="K99" t="str">
+        <f t="shared" si="1"/>
+        <v>21979007999</v>
       </c>
       <c r="L99" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>494</v>
       </c>
-      <c r="O99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>474</v>
       </c>
@@ -7442,23 +7837,27 @@
       <c r="J100" t="s">
         <v>499</v>
       </c>
-      <c r="K100" t="s">
-        <v>24</v>
+      <c r="K100" t="str">
+        <f t="shared" si="1"/>
+        <v>21996594949</v>
       </c>
       <c r="L100" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N100" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O100" t="s">
         <v>500</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>474</v>
       </c>
@@ -7489,23 +7888,27 @@
       <c r="J101" t="s">
         <v>503</v>
       </c>
-      <c r="K101" t="s">
-        <v>24</v>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>21989790703</v>
       </c>
       <c r="L101" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" t="s">
         <v>46</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>494</v>
       </c>
-      <c r="O101" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>474</v>
       </c>
@@ -7536,23 +7939,27 @@
       <c r="J102" t="s">
         <v>505</v>
       </c>
-      <c r="K102" t="s">
-        <v>24</v>
+      <c r="K102" t="str">
+        <f t="shared" si="1"/>
+        <v>21999882230</v>
       </c>
       <c r="L102" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N102" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O102" t="s">
         <v>494</v>
       </c>
-      <c r="O102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>474</v>
       </c>
@@ -7583,23 +7990,27 @@
       <c r="J103" t="s">
         <v>508</v>
       </c>
-      <c r="K103" t="s">
-        <v>24</v>
+      <c r="K103" t="str">
+        <f t="shared" si="1"/>
+        <v>21978761508</v>
       </c>
       <c r="L103" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N103" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O103" t="s">
         <v>509</v>
       </c>
-      <c r="O103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -7630,23 +8041,27 @@
       <c r="J104" t="s">
         <v>67</v>
       </c>
-      <c r="K104" t="s">
-        <v>24</v>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>21981834094</v>
       </c>
       <c r="L104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M104" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" t="s">
         <v>27</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -7677,23 +8092,27 @@
       <c r="J105" t="s">
         <v>71</v>
       </c>
-      <c r="K105" t="s">
-        <v>24</v>
+      <c r="K105" t="str">
+        <f t="shared" si="1"/>
+        <v>21969318464</v>
       </c>
       <c r="L105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M105" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" t="s">
         <v>27</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="O105" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -7724,23 +8143,27 @@
       <c r="J106" t="s">
         <v>76</v>
       </c>
-      <c r="K106" t="s">
-        <v>24</v>
+      <c r="K106" t="str">
+        <f t="shared" si="1"/>
+        <v>21996489026</v>
       </c>
       <c r="L106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M106" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" t="s">
         <v>16</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -7771,23 +8194,27 @@
       <c r="J107" t="s">
         <v>79</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" t="str">
+        <f t="shared" si="1"/>
+        <v>21999999999</v>
+      </c>
+      <c r="L107" t="s">
         <v>80</v>
       </c>
-      <c r="L107" t="s">
-        <v>25</v>
-      </c>
       <c r="M107" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" t="s">
         <v>16</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -7818,23 +8245,27 @@
       <c r="J108" t="s">
         <v>23</v>
       </c>
-      <c r="K108" t="s">
-        <v>24</v>
+      <c r="K108" t="str">
+        <f t="shared" si="1"/>
+        <v>21964745378</v>
       </c>
       <c r="L108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M108" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" t="s">
         <v>16</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="O108" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -7865,23 +8296,27 @@
       <c r="J109" t="s">
         <v>32</v>
       </c>
-      <c r="K109" t="s">
-        <v>24</v>
+      <c r="K109" t="str">
+        <f t="shared" si="1"/>
+        <v>21983622717</v>
       </c>
       <c r="L109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M109" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" t="s">
         <v>27</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -7912,23 +8347,27 @@
       <c r="J110" t="s">
         <v>37</v>
       </c>
-      <c r="K110" t="s">
-        <v>24</v>
+      <c r="K110" t="str">
+        <f t="shared" si="1"/>
+        <v>21998637775</v>
       </c>
       <c r="L110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" t="s">
         <v>27</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>348</v>
       </c>
@@ -7959,23 +8398,27 @@
       <c r="J111" t="s">
         <v>456</v>
       </c>
-      <c r="K111" t="s">
-        <v>24</v>
+      <c r="K111" t="str">
+        <f t="shared" si="1"/>
+        <v>21972793865</v>
       </c>
       <c r="L111" t="s">
+        <v>24</v>
+      </c>
+      <c r="M111" t="s">
         <v>457</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>213</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>348</v>
       </c>
@@ -8006,23 +8449,27 @@
       <c r="J112" t="s">
         <v>459</v>
       </c>
-      <c r="K112" t="s">
-        <v>24</v>
+      <c r="K112" t="str">
+        <f t="shared" si="1"/>
+        <v>21997088754</v>
       </c>
       <c r="L112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M112" t="s">
-        <v>58</v>
-      </c>
-      <c r="N112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" t="s">
+        <v>58</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>348</v>
       </c>
@@ -8053,23 +8500,27 @@
       <c r="J113" t="s">
         <v>461</v>
       </c>
-      <c r="K113" t="s">
-        <v>24</v>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>21999332694</v>
       </c>
       <c r="L113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M113" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" t="s">
         <v>213</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="O113" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="O113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>348</v>
       </c>
@@ -8100,23 +8551,27 @@
       <c r="J114" t="s">
         <v>464</v>
       </c>
-      <c r="K114" t="s">
-        <v>24</v>
+      <c r="K114" t="str">
+        <f t="shared" si="1"/>
+        <v>21969746107</v>
       </c>
       <c r="L114" t="s">
+        <v>24</v>
+      </c>
+      <c r="M114" t="s">
         <v>46</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>213</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="O114" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>348</v>
       </c>
@@ -8147,23 +8602,27 @@
       <c r="J115" t="s">
         <v>466</v>
       </c>
-      <c r="K115" t="s">
-        <v>24</v>
+      <c r="K115" t="str">
+        <f t="shared" si="1"/>
+        <v>21994779905</v>
       </c>
       <c r="L115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M115" t="s">
-        <v>58</v>
-      </c>
-      <c r="N115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" t="s">
+        <v>58</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>348</v>
       </c>
@@ -8194,23 +8653,27 @@
       <c r="J116" t="s">
         <v>468</v>
       </c>
-      <c r="K116" t="s">
-        <v>24</v>
+      <c r="K116" t="str">
+        <f t="shared" si="1"/>
+        <v>21981671862</v>
       </c>
       <c r="L116" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" t="s">
         <v>46</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>213</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="O116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -8241,23 +8704,27 @@
       <c r="J117" t="s">
         <v>470</v>
       </c>
-      <c r="K117" t="s">
-        <v>24</v>
+      <c r="K117" t="str">
+        <f t="shared" si="1"/>
+        <v>21970202048</v>
       </c>
       <c r="L117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M117" t="s">
-        <v>58</v>
-      </c>
-      <c r="N117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N117" t="s">
+        <v>58</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="O117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -8288,23 +8755,27 @@
       <c r="J118" t="s">
         <v>473</v>
       </c>
-      <c r="K118" t="s">
-        <v>24</v>
+      <c r="K118" t="str">
+        <f t="shared" si="1"/>
+        <v>21998971786</v>
       </c>
       <c r="L118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M118" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" t="s">
         <v>213</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="O118" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>348</v>
       </c>
@@ -8335,23 +8806,27 @@
       <c r="J119" t="s">
         <v>377</v>
       </c>
-      <c r="K119" t="s">
-        <v>24</v>
+      <c r="K119" t="str">
+        <f t="shared" si="1"/>
+        <v>31996005170</v>
       </c>
       <c r="L119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M119" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" t="s">
         <v>213</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="O119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -8382,23 +8857,27 @@
       <c r="J120" t="s">
         <v>379</v>
       </c>
-      <c r="K120" t="s">
-        <v>24</v>
+      <c r="K120" t="str">
+        <f t="shared" si="1"/>
+        <v>21992504231</v>
       </c>
       <c r="L120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M120" t="s">
-        <v>58</v>
-      </c>
-      <c r="N120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" t="s">
+        <v>58</v>
+      </c>
+      <c r="O120" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="O120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>348</v>
       </c>
@@ -8429,23 +8908,27 @@
       <c r="J121" t="s">
         <v>380</v>
       </c>
-      <c r="K121" t="s">
-        <v>24</v>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>21959081414</v>
       </c>
       <c r="L121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M121" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" t="s">
         <v>213</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="O121" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="O121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>348</v>
       </c>
@@ -8476,23 +8959,27 @@
       <c r="J122" t="s">
         <v>381</v>
       </c>
-      <c r="K122" t="s">
-        <v>24</v>
+      <c r="K122" t="str">
+        <f t="shared" si="1"/>
+        <v>21973521738</v>
       </c>
       <c r="L122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M122" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" t="s">
         <v>213</v>
       </c>
-      <c r="N122" s="1" t="s">
+      <c r="O122" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="O122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -8523,23 +9010,27 @@
       <c r="J123" t="s">
         <v>382</v>
       </c>
-      <c r="K123" t="s">
-        <v>24</v>
+      <c r="K123" t="str">
+        <f t="shared" si="1"/>
+        <v>21995123556</v>
       </c>
       <c r="L123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M123" t="s">
-        <v>58</v>
-      </c>
-      <c r="N123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" t="s">
+        <v>58</v>
+      </c>
+      <c r="O123" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="O123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>348</v>
       </c>
@@ -8570,23 +9061,27 @@
       <c r="J124" t="s">
         <v>384</v>
       </c>
-      <c r="K124" t="s">
-        <v>24</v>
+      <c r="K124" t="str">
+        <f t="shared" si="1"/>
+        <v>21973696505</v>
       </c>
       <c r="L124" t="s">
+        <v>24</v>
+      </c>
+      <c r="M124" t="s">
         <v>46</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>213</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="O124" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="O124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>347</v>
       </c>
@@ -8617,23 +9112,27 @@
       <c r="J125" t="s">
         <v>394</v>
       </c>
-      <c r="K125" t="s">
-        <v>24</v>
+      <c r="K125" t="str">
+        <f t="shared" si="1"/>
+        <v>21970426162</v>
       </c>
       <c r="L125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M125" t="s">
-        <v>58</v>
-      </c>
-      <c r="N125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" t="s">
+        <v>58</v>
+      </c>
+      <c r="O125" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -8664,23 +9163,27 @@
       <c r="J126" t="s">
         <v>396</v>
       </c>
-      <c r="K126" t="s">
-        <v>24</v>
+      <c r="K126" t="str">
+        <f t="shared" si="1"/>
+        <v>21982293307</v>
       </c>
       <c r="L126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M126" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" t="s">
         <v>213</v>
       </c>
-      <c r="N126" s="1" t="s">
+      <c r="O126" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>347</v>
       </c>
@@ -8711,23 +9214,27 @@
       <c r="J127" t="s">
         <v>398</v>
       </c>
-      <c r="K127" t="s">
-        <v>24</v>
+      <c r="K127" t="str">
+        <f t="shared" si="1"/>
+        <v>21996468664</v>
       </c>
       <c r="L127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M127" t="s">
-        <v>58</v>
-      </c>
-      <c r="N127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" t="s">
+        <v>58</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O127" t="s">
+      <c r="P127" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>347</v>
       </c>
@@ -8758,23 +9265,27 @@
       <c r="J128" t="s">
         <v>400</v>
       </c>
-      <c r="K128" t="s">
-        <v>24</v>
+      <c r="K128" t="str">
+        <f t="shared" si="1"/>
+        <v>21967045809</v>
       </c>
       <c r="L128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M128" t="s">
-        <v>58</v>
-      </c>
-      <c r="N128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" t="s">
+        <v>58</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O128" t="s">
+      <c r="P128" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>347</v>
       </c>
@@ -8805,23 +9316,27 @@
       <c r="J129" t="s">
         <v>402</v>
       </c>
-      <c r="K129" t="s">
-        <v>24</v>
+      <c r="K129" t="str">
+        <f t="shared" si="1"/>
+        <v>21972871138</v>
       </c>
       <c r="L129" t="s">
+        <v>24</v>
+      </c>
+      <c r="M129" t="s">
         <v>46</v>
       </c>
-      <c r="M129" t="s">
-        <v>58</v>
-      </c>
-      <c r="N129" s="1" t="s">
+      <c r="N129" t="s">
+        <v>58</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>347</v>
       </c>
@@ -8852,23 +9367,27 @@
       <c r="J130" t="s">
         <v>405</v>
       </c>
-      <c r="K130" t="s">
-        <v>24</v>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
+        <v>21991797001</v>
       </c>
       <c r="L130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M130" t="s">
-        <v>58</v>
-      </c>
-      <c r="N130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" t="s">
+        <v>58</v>
+      </c>
+      <c r="O130" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="O130" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>347</v>
       </c>
@@ -8899,23 +9418,27 @@
       <c r="J131" t="s">
         <v>408</v>
       </c>
-      <c r="K131" t="s">
-        <v>24</v>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K194" si="2">SUBSTITUTE(SUBSTITUTE(J131," ",""),"-","")</f>
+        <v>21964983818</v>
       </c>
       <c r="L131" t="s">
+        <v>24</v>
+      </c>
+      <c r="M131" t="s">
         <v>201</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>333</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>347</v>
       </c>
@@ -8946,23 +9469,27 @@
       <c r="J132" t="s">
         <v>412</v>
       </c>
-      <c r="K132" t="s">
-        <v>24</v>
+      <c r="K132" t="str">
+        <f t="shared" si="2"/>
+        <v>35991341532</v>
       </c>
       <c r="L132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M132" t="s">
-        <v>58</v>
-      </c>
-      <c r="N132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" t="s">
+        <v>58</v>
+      </c>
+      <c r="O132" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>347</v>
       </c>
@@ -8993,23 +9520,27 @@
       <c r="J133" t="s">
         <v>416</v>
       </c>
-      <c r="K133" t="s">
-        <v>24</v>
+      <c r="K133" t="str">
+        <f t="shared" si="2"/>
+        <v>21982881126</v>
       </c>
       <c r="L133" t="s">
+        <v>24</v>
+      </c>
+      <c r="M133" t="s">
         <v>46</v>
       </c>
-      <c r="M133" t="s">
-        <v>58</v>
-      </c>
-      <c r="N133" s="1" t="s">
+      <c r="N133" t="s">
+        <v>58</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="O133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -9040,23 +9571,27 @@
       <c r="J134" t="s">
         <v>418</v>
       </c>
-      <c r="K134" t="s">
-        <v>24</v>
+      <c r="K134" t="str">
+        <f t="shared" si="2"/>
+        <v>21965221293</v>
       </c>
       <c r="L134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M134" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" t="s">
         <v>213</v>
       </c>
-      <c r="N134" s="1" t="s">
+      <c r="O134" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>347</v>
       </c>
@@ -9087,23 +9622,27 @@
       <c r="J135" t="s">
         <v>421</v>
       </c>
-      <c r="K135" t="s">
-        <v>24</v>
+      <c r="K135" t="str">
+        <f t="shared" si="2"/>
+        <v>21999998680</v>
       </c>
       <c r="L135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M135" t="s">
-        <v>58</v>
-      </c>
-      <c r="N135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" t="s">
+        <v>58</v>
+      </c>
+      <c r="O135" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>347</v>
       </c>
@@ -9134,23 +9673,27 @@
       <c r="J136" t="s">
         <v>423</v>
       </c>
-      <c r="K136" t="s">
-        <v>24</v>
+      <c r="K136" t="str">
+        <f t="shared" si="2"/>
+        <v>21977506758</v>
       </c>
       <c r="L136" t="s">
+        <v>24</v>
+      </c>
+      <c r="M136" t="s">
         <v>46</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>213</v>
       </c>
-      <c r="N136" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="O136" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>347</v>
       </c>
@@ -9181,23 +9724,27 @@
       <c r="J137" t="s">
         <v>425</v>
       </c>
-      <c r="K137" t="s">
-        <v>24</v>
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
+        <v>21981026133</v>
       </c>
       <c r="L137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M137" t="s">
-        <v>58</v>
-      </c>
-      <c r="N137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" t="s">
+        <v>58</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>347</v>
       </c>
@@ -9228,23 +9775,27 @@
       <c r="J138" t="s">
         <v>427</v>
       </c>
-      <c r="K138" t="s">
-        <v>24</v>
+      <c r="K138" t="str">
+        <f t="shared" si="2"/>
+        <v>21991980696</v>
       </c>
       <c r="L138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>58</v>
-      </c>
-      <c r="N138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" t="s">
+        <v>58</v>
+      </c>
+      <c r="O138" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="O138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>347</v>
       </c>
@@ -9275,23 +9826,27 @@
       <c r="J139" t="s">
         <v>430</v>
       </c>
-      <c r="K139" t="s">
-        <v>24</v>
+      <c r="K139" t="str">
+        <f t="shared" si="2"/>
+        <v>21964327124</v>
       </c>
       <c r="L139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M139" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" t="s">
         <v>236</v>
       </c>
-      <c r="N139" s="1" t="s">
+      <c r="O139" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="O139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>347</v>
       </c>
@@ -9322,23 +9877,27 @@
       <c r="J140" t="s">
         <v>433</v>
       </c>
-      <c r="K140" t="s">
-        <v>24</v>
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
+        <v>21990517007</v>
       </c>
       <c r="L140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M140" t="s">
-        <v>58</v>
-      </c>
-      <c r="N140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" t="s">
+        <v>58</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="O140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>347</v>
       </c>
@@ -9369,23 +9928,27 @@
       <c r="J141" t="s">
         <v>437</v>
       </c>
-      <c r="K141" t="s">
-        <v>24</v>
+      <c r="K141" t="str">
+        <f t="shared" si="2"/>
+        <v>21967653081</v>
       </c>
       <c r="L141" t="s">
+        <v>24</v>
+      </c>
+      <c r="M141" t="s">
         <v>201</v>
       </c>
-      <c r="M141" t="s">
+      <c r="N141" t="s">
         <v>333</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="O141" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O141" t="s">
+      <c r="P141" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>347</v>
       </c>
@@ -9416,23 +9979,27 @@
       <c r="J142" t="s">
         <v>441</v>
       </c>
-      <c r="K142" t="s">
-        <v>24</v>
+      <c r="K142" t="str">
+        <f t="shared" si="2"/>
+        <v>21992377238</v>
       </c>
       <c r="L142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M142" t="s">
-        <v>58</v>
-      </c>
-      <c r="N142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" t="s">
+        <v>58</v>
+      </c>
+      <c r="O142" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O142" t="s">
+      <c r="P142" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>347</v>
       </c>
@@ -9463,23 +10030,27 @@
       <c r="J143" t="s">
         <v>444</v>
       </c>
-      <c r="K143" t="s">
-        <v>24</v>
+      <c r="K143" t="str">
+        <f t="shared" si="2"/>
+        <v>21967630838</v>
       </c>
       <c r="L143" t="s">
+        <v>24</v>
+      </c>
+      <c r="M143" t="s">
         <v>445</v>
       </c>
-      <c r="M143" t="s">
-        <v>58</v>
-      </c>
-      <c r="N143" s="1" t="s">
+      <c r="N143" t="s">
+        <v>58</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O143" t="s">
+      <c r="P143" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>347</v>
       </c>
@@ -9510,23 +10081,27 @@
       <c r="J144" t="s">
         <v>447</v>
       </c>
-      <c r="K144" t="s">
-        <v>24</v>
+      <c r="K144" t="str">
+        <f t="shared" si="2"/>
+        <v>21999973781</v>
       </c>
       <c r="L144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M144" t="s">
-        <v>58</v>
-      </c>
-      <c r="N144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" t="s">
+        <v>58</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>347</v>
       </c>
@@ -9557,23 +10132,27 @@
       <c r="J145" t="s">
         <v>449</v>
       </c>
-      <c r="K145" t="s">
-        <v>24</v>
+      <c r="K145" t="str">
+        <f t="shared" si="2"/>
+        <v>22998003680</v>
       </c>
       <c r="L145" t="s">
+        <v>24</v>
+      </c>
+      <c r="M145" t="s">
         <v>450</v>
       </c>
-      <c r="M145" t="s">
-        <v>58</v>
-      </c>
-      <c r="N145" s="1" t="s">
+      <c r="N145" t="s">
+        <v>58</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="O145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>347</v>
       </c>
@@ -9604,23 +10183,27 @@
       <c r="J146" t="s">
         <v>452</v>
       </c>
-      <c r="K146" t="s">
-        <v>24</v>
+      <c r="K146" t="str">
+        <f t="shared" si="2"/>
+        <v>21980804917</v>
       </c>
       <c r="L146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M146" t="s">
+        <v>25</v>
+      </c>
+      <c r="N146" t="s">
         <v>236</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="O146" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O146" t="s">
+      <c r="P146" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>347</v>
       </c>
@@ -9651,23 +10234,27 @@
       <c r="J147" t="s">
         <v>454</v>
       </c>
-      <c r="K147" t="s">
-        <v>24</v>
+      <c r="K147" t="str">
+        <f t="shared" si="2"/>
+        <v>21981397330</v>
       </c>
       <c r="L147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M147" t="s">
+        <v>25</v>
+      </c>
+      <c r="N147" t="s">
         <v>213</v>
       </c>
-      <c r="N147" s="1" t="s">
+      <c r="O147" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O147" t="s">
+      <c r="P147" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -9698,23 +10285,27 @@
       <c r="J148" t="s">
         <v>365</v>
       </c>
-      <c r="K148" t="s">
-        <v>24</v>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>21964672773</v>
       </c>
       <c r="L148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M148" t="s">
-        <v>58</v>
-      </c>
-      <c r="N148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" t="s">
+        <v>58</v>
+      </c>
+      <c r="O148" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>347</v>
       </c>
@@ -9745,23 +10336,27 @@
       <c r="J149" t="s">
         <v>367</v>
       </c>
-      <c r="K149" t="s">
-        <v>24</v>
+      <c r="K149" t="str">
+        <f t="shared" si="2"/>
+        <v>21981951809</v>
       </c>
       <c r="L149" t="s">
+        <v>24</v>
+      </c>
+      <c r="M149" t="s">
         <v>46</v>
       </c>
-      <c r="M149" t="s">
-        <v>58</v>
-      </c>
-      <c r="N149" s="1" t="s">
+      <c r="N149" t="s">
+        <v>58</v>
+      </c>
+      <c r="O149" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>347</v>
       </c>
@@ -9792,23 +10387,27 @@
       <c r="J150" t="s">
         <v>368</v>
       </c>
-      <c r="K150" t="s">
-        <v>24</v>
+      <c r="K150" t="str">
+        <f t="shared" si="2"/>
+        <v>21981640352</v>
       </c>
       <c r="L150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M150" t="s">
-        <v>58</v>
-      </c>
-      <c r="N150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N150" t="s">
+        <v>58</v>
+      </c>
+      <c r="O150" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="O150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>347</v>
       </c>
@@ -9839,23 +10438,27 @@
       <c r="J151" t="s">
         <v>370</v>
       </c>
-      <c r="K151" t="s">
-        <v>24</v>
+      <c r="K151" t="str">
+        <f t="shared" si="2"/>
+        <v>21966580976</v>
       </c>
       <c r="L151" t="s">
+        <v>24</v>
+      </c>
+      <c r="M151" t="s">
         <v>46</v>
       </c>
-      <c r="M151" t="s">
-        <v>58</v>
-      </c>
-      <c r="N151" s="1" t="s">
+      <c r="N151" t="s">
+        <v>58</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="O151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>347</v>
       </c>
@@ -9886,23 +10489,27 @@
       <c r="J152" t="s">
         <v>372</v>
       </c>
-      <c r="K152" t="s">
-        <v>24</v>
+      <c r="K152" t="str">
+        <f t="shared" si="2"/>
+        <v>21978730719</v>
       </c>
       <c r="L152" t="s">
+        <v>24</v>
+      </c>
+      <c r="M152" t="s">
         <v>46</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>213</v>
       </c>
-      <c r="N152" s="1" t="s">
+      <c r="O152" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="O152" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>347</v>
       </c>
@@ -9933,23 +10540,27 @@
       <c r="J153" t="s">
         <v>375</v>
       </c>
-      <c r="K153" t="s">
-        <v>24</v>
+      <c r="K153" t="str">
+        <f t="shared" si="2"/>
+        <v>21972504494</v>
       </c>
       <c r="L153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M153" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" t="s">
         <v>236</v>
       </c>
-      <c r="N153" s="1" t="s">
+      <c r="O153" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>347</v>
       </c>
@@ -9980,23 +10591,27 @@
       <c r="J154" t="s">
         <v>376</v>
       </c>
-      <c r="K154" t="s">
-        <v>24</v>
+      <c r="K154" t="str">
+        <f t="shared" si="2"/>
+        <v>21999550838</v>
       </c>
       <c r="L154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M154" t="s">
-        <v>58</v>
-      </c>
-      <c r="N154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N154" t="s">
+        <v>58</v>
+      </c>
+      <c r="O154" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>346</v>
       </c>
@@ -10027,23 +10642,27 @@
       <c r="J155" t="s">
         <v>387</v>
       </c>
-      <c r="K155" t="s">
-        <v>24</v>
+      <c r="K155" t="str">
+        <f t="shared" si="2"/>
+        <v>21993618589</v>
       </c>
       <c r="L155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M155" t="s">
-        <v>58</v>
-      </c>
-      <c r="N155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" t="s">
+        <v>58</v>
+      </c>
+      <c r="O155" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="O155" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>346</v>
       </c>
@@ -10074,23 +10693,27 @@
       <c r="J156" t="s">
         <v>391</v>
       </c>
-      <c r="K156" t="s">
-        <v>24</v>
+      <c r="K156" t="str">
+        <f t="shared" si="2"/>
+        <v>21970357610</v>
       </c>
       <c r="L156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M156" t="s">
+        <v>25</v>
+      </c>
+      <c r="N156" t="s">
         <v>213</v>
       </c>
-      <c r="N156" s="1" t="s">
+      <c r="O156" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O156" t="s">
+      <c r="P156" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>346</v>
       </c>
@@ -10121,23 +10744,27 @@
       <c r="J157" t="s">
         <v>363</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" t="str">
+        <f t="shared" si="2"/>
+        <v>21988657616</v>
+      </c>
+      <c r="L157" t="s">
         <v>80</v>
       </c>
-      <c r="L157" t="s">
-        <v>25</v>
-      </c>
       <c r="M157" t="s">
-        <v>58</v>
-      </c>
-      <c r="N157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" t="s">
+        <v>58</v>
+      </c>
+      <c r="O157" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="O157" t="s">
+      <c r="P157" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>565</v>
       </c>
@@ -10168,23 +10795,27 @@
       <c r="J158" t="s">
         <v>567</v>
       </c>
-      <c r="K158" t="s">
-        <v>24</v>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>22997797941</v>
       </c>
       <c r="L158" t="s">
-        <v>25</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N158" t="s">
+        <v>24</v>
+      </c>
+      <c r="M158" t="s">
+        <v>25</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O158" t="s">
         <v>568</v>
       </c>
-      <c r="O158" t="s">
+      <c r="P158" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -10215,23 +10846,27 @@
       <c r="J159" t="s">
         <v>571</v>
       </c>
-      <c r="K159" t="s">
-        <v>24</v>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>85999586901</v>
       </c>
       <c r="L159" t="s">
-        <v>25</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N159" t="s">
+        <v>24</v>
+      </c>
+      <c r="M159" t="s">
+        <v>25</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O159" t="s">
         <v>568</v>
       </c>
-      <c r="O159" t="s">
+      <c r="P159" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>565</v>
       </c>
@@ -10262,23 +10897,27 @@
       <c r="J160" t="s">
         <v>574</v>
       </c>
-      <c r="K160" t="s">
-        <v>24</v>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>21976956459</v>
       </c>
       <c r="L160" t="s">
+        <v>24</v>
+      </c>
+      <c r="M160" t="s">
         <v>46</v>
       </c>
-      <c r="M160" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N160" t="s">
+      <c r="N160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O160" t="s">
         <v>568</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>565</v>
       </c>
@@ -10309,23 +10948,27 @@
       <c r="J161" t="s">
         <v>576</v>
       </c>
-      <c r="K161" t="s">
-        <v>24</v>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>21920077364</v>
       </c>
       <c r="L161" t="s">
-        <v>25</v>
-      </c>
-      <c r="M161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M161" t="s">
+        <v>25</v>
+      </c>
+      <c r="N161" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N161" t="s">
+      <c r="O161" t="s">
         <v>568</v>
       </c>
-      <c r="O161" t="s">
+      <c r="P161" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>565</v>
       </c>
@@ -10356,23 +10999,27 @@
       <c r="J162" t="s">
         <v>579</v>
       </c>
-      <c r="K162" t="s">
-        <v>24</v>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>21979046713</v>
       </c>
       <c r="L162" t="s">
-        <v>25</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N162" t="s">
+        <v>24</v>
+      </c>
+      <c r="M162" t="s">
+        <v>25</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O162" t="s">
         <v>568</v>
       </c>
-      <c r="O162" t="s">
+      <c r="P162" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>565</v>
       </c>
@@ -10403,23 +11050,27 @@
       <c r="J163" t="s">
         <v>581</v>
       </c>
-      <c r="K163" t="s">
-        <v>24</v>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>21974195857</v>
       </c>
       <c r="L163" t="s">
+        <v>24</v>
+      </c>
+      <c r="M163" t="s">
         <v>148</v>
       </c>
-      <c r="M163" s="1" t="s">
+      <c r="N163" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N163" t="s">
+      <c r="O163" t="s">
         <v>568</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>565</v>
       </c>
@@ -10450,23 +11101,27 @@
       <c r="J164" t="s">
         <v>584</v>
       </c>
-      <c r="K164" t="s">
-        <v>24</v>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>21980528315</v>
       </c>
       <c r="L164" t="s">
-        <v>25</v>
-      </c>
-      <c r="M164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M164" t="s">
+        <v>25</v>
+      </c>
+      <c r="N164" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N164" t="s">
+      <c r="O164" t="s">
         <v>585</v>
       </c>
-      <c r="O164" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>565</v>
       </c>
@@ -10497,23 +11152,27 @@
       <c r="J165" t="s">
         <v>587</v>
       </c>
-      <c r="K165" t="s">
-        <v>24</v>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>21984720657</v>
       </c>
       <c r="L165" t="s">
-        <v>25</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N165" t="s">
+        <v>24</v>
+      </c>
+      <c r="M165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O165" t="s">
         <v>588</v>
       </c>
-      <c r="O165" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>589</v>
       </c>
@@ -10544,23 +11203,27 @@
       <c r="J166" t="s">
         <v>592</v>
       </c>
-      <c r="K166" t="s">
-        <v>24</v>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>21959491280</v>
       </c>
       <c r="L166" t="s">
-        <v>25</v>
-      </c>
-      <c r="M166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M166" t="s">
+        <v>25</v>
+      </c>
+      <c r="N166" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N166" t="s">
+      <c r="O166" t="s">
         <v>593</v>
       </c>
-      <c r="O166" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>589</v>
       </c>
@@ -10591,23 +11254,27 @@
       <c r="J167" t="s">
         <v>595</v>
       </c>
-      <c r="K167" t="s">
-        <v>24</v>
+      <c r="K167" t="str">
+        <f t="shared" si="2"/>
+        <v>21992333476</v>
       </c>
       <c r="L167" t="s">
-        <v>25</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N167" t="s">
+        <v>24</v>
+      </c>
+      <c r="M167" t="s">
+        <v>25</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O167" t="s">
         <v>596</v>
       </c>
-      <c r="O167" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>589</v>
       </c>
@@ -10638,23 +11305,27 @@
       <c r="J168" t="s">
         <v>598</v>
       </c>
-      <c r="K168" t="s">
-        <v>24</v>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>21219818383</v>
       </c>
       <c r="L168" t="s">
-        <v>25</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N168" t="s">
+        <v>24</v>
+      </c>
+      <c r="M168" t="s">
+        <v>25</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O168" t="s">
         <v>599</v>
       </c>
-      <c r="O168" t="s">
+      <c r="P168" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>589</v>
       </c>
@@ -10685,23 +11356,27 @@
       <c r="J169" t="s">
         <v>601</v>
       </c>
-      <c r="K169" t="s">
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>21329992066</v>
+      </c>
+      <c r="L169" t="s">
         <v>80</v>
       </c>
-      <c r="L169" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N169" t="s">
+      <c r="M169" t="s">
+        <v>25</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O169" t="s">
         <v>602</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>589</v>
       </c>
@@ -10732,23 +11407,27 @@
       <c r="J170" t="s">
         <v>604</v>
       </c>
-      <c r="K170" t="s">
-        <v>24</v>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>21983869132</v>
       </c>
       <c r="L170" t="s">
-        <v>25</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N170" t="s">
+        <v>24</v>
+      </c>
+      <c r="M170" t="s">
+        <v>25</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O170" t="s">
         <v>605</v>
       </c>
-      <c r="O170" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>606</v>
       </c>
@@ -10779,23 +11458,27 @@
       <c r="J171" t="s">
         <v>609</v>
       </c>
-      <c r="K171" t="s">
-        <v>24</v>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>21965522770</v>
       </c>
       <c r="L171" t="s">
-        <v>25</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N171" t="s">
+        <v>24</v>
+      </c>
+      <c r="M171" t="s">
+        <v>25</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O171" t="s">
         <v>610</v>
       </c>
-      <c r="O171" t="s">
+      <c r="P171" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>606</v>
       </c>
@@ -10826,23 +11509,27 @@
       <c r="J172" t="s">
         <v>612</v>
       </c>
-      <c r="K172" t="s">
-        <v>24</v>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>21996486192</v>
       </c>
       <c r="L172" t="s">
-        <v>25</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N172" t="s">
+        <v>24</v>
+      </c>
+      <c r="M172" t="s">
+        <v>25</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O172" t="s">
         <v>610</v>
       </c>
-      <c r="O172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>606</v>
       </c>
@@ -10873,23 +11560,27 @@
       <c r="J173" t="s">
         <v>614</v>
       </c>
-      <c r="K173" t="s">
-        <v>24</v>
+      <c r="K173" t="str">
+        <f t="shared" si="2"/>
+        <v>21982526695</v>
       </c>
       <c r="L173" t="s">
-        <v>25</v>
-      </c>
-      <c r="M173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M173" t="s">
+        <v>25</v>
+      </c>
+      <c r="N173" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N173" t="s">
+      <c r="O173" t="s">
         <v>610</v>
       </c>
-      <c r="O173" t="s">
+      <c r="P173" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>606</v>
       </c>
@@ -10920,23 +11611,27 @@
       <c r="J174" t="s">
         <v>616</v>
       </c>
-      <c r="K174" t="s">
-        <v>24</v>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>21981604782</v>
       </c>
       <c r="L174" t="s">
-        <v>25</v>
-      </c>
-      <c r="M174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M174" t="s">
+        <v>25</v>
+      </c>
+      <c r="N174" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N174" t="s">
+      <c r="O174" t="s">
         <v>610</v>
       </c>
-      <c r="O174" t="s">
+      <c r="P174" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>606</v>
       </c>
@@ -10967,23 +11662,27 @@
       <c r="J175" t="s">
         <v>619</v>
       </c>
-      <c r="K175" t="s">
-        <v>24</v>
+      <c r="K175" t="str">
+        <f t="shared" si="2"/>
+        <v>21979978568</v>
       </c>
       <c r="L175" t="s">
-        <v>25</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N175" t="s">
+        <v>24</v>
+      </c>
+      <c r="M175" t="s">
+        <v>25</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O175" t="s">
         <v>620</v>
       </c>
-      <c r="O175" t="s">
+      <c r="P175" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>606</v>
       </c>
@@ -11014,23 +11713,27 @@
       <c r="J176" t="s">
         <v>622</v>
       </c>
-      <c r="K176" t="s">
-        <v>24</v>
+      <c r="K176" t="str">
+        <f t="shared" si="2"/>
+        <v>37991082199</v>
       </c>
       <c r="L176" t="s">
-        <v>25</v>
-      </c>
-      <c r="M176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M176" t="s">
+        <v>25</v>
+      </c>
+      <c r="N176" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N176" t="s">
+      <c r="O176" t="s">
         <v>610</v>
       </c>
-      <c r="O176" t="s">
+      <c r="P176" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>606</v>
       </c>
@@ -11061,23 +11764,27 @@
       <c r="J177" t="s">
         <v>624</v>
       </c>
-      <c r="K177" t="s">
-        <v>24</v>
+      <c r="K177" t="str">
+        <f t="shared" si="2"/>
+        <v>27998034254</v>
       </c>
       <c r="L177" t="s">
-        <v>25</v>
-      </c>
-      <c r="M177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M177" t="s">
+        <v>25</v>
+      </c>
+      <c r="N177" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N177" t="s">
+      <c r="O177" t="s">
         <v>625</v>
       </c>
-      <c r="O177" t="s">
+      <c r="P177" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>626</v>
       </c>
@@ -11108,23 +11815,27 @@
       <c r="J178" t="s">
         <v>631</v>
       </c>
-      <c r="K178" t="s">
-        <v>24</v>
+      <c r="K178" t="str">
+        <f t="shared" si="2"/>
+        <v>21968804171</v>
       </c>
       <c r="L178" t="s">
-        <v>25</v>
-      </c>
-      <c r="M178" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N178" t="s">
+        <v>24</v>
+      </c>
+      <c r="M178" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O178" t="s">
         <v>632</v>
       </c>
-      <c r="O178" t="s">
+      <c r="P178" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>626</v>
       </c>
@@ -11155,23 +11866,27 @@
       <c r="J179" t="s">
         <v>634</v>
       </c>
-      <c r="K179" t="s">
-        <v>24</v>
+      <c r="K179" t="str">
+        <f t="shared" si="2"/>
+        <v>21967259650</v>
       </c>
       <c r="L179" t="s">
-        <v>25</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N179" t="s">
+        <v>24</v>
+      </c>
+      <c r="M179" t="s">
+        <v>25</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O179" t="s">
         <v>635</v>
       </c>
-      <c r="O179" t="s">
+      <c r="P179" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>626</v>
       </c>
@@ -11202,23 +11917,27 @@
       <c r="J180" t="s">
         <v>637</v>
       </c>
-      <c r="K180" t="s">
-        <v>24</v>
+      <c r="K180" t="str">
+        <f t="shared" si="2"/>
+        <v>21973065173</v>
       </c>
       <c r="L180" t="s">
+        <v>24</v>
+      </c>
+      <c r="M180" t="s">
         <v>445</v>
       </c>
-      <c r="M180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N180" t="s">
+      <c r="O180" t="s">
         <v>610</v>
       </c>
-      <c r="O180" t="s">
+      <c r="P180" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>626</v>
       </c>
@@ -11249,23 +11968,27 @@
       <c r="J181" t="s">
         <v>640</v>
       </c>
-      <c r="K181" t="s">
-        <v>24</v>
+      <c r="K181" t="str">
+        <f t="shared" si="2"/>
+        <v>21989050813</v>
       </c>
       <c r="L181" t="s">
-        <v>25</v>
-      </c>
-      <c r="M181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M181" t="s">
+        <v>25</v>
+      </c>
+      <c r="N181" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N181" t="s">
+      <c r="O181" t="s">
         <v>610</v>
       </c>
-      <c r="O181" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>565</v>
       </c>
@@ -11296,23 +12019,27 @@
       <c r="J182" t="s">
         <v>642</v>
       </c>
-      <c r="K182" t="s">
-        <v>24</v>
+      <c r="K182" t="str">
+        <f t="shared" si="2"/>
+        <v>21973018198</v>
       </c>
       <c r="L182" t="s">
+        <v>24</v>
+      </c>
+      <c r="M182" t="s">
         <v>46</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N182" t="s">
+      <c r="O182" t="s">
         <v>643</v>
       </c>
-      <c r="O182" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>565</v>
       </c>
@@ -11343,23 +12070,27 @@
       <c r="J183" t="s">
         <v>647</v>
       </c>
-      <c r="K183" t="s">
-        <v>24</v>
+      <c r="K183" t="str">
+        <f t="shared" si="2"/>
+        <v>21980018608</v>
       </c>
       <c r="L183" t="s">
-        <v>25</v>
-      </c>
-      <c r="M183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M183" t="s">
+        <v>25</v>
+      </c>
+      <c r="N183" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>648</v>
       </c>
-      <c r="O183" t="s">
+      <c r="P183" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>565</v>
       </c>
@@ -11390,23 +12121,27 @@
       <c r="J184" t="s">
         <v>650</v>
       </c>
-      <c r="K184" t="s">
-        <v>24</v>
+      <c r="K184" t="str">
+        <f t="shared" si="2"/>
+        <v>21981677603</v>
       </c>
       <c r="L184" t="s">
-        <v>25</v>
-      </c>
-      <c r="M184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M184" t="s">
+        <v>25</v>
+      </c>
+      <c r="N184" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N184" t="s">
+      <c r="O184" t="s">
         <v>651</v>
       </c>
-      <c r="O184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>565</v>
       </c>
@@ -11437,23 +12172,27 @@
       <c r="J185" t="s">
         <v>653</v>
       </c>
-      <c r="K185" t="s">
-        <v>24</v>
+      <c r="K185" t="str">
+        <f t="shared" si="2"/>
+        <v>21991057547</v>
       </c>
       <c r="L185" t="s">
-        <v>25</v>
-      </c>
-      <c r="M185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M185" t="s">
+        <v>25</v>
+      </c>
+      <c r="N185" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N185" t="s">
+      <c r="O185" t="s">
         <v>654</v>
       </c>
-      <c r="O185" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>565</v>
       </c>
@@ -11484,23 +12223,27 @@
       <c r="J186" t="s">
         <v>657</v>
       </c>
-      <c r="K186" t="s">
-        <v>24</v>
+      <c r="K186" t="str">
+        <f t="shared" si="2"/>
+        <v>21979843925</v>
       </c>
       <c r="L186" t="s">
-        <v>25</v>
-      </c>
-      <c r="M186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M186" t="s">
+        <v>25</v>
+      </c>
+      <c r="N186" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N186" t="s">
+      <c r="O186" t="s">
         <v>651</v>
       </c>
-      <c r="O186" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>565</v>
       </c>
@@ -11531,23 +12274,27 @@
       <c r="J187" t="s">
         <v>660</v>
       </c>
-      <c r="K187" t="s">
-        <v>24</v>
+      <c r="K187" t="str">
+        <f t="shared" si="2"/>
+        <v>21969809940</v>
       </c>
       <c r="L187" t="s">
+        <v>24</v>
+      </c>
+      <c r="M187" t="s">
         <v>46</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N187" t="s">
+      <c r="O187" t="s">
         <v>661</v>
       </c>
-      <c r="O187" t="s">
+      <c r="P187" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>565</v>
       </c>
@@ -11578,23 +12325,27 @@
       <c r="J188" t="s">
         <v>663</v>
       </c>
-      <c r="K188" t="s">
-        <v>24</v>
+      <c r="K188" t="str">
+        <f t="shared" si="2"/>
+        <v>21999455548</v>
       </c>
       <c r="L188" t="s">
+        <v>24</v>
+      </c>
+      <c r="M188" t="s">
         <v>201</v>
       </c>
-      <c r="M188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N188" t="s">
+      <c r="O188" t="s">
         <v>661</v>
       </c>
-      <c r="O188" t="s">
+      <c r="P188" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>565</v>
       </c>
@@ -11625,23 +12376,27 @@
       <c r="J189" t="s">
         <v>666</v>
       </c>
-      <c r="K189" t="s">
-        <v>24</v>
+      <c r="K189" t="str">
+        <f t="shared" si="2"/>
+        <v>21965590610</v>
       </c>
       <c r="L189" t="s">
-        <v>25</v>
-      </c>
-      <c r="M189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M189" t="s">
+        <v>25</v>
+      </c>
+      <c r="N189" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N189" t="s">
+      <c r="O189" t="s">
         <v>661</v>
       </c>
-      <c r="O189" t="s">
+      <c r="P189" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>565</v>
       </c>
@@ -11672,23 +12427,27 @@
       <c r="J190" t="s">
         <v>668</v>
       </c>
-      <c r="K190" t="s">
-        <v>24</v>
+      <c r="K190" t="str">
+        <f t="shared" si="2"/>
+        <v>28999861650</v>
       </c>
       <c r="L190" t="s">
-        <v>25</v>
-      </c>
-      <c r="M190" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N190" t="s">
+        <v>24</v>
+      </c>
+      <c r="M190" t="s">
+        <v>25</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O190" t="s">
         <v>661</v>
       </c>
-      <c r="O190" t="s">
+      <c r="P190" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>565</v>
       </c>
@@ -11719,23 +12478,27 @@
       <c r="J191" t="s">
         <v>670</v>
       </c>
-      <c r="K191" t="s">
-        <v>24</v>
+      <c r="K191" t="str">
+        <f t="shared" si="2"/>
+        <v>21984912875</v>
       </c>
       <c r="L191" t="s">
+        <v>24</v>
+      </c>
+      <c r="M191" t="s">
         <v>46</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N191" t="s">
+      <c r="O191" t="s">
         <v>661</v>
       </c>
-      <c r="O191" t="s">
+      <c r="P191" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>565</v>
       </c>
@@ -11766,23 +12529,27 @@
       <c r="J192" t="s">
         <v>672</v>
       </c>
-      <c r="K192" t="s">
-        <v>24</v>
+      <c r="K192" t="str">
+        <f t="shared" si="2"/>
+        <v>21999296916</v>
       </c>
       <c r="L192" t="s">
-        <v>25</v>
-      </c>
-      <c r="M192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M192" t="s">
+        <v>25</v>
+      </c>
+      <c r="N192" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N192" t="s">
+      <c r="O192" t="s">
         <v>673</v>
       </c>
-      <c r="O192" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>565</v>
       </c>
@@ -11813,23 +12580,27 @@
       <c r="J193" t="s">
         <v>676</v>
       </c>
-      <c r="K193" t="s">
-        <v>24</v>
+      <c r="K193" t="str">
+        <f t="shared" si="2"/>
+        <v>21975496257</v>
       </c>
       <c r="L193" t="s">
+        <v>24</v>
+      </c>
+      <c r="M193" t="s">
         <v>46</v>
       </c>
-      <c r="M193" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N193" t="s">
+      <c r="N193" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O193" t="s">
         <v>677</v>
       </c>
-      <c r="O193" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>565</v>
       </c>
@@ -11860,23 +12631,27 @@
       <c r="J194" t="s">
         <v>680</v>
       </c>
-      <c r="K194" t="s">
-        <v>24</v>
+      <c r="K194" t="str">
+        <f t="shared" si="2"/>
+        <v>21983103333</v>
       </c>
       <c r="L194" t="s">
+        <v>24</v>
+      </c>
+      <c r="M194" t="s">
         <v>457</v>
       </c>
-      <c r="M194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N194" t="s">
+      <c r="O194" t="s">
         <v>681</v>
       </c>
-      <c r="O194" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>565</v>
       </c>
@@ -11907,23 +12682,27 @@
       <c r="J195" t="s">
         <v>684</v>
       </c>
-      <c r="K195" t="s">
-        <v>24</v>
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K219" si="3">SUBSTITUTE(SUBSTITUTE(J195," ",""),"-","")</f>
+        <v>24988627531</v>
       </c>
       <c r="L195" t="s">
+        <v>24</v>
+      </c>
+      <c r="M195" t="s">
         <v>46</v>
       </c>
-      <c r="M195" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N195" t="s">
+      <c r="N195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O195" t="s">
         <v>685</v>
       </c>
-      <c r="O195" t="s">
+      <c r="P195" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>565</v>
       </c>
@@ -11954,23 +12733,27 @@
       <c r="J196" t="s">
         <v>687</v>
       </c>
-      <c r="K196" t="s">
-        <v>24</v>
+      <c r="K196" t="str">
+        <f t="shared" si="3"/>
+        <v>21975253428</v>
       </c>
       <c r="L196" t="s">
-        <v>25</v>
-      </c>
-      <c r="M196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M196" t="s">
+        <v>25</v>
+      </c>
+      <c r="N196" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N196" t="s">
+      <c r="O196" t="s">
         <v>688</v>
       </c>
-      <c r="O196" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>565</v>
       </c>
@@ -12001,23 +12784,27 @@
       <c r="J197" t="s">
         <v>692</v>
       </c>
-      <c r="K197" t="s">
-        <v>24</v>
+      <c r="K197" t="str">
+        <f t="shared" si="3"/>
+        <v>21985068576</v>
       </c>
       <c r="L197" t="s">
+        <v>24</v>
+      </c>
+      <c r="M197" t="s">
         <v>46</v>
       </c>
-      <c r="M197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N197" t="s">
+      <c r="O197" t="s">
         <v>693</v>
       </c>
-      <c r="O197" t="s">
+      <c r="P197" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>565</v>
       </c>
@@ -12048,23 +12835,27 @@
       <c r="J198" t="s">
         <v>695</v>
       </c>
-      <c r="K198" t="s">
-        <v>24</v>
+      <c r="K198" t="str">
+        <f t="shared" si="3"/>
+        <v>11953759035</v>
       </c>
       <c r="L198" t="s">
-        <v>25</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N198" t="s">
+        <v>24</v>
+      </c>
+      <c r="M198" t="s">
+        <v>25</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O198" t="s">
         <v>693</v>
       </c>
-      <c r="O198" t="s">
+      <c r="P198" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>565</v>
       </c>
@@ -12095,23 +12886,27 @@
       <c r="J199" t="s">
         <v>697</v>
       </c>
-      <c r="K199" t="s">
-        <v>24</v>
+      <c r="K199" t="str">
+        <f t="shared" si="3"/>
+        <v>21996277834</v>
       </c>
       <c r="L199" t="s">
-        <v>25</v>
-      </c>
-      <c r="M199" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N199" t="s">
+        <v>24</v>
+      </c>
+      <c r="M199" t="s">
+        <v>25</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O199" t="s">
         <v>698</v>
       </c>
-      <c r="O199" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>565</v>
       </c>
@@ -12142,23 +12937,27 @@
       <c r="J200" t="s">
         <v>702</v>
       </c>
-      <c r="K200" t="s">
-        <v>24</v>
+      <c r="K200" t="str">
+        <f t="shared" si="3"/>
+        <v>31993910889</v>
       </c>
       <c r="L200" t="s">
-        <v>25</v>
-      </c>
-      <c r="M200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M200" t="s">
+        <v>25</v>
+      </c>
+      <c r="N200" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N200" t="s">
+      <c r="O200" t="s">
         <v>703</v>
       </c>
-      <c r="O200" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>565</v>
       </c>
@@ -12186,23 +12985,27 @@
       <c r="J201" t="s">
         <v>706</v>
       </c>
-      <c r="K201" t="s">
-        <v>24</v>
+      <c r="K201" t="str">
+        <f t="shared" si="3"/>
+        <v>21991145978</v>
       </c>
       <c r="L201" t="s">
+        <v>24</v>
+      </c>
+      <c r="M201" t="s">
         <v>148</v>
       </c>
-      <c r="M201" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N201" t="s">
+      <c r="N201" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O201" t="s">
         <v>707</v>
       </c>
-      <c r="O201" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>565</v>
       </c>
@@ -12233,23 +13036,27 @@
       <c r="J202" t="s">
         <v>709</v>
       </c>
-      <c r="K202" t="s">
-        <v>24</v>
+      <c r="K202" t="str">
+        <f t="shared" si="3"/>
+        <v>21974459927</v>
       </c>
       <c r="L202" t="s">
-        <v>25</v>
-      </c>
-      <c r="M202" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N202" t="s">
+        <v>24</v>
+      </c>
+      <c r="M202" t="s">
+        <v>25</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O202" t="s">
         <v>710</v>
       </c>
-      <c r="O202" t="s">
+      <c r="P202" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>565</v>
       </c>
@@ -12280,23 +13087,27 @@
       <c r="J203" t="s">
         <v>712</v>
       </c>
-      <c r="K203" t="s">
-        <v>24</v>
+      <c r="K203" t="str">
+        <f t="shared" si="3"/>
+        <v>21967061111</v>
       </c>
       <c r="L203" t="s">
-        <v>25</v>
-      </c>
-      <c r="M203" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N203" t="s">
+        <v>24</v>
+      </c>
+      <c r="M203" t="s">
+        <v>25</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O203" t="s">
         <v>710</v>
       </c>
-      <c r="O203" t="s">
+      <c r="P203" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>565</v>
       </c>
@@ -12327,23 +13138,27 @@
       <c r="J204" t="s">
         <v>714</v>
       </c>
-      <c r="K204" t="s">
-        <v>24</v>
+      <c r="K204" t="str">
+        <f t="shared" si="3"/>
+        <v>21986202503</v>
       </c>
       <c r="L204" t="s">
-        <v>25</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N204" t="s">
+        <v>24</v>
+      </c>
+      <c r="M204" t="s">
+        <v>25</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O204" t="s">
         <v>715</v>
       </c>
-      <c r="O204" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>565</v>
       </c>
@@ -12374,23 +13189,27 @@
       <c r="J205" t="s">
         <v>718</v>
       </c>
-      <c r="K205" t="s">
-        <v>24</v>
+      <c r="K205" t="str">
+        <f t="shared" si="3"/>
+        <v>21981983214</v>
       </c>
       <c r="L205" t="s">
-        <v>25</v>
-      </c>
-      <c r="M205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M205" t="s">
+        <v>25</v>
+      </c>
+      <c r="N205" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N205" t="s">
+      <c r="O205" t="s">
         <v>719</v>
       </c>
-      <c r="O205" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>565</v>
       </c>
@@ -12421,23 +13240,27 @@
       <c r="J206" t="s">
         <v>721</v>
       </c>
-      <c r="K206" t="s">
-        <v>24</v>
+      <c r="K206" t="str">
+        <f t="shared" si="3"/>
+        <v>21972240352</v>
       </c>
       <c r="L206" t="s">
+        <v>24</v>
+      </c>
+      <c r="M206" t="s">
         <v>445</v>
       </c>
-      <c r="M206" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N206" t="s">
+      <c r="N206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O206" t="s">
         <v>722</v>
       </c>
-      <c r="O206" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>589</v>
       </c>
@@ -12468,23 +13291,27 @@
       <c r="J207" t="s">
         <v>725</v>
       </c>
-      <c r="K207" t="s">
-        <v>24</v>
+      <c r="K207" t="str">
+        <f t="shared" si="3"/>
+        <v>21987721266</v>
       </c>
       <c r="L207" t="s">
-        <v>25</v>
-      </c>
-      <c r="M207" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N207" t="s">
+        <v>24</v>
+      </c>
+      <c r="M207" t="s">
+        <v>25</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O207" t="s">
         <v>726</v>
       </c>
-      <c r="O207" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>589</v>
       </c>
@@ -12515,23 +13342,27 @@
       <c r="J208" t="s">
         <v>728</v>
       </c>
-      <c r="K208" t="s">
-        <v>24</v>
+      <c r="K208" t="str">
+        <f t="shared" si="3"/>
+        <v>48999346725</v>
       </c>
       <c r="L208" t="s">
-        <v>25</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N208" t="s">
+        <v>24</v>
+      </c>
+      <c r="M208" t="s">
+        <v>25</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O208" t="s">
         <v>729</v>
       </c>
-      <c r="O208" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>589</v>
       </c>
@@ -12562,23 +13393,27 @@
       <c r="J209" t="s">
         <v>732</v>
       </c>
-      <c r="K209" t="s">
-        <v>24</v>
+      <c r="K209" t="str">
+        <f t="shared" si="3"/>
+        <v>21971797808</v>
       </c>
       <c r="L209" t="s">
-        <v>25</v>
-      </c>
-      <c r="M209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M209" t="s">
+        <v>25</v>
+      </c>
+      <c r="N209" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N209" t="s">
+      <c r="O209" t="s">
         <v>733</v>
       </c>
-      <c r="O209" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>589</v>
       </c>
@@ -12609,23 +13444,27 @@
       <c r="J210" t="s">
         <v>735</v>
       </c>
-      <c r="K210" t="s">
-        <v>24</v>
+      <c r="K210" t="str">
+        <f t="shared" si="3"/>
+        <v>21981021716</v>
       </c>
       <c r="L210" t="s">
-        <v>25</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N210" t="s">
+        <v>24</v>
+      </c>
+      <c r="M210" t="s">
+        <v>25</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O210" t="s">
         <v>736</v>
       </c>
-      <c r="O210" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>589</v>
       </c>
@@ -12656,23 +13495,27 @@
       <c r="J211" t="s">
         <v>738</v>
       </c>
-      <c r="K211" t="s">
-        <v>24</v>
+      <c r="K211" t="str">
+        <f t="shared" si="3"/>
+        <v>21970347752</v>
       </c>
       <c r="L211" t="s">
-        <v>25</v>
-      </c>
-      <c r="M211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M211" t="s">
+        <v>25</v>
+      </c>
+      <c r="N211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N211" t="s">
+      <c r="O211" t="s">
         <v>739</v>
       </c>
-      <c r="O211" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>589</v>
       </c>
@@ -12703,23 +13546,27 @@
       <c r="J212" t="s">
         <v>741</v>
       </c>
-      <c r="K212" t="s">
-        <v>24</v>
+      <c r="K212" t="str">
+        <f t="shared" si="3"/>
+        <v>21977196659</v>
       </c>
       <c r="L212" t="s">
-        <v>25</v>
-      </c>
-      <c r="M212" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N212" t="s">
+        <v>24</v>
+      </c>
+      <c r="M212" t="s">
+        <v>25</v>
+      </c>
+      <c r="N212" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O212" t="s">
+        <v>58</v>
+      </c>
+      <c r="P212" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>589</v>
       </c>
@@ -12750,23 +13597,27 @@
       <c r="J213" t="s">
         <v>743</v>
       </c>
-      <c r="K213" t="s">
-        <v>24</v>
+      <c r="K213" t="str">
+        <f t="shared" si="3"/>
+        <v>21967173893</v>
       </c>
       <c r="L213" t="s">
-        <v>25</v>
-      </c>
-      <c r="M213" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N213" t="s">
+        <v>24</v>
+      </c>
+      <c r="M213" t="s">
+        <v>25</v>
+      </c>
+      <c r="N213" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O213" t="s">
+        <v>58</v>
+      </c>
+      <c r="P213" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>589</v>
       </c>
@@ -12797,23 +13648,27 @@
       <c r="J214" t="s">
         <v>745</v>
       </c>
-      <c r="K214" t="s">
-        <v>24</v>
+      <c r="K214" t="str">
+        <f t="shared" si="3"/>
+        <v>21971615471</v>
       </c>
       <c r="L214" t="s">
+        <v>24</v>
+      </c>
+      <c r="M214" t="s">
         <v>46</v>
       </c>
-      <c r="M214" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N214" t="s">
+      <c r="N214" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O214" t="s">
+        <v>58</v>
+      </c>
+      <c r="P214" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>589</v>
       </c>
@@ -12844,23 +13699,27 @@
       <c r="J215" t="s">
         <v>747</v>
       </c>
-      <c r="K215" t="s">
-        <v>24</v>
+      <c r="K215" t="str">
+        <f t="shared" si="3"/>
+        <v>21983147362</v>
       </c>
       <c r="L215" t="s">
-        <v>25</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N215" t="s">
+        <v>24</v>
+      </c>
+      <c r="M215" t="s">
+        <v>25</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O215" t="s">
+        <v>58</v>
+      </c>
+      <c r="P215" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>589</v>
       </c>
@@ -12891,23 +13750,27 @@
       <c r="J216" t="s">
         <v>749</v>
       </c>
-      <c r="K216" t="s">
-        <v>24</v>
+      <c r="K216" t="str">
+        <f t="shared" si="3"/>
+        <v>21970457685</v>
       </c>
       <c r="L216" t="s">
-        <v>25</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N216" t="s">
+        <v>24</v>
+      </c>
+      <c r="M216" t="s">
+        <v>25</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O216" t="s">
+        <v>58</v>
+      </c>
+      <c r="P216" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>589</v>
       </c>
@@ -12938,23 +13801,27 @@
       <c r="J217" t="s">
         <v>752</v>
       </c>
-      <c r="K217" t="s">
-        <v>24</v>
+      <c r="K217" t="str">
+        <f t="shared" si="3"/>
+        <v>21986110767</v>
       </c>
       <c r="L217" t="s">
-        <v>25</v>
-      </c>
-      <c r="M217" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N217" t="s">
+        <v>24</v>
+      </c>
+      <c r="M217" t="s">
+        <v>25</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O217" t="s">
+        <v>58</v>
+      </c>
+      <c r="P217" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>589</v>
       </c>
@@ -12985,23 +13852,27 @@
       <c r="J218" t="s">
         <v>755</v>
       </c>
-      <c r="K218" t="s">
-        <v>24</v>
+      <c r="K218" t="str">
+        <f t="shared" si="3"/>
+        <v>21219772093</v>
       </c>
       <c r="L218" t="s">
-        <v>25</v>
-      </c>
-      <c r="M218" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N218" t="s">
+        <v>24</v>
+      </c>
+      <c r="M218" t="s">
+        <v>25</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O218" t="s">
+        <v>58</v>
+      </c>
+      <c r="P218" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>589</v>
       </c>
@@ -13032,24 +13903,28 @@
       <c r="J219" t="s">
         <v>757</v>
       </c>
-      <c r="K219" t="s">
-        <v>24</v>
+      <c r="K219" t="str">
+        <f t="shared" si="3"/>
+        <v>21219992825</v>
       </c>
       <c r="L219" t="s">
-        <v>25</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N219" t="s">
+        <v>24</v>
+      </c>
+      <c r="M219" t="s">
+        <v>25</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O219" t="s">
+        <v>58</v>
+      </c>
+      <c r="P219" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O157">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P157">
     <sortCondition descending="1" ref="A6:A157"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{290FC645-0A55-4745-B441-A0D951E1C870}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3497852B-478A-48FF-83D0-E37F4852B24F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8557" uniqueCount="1733">
   <si>
     <t>Quando</t>
   </si>
@@ -4376,6 +4376,891 @@
   </si>
   <si>
     <t>24 99861-4425</t>
+  </si>
+  <si>
+    <t>04/05/2025</t>
+  </si>
+  <si>
+    <t>Victor Nunes Rocha</t>
+  </si>
+  <si>
+    <t>22 99279-1000</t>
+  </si>
+  <si>
+    <t>Entrei em contato, falei sobre GC e Maximus</t>
+  </si>
+  <si>
+    <t>Igor Guilherme Costa Bravo</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21 98172-5135</t>
+  </si>
+  <si>
+    <t>Leandro De Lima</t>
+  </si>
+  <si>
+    <t>Irajá</t>
+  </si>
+  <si>
+    <t>21 98194-6576</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>Erivaldo Encarnação De Souza</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>21 98744-9433</t>
+  </si>
+  <si>
+    <t>11/05/2025</t>
+  </si>
+  <si>
+    <t>édson Gomes Barreto</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>21 98153-1220</t>
+  </si>
+  <si>
+    <t>Victor Collyer</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27 99781-1744</t>
+  </si>
+  <si>
+    <t>Davi Rodrigues</t>
+  </si>
+  <si>
+    <t>Curicica</t>
+  </si>
+  <si>
+    <t>21 96714-7782</t>
+  </si>
+  <si>
+    <t>Matheus Souza De Moura</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21 97577-0247</t>
+  </si>
+  <si>
+    <t>Eduardo Robis De Oliveira</t>
+  </si>
+  <si>
+    <t>Alphaville</t>
+  </si>
+  <si>
+    <t>22 98119-1220</t>
+  </si>
+  <si>
+    <t>Lucas Bonckhorny Valente</t>
+  </si>
+  <si>
+    <t>Cantagalo</t>
+  </si>
+  <si>
+    <t>21 99664-7773</t>
+  </si>
+  <si>
+    <t>Arthur Barbosa</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Caju</t>
+  </si>
+  <si>
+    <t>21 98245-8136</t>
+  </si>
+  <si>
+    <t>Julio Iglesias Ferrari Sandin</t>
+  </si>
+  <si>
+    <t>Arthur Leão</t>
+  </si>
+  <si>
+    <t>Leopoldina / MG</t>
+  </si>
+  <si>
+    <t>32 98883-1351</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>Leandro Santiago</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Mantiquira</t>
+  </si>
+  <si>
+    <t>21 97044-1873</t>
+  </si>
+  <si>
+    <t>Anderson Cosmo Sousa Lopes</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>21 97888-0422</t>
+  </si>
+  <si>
+    <t>Giovanni Bartolomeu Macedo</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>21 99476-8770</t>
+  </si>
+  <si>
+    <t>Bruno De Lucas</t>
+  </si>
+  <si>
+    <t>21 97601-0321</t>
+  </si>
+  <si>
+    <t>17/05/2025</t>
+  </si>
+  <si>
+    <t>Gustavo Araujo</t>
+  </si>
+  <si>
+    <t>Tabajara</t>
+  </si>
+  <si>
+    <t>21 99668-2963</t>
+  </si>
+  <si>
+    <t>Marcelo Bernardo Da Silva</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>21 98542-6515</t>
+  </si>
+  <si>
+    <t>Flávia Soares</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>21 97120-2410</t>
+  </si>
+  <si>
+    <t>Enviei mensagem mas não respondeu</t>
+  </si>
+  <si>
+    <t>Fabiana Carlos Da Silva</t>
+  </si>
+  <si>
+    <t>21 98002-1750</t>
+  </si>
+  <si>
+    <t>Respondeu e estou tentando encaminha-la para o GC</t>
+  </si>
+  <si>
+    <t>Julliana Falcão</t>
+  </si>
+  <si>
+    <t>21 99977-1620</t>
+  </si>
+  <si>
+    <t>Waldicelia Silva De Brito Jorge</t>
+  </si>
+  <si>
+    <t>21 96707-7459</t>
+  </si>
+  <si>
+    <t>Isabela Pinheiro Ribeiro</t>
+  </si>
+  <si>
+    <t>21 97452-2930</t>
+  </si>
+  <si>
+    <t>Pamela Ferreira Farias</t>
+  </si>
+  <si>
+    <t>21 98223-3892</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>22 98831-5160</t>
+  </si>
+  <si>
+    <t>Bêco Das Escadinhas Da Conceição, 10.- Saúde</t>
+  </si>
+  <si>
+    <t>21 96430-4695</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Centro</t>
+  </si>
+  <si>
+    <t>Núbia Cristina Da Silva</t>
+  </si>
+  <si>
+    <t>21 98221-6072</t>
+  </si>
+  <si>
+    <t>Renata Toledo De Almeida</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Praça da Bandeira</t>
+  </si>
+  <si>
+    <t>Julia Honorato</t>
+  </si>
+  <si>
+    <t>Trindade</t>
+  </si>
+  <si>
+    <t>21 99477-1906</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Nexteen</t>
+  </si>
+  <si>
+    <t>Sara Gabrielly Simao</t>
+  </si>
+  <si>
+    <t>21 96637-3935</t>
+  </si>
+  <si>
+    <t>Vanessa Breciani</t>
+  </si>
+  <si>
+    <t>Madureira</t>
+  </si>
+  <si>
+    <t>21 96457-9557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para Supervisora Sueli. Mora em Madureira </t>
+  </si>
+  <si>
+    <t>Maria Gabriella</t>
+  </si>
+  <si>
+    <t>21 98430-7669</t>
+  </si>
+  <si>
+    <t>Albiely Menezes</t>
+  </si>
+  <si>
+    <t>21 96828-6265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para GC Next - Eugenia </t>
+  </si>
+  <si>
+    <t>Daí A Lima</t>
+  </si>
+  <si>
+    <t>Todos Os Santos</t>
+  </si>
+  <si>
+    <t>21 98243-7847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
+  </si>
+  <si>
+    <t>Segunda vez na frente, já tinha sido encaminhada ao GC São conrado 27+</t>
+  </si>
+  <si>
+    <t>Ana Costa</t>
+  </si>
+  <si>
+    <t>22 99802-6601</t>
+  </si>
+  <si>
+    <t>Tatiana Costa Rodrigues</t>
+  </si>
+  <si>
+    <t>21 97555-6027</t>
+  </si>
+  <si>
+    <t>Renata Souza</t>
+  </si>
+  <si>
+    <t>21 97036-1122</t>
+  </si>
+  <si>
+    <t>Segunda vez na frente,tentando encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Rafaela Reis</t>
+  </si>
+  <si>
+    <t>21 97033-7361</t>
+  </si>
+  <si>
+    <t>Fernanda De Araujo Silva</t>
+  </si>
+  <si>
+    <t>21 97683-6494</t>
+  </si>
+  <si>
+    <t>Letticia Azeredo Viana</t>
+  </si>
+  <si>
+    <t>22 99998-3869</t>
+  </si>
+  <si>
+    <t>Kathleen Bento</t>
+  </si>
+  <si>
+    <t>Cosme Velho</t>
+  </si>
+  <si>
+    <t>21 97996-9702</t>
+  </si>
+  <si>
+    <t>Dulce Maria Sampaio De Araújo</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>21 99868-9198</t>
+  </si>
+  <si>
+    <t>Suianne Da Costa Cavalcante</t>
+  </si>
+  <si>
+    <t>21 98277-5742</t>
+  </si>
+  <si>
+    <t>Vilma De Souza</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>32 99903-8804</t>
+  </si>
+  <si>
+    <t>Heloísa Helena Brito</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Jacarepaguá</t>
+  </si>
+  <si>
+    <t>21 99451-3901</t>
+  </si>
+  <si>
+    <t>Maria Da Conceição De Jesus</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Nova Iguaçu</t>
+  </si>
+  <si>
+    <t>21 99196-2648</t>
+  </si>
+  <si>
+    <t>Tatiana Marinho</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>21 99457-3212</t>
+  </si>
+  <si>
+    <t>Thabata Nunes Garbelini</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>21 98603-9288</t>
+  </si>
+  <si>
+    <t>Tatiane Batista</t>
+  </si>
+  <si>
+    <t>21 96545-5833</t>
+  </si>
+  <si>
+    <t>Karolayne Santana</t>
+  </si>
+  <si>
+    <t>Quintino Bocaiúva</t>
+  </si>
+  <si>
+    <t>21 99244-9761</t>
+  </si>
+  <si>
+    <t>Nayara Alvez Dos Santo</t>
+  </si>
+  <si>
+    <t>21 96740-2427</t>
+  </si>
+  <si>
+    <t>Gisele Gomes</t>
+  </si>
+  <si>
+    <t>21 98059-9326</t>
+  </si>
+  <si>
+    <t>Luana Iracema Viana Genésio</t>
+  </si>
+  <si>
+    <t>92 99229-1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada ao GC Casais </t>
+  </si>
+  <si>
+    <t>Eliane Maria Do Nascimento</t>
+  </si>
+  <si>
+    <t>21 97016-7438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para gc maes </t>
+  </si>
+  <si>
+    <t>Nize Lima</t>
+  </si>
+  <si>
+    <t>21 98880-1410</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>culto next</t>
+  </si>
+  <si>
+    <t>Larissa Aranha</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Rio E Janeiro / RJ</t>
+  </si>
+  <si>
+    <t>21 99318-9798</t>
+  </si>
+  <si>
+    <t>Gabriela Vieira</t>
+  </si>
+  <si>
+    <t>21 96620-7036</t>
+  </si>
+  <si>
+    <t>Thais Vianna</t>
+  </si>
+  <si>
+    <t>Itanhnga</t>
+  </si>
+  <si>
+    <t>21 95926-9109</t>
+  </si>
+  <si>
+    <t>18/05/2025</t>
+  </si>
+  <si>
+    <t>Luiz Felipe Souza Lessa</t>
+  </si>
+  <si>
+    <t>21 99833-3709</t>
+  </si>
+  <si>
+    <t>Entrei em contato falei sobre GC e Maximus</t>
+  </si>
+  <si>
+    <t>Oscar Da Silva Pitzer</t>
+  </si>
+  <si>
+    <t>21 98217-8554</t>
+  </si>
+  <si>
+    <t>Yago Oliveira</t>
+  </si>
+  <si>
+    <t>21 99744-6024</t>
+  </si>
+  <si>
+    <t>Fernando De Magalhães</t>
+  </si>
+  <si>
+    <t>21 99696-3365</t>
+  </si>
+  <si>
+    <t>Eduardo Campanaro</t>
+  </si>
+  <si>
+    <t>Feitoria</t>
+  </si>
+  <si>
+    <t>São Leopoldo  / RS</t>
+  </si>
+  <si>
+    <t>51 99880-3546</t>
+  </si>
+  <si>
+    <t>Renan Batista De Mendonca</t>
+  </si>
+  <si>
+    <t>21 96407-5792</t>
+  </si>
+  <si>
+    <t>Felipe Chinaidre Eyer</t>
+  </si>
+  <si>
+    <t>22 99282-4786</t>
+  </si>
+  <si>
+    <t>Ariane Moura Reis</t>
+  </si>
+  <si>
+    <t>21 99393-4405</t>
+  </si>
+  <si>
+    <t>Respondeu estamos encaminhando ao GC</t>
+  </si>
+  <si>
+    <t>Juliana Miranda</t>
+  </si>
+  <si>
+    <t>21 99882-9530</t>
+  </si>
+  <si>
+    <t>Maitê Santos Souza</t>
+  </si>
+  <si>
+    <t>21 97873-6794</t>
+  </si>
+  <si>
+    <t>Falamos com a mae e ainda não conseguimos contato com a filha</t>
+  </si>
+  <si>
+    <t>Marcella Ponce Gabri</t>
+  </si>
+  <si>
+    <t>22 99925-4085</t>
+  </si>
+  <si>
+    <t>Aisha Mohanna</t>
+  </si>
+  <si>
+    <t>Vasco Da Gama</t>
+  </si>
+  <si>
+    <t>21 99014-1778</t>
+  </si>
+  <si>
+    <t>Está indo ao gc Next flamengo</t>
+  </si>
+  <si>
+    <t>Daiana Ferreira Dos Santos</t>
+  </si>
+  <si>
+    <t>24 99272-1068</t>
+  </si>
+  <si>
+    <t>Clarice Meira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuca </t>
+  </si>
+  <si>
+    <t>24 99963-9079</t>
+  </si>
+  <si>
+    <t>Tayana De Almeida Duarte</t>
+  </si>
+  <si>
+    <t>21 95900-1345</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC centro</t>
+  </si>
+  <si>
+    <t>Magda Gonçalves</t>
+  </si>
+  <si>
+    <t>21 99880-2770</t>
+  </si>
+  <si>
+    <t>Mirian Nonato Dias</t>
+  </si>
+  <si>
+    <t>32 98876-7078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está indo ao PINK Leblon </t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>ágatha Da Silva Antunes</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC</t>
+  </si>
+  <si>
+    <t>Anielen Araujo De Frias De Holanda</t>
+  </si>
+  <si>
+    <t>Bangu</t>
+  </si>
+  <si>
+    <t>21 98101-2947</t>
+  </si>
+  <si>
+    <t>Alessandra Borges Duarte</t>
+  </si>
+  <si>
+    <t>21 98286-7011</t>
+  </si>
+  <si>
+    <t>Luciana Peixoto</t>
+  </si>
+  <si>
+    <t>21 99554-5681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa Rangel </t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>Segunda vez que foi à frente, encaminhada ao GC</t>
+  </si>
+  <si>
+    <t>25/05/2025</t>
+  </si>
+  <si>
+    <t>Anderson Rodrigues De Sousa</t>
+  </si>
+  <si>
+    <t>21 98437-2066</t>
+  </si>
+  <si>
+    <t>Entrei em contato convidei para GC e Maximus</t>
+  </si>
+  <si>
+    <t>Francisco Lacerda</t>
+  </si>
+  <si>
+    <t>21 96943-3099</t>
+  </si>
+  <si>
+    <t>Leandro Freitas Do Amaral</t>
+  </si>
+  <si>
+    <t>21 98384-1344</t>
+  </si>
+  <si>
+    <t>Bruno De Azevedo Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glória </t>
+  </si>
+  <si>
+    <t>21 97421-6700</t>
+  </si>
+  <si>
+    <t>João Marcos</t>
+  </si>
+  <si>
+    <t>21 98322-7117</t>
+  </si>
+  <si>
+    <t>Flavio Braga</t>
+  </si>
+  <si>
+    <t>21 99817-0781</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>Edson Bitencourt Coutinho</t>
+  </si>
+  <si>
+    <t>21 97845-4774</t>
+  </si>
+  <si>
+    <t>Maria Gleyce Farias</t>
+  </si>
+  <si>
+    <t>21 99660-2121</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Barrinha</t>
+  </si>
+  <si>
+    <t>Daniele Cristine De Oliveira</t>
+  </si>
+  <si>
+    <t>21 98462-7826</t>
+  </si>
+  <si>
+    <t>Respondeu e estamos tentando encaminhá-la ao GC</t>
+  </si>
+  <si>
+    <t>Ana Carolina Persona Magalhaes</t>
+  </si>
+  <si>
+    <t>21 97956-5640</t>
+  </si>
+  <si>
+    <t>Esta indo a GC Flamengo</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Melro Andrade</t>
+  </si>
+  <si>
+    <t>Soteco</t>
+  </si>
+  <si>
+    <t>Vila Velha / ES</t>
+  </si>
+  <si>
+    <t>27 99966-6549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviei mensagem mas ainda não respondeu </t>
+  </si>
+  <si>
+    <t>Flavia Cezario De Barros</t>
+  </si>
+  <si>
+    <t>21 98286-5415</t>
+  </si>
+  <si>
+    <t>Gabrielle De Araujo De Souza</t>
+  </si>
+  <si>
+    <t>21 96986-0990</t>
+  </si>
+  <si>
+    <t>Gabriela Lourenço</t>
+  </si>
+  <si>
+    <t>21 99757-5564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada Para GC Barra </t>
+  </si>
+  <si>
+    <t>Renata De Almeida</t>
+  </si>
+  <si>
+    <t>Foi encaminhada para gc praça da bandeira na Tijuca</t>
+  </si>
+  <si>
+    <t>Fernanda Gentil Salsa</t>
+  </si>
+  <si>
+    <t>21 98190-5862</t>
+  </si>
+  <si>
+    <t>Vytoria Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gávea </t>
+  </si>
+  <si>
+    <t>21 99240-7852</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC next</t>
+  </si>
+  <si>
+    <t>Joana Freitas</t>
+  </si>
+  <si>
+    <t>21 99235-1601</t>
+  </si>
+  <si>
+    <t>Encaminhada para Gc maes</t>
+  </si>
+  <si>
+    <t>Priscila Lourenco Alexandre</t>
+  </si>
+  <si>
+    <t>21 99573-5841</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC PINK</t>
+  </si>
+  <si>
+    <t>Tereza Chaves</t>
+  </si>
+  <si>
+    <t>21 98822-9876</t>
+  </si>
+  <si>
+    <t>Respondeu, tentando encaminha-la ao GC</t>
+  </si>
+  <si>
+    <t>Iasmin Araújo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Cristóvão </t>
+  </si>
+  <si>
+    <t>21 96909-4716</t>
+  </si>
+  <si>
+    <t>Ody Teixeira</t>
+  </si>
+  <si>
+    <t>Estrada Do Engenho D água 1451</t>
+  </si>
+  <si>
+    <t>21 98548-6506</t>
+  </si>
+  <si>
+    <t>Alessandra De Castro</t>
+  </si>
+  <si>
+    <t>21 96681-8141</t>
   </si>
 </sst>
 </file>
@@ -4780,30 +5665,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P460"/>
+  <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="130" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27705,6 +28592,5306 @@
         <v>824</v>
       </c>
     </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B461" t="s">
+        <v>58</v>
+      </c>
+      <c r="C461" t="s">
+        <v>27</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E461" t="s">
+        <v>18</v>
+      </c>
+      <c r="F461" t="s">
+        <v>29</v>
+      </c>
+      <c r="G461" t="s">
+        <v>99</v>
+      </c>
+      <c r="H461" t="s">
+        <v>54</v>
+      </c>
+      <c r="I461" t="s">
+        <v>22</v>
+      </c>
+      <c r="J461" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K461" t="s">
+        <v>24</v>
+      </c>
+      <c r="L461" t="s">
+        <v>25</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N461" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O461" t="s">
+        <v>80</v>
+      </c>
+      <c r="P461" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B462" t="s">
+        <v>58</v>
+      </c>
+      <c r="C462" t="s">
+        <v>41</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E462" t="s">
+        <v>18</v>
+      </c>
+      <c r="F462" t="s">
+        <v>19</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H462" t="s">
+        <v>658</v>
+      </c>
+      <c r="I462" t="s">
+        <v>22</v>
+      </c>
+      <c r="J462" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K462" t="s">
+        <v>24</v>
+      </c>
+      <c r="L462" t="s">
+        <v>25</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N462" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O462" t="s">
+        <v>24</v>
+      </c>
+      <c r="P462" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B463" t="s">
+        <v>58</v>
+      </c>
+      <c r="C463" t="s">
+        <v>41</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E463" t="s">
+        <v>18</v>
+      </c>
+      <c r="F463" t="s">
+        <v>29</v>
+      </c>
+      <c r="G463" t="s">
+        <v>105</v>
+      </c>
+      <c r="H463" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I463" t="s">
+        <v>22</v>
+      </c>
+      <c r="J463" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K463" t="s">
+        <v>24</v>
+      </c>
+      <c r="L463" t="s">
+        <v>46</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N463" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O463" t="s">
+        <v>24</v>
+      </c>
+      <c r="P463" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B464" t="s">
+        <v>58</v>
+      </c>
+      <c r="C464" t="s">
+        <v>16</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E464" t="s">
+        <v>18</v>
+      </c>
+      <c r="F464" t="s">
+        <v>19</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H464" t="s">
+        <v>132</v>
+      </c>
+      <c r="I464" t="s">
+        <v>22</v>
+      </c>
+      <c r="J464" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K464" t="s">
+        <v>24</v>
+      </c>
+      <c r="L464" t="s">
+        <v>25</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N464" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O464" t="s">
+        <v>80</v>
+      </c>
+      <c r="P464" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B465" t="s">
+        <v>58</v>
+      </c>
+      <c r="C465" t="s">
+        <v>27</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E465" t="s">
+        <v>18</v>
+      </c>
+      <c r="F465" t="s">
+        <v>29</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H465" t="s">
+        <v>129</v>
+      </c>
+      <c r="I465" t="s">
+        <v>22</v>
+      </c>
+      <c r="J465" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K465" t="s">
+        <v>24</v>
+      </c>
+      <c r="L465" t="s">
+        <v>25</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N465" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O465" t="s">
+        <v>80</v>
+      </c>
+      <c r="P465" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B466" t="s">
+        <v>58</v>
+      </c>
+      <c r="C466" t="s">
+        <v>41</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E466" t="s">
+        <v>18</v>
+      </c>
+      <c r="F466" t="s">
+        <v>29</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H466" t="s">
+        <v>58</v>
+      </c>
+      <c r="I466" t="s">
+        <v>22</v>
+      </c>
+      <c r="J466" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K466" t="s">
+        <v>24</v>
+      </c>
+      <c r="L466" t="s">
+        <v>25</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N466" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O466" t="s">
+        <v>80</v>
+      </c>
+      <c r="P466" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B467" t="s">
+        <v>58</v>
+      </c>
+      <c r="C467" t="s">
+        <v>41</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E467" t="s">
+        <v>18</v>
+      </c>
+      <c r="F467" t="s">
+        <v>58</v>
+      </c>
+      <c r="G467" t="s">
+        <v>196</v>
+      </c>
+      <c r="H467" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I467" t="s">
+        <v>22</v>
+      </c>
+      <c r="J467" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K467" t="s">
+        <v>24</v>
+      </c>
+      <c r="L467" t="s">
+        <v>25</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N467" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O467" t="s">
+        <v>24</v>
+      </c>
+      <c r="P467" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B468" t="s">
+        <v>58</v>
+      </c>
+      <c r="C468" t="s">
+        <v>27</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E468" t="s">
+        <v>18</v>
+      </c>
+      <c r="F468" t="s">
+        <v>29</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H468" t="s">
+        <v>378</v>
+      </c>
+      <c r="I468" t="s">
+        <v>22</v>
+      </c>
+      <c r="J468" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K468" t="s">
+        <v>24</v>
+      </c>
+      <c r="L468" t="s">
+        <v>25</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N468" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O468" t="s">
+        <v>80</v>
+      </c>
+      <c r="P468" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B469" t="s">
+        <v>58</v>
+      </c>
+      <c r="C469" t="s">
+        <v>27</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E469" t="s">
+        <v>18</v>
+      </c>
+      <c r="F469" t="s">
+        <v>29</v>
+      </c>
+      <c r="G469" t="s">
+        <v>162</v>
+      </c>
+      <c r="H469" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I469" t="s">
+        <v>277</v>
+      </c>
+      <c r="J469" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K469" t="s">
+        <v>24</v>
+      </c>
+      <c r="L469" t="s">
+        <v>25</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N469" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O469" t="s">
+        <v>24</v>
+      </c>
+      <c r="P469" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B470" t="s">
+        <v>58</v>
+      </c>
+      <c r="C470" t="s">
+        <v>27</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E470" t="s">
+        <v>18</v>
+      </c>
+      <c r="F470" t="s">
+        <v>29</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H470" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I470" t="s">
+        <v>55</v>
+      </c>
+      <c r="J470" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K470" t="s">
+        <v>24</v>
+      </c>
+      <c r="L470" t="s">
+        <v>25</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N470" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O470" t="s">
+        <v>80</v>
+      </c>
+      <c r="P470" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B471" t="s">
+        <v>58</v>
+      </c>
+      <c r="C471" t="s">
+        <v>27</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E471" t="s">
+        <v>18</v>
+      </c>
+      <c r="F471" t="s">
+        <v>29</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H471" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I471" t="s">
+        <v>36</v>
+      </c>
+      <c r="J471" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K471" t="s">
+        <v>24</v>
+      </c>
+      <c r="L471" t="s">
+        <v>25</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N471" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O471" t="s">
+        <v>80</v>
+      </c>
+      <c r="P471" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B472" t="s">
+        <v>58</v>
+      </c>
+      <c r="C472" t="s">
+        <v>41</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E472" t="s">
+        <v>18</v>
+      </c>
+      <c r="F472" t="s">
+        <v>29</v>
+      </c>
+      <c r="G472" t="s">
+        <v>66</v>
+      </c>
+      <c r="H472" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J472" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K472" t="s">
+        <v>24</v>
+      </c>
+      <c r="L472" t="s">
+        <v>25</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N472" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O472" t="s">
+        <v>24</v>
+      </c>
+      <c r="P472" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B473" t="s">
+        <v>58</v>
+      </c>
+      <c r="C473" t="s">
+        <v>41</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E473" t="s">
+        <v>18</v>
+      </c>
+      <c r="F473" t="s">
+        <v>91</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H473" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I473" t="s">
+        <v>227</v>
+      </c>
+      <c r="J473" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K473" t="s">
+        <v>24</v>
+      </c>
+      <c r="L473" t="s">
+        <v>25</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N473" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O473" t="s">
+        <v>80</v>
+      </c>
+      <c r="P473" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B474" t="s">
+        <v>58</v>
+      </c>
+      <c r="C474" t="s">
+        <v>41</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E474" t="s">
+        <v>18</v>
+      </c>
+      <c r="F474" t="s">
+        <v>185</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H474" t="s">
+        <v>516</v>
+      </c>
+      <c r="I474" t="s">
+        <v>22</v>
+      </c>
+      <c r="J474" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K474" t="s">
+        <v>24</v>
+      </c>
+      <c r="L474" t="s">
+        <v>25</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N474" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O474" t="s">
+        <v>80</v>
+      </c>
+      <c r="P474" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B475" t="s">
+        <v>58</v>
+      </c>
+      <c r="C475" t="s">
+        <v>41</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E475" t="s">
+        <v>18</v>
+      </c>
+      <c r="F475" t="s">
+        <v>29</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H475" t="s">
+        <v>281</v>
+      </c>
+      <c r="I475" t="s">
+        <v>22</v>
+      </c>
+      <c r="J475" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K475" t="s">
+        <v>24</v>
+      </c>
+      <c r="L475" t="s">
+        <v>25</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N475" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O475" t="s">
+        <v>80</v>
+      </c>
+      <c r="P475" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B476" t="s">
+        <v>58</v>
+      </c>
+      <c r="C476" t="s">
+        <v>27</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E476" t="s">
+        <v>18</v>
+      </c>
+      <c r="F476" t="s">
+        <v>19</v>
+      </c>
+      <c r="G476" t="s">
+        <v>74</v>
+      </c>
+      <c r="H476" t="s">
+        <v>281</v>
+      </c>
+      <c r="I476" t="s">
+        <v>22</v>
+      </c>
+      <c r="J476" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K476" t="s">
+        <v>24</v>
+      </c>
+      <c r="L476" t="s">
+        <v>445</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N476" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O476" t="s">
+        <v>24</v>
+      </c>
+      <c r="P476" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B477" t="s">
+        <v>58</v>
+      </c>
+      <c r="C477" t="s">
+        <v>41</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E477" t="s">
+        <v>18</v>
+      </c>
+      <c r="F477" t="s">
+        <v>58</v>
+      </c>
+      <c r="G477" t="s">
+        <v>196</v>
+      </c>
+      <c r="H477" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I477" t="s">
+        <v>55</v>
+      </c>
+      <c r="J477" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K477" t="s">
+        <v>24</v>
+      </c>
+      <c r="L477" t="s">
+        <v>25</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N477" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O477" t="s">
+        <v>24</v>
+      </c>
+      <c r="P477" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C478" t="s">
+        <v>27</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E478" t="s">
+        <v>18</v>
+      </c>
+      <c r="F478" t="s">
+        <v>29</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H478" t="s">
+        <v>44</v>
+      </c>
+      <c r="I478" t="s">
+        <v>22</v>
+      </c>
+      <c r="J478" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K478" t="s">
+        <v>24</v>
+      </c>
+      <c r="L478" t="s">
+        <v>25</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N478" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O478" t="s">
+        <v>24</v>
+      </c>
+      <c r="P478" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B479" t="s">
+        <v>58</v>
+      </c>
+      <c r="C479" t="s">
+        <v>41</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E479" t="s">
+        <v>65</v>
+      </c>
+      <c r="F479" t="s">
+        <v>19</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H479" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I479" t="s">
+        <v>22</v>
+      </c>
+      <c r="J479" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K479" t="s">
+        <v>24</v>
+      </c>
+      <c r="L479" t="s">
+        <v>25</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N479" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O479" t="s">
+        <v>80</v>
+      </c>
+      <c r="P479" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B480" t="s">
+        <v>58</v>
+      </c>
+      <c r="C480" t="s">
+        <v>41</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E480" t="s">
+        <v>65</v>
+      </c>
+      <c r="F480" t="s">
+        <v>91</v>
+      </c>
+      <c r="G480" t="s">
+        <v>105</v>
+      </c>
+      <c r="H480" t="s">
+        <v>393</v>
+      </c>
+      <c r="I480" t="s">
+        <v>22</v>
+      </c>
+      <c r="J480" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K480" t="s">
+        <v>24</v>
+      </c>
+      <c r="L480" t="s">
+        <v>445</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N480" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O480" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P480" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B481" t="s">
+        <v>58</v>
+      </c>
+      <c r="C481" t="s">
+        <v>16</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E481" t="s">
+        <v>65</v>
+      </c>
+      <c r="F481" t="s">
+        <v>19</v>
+      </c>
+      <c r="G481" t="s">
+        <v>30</v>
+      </c>
+      <c r="H481" t="s">
+        <v>296</v>
+      </c>
+      <c r="I481" t="s">
+        <v>22</v>
+      </c>
+      <c r="J481" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K481" t="s">
+        <v>24</v>
+      </c>
+      <c r="L481" t="s">
+        <v>25</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N481" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O481" t="s">
+        <v>80</v>
+      </c>
+      <c r="P481" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B482" t="s">
+        <v>58</v>
+      </c>
+      <c r="C482" t="s">
+        <v>16</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E482" t="s">
+        <v>65</v>
+      </c>
+      <c r="F482" t="s">
+        <v>19</v>
+      </c>
+      <c r="G482" t="s">
+        <v>70</v>
+      </c>
+      <c r="H482" t="s">
+        <v>152</v>
+      </c>
+      <c r="I482" t="s">
+        <v>22</v>
+      </c>
+      <c r="J482" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K482" t="s">
+        <v>24</v>
+      </c>
+      <c r="L482" t="s">
+        <v>46</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N482" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O482" t="s">
+        <v>80</v>
+      </c>
+      <c r="P482" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B483" t="s">
+        <v>58</v>
+      </c>
+      <c r="C483" t="s">
+        <v>16</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E483" t="s">
+        <v>65</v>
+      </c>
+      <c r="F483" t="s">
+        <v>19</v>
+      </c>
+      <c r="G483" t="s">
+        <v>84</v>
+      </c>
+      <c r="H483" t="s">
+        <v>591</v>
+      </c>
+      <c r="I483" t="s">
+        <v>22</v>
+      </c>
+      <c r="J483" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K483" t="s">
+        <v>24</v>
+      </c>
+      <c r="L483" t="s">
+        <v>25</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N483" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O483" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P483" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B484" t="s">
+        <v>58</v>
+      </c>
+      <c r="C484" t="s">
+        <v>41</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E484" t="s">
+        <v>65</v>
+      </c>
+      <c r="F484" t="s">
+        <v>58</v>
+      </c>
+      <c r="G484" t="s">
+        <v>162</v>
+      </c>
+      <c r="H484" t="s">
+        <v>281</v>
+      </c>
+      <c r="I484" t="s">
+        <v>22</v>
+      </c>
+      <c r="J484" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K484" t="s">
+        <v>24</v>
+      </c>
+      <c r="L484" t="s">
+        <v>25</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N484" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O484" t="s">
+        <v>80</v>
+      </c>
+      <c r="P484" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B485" t="s">
+        <v>58</v>
+      </c>
+      <c r="C485" t="s">
+        <v>41</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E485" t="s">
+        <v>65</v>
+      </c>
+      <c r="F485" t="s">
+        <v>29</v>
+      </c>
+      <c r="G485" t="s">
+        <v>92</v>
+      </c>
+      <c r="H485" t="s">
+        <v>516</v>
+      </c>
+      <c r="I485" t="s">
+        <v>22</v>
+      </c>
+      <c r="J485" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K485" t="s">
+        <v>24</v>
+      </c>
+      <c r="L485" t="s">
+        <v>25</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N485" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O485" t="s">
+        <v>24</v>
+      </c>
+      <c r="P485" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B486" t="s">
+        <v>58</v>
+      </c>
+      <c r="C486" t="s">
+        <v>16</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E486" t="s">
+        <v>65</v>
+      </c>
+      <c r="F486" t="s">
+        <v>19</v>
+      </c>
+      <c r="G486" t="s">
+        <v>74</v>
+      </c>
+      <c r="H486" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I486" t="s">
+        <v>335</v>
+      </c>
+      <c r="J486" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K486" t="s">
+        <v>24</v>
+      </c>
+      <c r="L486" t="s">
+        <v>46</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N486" t="s">
+        <v>1518</v>
+      </c>
+      <c r="O486" t="s">
+        <v>24</v>
+      </c>
+      <c r="P486" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B487" t="s">
+        <v>58</v>
+      </c>
+      <c r="C487" t="s">
+        <v>41</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E487" t="s">
+        <v>65</v>
+      </c>
+      <c r="F487" t="s">
+        <v>29</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H487" t="s">
+        <v>991</v>
+      </c>
+      <c r="I487" t="s">
+        <v>157</v>
+      </c>
+      <c r="J487" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K487" t="s">
+        <v>24</v>
+      </c>
+      <c r="L487" t="s">
+        <v>25</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N487" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O487" t="s">
+        <v>24</v>
+      </c>
+      <c r="P487" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B488" t="s">
+        <v>58</v>
+      </c>
+      <c r="C488" t="s">
+        <v>41</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E488" t="s">
+        <v>65</v>
+      </c>
+      <c r="F488" t="s">
+        <v>29</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H488" t="s">
+        <v>21</v>
+      </c>
+      <c r="I488" t="s">
+        <v>55</v>
+      </c>
+      <c r="J488" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K488" t="s">
+        <v>24</v>
+      </c>
+      <c r="L488" t="s">
+        <v>25</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N488" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O488" t="s">
+        <v>24</v>
+      </c>
+      <c r="P488" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B489" t="s">
+        <v>58</v>
+      </c>
+      <c r="C489" t="s">
+        <v>41</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E489" t="s">
+        <v>65</v>
+      </c>
+      <c r="F489" t="s">
+        <v>29</v>
+      </c>
+      <c r="G489" t="s">
+        <v>20</v>
+      </c>
+      <c r="H489" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I489" t="s">
+        <v>646</v>
+      </c>
+      <c r="J489" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K489" t="s">
+        <v>24</v>
+      </c>
+      <c r="L489" t="s">
+        <v>201</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N489" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O489" t="s">
+        <v>24</v>
+      </c>
+      <c r="P489" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B490" t="s">
+        <v>58</v>
+      </c>
+      <c r="C490" t="s">
+        <v>41</v>
+      </c>
+      <c r="D490" t="s">
+        <v>139</v>
+      </c>
+      <c r="E490" t="s">
+        <v>65</v>
+      </c>
+      <c r="F490" t="s">
+        <v>29</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H490" t="s">
+        <v>58</v>
+      </c>
+      <c r="I490" t="s">
+        <v>55</v>
+      </c>
+      <c r="J490" t="s">
+        <v>140</v>
+      </c>
+      <c r="K490" t="s">
+        <v>24</v>
+      </c>
+      <c r="L490" t="s">
+        <v>25</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N490" t="s">
+        <v>1528</v>
+      </c>
+      <c r="O490" t="s">
+        <v>24</v>
+      </c>
+      <c r="P490" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B491" t="s">
+        <v>58</v>
+      </c>
+      <c r="C491" t="s">
+        <v>27</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E491" t="s">
+        <v>65</v>
+      </c>
+      <c r="F491" t="s">
+        <v>29</v>
+      </c>
+      <c r="G491" t="s">
+        <v>49</v>
+      </c>
+      <c r="H491" t="s">
+        <v>129</v>
+      </c>
+      <c r="I491" t="s">
+        <v>157</v>
+      </c>
+      <c r="J491" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K491" t="s">
+        <v>24</v>
+      </c>
+      <c r="L491" t="s">
+        <v>25</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N491" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O491" t="s">
+        <v>80</v>
+      </c>
+      <c r="P491" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B492" t="s">
+        <v>58</v>
+      </c>
+      <c r="C492" t="s">
+        <v>27</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E492" t="s">
+        <v>65</v>
+      </c>
+      <c r="F492" t="s">
+        <v>19</v>
+      </c>
+      <c r="G492" t="s">
+        <v>105</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I492" t="s">
+        <v>22</v>
+      </c>
+      <c r="J492" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K492" t="s">
+        <v>24</v>
+      </c>
+      <c r="L492" t="s">
+        <v>25</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N492" t="s">
+        <v>1534</v>
+      </c>
+      <c r="O492" t="s">
+        <v>24</v>
+      </c>
+      <c r="P492" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B493" t="s">
+        <v>58</v>
+      </c>
+      <c r="C493" t="s">
+        <v>41</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E493" t="s">
+        <v>65</v>
+      </c>
+      <c r="F493" t="s">
+        <v>19</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H493" t="s">
+        <v>178</v>
+      </c>
+      <c r="I493" t="s">
+        <v>22</v>
+      </c>
+      <c r="J493" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K493" t="s">
+        <v>24</v>
+      </c>
+      <c r="L493" t="s">
+        <v>25</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N493" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O493" t="s">
+        <v>24</v>
+      </c>
+      <c r="P493" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B494" t="s">
+        <v>58</v>
+      </c>
+      <c r="C494" t="s">
+        <v>27</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E494" t="s">
+        <v>65</v>
+      </c>
+      <c r="F494" t="s">
+        <v>29</v>
+      </c>
+      <c r="G494" t="s">
+        <v>49</v>
+      </c>
+      <c r="H494" t="s">
+        <v>58</v>
+      </c>
+      <c r="I494" t="s">
+        <v>55</v>
+      </c>
+      <c r="J494" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K494" t="s">
+        <v>24</v>
+      </c>
+      <c r="L494" t="s">
+        <v>25</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N494" t="s">
+        <v>1539</v>
+      </c>
+      <c r="O494" t="s">
+        <v>24</v>
+      </c>
+      <c r="P494" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B495" t="s">
+        <v>58</v>
+      </c>
+      <c r="C495" t="s">
+        <v>41</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E495" t="s">
+        <v>65</v>
+      </c>
+      <c r="F495" t="s">
+        <v>29</v>
+      </c>
+      <c r="G495" t="s">
+        <v>162</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I495" t="s">
+        <v>22</v>
+      </c>
+      <c r="J495" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K495" t="s">
+        <v>24</v>
+      </c>
+      <c r="L495" t="s">
+        <v>25</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N495" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O495" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P495" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B496" t="s">
+        <v>58</v>
+      </c>
+      <c r="C496" t="s">
+        <v>16</v>
+      </c>
+      <c r="D496" t="s">
+        <v>697</v>
+      </c>
+      <c r="E496" t="s">
+        <v>65</v>
+      </c>
+      <c r="F496" t="s">
+        <v>91</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H496" t="s">
+        <v>698</v>
+      </c>
+      <c r="I496" t="s">
+        <v>22</v>
+      </c>
+      <c r="J496" t="s">
+        <v>700</v>
+      </c>
+      <c r="K496" t="s">
+        <v>24</v>
+      </c>
+      <c r="L496" t="s">
+        <v>450</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N496" t="s">
+        <v>1544</v>
+      </c>
+      <c r="O496" t="s">
+        <v>24</v>
+      </c>
+      <c r="P496" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B497" t="s">
+        <v>58</v>
+      </c>
+      <c r="C497" t="s">
+        <v>27</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E497" t="s">
+        <v>65</v>
+      </c>
+      <c r="F497" t="s">
+        <v>29</v>
+      </c>
+      <c r="G497" t="s">
+        <v>43</v>
+      </c>
+      <c r="H497" t="s">
+        <v>698</v>
+      </c>
+      <c r="I497" t="s">
+        <v>22</v>
+      </c>
+      <c r="J497" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K497" t="s">
+        <v>24</v>
+      </c>
+      <c r="L497" t="s">
+        <v>25</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N497" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O497" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P497" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B498" t="s">
+        <v>58</v>
+      </c>
+      <c r="C498" t="s">
+        <v>41</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E498" t="s">
+        <v>65</v>
+      </c>
+      <c r="F498" t="s">
+        <v>29</v>
+      </c>
+      <c r="G498" t="s">
+        <v>146</v>
+      </c>
+      <c r="H498" t="s">
+        <v>129</v>
+      </c>
+      <c r="I498" t="s">
+        <v>22</v>
+      </c>
+      <c r="J498" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K498" t="s">
+        <v>24</v>
+      </c>
+      <c r="L498" t="s">
+        <v>25</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N498" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O498" t="s">
+        <v>24</v>
+      </c>
+      <c r="P498" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B499" t="s">
+        <v>58</v>
+      </c>
+      <c r="C499" t="s">
+        <v>27</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E499" t="s">
+        <v>65</v>
+      </c>
+      <c r="F499" t="s">
+        <v>29</v>
+      </c>
+      <c r="G499" t="s">
+        <v>105</v>
+      </c>
+      <c r="H499" t="s">
+        <v>281</v>
+      </c>
+      <c r="I499" t="s">
+        <v>335</v>
+      </c>
+      <c r="J499" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K499" t="s">
+        <v>24</v>
+      </c>
+      <c r="L499" t="s">
+        <v>25</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N499" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O499" t="s">
+        <v>24</v>
+      </c>
+      <c r="P499" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B500" t="s">
+        <v>58</v>
+      </c>
+      <c r="C500" t="s">
+        <v>41</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E500" t="s">
+        <v>65</v>
+      </c>
+      <c r="F500" t="s">
+        <v>19</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H500" t="s">
+        <v>129</v>
+      </c>
+      <c r="I500" t="s">
+        <v>157</v>
+      </c>
+      <c r="J500" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K500" t="s">
+        <v>24</v>
+      </c>
+      <c r="L500" t="s">
+        <v>25</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N500" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O500" t="s">
+        <v>24</v>
+      </c>
+      <c r="P500" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B501" t="s">
+        <v>58</v>
+      </c>
+      <c r="C501" t="s">
+        <v>27</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E501" t="s">
+        <v>65</v>
+      </c>
+      <c r="F501" t="s">
+        <v>29</v>
+      </c>
+      <c r="G501" t="s">
+        <v>74</v>
+      </c>
+      <c r="H501" t="s">
+        <v>166</v>
+      </c>
+      <c r="I501" t="s">
+        <v>22</v>
+      </c>
+      <c r="J501" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K501" t="s">
+        <v>24</v>
+      </c>
+      <c r="L501" t="s">
+        <v>25</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N501" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O501" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P501" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B502" t="s">
+        <v>58</v>
+      </c>
+      <c r="C502" t="s">
+        <v>41</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E502" t="s">
+        <v>65</v>
+      </c>
+      <c r="F502" t="s">
+        <v>29</v>
+      </c>
+      <c r="G502" t="s">
+        <v>177</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I502" t="s">
+        <v>277</v>
+      </c>
+      <c r="J502" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K502" t="s">
+        <v>24</v>
+      </c>
+      <c r="L502" t="s">
+        <v>201</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N502" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O502" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P502" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B503" t="s">
+        <v>58</v>
+      </c>
+      <c r="C503" t="s">
+        <v>41</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E503" t="s">
+        <v>65</v>
+      </c>
+      <c r="F503" t="s">
+        <v>19</v>
+      </c>
+      <c r="G503" t="s">
+        <v>99</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I503" t="s">
+        <v>22</v>
+      </c>
+      <c r="J503" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K503" t="s">
+        <v>24</v>
+      </c>
+      <c r="L503" t="s">
+        <v>25</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N503" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O503" t="s">
+        <v>24</v>
+      </c>
+      <c r="P503" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B504" t="s">
+        <v>58</v>
+      </c>
+      <c r="C504" t="s">
+        <v>41</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E504" t="s">
+        <v>65</v>
+      </c>
+      <c r="F504" t="s">
+        <v>91</v>
+      </c>
+      <c r="G504" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H504" t="s">
+        <v>54</v>
+      </c>
+      <c r="I504" t="s">
+        <v>157</v>
+      </c>
+      <c r="J504" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K504" t="s">
+        <v>24</v>
+      </c>
+      <c r="L504" t="s">
+        <v>25</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N504" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O504" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P504" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B505" t="s">
+        <v>58</v>
+      </c>
+      <c r="C505" t="s">
+        <v>41</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E505" t="s">
+        <v>65</v>
+      </c>
+      <c r="F505" t="s">
+        <v>185</v>
+      </c>
+      <c r="G505" t="s">
+        <v>74</v>
+      </c>
+      <c r="H505" t="s">
+        <v>58</v>
+      </c>
+      <c r="I505" t="s">
+        <v>55</v>
+      </c>
+      <c r="J505" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K505" t="s">
+        <v>24</v>
+      </c>
+      <c r="L505" t="s">
+        <v>46</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N505" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O505" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P505" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B506" t="s">
+        <v>58</v>
+      </c>
+      <c r="C506" t="s">
+        <v>27</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E506" t="s">
+        <v>65</v>
+      </c>
+      <c r="F506" t="s">
+        <v>292</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H506" t="s">
+        <v>58</v>
+      </c>
+      <c r="I506" t="s">
+        <v>55</v>
+      </c>
+      <c r="J506" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K506" t="s">
+        <v>24</v>
+      </c>
+      <c r="L506" t="s">
+        <v>25</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N506" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O506" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P506" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B507" t="s">
+        <v>58</v>
+      </c>
+      <c r="C507" t="s">
+        <v>41</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E507" t="s">
+        <v>65</v>
+      </c>
+      <c r="F507" t="s">
+        <v>58</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I507" t="s">
+        <v>157</v>
+      </c>
+      <c r="J507" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K507" t="s">
+        <v>24</v>
+      </c>
+      <c r="L507" t="s">
+        <v>25</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N507" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O507" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P507" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B508" t="s">
+        <v>58</v>
+      </c>
+      <c r="C508" t="s">
+        <v>27</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E508" t="s">
+        <v>65</v>
+      </c>
+      <c r="F508" t="s">
+        <v>292</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I508" t="s">
+        <v>324</v>
+      </c>
+      <c r="J508" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K508" t="s">
+        <v>24</v>
+      </c>
+      <c r="L508" t="s">
+        <v>25</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N508" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O508" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P508" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B509" t="s">
+        <v>58</v>
+      </c>
+      <c r="C509" t="s">
+        <v>41</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E509" t="s">
+        <v>65</v>
+      </c>
+      <c r="F509" t="s">
+        <v>29</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H509" t="s">
+        <v>281</v>
+      </c>
+      <c r="I509" t="s">
+        <v>22</v>
+      </c>
+      <c r="J509" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K509" t="s">
+        <v>24</v>
+      </c>
+      <c r="L509" t="s">
+        <v>25</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N509" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O509" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P509" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B510" t="s">
+        <v>58</v>
+      </c>
+      <c r="C510" t="s">
+        <v>41</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E510" t="s">
+        <v>65</v>
+      </c>
+      <c r="F510" t="s">
+        <v>29</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H510" t="s">
+        <v>44</v>
+      </c>
+      <c r="I510" t="s">
+        <v>22</v>
+      </c>
+      <c r="J510" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K510" t="s">
+        <v>24</v>
+      </c>
+      <c r="L510" t="s">
+        <v>25</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N510" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O510" t="s">
+        <v>24</v>
+      </c>
+      <c r="P510" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B511" t="s">
+        <v>58</v>
+      </c>
+      <c r="C511" t="s">
+        <v>41</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E511" t="s">
+        <v>65</v>
+      </c>
+      <c r="F511" t="s">
+        <v>29</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H511" t="s">
+        <v>618</v>
+      </c>
+      <c r="I511" t="s">
+        <v>22</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K511" t="s">
+        <v>24</v>
+      </c>
+      <c r="L511" t="s">
+        <v>25</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N511" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O511" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P511" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B512" t="s">
+        <v>58</v>
+      </c>
+      <c r="C512" t="s">
+        <v>41</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E512" t="s">
+        <v>65</v>
+      </c>
+      <c r="F512" t="s">
+        <v>29</v>
+      </c>
+      <c r="G512" t="s">
+        <v>84</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I512" t="s">
+        <v>22</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K512" t="s">
+        <v>24</v>
+      </c>
+      <c r="L512" t="s">
+        <v>25</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N512" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O512" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P512" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B513" t="s">
+        <v>58</v>
+      </c>
+      <c r="C513" t="s">
+        <v>27</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E513" t="s">
+        <v>65</v>
+      </c>
+      <c r="F513" t="s">
+        <v>29</v>
+      </c>
+      <c r="G513" t="s">
+        <v>92</v>
+      </c>
+      <c r="H513" t="s">
+        <v>618</v>
+      </c>
+      <c r="I513" t="s">
+        <v>22</v>
+      </c>
+      <c r="J513" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K513" t="s">
+        <v>24</v>
+      </c>
+      <c r="L513" t="s">
+        <v>25</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N513" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O513" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P513" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B514" t="s">
+        <v>58</v>
+      </c>
+      <c r="C514" t="s">
+        <v>41</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E514" t="s">
+        <v>65</v>
+      </c>
+      <c r="F514" t="s">
+        <v>29</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H514" t="s">
+        <v>178</v>
+      </c>
+      <c r="I514" t="s">
+        <v>22</v>
+      </c>
+      <c r="J514" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K514" t="s">
+        <v>24</v>
+      </c>
+      <c r="L514" t="s">
+        <v>25</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N514" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O514" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P514" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B515" t="s">
+        <v>58</v>
+      </c>
+      <c r="C515" t="s">
+        <v>41</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E515" t="s">
+        <v>65</v>
+      </c>
+      <c r="F515" t="s">
+        <v>19</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H515" t="s">
+        <v>281</v>
+      </c>
+      <c r="I515" t="s">
+        <v>22</v>
+      </c>
+      <c r="J515" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K515" t="s">
+        <v>24</v>
+      </c>
+      <c r="L515" t="s">
+        <v>46</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N515" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O515" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P515" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B516" t="s">
+        <v>58</v>
+      </c>
+      <c r="C516" t="s">
+        <v>41</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E516" t="s">
+        <v>65</v>
+      </c>
+      <c r="F516" t="s">
+        <v>58</v>
+      </c>
+      <c r="G516" t="s">
+        <v>109</v>
+      </c>
+      <c r="H516" t="s">
+        <v>129</v>
+      </c>
+      <c r="I516" t="s">
+        <v>55</v>
+      </c>
+      <c r="J516" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K516" t="s">
+        <v>24</v>
+      </c>
+      <c r="L516" t="s">
+        <v>25</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N516" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O516" t="s">
+        <v>24</v>
+      </c>
+      <c r="P516" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B517" t="s">
+        <v>58</v>
+      </c>
+      <c r="C517" t="s">
+        <v>16</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E517" t="s">
+        <v>65</v>
+      </c>
+      <c r="F517" t="s">
+        <v>19</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H517" t="s">
+        <v>178</v>
+      </c>
+      <c r="I517" t="s">
+        <v>22</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K517" t="s">
+        <v>24</v>
+      </c>
+      <c r="L517" t="s">
+        <v>25</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N517" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O517" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P517" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C518" t="s">
+        <v>27</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E518" t="s">
+        <v>65</v>
+      </c>
+      <c r="F518" t="s">
+        <v>29</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H518" t="s">
+        <v>323</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K518" t="s">
+        <v>24</v>
+      </c>
+      <c r="L518" t="s">
+        <v>25</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N518" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O518" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P518" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B519" t="s">
+        <v>58</v>
+      </c>
+      <c r="C519" t="s">
+        <v>41</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E519" t="s">
+        <v>65</v>
+      </c>
+      <c r="F519" t="s">
+        <v>29</v>
+      </c>
+      <c r="G519" t="s">
+        <v>92</v>
+      </c>
+      <c r="H519" t="s">
+        <v>21</v>
+      </c>
+      <c r="I519" t="s">
+        <v>157</v>
+      </c>
+      <c r="J519" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K519" t="s">
+        <v>24</v>
+      </c>
+      <c r="L519" t="s">
+        <v>25</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N519" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O519" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P519" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B520" t="s">
+        <v>58</v>
+      </c>
+      <c r="C520" t="s">
+        <v>27</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E520" t="s">
+        <v>65</v>
+      </c>
+      <c r="F520" t="s">
+        <v>29</v>
+      </c>
+      <c r="G520" t="s">
+        <v>177</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I520" t="s">
+        <v>22</v>
+      </c>
+      <c r="J520" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K520" t="s">
+        <v>24</v>
+      </c>
+      <c r="L520" t="s">
+        <v>46</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N520" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O520" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P520" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B521" t="s">
+        <v>209</v>
+      </c>
+      <c r="C521" t="s">
+        <v>41</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E521" t="s">
+        <v>18</v>
+      </c>
+      <c r="F521" t="s">
+        <v>29</v>
+      </c>
+      <c r="G521">
+        <v>33</v>
+      </c>
+      <c r="H521" t="s">
+        <v>129</v>
+      </c>
+      <c r="I521" t="s">
+        <v>157</v>
+      </c>
+      <c r="J521" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K521" t="s">
+        <v>24</v>
+      </c>
+      <c r="L521" t="s">
+        <v>46</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N521" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O521" t="s">
+        <v>24</v>
+      </c>
+      <c r="P521" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B522" t="s">
+        <v>209</v>
+      </c>
+      <c r="C522" t="s">
+        <v>41</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E522" t="s">
+        <v>18</v>
+      </c>
+      <c r="F522" t="s">
+        <v>58</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522" t="s">
+        <v>58</v>
+      </c>
+      <c r="I522" t="s">
+        <v>55</v>
+      </c>
+      <c r="J522" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K522" t="s">
+        <v>24</v>
+      </c>
+      <c r="L522" t="s">
+        <v>25</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N522" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O522" t="s">
+        <v>80</v>
+      </c>
+      <c r="P522" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B523" t="s">
+        <v>209</v>
+      </c>
+      <c r="C523" t="s">
+        <v>41</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E523" t="s">
+        <v>18</v>
+      </c>
+      <c r="F523" t="s">
+        <v>29</v>
+      </c>
+      <c r="G523">
+        <v>26</v>
+      </c>
+      <c r="H523" t="s">
+        <v>44</v>
+      </c>
+      <c r="I523" t="s">
+        <v>22</v>
+      </c>
+      <c r="J523" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K523" t="s">
+        <v>24</v>
+      </c>
+      <c r="L523" t="s">
+        <v>25</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N523" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O523" t="s">
+        <v>24</v>
+      </c>
+      <c r="P523" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B524" t="s">
+        <v>209</v>
+      </c>
+      <c r="C524" t="s">
+        <v>27</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E524" t="s">
+        <v>18</v>
+      </c>
+      <c r="F524" t="s">
+        <v>19</v>
+      </c>
+      <c r="G524">
+        <v>60</v>
+      </c>
+      <c r="H524" t="s">
+        <v>58</v>
+      </c>
+      <c r="I524" t="s">
+        <v>36</v>
+      </c>
+      <c r="J524" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K524" t="s">
+        <v>24</v>
+      </c>
+      <c r="L524" t="s">
+        <v>25</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N524" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O524" t="s">
+        <v>80</v>
+      </c>
+      <c r="P524" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B525" t="s">
+        <v>209</v>
+      </c>
+      <c r="C525" t="s">
+        <v>27</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E525" t="s">
+        <v>18</v>
+      </c>
+      <c r="F525" t="s">
+        <v>29</v>
+      </c>
+      <c r="G525">
+        <v>29</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I525" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J525" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K525" t="s">
+        <v>24</v>
+      </c>
+      <c r="L525" t="s">
+        <v>46</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N525" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O525" t="s">
+        <v>80</v>
+      </c>
+      <c r="P525" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B526" t="s">
+        <v>58</v>
+      </c>
+      <c r="C526" t="s">
+        <v>27</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E526" t="s">
+        <v>18</v>
+      </c>
+      <c r="F526" t="s">
+        <v>29</v>
+      </c>
+      <c r="G526">
+        <v>34</v>
+      </c>
+      <c r="H526" t="s">
+        <v>393</v>
+      </c>
+      <c r="I526" t="s">
+        <v>22</v>
+      </c>
+      <c r="J526" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K526" t="s">
+        <v>24</v>
+      </c>
+      <c r="L526" t="s">
+        <v>457</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N526" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O526" t="s">
+        <v>80</v>
+      </c>
+      <c r="P526" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B527" t="s">
+        <v>58</v>
+      </c>
+      <c r="C527" t="s">
+        <v>27</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E527" t="s">
+        <v>18</v>
+      </c>
+      <c r="F527" t="s">
+        <v>19</v>
+      </c>
+      <c r="G527">
+        <v>31</v>
+      </c>
+      <c r="H527" t="s">
+        <v>366</v>
+      </c>
+      <c r="I527" t="s">
+        <v>22</v>
+      </c>
+      <c r="J527" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K527" t="s">
+        <v>24</v>
+      </c>
+      <c r="L527" t="s">
+        <v>201</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N527" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O527" t="s">
+        <v>80</v>
+      </c>
+      <c r="P527" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B528" t="s">
+        <v>209</v>
+      </c>
+      <c r="C528" t="s">
+        <v>16</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E528" t="s">
+        <v>65</v>
+      </c>
+      <c r="F528" t="s">
+        <v>29</v>
+      </c>
+      <c r="G528">
+        <v>22</v>
+      </c>
+      <c r="H528" t="s">
+        <v>516</v>
+      </c>
+      <c r="I528" t="s">
+        <v>22</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K528" t="s">
+        <v>24</v>
+      </c>
+      <c r="L528" t="s">
+        <v>25</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N528" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O528" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P528" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B529" t="s">
+        <v>209</v>
+      </c>
+      <c r="C529" t="s">
+        <v>27</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E529" t="s">
+        <v>65</v>
+      </c>
+      <c r="F529" t="s">
+        <v>58</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529" t="s">
+        <v>44</v>
+      </c>
+      <c r="I529" t="s">
+        <v>22</v>
+      </c>
+      <c r="J529" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K529" t="s">
+        <v>24</v>
+      </c>
+      <c r="L529" t="s">
+        <v>25</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N529" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O529" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P529" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B530" t="s">
+        <v>209</v>
+      </c>
+      <c r="C530" t="s">
+        <v>27</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E530" t="s">
+        <v>65</v>
+      </c>
+      <c r="F530" t="s">
+        <v>29</v>
+      </c>
+      <c r="G530">
+        <v>7</v>
+      </c>
+      <c r="H530" t="s">
+        <v>507</v>
+      </c>
+      <c r="I530" t="s">
+        <v>335</v>
+      </c>
+      <c r="J530" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K530" t="s">
+        <v>24</v>
+      </c>
+      <c r="L530" t="s">
+        <v>25</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N530" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O530" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P530" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B531" t="s">
+        <v>58</v>
+      </c>
+      <c r="C531" t="s">
+        <v>41</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E531" t="s">
+        <v>65</v>
+      </c>
+      <c r="F531" t="s">
+        <v>19</v>
+      </c>
+      <c r="G531">
+        <v>28</v>
+      </c>
+      <c r="H531" t="s">
+        <v>366</v>
+      </c>
+      <c r="I531" t="s">
+        <v>22</v>
+      </c>
+      <c r="J531" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K531" t="s">
+        <v>24</v>
+      </c>
+      <c r="L531" t="s">
+        <v>201</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N531" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O531" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P531" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B532" t="s">
+        <v>209</v>
+      </c>
+      <c r="C532" t="s">
+        <v>41</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E532" t="s">
+        <v>65</v>
+      </c>
+      <c r="F532" t="s">
+        <v>29</v>
+      </c>
+      <c r="G532">
+        <v>21</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I532" t="s">
+        <v>22</v>
+      </c>
+      <c r="J532" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K532" t="s">
+        <v>24</v>
+      </c>
+      <c r="L532" t="s">
+        <v>25</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N532" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O532" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P532" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B533" t="s">
+        <v>209</v>
+      </c>
+      <c r="C533" t="s">
+        <v>27</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E533" t="s">
+        <v>65</v>
+      </c>
+      <c r="F533" t="s">
+        <v>29</v>
+      </c>
+      <c r="G533">
+        <v>34</v>
+      </c>
+      <c r="H533" t="s">
+        <v>44</v>
+      </c>
+      <c r="I533" t="s">
+        <v>22</v>
+      </c>
+      <c r="J533" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K533" t="s">
+        <v>24</v>
+      </c>
+      <c r="L533" t="s">
+        <v>25</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N533" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O533" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P533" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B534" t="s">
+        <v>209</v>
+      </c>
+      <c r="C534" t="s">
+        <v>16</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E534" t="s">
+        <v>65</v>
+      </c>
+      <c r="F534" t="s">
+        <v>91</v>
+      </c>
+      <c r="G534">
+        <v>36</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I534" t="s">
+        <v>157</v>
+      </c>
+      <c r="J534" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K534" t="s">
+        <v>24</v>
+      </c>
+      <c r="L534" t="s">
+        <v>46</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N534" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O534" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P534" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B535" t="s">
+        <v>209</v>
+      </c>
+      <c r="C535" t="s">
+        <v>41</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E535" t="s">
+        <v>65</v>
+      </c>
+      <c r="F535" t="s">
+        <v>19</v>
+      </c>
+      <c r="G535">
+        <v>36</v>
+      </c>
+      <c r="H535" t="s">
+        <v>366</v>
+      </c>
+      <c r="I535" t="s">
+        <v>55</v>
+      </c>
+      <c r="J535" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K535" t="s">
+        <v>24</v>
+      </c>
+      <c r="L535" t="s">
+        <v>46</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N535" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O535" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P535" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B536" t="s">
+        <v>209</v>
+      </c>
+      <c r="C536" t="s">
+        <v>27</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E536" t="s">
+        <v>65</v>
+      </c>
+      <c r="F536" t="s">
+        <v>29</v>
+      </c>
+      <c r="G536">
+        <v>31</v>
+      </c>
+      <c r="H536" t="s">
+        <v>178</v>
+      </c>
+      <c r="I536" t="s">
+        <v>22</v>
+      </c>
+      <c r="J536" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K536" t="s">
+        <v>24</v>
+      </c>
+      <c r="L536" t="s">
+        <v>25</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N536" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O536" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P536" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B537" t="s">
+        <v>58</v>
+      </c>
+      <c r="C537" t="s">
+        <v>27</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E537" t="s">
+        <v>65</v>
+      </c>
+      <c r="F537" t="s">
+        <v>29</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537" t="s">
+        <v>58</v>
+      </c>
+      <c r="I537" t="s">
+        <v>55</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K537" t="s">
+        <v>24</v>
+      </c>
+      <c r="L537" t="s">
+        <v>25</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N537" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O537" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P537" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B538" t="s">
+        <v>58</v>
+      </c>
+      <c r="C538" t="s">
+        <v>27</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E538" t="s">
+        <v>65</v>
+      </c>
+      <c r="F538" t="s">
+        <v>29</v>
+      </c>
+      <c r="G538">
+        <v>17</v>
+      </c>
+      <c r="H538" t="s">
+        <v>58</v>
+      </c>
+      <c r="I538" t="s">
+        <v>55</v>
+      </c>
+      <c r="J538" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K538" t="s">
+        <v>24</v>
+      </c>
+      <c r="L538" t="s">
+        <v>25</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N538" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O538" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P538" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B539" t="s">
+        <v>58</v>
+      </c>
+      <c r="C539" t="s">
+        <v>27</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E539" t="s">
+        <v>65</v>
+      </c>
+      <c r="F539" t="s">
+        <v>29</v>
+      </c>
+      <c r="G539">
+        <v>38</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I539" t="s">
+        <v>22</v>
+      </c>
+      <c r="J539" t="s">
+        <v>1661</v>
+      </c>
+      <c r="K539" t="s">
+        <v>24</v>
+      </c>
+      <c r="L539" t="s">
+        <v>25</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N539" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O539" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P539" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B540" t="s">
+        <v>627</v>
+      </c>
+      <c r="C540" t="s">
+        <v>41</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E540" t="s">
+        <v>65</v>
+      </c>
+      <c r="F540" t="s">
+        <v>91</v>
+      </c>
+      <c r="G540">
+        <v>45</v>
+      </c>
+      <c r="H540" t="s">
+        <v>58</v>
+      </c>
+      <c r="I540" t="s">
+        <v>55</v>
+      </c>
+      <c r="J540" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K540" t="s">
+        <v>24</v>
+      </c>
+      <c r="L540" t="s">
+        <v>148</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N540" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O540" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P540" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B541" t="s">
+        <v>627</v>
+      </c>
+      <c r="C541" t="s">
+        <v>27</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E541" t="s">
+        <v>65</v>
+      </c>
+      <c r="F541" t="s">
+        <v>91</v>
+      </c>
+      <c r="G541">
+        <v>39</v>
+      </c>
+      <c r="H541" t="s">
+        <v>307</v>
+      </c>
+      <c r="I541" t="s">
+        <v>22</v>
+      </c>
+      <c r="J541" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K541" t="s">
+        <v>24</v>
+      </c>
+      <c r="L541" t="s">
+        <v>25</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N541" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O541" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P541" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B542" t="s">
+        <v>58</v>
+      </c>
+      <c r="C542" t="s">
+        <v>27</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E542" t="s">
+        <v>65</v>
+      </c>
+      <c r="F542" t="s">
+        <v>29</v>
+      </c>
+      <c r="G542">
+        <v>29</v>
+      </c>
+      <c r="H542" t="s">
+        <v>512</v>
+      </c>
+      <c r="I542" t="s">
+        <v>22</v>
+      </c>
+      <c r="J542" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K542" t="s">
+        <v>24</v>
+      </c>
+      <c r="L542" t="s">
+        <v>25</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N542" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O542" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P542" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B543" t="s">
+        <v>209</v>
+      </c>
+      <c r="C543" t="s">
+        <v>27</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E543" t="s">
+        <v>18</v>
+      </c>
+      <c r="F543" t="s">
+        <v>19</v>
+      </c>
+      <c r="G543">
+        <v>50</v>
+      </c>
+      <c r="H543" t="s">
+        <v>129</v>
+      </c>
+      <c r="I543" t="s">
+        <v>22</v>
+      </c>
+      <c r="J543" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K543" t="s">
+        <v>24</v>
+      </c>
+      <c r="L543" t="s">
+        <v>445</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N543" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O543" t="s">
+        <v>80</v>
+      </c>
+      <c r="P543" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B544" t="s">
+        <v>209</v>
+      </c>
+      <c r="C544" t="s">
+        <v>41</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E544" t="s">
+        <v>18</v>
+      </c>
+      <c r="F544" t="s">
+        <v>19</v>
+      </c>
+      <c r="G544">
+        <v>55</v>
+      </c>
+      <c r="H544" t="s">
+        <v>44</v>
+      </c>
+      <c r="I544" t="s">
+        <v>22</v>
+      </c>
+      <c r="J544" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K544" t="s">
+        <v>24</v>
+      </c>
+      <c r="L544" t="s">
+        <v>25</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N544" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O544" t="s">
+        <v>24</v>
+      </c>
+      <c r="P544" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B545" t="s">
+        <v>209</v>
+      </c>
+      <c r="C545" t="s">
+        <v>41</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E545" t="s">
+        <v>18</v>
+      </c>
+      <c r="F545" t="s">
+        <v>29</v>
+      </c>
+      <c r="G545">
+        <v>42</v>
+      </c>
+      <c r="H545" t="s">
+        <v>58</v>
+      </c>
+      <c r="I545" t="s">
+        <v>55</v>
+      </c>
+      <c r="J545" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K545" t="s">
+        <v>24</v>
+      </c>
+      <c r="L545" t="s">
+        <v>25</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N545" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O545" t="s">
+        <v>24</v>
+      </c>
+      <c r="P545" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B546" t="s">
+        <v>209</v>
+      </c>
+      <c r="C546" t="s">
+        <v>41</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E546" t="s">
+        <v>18</v>
+      </c>
+      <c r="F546" t="s">
+        <v>29</v>
+      </c>
+      <c r="G546">
+        <v>26</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I546" t="s">
+        <v>55</v>
+      </c>
+      <c r="J546" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K546" t="s">
+        <v>24</v>
+      </c>
+      <c r="L546" t="s">
+        <v>25</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N546" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O546" t="s">
+        <v>24</v>
+      </c>
+      <c r="P546" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B547" t="s">
+        <v>58</v>
+      </c>
+      <c r="C547" t="s">
+        <v>27</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E547" t="s">
+        <v>18</v>
+      </c>
+      <c r="F547" t="s">
+        <v>29</v>
+      </c>
+      <c r="G547">
+        <v>28</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I547" t="s">
+        <v>157</v>
+      </c>
+      <c r="J547" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K547" t="s">
+        <v>24</v>
+      </c>
+      <c r="L547" t="s">
+        <v>25</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N547" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O547" t="s">
+        <v>80</v>
+      </c>
+      <c r="P547" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B548" t="s">
+        <v>209</v>
+      </c>
+      <c r="C548" t="s">
+        <v>27</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E548" t="s">
+        <v>18</v>
+      </c>
+      <c r="F548" t="s">
+        <v>19</v>
+      </c>
+      <c r="G548">
+        <v>53</v>
+      </c>
+      <c r="H548" t="s">
+        <v>21</v>
+      </c>
+      <c r="I548" t="s">
+        <v>22</v>
+      </c>
+      <c r="J548" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K548" t="s">
+        <v>24</v>
+      </c>
+      <c r="L548" t="s">
+        <v>46</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N548" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O548" t="s">
+        <v>24</v>
+      </c>
+      <c r="P548" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B549" t="s">
+        <v>58</v>
+      </c>
+      <c r="C549" t="s">
+        <v>41</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E549" t="s">
+        <v>18</v>
+      </c>
+      <c r="F549" t="s">
+        <v>29</v>
+      </c>
+      <c r="G549">
+        <v>37</v>
+      </c>
+      <c r="H549" t="s">
+        <v>816</v>
+      </c>
+      <c r="I549" t="s">
+        <v>22</v>
+      </c>
+      <c r="J549" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K549" t="s">
+        <v>24</v>
+      </c>
+      <c r="L549" t="s">
+        <v>25</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N549" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O549" t="s">
+        <v>80</v>
+      </c>
+      <c r="P549" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B550" t="s">
+        <v>209</v>
+      </c>
+      <c r="C550" t="s">
+        <v>41</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E550" t="s">
+        <v>65</v>
+      </c>
+      <c r="F550" t="s">
+        <v>29</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550" t="s">
+        <v>58</v>
+      </c>
+      <c r="I550" t="s">
+        <v>55</v>
+      </c>
+      <c r="J550" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K550" t="s">
+        <v>24</v>
+      </c>
+      <c r="L550" t="s">
+        <v>25</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N550" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O550" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P550" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B551" t="s">
+        <v>58</v>
+      </c>
+      <c r="C551" t="s">
+        <v>27</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E551" t="s">
+        <v>65</v>
+      </c>
+      <c r="F551" t="s">
+        <v>19</v>
+      </c>
+      <c r="G551">
+        <v>38</v>
+      </c>
+      <c r="H551" t="s">
+        <v>58</v>
+      </c>
+      <c r="I551" t="s">
+        <v>55</v>
+      </c>
+      <c r="J551" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K551" t="s">
+        <v>24</v>
+      </c>
+      <c r="L551" t="s">
+        <v>25</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N551" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O551" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P551" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B552" t="s">
+        <v>209</v>
+      </c>
+      <c r="C552" t="s">
+        <v>41</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E552" t="s">
+        <v>65</v>
+      </c>
+      <c r="F552" t="s">
+        <v>29</v>
+      </c>
+      <c r="G552">
+        <v>31</v>
+      </c>
+      <c r="H552" t="s">
+        <v>132</v>
+      </c>
+      <c r="I552" t="s">
+        <v>22</v>
+      </c>
+      <c r="J552" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K552" t="s">
+        <v>24</v>
+      </c>
+      <c r="L552" t="s">
+        <v>25</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N552" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O552" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P552" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B553" t="s">
+        <v>209</v>
+      </c>
+      <c r="C553" t="s">
+        <v>41</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E553" t="s">
+        <v>65</v>
+      </c>
+      <c r="F553" t="s">
+        <v>29</v>
+      </c>
+      <c r="G553">
+        <v>24</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K553" t="s">
+        <v>24</v>
+      </c>
+      <c r="L553" t="s">
+        <v>25</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N553" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O553" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P553" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B554" t="s">
+        <v>58</v>
+      </c>
+      <c r="C554" t="s">
+        <v>27</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E554" t="s">
+        <v>65</v>
+      </c>
+      <c r="F554" t="s">
+        <v>29</v>
+      </c>
+      <c r="G554">
+        <v>41</v>
+      </c>
+      <c r="H554" t="s">
+        <v>369</v>
+      </c>
+      <c r="I554" t="s">
+        <v>22</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K554" t="s">
+        <v>24</v>
+      </c>
+      <c r="L554" t="s">
+        <v>148</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N554" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O554" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P554" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B555" t="s">
+        <v>209</v>
+      </c>
+      <c r="C555" t="s">
+        <v>27</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E555" t="s">
+        <v>65</v>
+      </c>
+      <c r="F555" t="s">
+        <v>29</v>
+      </c>
+      <c r="G555">
+        <v>25</v>
+      </c>
+      <c r="H555" t="s">
+        <v>58</v>
+      </c>
+      <c r="I555" t="s">
+        <v>55</v>
+      </c>
+      <c r="J555" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K555" t="s">
+        <v>24</v>
+      </c>
+      <c r="L555" t="s">
+        <v>445</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N555" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O555" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P555" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B556" t="s">
+        <v>209</v>
+      </c>
+      <c r="C556" t="s">
+        <v>41</v>
+      </c>
+      <c r="D556" t="s">
+        <v>852</v>
+      </c>
+      <c r="E556" t="s">
+        <v>65</v>
+      </c>
+      <c r="F556" t="s">
+        <v>29</v>
+      </c>
+      <c r="G556">
+        <v>21</v>
+      </c>
+      <c r="H556" t="s">
+        <v>618</v>
+      </c>
+      <c r="I556" t="s">
+        <v>22</v>
+      </c>
+      <c r="J556" t="s">
+        <v>853</v>
+      </c>
+      <c r="K556" t="s">
+        <v>24</v>
+      </c>
+      <c r="L556" t="s">
+        <v>46</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N556" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O556" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P556" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B557" t="s">
+        <v>209</v>
+      </c>
+      <c r="C557" t="s">
+        <v>41</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E557" t="s">
+        <v>65</v>
+      </c>
+      <c r="F557" t="s">
+        <v>29</v>
+      </c>
+      <c r="G557">
+        <v>35</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I557" t="s">
+        <v>22</v>
+      </c>
+      <c r="J557" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K557" t="s">
+        <v>24</v>
+      </c>
+      <c r="L557" t="s">
+        <v>25</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N557" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O557" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P557" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B558" t="s">
+        <v>58</v>
+      </c>
+      <c r="C558" t="s">
+        <v>16</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E558" t="s">
+        <v>65</v>
+      </c>
+      <c r="F558" t="s">
+        <v>58</v>
+      </c>
+      <c r="G558">
+        <v>43</v>
+      </c>
+      <c r="H558" t="s">
+        <v>58</v>
+      </c>
+      <c r="I558" t="s">
+        <v>55</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K558" t="s">
+        <v>24</v>
+      </c>
+      <c r="L558" t="s">
+        <v>25</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N558" t="s">
+        <v>1709</v>
+      </c>
+      <c r="O558" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P558" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B559" t="s">
+        <v>58</v>
+      </c>
+      <c r="C559" t="s">
+        <v>41</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E559" t="s">
+        <v>65</v>
+      </c>
+      <c r="F559" t="s">
+        <v>29</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559" t="s">
+        <v>58</v>
+      </c>
+      <c r="I559" t="s">
+        <v>55</v>
+      </c>
+      <c r="J559" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K559" t="s">
+        <v>24</v>
+      </c>
+      <c r="L559" t="s">
+        <v>25</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N559" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O559" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P559" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B560" t="s">
+        <v>209</v>
+      </c>
+      <c r="C560" t="s">
+        <v>41</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E560" t="s">
+        <v>65</v>
+      </c>
+      <c r="F560" t="s">
+        <v>29</v>
+      </c>
+      <c r="G560">
+        <v>23</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I560" t="s">
+        <v>157</v>
+      </c>
+      <c r="J560" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K560" t="s">
+        <v>24</v>
+      </c>
+      <c r="L560" t="s">
+        <v>25</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N560" t="s">
+        <v>1715</v>
+      </c>
+      <c r="O560" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P560" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B561" t="s">
+        <v>58</v>
+      </c>
+      <c r="C561" t="s">
+        <v>27</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E561" t="s">
+        <v>65</v>
+      </c>
+      <c r="F561" t="s">
+        <v>29</v>
+      </c>
+      <c r="G561">
+        <v>47</v>
+      </c>
+      <c r="H561" t="s">
+        <v>393</v>
+      </c>
+      <c r="I561" t="s">
+        <v>55</v>
+      </c>
+      <c r="J561" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K561" t="s">
+        <v>24</v>
+      </c>
+      <c r="L561" t="s">
+        <v>25</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N561" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O561" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P561" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B562" t="s">
+        <v>209</v>
+      </c>
+      <c r="C562" t="s">
+        <v>27</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E562" t="s">
+        <v>65</v>
+      </c>
+      <c r="F562" t="s">
+        <v>29</v>
+      </c>
+      <c r="G562">
+        <v>40</v>
+      </c>
+      <c r="H562" t="s">
+        <v>523</v>
+      </c>
+      <c r="I562" t="s">
+        <v>157</v>
+      </c>
+      <c r="J562" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K562" t="s">
+        <v>24</v>
+      </c>
+      <c r="L562" t="s">
+        <v>25</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N562" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O562" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P562" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B563" t="s">
+        <v>58</v>
+      </c>
+      <c r="C563" t="s">
+        <v>27</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E563" t="s">
+        <v>65</v>
+      </c>
+      <c r="F563" t="s">
+        <v>19</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>58</v>
+      </c>
+      <c r="I563" t="s">
+        <v>55</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K563" t="s">
+        <v>24</v>
+      </c>
+      <c r="L563" t="s">
+        <v>25</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N563" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O563" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P563" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B564" t="s">
+        <v>209</v>
+      </c>
+      <c r="C564" t="s">
+        <v>41</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E564" t="s">
+        <v>65</v>
+      </c>
+      <c r="F564" t="s">
+        <v>29</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I564" t="s">
+        <v>55</v>
+      </c>
+      <c r="J564" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K564" t="s">
+        <v>24</v>
+      </c>
+      <c r="L564" t="s">
+        <v>201</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N564" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O564" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P564" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B565" t="s">
+        <v>58</v>
+      </c>
+      <c r="C565" t="s">
+        <v>27</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E565" t="s">
+        <v>65</v>
+      </c>
+      <c r="F565" t="s">
+        <v>29</v>
+      </c>
+      <c r="G565">
+        <v>44</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I565" t="s">
+        <v>157</v>
+      </c>
+      <c r="J565" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K565" t="s">
+        <v>24</v>
+      </c>
+      <c r="L565" t="s">
+        <v>25</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N565" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O565" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P565" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B566" t="s">
+        <v>209</v>
+      </c>
+      <c r="C566" t="s">
+        <v>41</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E566" t="s">
+        <v>65</v>
+      </c>
+      <c r="F566" t="s">
+        <v>91</v>
+      </c>
+      <c r="G566">
+        <v>52</v>
+      </c>
+      <c r="H566" t="s">
+        <v>393</v>
+      </c>
+      <c r="I566" t="s">
+        <v>22</v>
+      </c>
+      <c r="J566" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K566" t="s">
+        <v>24</v>
+      </c>
+      <c r="L566" t="s">
+        <v>25</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N566" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O566" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P566" t="s">
+        <v>824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3497852B-478A-48FF-83D0-E37F4852B24F}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE888C6-418B-4C16-8479-D50EA5CEDD67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$708</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8557" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="2112">
   <si>
     <t>Quando</t>
   </si>
@@ -5261,6 +5261,1143 @@
   </si>
   <si>
     <t>21 96681-8141</t>
+  </si>
+  <si>
+    <t>01/06/2025</t>
+  </si>
+  <si>
+    <t>Marcelo Baptista</t>
+  </si>
+  <si>
+    <t>21 99608-0725</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Solicitou GC em Copa</t>
+  </si>
+  <si>
+    <t>Alan Do Nascimento De Souza</t>
+  </si>
+  <si>
+    <t>21 98526-2652</t>
+  </si>
+  <si>
+    <t>Telefone errado.</t>
+  </si>
+  <si>
+    <t>Felipe Dos Santos Diniz</t>
+  </si>
+  <si>
+    <t>21 97510-6116</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp mas não respondeu.</t>
+  </si>
+  <si>
+    <t>Thiago Da Silva Fidelis</t>
+  </si>
+  <si>
+    <t>21 98240-7210</t>
+  </si>
+  <si>
+    <t>Thiago Moeaes</t>
+  </si>
+  <si>
+    <t>21 96672-6359</t>
+  </si>
+  <si>
+    <t>Alex Hammes</t>
+  </si>
+  <si>
+    <t>21 99885-8688</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Solicitou GC no Jardim Botânico</t>
+  </si>
+  <si>
+    <t>Alexsandro Sousa Santos</t>
+  </si>
+  <si>
+    <t>21 99482-5122</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Da Cunha Cordeiro</t>
+  </si>
+  <si>
+    <t>21 99976-1797</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp.</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Daniel Dos Santos</t>
+  </si>
+  <si>
+    <t>21 96549-8350</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhado ao GC Leme</t>
+  </si>
+  <si>
+    <t>Marcio Vinícius</t>
+  </si>
+  <si>
+    <t>21 97134-2021</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhar Maximus</t>
+  </si>
+  <si>
+    <t>Rafael Silva</t>
+  </si>
+  <si>
+    <t>21 99669-4003</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 99469-6157</t>
+  </si>
+  <si>
+    <t>Camila Alves Reis</t>
+  </si>
+  <si>
+    <t>21 99885-5917</t>
+  </si>
+  <si>
+    <t>Respondeu e estamos tentando encaminhar para o GC</t>
+  </si>
+  <si>
+    <t>Eliza Rangel Ferreira</t>
+  </si>
+  <si>
+    <t>21 97006-0676</t>
+  </si>
+  <si>
+    <t>Taisa Santos Tavares</t>
+  </si>
+  <si>
+    <t>21 96772-4767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está indo ao Gc Copa </t>
+  </si>
+  <si>
+    <t>Maria José</t>
+  </si>
+  <si>
+    <t>21 97998-4824</t>
+  </si>
+  <si>
+    <t>Aline Soares Pinto</t>
+  </si>
+  <si>
+    <t>21 99624-5377</t>
+  </si>
+  <si>
+    <t>Priscila Prudente</t>
+  </si>
+  <si>
+    <t>21 96501-5222</t>
+  </si>
+  <si>
+    <t>Rafaela Pereira</t>
+  </si>
+  <si>
+    <t>21 96832-7000</t>
+  </si>
+  <si>
+    <t>Júlia Mendes</t>
+  </si>
+  <si>
+    <t>21 98103-5478</t>
+  </si>
+  <si>
+    <t>Vitória Belo De Oliveira</t>
+  </si>
+  <si>
+    <t>51 99530-8830</t>
+  </si>
+  <si>
+    <t>Simone Elias</t>
+  </si>
+  <si>
+    <t>21 99335-9335</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Vidigal</t>
+  </si>
+  <si>
+    <t>Mileide Ramos</t>
+  </si>
+  <si>
+    <t>21 99582-9686</t>
+  </si>
+  <si>
+    <t>Francisca Daline Bezerra Soares</t>
+  </si>
+  <si>
+    <t>21 99919-1008</t>
+  </si>
+  <si>
+    <t>Carol Mendes</t>
+  </si>
+  <si>
+    <t>21 93500-0881</t>
+  </si>
+  <si>
+    <t>TELEFONE INCORRETO</t>
+  </si>
+  <si>
+    <t>Erica De Sousa Peres</t>
+  </si>
+  <si>
+    <t>21 98890-6987</t>
+  </si>
+  <si>
+    <t>Lidyane Sodre</t>
+  </si>
+  <si>
+    <t>21 98863-9995</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC NEXT</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>Júlio César De Amorim Cardoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manins </t>
+  </si>
+  <si>
+    <t>21 99439-9761</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp mas não respondeu</t>
+  </si>
+  <si>
+    <t>Lucas Weester Silva De Souza</t>
+  </si>
+  <si>
+    <t>92 98445-4740</t>
+  </si>
+  <si>
+    <t>Vinicius Santos Canone</t>
+  </si>
+  <si>
+    <t>21 99134-2681</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Já é membro de outra igreja e veio apenas visitar</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>Kauã Costa De Souza</t>
+  </si>
+  <si>
+    <t>21 99353-8312</t>
+  </si>
+  <si>
+    <t>Thiago Gabriel Braga Nunes</t>
+  </si>
+  <si>
+    <t>68 99226-7063</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Demonstrou interesse pelo GC. Solicitou GC no Leblon.</t>
+  </si>
+  <si>
+    <t>Kauan Gabriel</t>
+  </si>
+  <si>
+    <t>21 99071-9797</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas e convidei para GC. Já faz parte do GC Nexteen</t>
+  </si>
+  <si>
+    <t>Bernardo Miranda Lima</t>
+  </si>
+  <si>
+    <t>11 98225-8866</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>Kauã Carvalho</t>
+  </si>
+  <si>
+    <t>21 97493-1687</t>
+  </si>
+  <si>
+    <t>14/06/2025</t>
+  </si>
+  <si>
+    <t>Felipe Perruci Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 97881-2966</t>
+  </si>
+  <si>
+    <t>Rafael Chaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamengo </t>
+  </si>
+  <si>
+    <t>21 97873-7247</t>
+  </si>
+  <si>
+    <t>Ana Paula Guimarães</t>
+  </si>
+  <si>
+    <t>21 99886-7445</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC Ipanema</t>
+  </si>
+  <si>
+    <t>Herica Teixeira</t>
+  </si>
+  <si>
+    <t>21 98625-0793</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC Copacabana e filha ao nexteen</t>
+  </si>
+  <si>
+    <t>Julia Valdevino Machado</t>
+  </si>
+  <si>
+    <t>21 99771-9911</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Thais Dos Santos Mota De Aguiar</t>
+  </si>
+  <si>
+    <t>21 97042-5367</t>
+  </si>
+  <si>
+    <t>Aguardando responder</t>
+  </si>
+  <si>
+    <t>Heloa De Araújo</t>
+  </si>
+  <si>
+    <t>21 96749-3058</t>
+  </si>
+  <si>
+    <t>Larissa Castro</t>
+  </si>
+  <si>
+    <t>21 96402-4723</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC 27+ Tijuca</t>
+  </si>
+  <si>
+    <t>Lauren Daniela Angulo Tellez</t>
+  </si>
+  <si>
+    <t>21 92978-1460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número errado </t>
+  </si>
+  <si>
+    <t>Quelle Batista Ferreira</t>
+  </si>
+  <si>
+    <t>21 97492-3262</t>
+  </si>
+  <si>
+    <t>Fernanda Santos Menegazi</t>
+  </si>
+  <si>
+    <t>Bartolomeu Mitre 621</t>
+  </si>
+  <si>
+    <t>61 99262-8392</t>
+  </si>
+  <si>
+    <t>Esta indo ao GC Leblon 3</t>
+  </si>
+  <si>
+    <t>Antonia De Marcos Lima</t>
+  </si>
+  <si>
+    <t>21 97627-0057</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Oliveira Silva</t>
+  </si>
+  <si>
+    <t>45 99106-7618</t>
+  </si>
+  <si>
+    <t>Eduarda Oliveira</t>
+  </si>
+  <si>
+    <t>51 99328-0896</t>
+  </si>
+  <si>
+    <t>Milena Rocha</t>
+  </si>
+  <si>
+    <t>21 99267-9908</t>
+  </si>
+  <si>
+    <t>Suenia Almeida</t>
+  </si>
+  <si>
+    <t>21 97100-4733</t>
+  </si>
+  <si>
+    <t>Fernanda Araújo</t>
+  </si>
+  <si>
+    <t>21 99845-1033</t>
+  </si>
+  <si>
+    <t>Lyvia Julia</t>
+  </si>
+  <si>
+    <t>21 98054-0185</t>
+  </si>
+  <si>
+    <t>Não tem whats e cai caixa postal</t>
+  </si>
+  <si>
+    <t>Tayane Regis Da Silva</t>
+  </si>
+  <si>
+    <t>21 96540-3545</t>
+  </si>
+  <si>
+    <t>Célia Santos</t>
+  </si>
+  <si>
+    <t>21 96994-3400</t>
+  </si>
+  <si>
+    <t>Passou o numero da Filha para ligarmos pois ela que aceitou jesus</t>
+  </si>
+  <si>
+    <t>Lislaine Gomes</t>
+  </si>
+  <si>
+    <t>21 97895-0763</t>
+  </si>
+  <si>
+    <t>Está frequentando o GC Del castilho</t>
+  </si>
+  <si>
+    <t>Julia França</t>
+  </si>
+  <si>
+    <t>21 99101-7878</t>
+  </si>
+  <si>
+    <t>Laís Carvalho</t>
+  </si>
+  <si>
+    <t>21 97251-2139</t>
+  </si>
+  <si>
+    <t>Miriam Dias</t>
+  </si>
+  <si>
+    <t>Suzana Santos</t>
+  </si>
+  <si>
+    <t>21 99670-2563</t>
+  </si>
+  <si>
+    <t>Rachel Souza Maria</t>
+  </si>
+  <si>
+    <t>21 99079-8070</t>
+  </si>
+  <si>
+    <t>15/06/2025</t>
+  </si>
+  <si>
+    <t>Thiago Guedes</t>
+  </si>
+  <si>
+    <t>21 97608-3774</t>
+  </si>
+  <si>
+    <t>Otavio Balle</t>
+  </si>
+  <si>
+    <t>67 98158-8419</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Encaminhei para NEXTEEN</t>
+  </si>
+  <si>
+    <t>Alexandre Massa</t>
+  </si>
+  <si>
+    <t>21 99983-3251</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Se interessou por um GC</t>
+  </si>
+  <si>
+    <t>Nicolas Silva</t>
+  </si>
+  <si>
+    <t>Bonfim</t>
+  </si>
+  <si>
+    <t>Juiz De Fora / MG</t>
+  </si>
+  <si>
+    <t>32 8811-6001</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Mora fora do RJ. Perguntei sobre GC.</t>
+  </si>
+  <si>
+    <t>Eliseu Almeida</t>
+  </si>
+  <si>
+    <t>Cascadura</t>
+  </si>
+  <si>
+    <t>21 97684-2768</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei boas vindas, agradeceu o contato e disse que ia continuar frequentando a igreja. Convidei para um GC</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>Yuri Galdino</t>
+  </si>
+  <si>
+    <t>21 98224-6440</t>
+  </si>
+  <si>
+    <t>Victor Manoel Mesquita Ferreira</t>
+  </si>
+  <si>
+    <t>21 99566-3810</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp, dei as boas vindas e convidei para GC. Encaminhado para Tainah do 27+</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Santiago</t>
+  </si>
+  <si>
+    <t>21 99468-6924</t>
+  </si>
+  <si>
+    <t>Estamos tentando encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Andrea Fernandes</t>
+  </si>
+  <si>
+    <t>21 98726-4059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está indo ao GC de casais </t>
+  </si>
+  <si>
+    <t>Rosane Gonçalves</t>
+  </si>
+  <si>
+    <t>21 97540-5125</t>
+  </si>
+  <si>
+    <t>Bárbara Domingues</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>21 99587-8123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está encaminhada para o GC Tijuca 3 </t>
+  </si>
+  <si>
+    <t>Simone De Souza Freitas Morais</t>
+  </si>
+  <si>
+    <t>21 97519-5836</t>
+  </si>
+  <si>
+    <t>Ludy Gadelha</t>
+  </si>
+  <si>
+    <t>Recife / PE</t>
+  </si>
+  <si>
+    <t>81 98715-0834</t>
+  </si>
+  <si>
+    <t>Tatiana Florentino Fernandes</t>
+  </si>
+  <si>
+    <t>21 97827-4017</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC 27+</t>
+  </si>
+  <si>
+    <t>Rosana Maria De Almeida Viana</t>
+  </si>
+  <si>
+    <t>Río De Janeiro  / RJ</t>
+  </si>
+  <si>
+    <t>21 99943-7062</t>
+  </si>
+  <si>
+    <t>Silvia Vanessa Martins Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> São Cristovao</t>
+  </si>
+  <si>
+    <t>21 99933-5601</t>
+  </si>
+  <si>
+    <t>Fernanda Santos Menegaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para o Boss </t>
+  </si>
+  <si>
+    <t>Jessica Lara</t>
+  </si>
+  <si>
+    <t>Rio Grande Do Sul / RS</t>
+  </si>
+  <si>
+    <t>51 98301-1491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membro de outra igreja, apenas nos visitou </t>
+  </si>
+  <si>
+    <t>Leila Oviedo</t>
+  </si>
+  <si>
+    <t>21 99033-1319</t>
+  </si>
+  <si>
+    <t>Livia Guimaraes</t>
+  </si>
+  <si>
+    <t>21 96621-5804</t>
+  </si>
+  <si>
+    <t>22/06/2025</t>
+  </si>
+  <si>
+    <t>Vitor Manja Santos</t>
+  </si>
+  <si>
+    <t>21 98542-3179</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas</t>
+  </si>
+  <si>
+    <t>Anderson De Almeida</t>
+  </si>
+  <si>
+    <t>21 97038-5824</t>
+  </si>
+  <si>
+    <t>Paulo Henrique Carvalho Lima</t>
+  </si>
+  <si>
+    <t>88 99620-7090</t>
+  </si>
+  <si>
+    <t>Pedro Salles</t>
+  </si>
+  <si>
+    <t>Muzema</t>
+  </si>
+  <si>
+    <t>88 99622-6328</t>
+  </si>
+  <si>
+    <t>Wellington Souza</t>
+  </si>
+  <si>
+    <t>21 99219-3625</t>
+  </si>
+  <si>
+    <t>Thiago Alves Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra Olímpica </t>
+  </si>
+  <si>
+    <t>21 99104-1144</t>
+  </si>
+  <si>
+    <t>Encaminhado para a NC Barra</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>Luís Carlos Alves Cardoso</t>
+  </si>
+  <si>
+    <t>Condomínio Quinta Da Baroneza Ii</t>
+  </si>
+  <si>
+    <t>Bragança Paulista / SP</t>
+  </si>
+  <si>
+    <t>11 99733-2200</t>
+  </si>
+  <si>
+    <t>Mora fora do RJ. Convidei para o GC Online</t>
+  </si>
+  <si>
+    <t>Eryk De Oliveira Mattos</t>
+  </si>
+  <si>
+    <t>21 99443-5811</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp. Dei as boas vindas. Frequenta o GC Vidigal com a esposa Michelle</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Lamas Valentim</t>
+  </si>
+  <si>
+    <t>32 99920-6633</t>
+  </si>
+  <si>
+    <t>Jhonathan Marques Pessanha</t>
+  </si>
+  <si>
+    <t>21 96718-9111</t>
+  </si>
+  <si>
+    <t>28/06/2025</t>
+  </si>
+  <si>
+    <t>Lucas Firmino</t>
+  </si>
+  <si>
+    <t>21 98083-6869</t>
+  </si>
+  <si>
+    <t>Maria Aparecida Manja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bento Ribeiro </t>
+  </si>
+  <si>
+    <t>Rj  / RJ</t>
+  </si>
+  <si>
+    <t>21 98010-9352</t>
+  </si>
+  <si>
+    <t>Só cai na cx postal</t>
+  </si>
+  <si>
+    <t>Mariana Caldeira</t>
+  </si>
+  <si>
+    <t>21 99928-5302</t>
+  </si>
+  <si>
+    <t>Indo a GC Ilha</t>
+  </si>
+  <si>
+    <t>Patricia Rocha De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilha Do Governador </t>
+  </si>
+  <si>
+    <t>21 97406-3197</t>
+  </si>
+  <si>
+    <t>Maria Gabriela Guedes Silva</t>
+  </si>
+  <si>
+    <t>21 97468-2607</t>
+  </si>
+  <si>
+    <t>Enviei mensagem. Aguardando responder</t>
+  </si>
+  <si>
+    <t>Marcilene Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>21 99926-0994</t>
+  </si>
+  <si>
+    <t>Tamires Aparecida Barroso</t>
+  </si>
+  <si>
+    <t>Itanhangá</t>
+  </si>
+  <si>
+    <t>21 98021-4164</t>
+  </si>
+  <si>
+    <t>Andreza Daniele Monteiro</t>
+  </si>
+  <si>
+    <t>21 99914-0623</t>
+  </si>
+  <si>
+    <t>Já está indo ao GC</t>
+  </si>
+  <si>
+    <t>Nayra Da Conceição Pinto Pinheiro</t>
+  </si>
+  <si>
+    <t>21 97739-3919</t>
+  </si>
+  <si>
+    <t>Tatiane Assis</t>
+  </si>
+  <si>
+    <t>Itaiga</t>
+  </si>
+  <si>
+    <t>21 96819-6128</t>
+  </si>
+  <si>
+    <t>Vanessa Melino Andrade Da Silva</t>
+  </si>
+  <si>
+    <t>21 97611-6706</t>
+  </si>
+  <si>
+    <t>Jennifer E Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa Sorte </t>
+  </si>
+  <si>
+    <t>Cachoeira De Macacu  / RJ</t>
+  </si>
+  <si>
+    <t>21 96745-9875</t>
+  </si>
+  <si>
+    <t>Angelica Lima</t>
+  </si>
+  <si>
+    <t>21 97946-4582</t>
+  </si>
+  <si>
+    <t>Cristiana Braga</t>
+  </si>
+  <si>
+    <t>21 96496-4978</t>
+  </si>
+  <si>
+    <t>Membro da Sara</t>
+  </si>
+  <si>
+    <t>Rafaela Ferreira</t>
+  </si>
+  <si>
+    <t>21 98861-5581</t>
+  </si>
+  <si>
+    <t>Aline Cristina Da Silva Pinheiro</t>
+  </si>
+  <si>
+    <t>21 97676-3352</t>
+  </si>
+  <si>
+    <t>Bruna Camila</t>
+  </si>
+  <si>
+    <t>21 99867-4080</t>
+  </si>
+  <si>
+    <t>Júlia Luzia Marques Do Nascimento</t>
+  </si>
+  <si>
+    <t>21 97027-5062</t>
+  </si>
+  <si>
+    <t>Lorraine Kasesky</t>
+  </si>
+  <si>
+    <t>24 99395-7113</t>
+  </si>
+  <si>
+    <t>Amanda Lima</t>
+  </si>
+  <si>
+    <t>21 99631-0602</t>
+  </si>
+  <si>
+    <t>Giulia Jacob</t>
+  </si>
+  <si>
+    <t>Jardim América</t>
+  </si>
+  <si>
+    <t>21 99508-1993</t>
+  </si>
+  <si>
+    <t>Loraine Souza</t>
+  </si>
+  <si>
+    <t>21 97493-5634</t>
+  </si>
+  <si>
+    <t>Monique Abreu De Souza</t>
+  </si>
+  <si>
+    <t>21 99056-9367</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Misto Copcabana</t>
+  </si>
+  <si>
+    <t>Larissa Soares Da Silva</t>
+  </si>
+  <si>
+    <t>21 97229-8650</t>
+  </si>
+  <si>
+    <t>Sônia Regina Martins</t>
+  </si>
+  <si>
+    <t>21 98668-5050</t>
+  </si>
+  <si>
+    <t>Graciane Torres Da Costa Gomes</t>
+  </si>
+  <si>
+    <t>21 96894-6618</t>
+  </si>
+  <si>
+    <t>Adriana Santana</t>
+  </si>
+  <si>
+    <t>21 96717-0506</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc barrinha</t>
+  </si>
+  <si>
+    <t>Carolina Magljari</t>
+  </si>
+  <si>
+    <t>21 99959-1896</t>
+  </si>
+  <si>
+    <t>Gisele Lima</t>
+  </si>
+  <si>
+    <t>21 98202-1697</t>
+  </si>
+  <si>
+    <t>Carolina Canpos</t>
+  </si>
+  <si>
+    <t>21 96759-5231</t>
+  </si>
+  <si>
+    <t>Natália Rosa Freitas</t>
+  </si>
+  <si>
+    <t>21 99789-1623</t>
+  </si>
+  <si>
+    <t>Sthefany Melo</t>
+  </si>
+  <si>
+    <t>21 99483-3584</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC NEXT</t>
+  </si>
+  <si>
+    <t>Vanilda Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benfica </t>
+  </si>
+  <si>
+    <t>21 98703-7109</t>
+  </si>
+  <si>
+    <t>Barbara Yaisa Da Silva</t>
+  </si>
+  <si>
+    <t>21 97478-6128</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Barrinha</t>
+  </si>
+  <si>
+    <t>Priscilla Abreu</t>
+  </si>
+  <si>
+    <t>22 99845-4714</t>
+  </si>
+  <si>
+    <t>Está Indo ao GC Leblon</t>
+  </si>
+  <si>
+    <t>Nathalia Alves Da Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos </t>
+  </si>
+  <si>
+    <t>21 96617-1500</t>
+  </si>
+  <si>
+    <t>Simone Thomaz Marques</t>
+  </si>
+  <si>
+    <t>21 96607-5444</t>
+  </si>
+  <si>
+    <t>29/06/2025</t>
+  </si>
+  <si>
+    <t>Carlos André Da Silva Lima</t>
+  </si>
+  <si>
+    <t>21 96963-9554</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp e dei as boas vindas. Encaminhado para GC de casais</t>
+  </si>
+  <si>
+    <t>André Joaquim</t>
+  </si>
+  <si>
+    <t>21 99499-6760</t>
+  </si>
+  <si>
+    <t>Entrei em contato pelo WhatsApp e dei as boas vindas.</t>
+  </si>
+  <si>
+    <t>Gilvan Andrade</t>
+  </si>
+  <si>
+    <t>31 99659-7795</t>
+  </si>
+  <si>
+    <t>Cristofer Cauã Bispo Amaral</t>
+  </si>
+  <si>
+    <t>21 99892-2151</t>
+  </si>
+  <si>
+    <t>Adriana Brandão</t>
+  </si>
+  <si>
+    <t>21 98585-5662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviei mensagem mas ainda não repondeu </t>
+  </si>
+  <si>
+    <t>Gabrielle Lemos</t>
+  </si>
+  <si>
+    <t>21 99370-7210</t>
+  </si>
+  <si>
+    <t>Vanessa Bordallo</t>
+  </si>
+  <si>
+    <t>21 97024-9701</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc Tijuca 2</t>
+  </si>
+  <si>
+    <t>Monique Pereira De Souza</t>
+  </si>
+  <si>
+    <t>21 96496-8640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaminhada para o gc de casais leblon </t>
+  </si>
+  <si>
+    <t>Karina Nunes De Oliveira</t>
+  </si>
+  <si>
+    <t>21 96444-6783</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc next</t>
+  </si>
+  <si>
+    <t>Isabella Couto</t>
+  </si>
+  <si>
+    <t>61 99368-3958</t>
+  </si>
+  <si>
+    <t>Bruna De Azevedo Bordallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Isabel </t>
+  </si>
+  <si>
+    <t>Encaminhada para Nexteen</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Jennifer Alves Casaes</t>
+  </si>
+  <si>
+    <t>21 99651-5312</t>
+  </si>
+  <si>
+    <t>Emilly Bezerra De Lima Dos Santos</t>
+  </si>
+  <si>
+    <t>Ricinha</t>
+  </si>
+  <si>
+    <t>21 98667-9866</t>
   </si>
 </sst>
 </file>
@@ -5342,10 +6479,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5665,32 +6798,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P566"/>
+  <dimension ref="A1:P708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6044,7 +7177,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +7377,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -6294,7 +7427,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -6444,7 +7577,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6894,7 +8027,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -7144,7 +8277,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7544,7 +8677,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -7594,7 +8727,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -7794,7 +8927,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -8241,7 +9374,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -8291,7 +9424,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -8341,7 +9474,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -8391,7 +9524,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -8541,7 +9674,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -8641,7 +9774,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -8741,7 +9874,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -8841,7 +9974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -8891,7 +10024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -8941,7 +10074,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -8991,7 +10124,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -9091,7 +10224,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -9141,7 +10274,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -9391,7 +10524,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -9591,7 +10724,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>294</v>
       </c>
@@ -9841,7 +10974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -9941,7 +11074,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -9991,7 +11124,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -10741,7 +11874,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>347</v>
       </c>
@@ -10841,7 +11974,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>347</v>
       </c>
@@ -10891,7 +12024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>347</v>
       </c>
@@ -10941,7 +12074,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>347</v>
       </c>
@@ -11441,7 +12574,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -11541,7 +12674,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>347</v>
       </c>
@@ -11591,7 +12724,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>347</v>
       </c>
@@ -11791,7 +12924,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -11991,7 +13124,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>348</v>
       </c>
@@ -12091,7 +13224,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>348</v>
       </c>
@@ -12191,7 +13324,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>348</v>
       </c>
@@ -12241,7 +13374,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>348</v>
       </c>
@@ -12341,7 +13474,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>348</v>
       </c>
@@ -33889,6 +35022,7106 @@
         <v>1543</v>
       </c>
       <c r="P566" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B567" t="s">
+        <v>209</v>
+      </c>
+      <c r="C567" t="s">
+        <v>27</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E567" t="s">
+        <v>18</v>
+      </c>
+      <c r="F567" t="s">
+        <v>91</v>
+      </c>
+      <c r="G567">
+        <v>52</v>
+      </c>
+      <c r="H567" t="s">
+        <v>44</v>
+      </c>
+      <c r="I567" t="s">
+        <v>157</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K567" t="s">
+        <v>24</v>
+      </c>
+      <c r="L567" t="s">
+        <v>25</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N567" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O567" t="s">
+        <v>24</v>
+      </c>
+      <c r="P567" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B568" t="s">
+        <v>209</v>
+      </c>
+      <c r="C568" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E568" t="s">
+        <v>18</v>
+      </c>
+      <c r="F568" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568">
+        <v>27</v>
+      </c>
+      <c r="H568" t="s">
+        <v>129</v>
+      </c>
+      <c r="I568" t="s">
+        <v>22</v>
+      </c>
+      <c r="J568" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K568" t="s">
+        <v>80</v>
+      </c>
+      <c r="L568" t="s">
+        <v>25</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N568" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O568" t="s">
+        <v>80</v>
+      </c>
+      <c r="P568" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B569" t="s">
+        <v>209</v>
+      </c>
+      <c r="C569" t="s">
+        <v>16</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E569" t="s">
+        <v>18</v>
+      </c>
+      <c r="F569" t="s">
+        <v>19</v>
+      </c>
+      <c r="G569">
+        <v>30</v>
+      </c>
+      <c r="H569" t="s">
+        <v>393</v>
+      </c>
+      <c r="I569" t="s">
+        <v>22</v>
+      </c>
+      <c r="J569" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K569" t="s">
+        <v>24</v>
+      </c>
+      <c r="L569" t="s">
+        <v>25</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N569" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O569" t="s">
+        <v>80</v>
+      </c>
+      <c r="P569" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B570" t="s">
+        <v>58</v>
+      </c>
+      <c r="C570" t="s">
+        <v>41</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E570" t="s">
+        <v>18</v>
+      </c>
+      <c r="F570" t="s">
+        <v>29</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" t="s">
+        <v>129</v>
+      </c>
+      <c r="I570" t="s">
+        <v>22</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K570" t="s">
+        <v>24</v>
+      </c>
+      <c r="L570" t="s">
+        <v>25</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N570" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O570" t="s">
+        <v>80</v>
+      </c>
+      <c r="P570" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B571" t="s">
+        <v>209</v>
+      </c>
+      <c r="C571" t="s">
+        <v>41</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E571" t="s">
+        <v>18</v>
+      </c>
+      <c r="F571" t="s">
+        <v>29</v>
+      </c>
+      <c r="G571">
+        <v>34</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I571" t="s">
+        <v>55</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K571" t="s">
+        <v>24</v>
+      </c>
+      <c r="L571" t="s">
+        <v>25</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N571" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O571" t="s">
+        <v>80</v>
+      </c>
+      <c r="P571" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B572" t="s">
+        <v>58</v>
+      </c>
+      <c r="C572" t="s">
+        <v>41</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E572" t="s">
+        <v>18</v>
+      </c>
+      <c r="F572" t="s">
+        <v>91</v>
+      </c>
+      <c r="G572">
+        <v>31</v>
+      </c>
+      <c r="H572" t="s">
+        <v>58</v>
+      </c>
+      <c r="I572" t="s">
+        <v>55</v>
+      </c>
+      <c r="J572" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K572" t="s">
+        <v>24</v>
+      </c>
+      <c r="L572" t="s">
+        <v>25</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N572" t="s">
+        <v>1749</v>
+      </c>
+      <c r="O572" t="s">
+        <v>24</v>
+      </c>
+      <c r="P572" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B573" t="s">
+        <v>209</v>
+      </c>
+      <c r="C573" t="s">
+        <v>41</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E573" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" t="s">
+        <v>29</v>
+      </c>
+      <c r="G573">
+        <v>51</v>
+      </c>
+      <c r="H573" t="s">
+        <v>44</v>
+      </c>
+      <c r="I573" t="s">
+        <v>22</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K573" t="s">
+        <v>24</v>
+      </c>
+      <c r="L573" t="s">
+        <v>457</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N573" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O573" t="s">
+        <v>24</v>
+      </c>
+      <c r="P573" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B574" t="s">
+        <v>58</v>
+      </c>
+      <c r="C574" t="s">
+        <v>27</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E574" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" t="s">
+        <v>19</v>
+      </c>
+      <c r="G574">
+        <v>30</v>
+      </c>
+      <c r="H574" t="s">
+        <v>44</v>
+      </c>
+      <c r="I574" t="s">
+        <v>22</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K574" t="s">
+        <v>24</v>
+      </c>
+      <c r="L574" t="s">
+        <v>25</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N574" t="s">
+        <v>1754</v>
+      </c>
+      <c r="O574" t="s">
+        <v>24</v>
+      </c>
+      <c r="P574" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B575" t="s">
+        <v>58</v>
+      </c>
+      <c r="C575" t="s">
+        <v>16</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E575" t="s">
+        <v>18</v>
+      </c>
+      <c r="F575" t="s">
+        <v>19</v>
+      </c>
+      <c r="G575">
+        <v>25</v>
+      </c>
+      <c r="H575" t="s">
+        <v>378</v>
+      </c>
+      <c r="I575" t="s">
+        <v>22</v>
+      </c>
+      <c r="J575" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K575" t="s">
+        <v>24</v>
+      </c>
+      <c r="L575" t="s">
+        <v>25</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N575" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O575" t="s">
+        <v>24</v>
+      </c>
+      <c r="P575" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B576" t="s">
+        <v>58</v>
+      </c>
+      <c r="C576" t="s">
+        <v>16</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E576" t="s">
+        <v>18</v>
+      </c>
+      <c r="F576" t="s">
+        <v>19</v>
+      </c>
+      <c r="G576">
+        <v>32</v>
+      </c>
+      <c r="H576" t="s">
+        <v>519</v>
+      </c>
+      <c r="I576" t="s">
+        <v>22</v>
+      </c>
+      <c r="J576" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K576" t="s">
+        <v>24</v>
+      </c>
+      <c r="L576" t="s">
+        <v>25</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N576" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O576" t="s">
+        <v>24</v>
+      </c>
+      <c r="P576" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B577" t="s">
+        <v>58</v>
+      </c>
+      <c r="C577" t="s">
+        <v>27</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E577" t="s">
+        <v>18</v>
+      </c>
+      <c r="F577" t="s">
+        <v>29</v>
+      </c>
+      <c r="G577">
+        <v>30</v>
+      </c>
+      <c r="H577" t="s">
+        <v>618</v>
+      </c>
+      <c r="I577" t="s">
+        <v>22</v>
+      </c>
+      <c r="J577" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K577" t="s">
+        <v>24</v>
+      </c>
+      <c r="L577" t="s">
+        <v>25</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N577" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O577" t="s">
+        <v>24</v>
+      </c>
+      <c r="P577" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B578" t="s">
+        <v>58</v>
+      </c>
+      <c r="C578" t="s">
+        <v>16</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E578" t="s">
+        <v>18</v>
+      </c>
+      <c r="F578" t="s">
+        <v>29</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578" t="s">
+        <v>618</v>
+      </c>
+      <c r="I578" t="s">
+        <v>22</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K578" t="s">
+        <v>24</v>
+      </c>
+      <c r="L578" t="s">
+        <v>201</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N578" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O578" t="s">
+        <v>80</v>
+      </c>
+      <c r="P578" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B579" t="s">
+        <v>58</v>
+      </c>
+      <c r="C579" t="s">
+        <v>27</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E579" t="s">
+        <v>65</v>
+      </c>
+      <c r="F579" t="s">
+        <v>19</v>
+      </c>
+      <c r="G579">
+        <v>34</v>
+      </c>
+      <c r="H579" t="s">
+        <v>546</v>
+      </c>
+      <c r="I579" t="s">
+        <v>22</v>
+      </c>
+      <c r="J579" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K579" t="s">
+        <v>24</v>
+      </c>
+      <c r="L579" t="s">
+        <v>25</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N579" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O579" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P579" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B580" t="s">
+        <v>209</v>
+      </c>
+      <c r="C580" t="s">
+        <v>41</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E580" t="s">
+        <v>65</v>
+      </c>
+      <c r="F580" t="s">
+        <v>19</v>
+      </c>
+      <c r="G580">
+        <v>39</v>
+      </c>
+      <c r="H580" t="s">
+        <v>44</v>
+      </c>
+      <c r="I580" t="s">
+        <v>22</v>
+      </c>
+      <c r="J580" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K580" t="s">
+        <v>24</v>
+      </c>
+      <c r="L580" t="s">
+        <v>25</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N580" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O580" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P580" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B581" t="s">
+        <v>209</v>
+      </c>
+      <c r="C581" t="s">
+        <v>41</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E581" t="s">
+        <v>65</v>
+      </c>
+      <c r="F581" t="s">
+        <v>29</v>
+      </c>
+      <c r="G581">
+        <v>31</v>
+      </c>
+      <c r="H581" t="s">
+        <v>44</v>
+      </c>
+      <c r="I581" t="s">
+        <v>85</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K581" t="s">
+        <v>24</v>
+      </c>
+      <c r="L581" t="s">
+        <v>25</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N581" t="s">
+        <v>1773</v>
+      </c>
+      <c r="O581" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P581" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B582" t="s">
+        <v>209</v>
+      </c>
+      <c r="C582" t="s">
+        <v>27</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E582" t="s">
+        <v>65</v>
+      </c>
+      <c r="F582" t="s">
+        <v>185</v>
+      </c>
+      <c r="G582">
+        <v>59</v>
+      </c>
+      <c r="H582" t="s">
+        <v>618</v>
+      </c>
+      <c r="I582" t="s">
+        <v>22</v>
+      </c>
+      <c r="J582" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K582" t="s">
+        <v>24</v>
+      </c>
+      <c r="L582" t="s">
+        <v>25</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N582" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O582" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P582" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B583" t="s">
+        <v>58</v>
+      </c>
+      <c r="C583" t="s">
+        <v>41</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E583" t="s">
+        <v>65</v>
+      </c>
+      <c r="F583" t="s">
+        <v>29</v>
+      </c>
+      <c r="G583">
+        <v>43</v>
+      </c>
+      <c r="H583" t="s">
+        <v>58</v>
+      </c>
+      <c r="I583" t="s">
+        <v>55</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K583" t="s">
+        <v>24</v>
+      </c>
+      <c r="L583" t="s">
+        <v>25</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N583" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O583" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P583" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B584" t="s">
+        <v>209</v>
+      </c>
+      <c r="C584" t="s">
+        <v>27</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E584" t="s">
+        <v>65</v>
+      </c>
+      <c r="F584" t="s">
+        <v>19</v>
+      </c>
+      <c r="G584">
+        <v>38</v>
+      </c>
+      <c r="H584" t="s">
+        <v>21</v>
+      </c>
+      <c r="I584" t="s">
+        <v>22</v>
+      </c>
+      <c r="J584" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K584" t="s">
+        <v>24</v>
+      </c>
+      <c r="L584" t="s">
+        <v>46</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N584" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O584" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P584" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B585" t="s">
+        <v>209</v>
+      </c>
+      <c r="C585" t="s">
+        <v>41</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E585" t="s">
+        <v>65</v>
+      </c>
+      <c r="F585" t="s">
+        <v>19</v>
+      </c>
+      <c r="G585">
+        <v>32</v>
+      </c>
+      <c r="H585" t="s">
+        <v>44</v>
+      </c>
+      <c r="I585" t="s">
+        <v>22</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K585" t="s">
+        <v>24</v>
+      </c>
+      <c r="L585" t="s">
+        <v>46</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N585" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O585" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P585" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B586" t="s">
+        <v>58</v>
+      </c>
+      <c r="C586" t="s">
+        <v>27</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E586" t="s">
+        <v>65</v>
+      </c>
+      <c r="F586" t="s">
+        <v>29</v>
+      </c>
+      <c r="G586">
+        <v>30</v>
+      </c>
+      <c r="H586" t="s">
+        <v>178</v>
+      </c>
+      <c r="I586" t="s">
+        <v>22</v>
+      </c>
+      <c r="J586" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K586" t="s">
+        <v>24</v>
+      </c>
+      <c r="L586" t="s">
+        <v>25</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N586" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O586" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P586" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B587" t="s">
+        <v>209</v>
+      </c>
+      <c r="C587" t="s">
+        <v>16</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E587" t="s">
+        <v>65</v>
+      </c>
+      <c r="F587" t="s">
+        <v>29</v>
+      </c>
+      <c r="G587">
+        <v>22</v>
+      </c>
+      <c r="H587" t="s">
+        <v>58</v>
+      </c>
+      <c r="I587" t="s">
+        <v>55</v>
+      </c>
+      <c r="J587" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K587" t="s">
+        <v>24</v>
+      </c>
+      <c r="L587" t="s">
+        <v>25</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N587" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O587" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P587" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B588" t="s">
+        <v>58</v>
+      </c>
+      <c r="C588" t="s">
+        <v>41</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E588" t="s">
+        <v>65</v>
+      </c>
+      <c r="F588" t="s">
+        <v>29</v>
+      </c>
+      <c r="G588">
+        <v>35</v>
+      </c>
+      <c r="H588" t="s">
+        <v>507</v>
+      </c>
+      <c r="I588" t="s">
+        <v>157</v>
+      </c>
+      <c r="J588" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K588" t="s">
+        <v>24</v>
+      </c>
+      <c r="L588" t="s">
+        <v>25</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N588" t="s">
+        <v>1788</v>
+      </c>
+      <c r="O588" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P588" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B589" t="s">
+        <v>58</v>
+      </c>
+      <c r="C589" t="s">
+        <v>41</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E589" t="s">
+        <v>65</v>
+      </c>
+      <c r="F589" t="s">
+        <v>29</v>
+      </c>
+      <c r="G589">
+        <v>32</v>
+      </c>
+      <c r="H589" t="s">
+        <v>44</v>
+      </c>
+      <c r="I589" t="s">
+        <v>55</v>
+      </c>
+      <c r="J589" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K589" t="s">
+        <v>24</v>
+      </c>
+      <c r="L589" t="s">
+        <v>25</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N589" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O589" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P589" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B590" t="s">
+        <v>58</v>
+      </c>
+      <c r="C590" t="s">
+        <v>27</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E590" t="s">
+        <v>65</v>
+      </c>
+      <c r="F590" t="s">
+        <v>29</v>
+      </c>
+      <c r="G590">
+        <v>28</v>
+      </c>
+      <c r="H590" t="s">
+        <v>618</v>
+      </c>
+      <c r="I590" t="s">
+        <v>22</v>
+      </c>
+      <c r="J590" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K590" t="s">
+        <v>24</v>
+      </c>
+      <c r="L590" t="s">
+        <v>25</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N590" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O590" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P590" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B591" t="s">
+        <v>58</v>
+      </c>
+      <c r="C591" t="s">
+        <v>41</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E591" t="s">
+        <v>65</v>
+      </c>
+      <c r="F591" t="s">
+        <v>29</v>
+      </c>
+      <c r="G591">
+        <v>32</v>
+      </c>
+      <c r="H591" t="s">
+        <v>58</v>
+      </c>
+      <c r="I591" t="s">
+        <v>55</v>
+      </c>
+      <c r="J591" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K591" t="s">
+        <v>24</v>
+      </c>
+      <c r="L591" t="s">
+        <v>25</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N591" t="s">
+        <v>1795</v>
+      </c>
+      <c r="O591" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P591" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B592" t="s">
+        <v>58</v>
+      </c>
+      <c r="C592" t="s">
+        <v>16</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E592" t="s">
+        <v>65</v>
+      </c>
+      <c r="F592" t="s">
+        <v>19</v>
+      </c>
+      <c r="G592">
+        <v>22</v>
+      </c>
+      <c r="H592" t="s">
+        <v>618</v>
+      </c>
+      <c r="I592" t="s">
+        <v>22</v>
+      </c>
+      <c r="J592" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K592" t="s">
+        <v>24</v>
+      </c>
+      <c r="L592" t="s">
+        <v>25</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N592" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O592" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P592" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B593" t="s">
+        <v>58</v>
+      </c>
+      <c r="C593" t="s">
+        <v>41</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E593" t="s">
+        <v>65</v>
+      </c>
+      <c r="F593" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593">
+        <v>45</v>
+      </c>
+      <c r="H593" t="s">
+        <v>519</v>
+      </c>
+      <c r="I593" t="s">
+        <v>22</v>
+      </c>
+      <c r="J593" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K593" t="s">
+        <v>24</v>
+      </c>
+      <c r="L593" t="s">
+        <v>148</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N593" t="s">
+        <v>1768</v>
+      </c>
+      <c r="O593" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P593" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B594" t="s">
+        <v>58</v>
+      </c>
+      <c r="C594" t="s">
+        <v>27</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E594" t="s">
+        <v>65</v>
+      </c>
+      <c r="F594" t="s">
+        <v>29</v>
+      </c>
+      <c r="G594">
+        <v>22</v>
+      </c>
+      <c r="H594" t="s">
+        <v>58</v>
+      </c>
+      <c r="I594" t="s">
+        <v>55</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K594" t="s">
+        <v>24</v>
+      </c>
+      <c r="L594" t="s">
+        <v>25</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N594" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O594" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P594" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B595" t="s">
+        <v>58</v>
+      </c>
+      <c r="C595" t="s">
+        <v>27</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E595" t="s">
+        <v>18</v>
+      </c>
+      <c r="F595" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I595" t="s">
+        <v>85</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K595" t="s">
+        <v>24</v>
+      </c>
+      <c r="L595" t="s">
+        <v>25</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N595" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O595" t="s">
+        <v>80</v>
+      </c>
+      <c r="P595" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B596" t="s">
+        <v>58</v>
+      </c>
+      <c r="C596" t="s">
+        <v>41</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E596" t="s">
+        <v>18</v>
+      </c>
+      <c r="F596" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596">
+        <v>27</v>
+      </c>
+      <c r="H596" t="s">
+        <v>44</v>
+      </c>
+      <c r="I596" t="s">
+        <v>157</v>
+      </c>
+      <c r="J596" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K596" t="s">
+        <v>24</v>
+      </c>
+      <c r="L596" t="s">
+        <v>25</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N596" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O596" t="s">
+        <v>80</v>
+      </c>
+      <c r="P596" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B597" t="s">
+        <v>58</v>
+      </c>
+      <c r="C597" t="s">
+        <v>16</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E597" t="s">
+        <v>18</v>
+      </c>
+      <c r="F597" t="s">
+        <v>58</v>
+      </c>
+      <c r="G597">
+        <v>28</v>
+      </c>
+      <c r="H597" t="s">
+        <v>58</v>
+      </c>
+      <c r="I597" t="s">
+        <v>55</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K597" t="s">
+        <v>24</v>
+      </c>
+      <c r="L597" t="s">
+        <v>201</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N597" t="s">
+        <v>1811</v>
+      </c>
+      <c r="O597" t="s">
+        <v>24</v>
+      </c>
+      <c r="P597" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B598" t="s">
+        <v>58</v>
+      </c>
+      <c r="C598" t="s">
+        <v>27</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E598" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" t="s">
+        <v>29</v>
+      </c>
+      <c r="G598">
+        <v>16</v>
+      </c>
+      <c r="H598" t="s">
+        <v>54</v>
+      </c>
+      <c r="I598" t="s">
+        <v>22</v>
+      </c>
+      <c r="J598" t="s">
+        <v>1814</v>
+      </c>
+      <c r="K598" t="s">
+        <v>24</v>
+      </c>
+      <c r="L598" t="s">
+        <v>25</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N598" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O598" t="s">
+        <v>80</v>
+      </c>
+      <c r="P598" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B599" t="s">
+        <v>58</v>
+      </c>
+      <c r="C599" t="s">
+        <v>41</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E599" t="s">
+        <v>18</v>
+      </c>
+      <c r="F599" t="s">
+        <v>29</v>
+      </c>
+      <c r="G599">
+        <v>18</v>
+      </c>
+      <c r="H599" t="s">
+        <v>166</v>
+      </c>
+      <c r="I599" t="s">
+        <v>22</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K599" t="s">
+        <v>24</v>
+      </c>
+      <c r="L599" t="s">
+        <v>25</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N599" t="s">
+        <v>1817</v>
+      </c>
+      <c r="O599" t="s">
+        <v>24</v>
+      </c>
+      <c r="P599" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B600" t="s">
+        <v>58</v>
+      </c>
+      <c r="C600" t="s">
+        <v>16</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E600" t="s">
+        <v>18</v>
+      </c>
+      <c r="F600" t="s">
+        <v>29</v>
+      </c>
+      <c r="G600">
+        <v>17</v>
+      </c>
+      <c r="H600" t="s">
+        <v>152</v>
+      </c>
+      <c r="I600" t="s">
+        <v>22</v>
+      </c>
+      <c r="J600" t="s">
+        <v>1819</v>
+      </c>
+      <c r="K600" t="s">
+        <v>24</v>
+      </c>
+      <c r="L600" t="s">
+        <v>25</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N600" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O600" t="s">
+        <v>24</v>
+      </c>
+      <c r="P600" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B601" t="s">
+        <v>58</v>
+      </c>
+      <c r="C601" t="s">
+        <v>41</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E601" t="s">
+        <v>18</v>
+      </c>
+      <c r="F601" t="s">
+        <v>29</v>
+      </c>
+      <c r="G601">
+        <v>35</v>
+      </c>
+      <c r="H601" t="s">
+        <v>44</v>
+      </c>
+      <c r="I601" t="s">
+        <v>22</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K601" t="s">
+        <v>24</v>
+      </c>
+      <c r="L601" t="s">
+        <v>25</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N601" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O601" t="s">
+        <v>80</v>
+      </c>
+      <c r="P601" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B602" t="s">
+        <v>58</v>
+      </c>
+      <c r="C602" t="s">
+        <v>27</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E602" t="s">
+        <v>18</v>
+      </c>
+      <c r="F602" t="s">
+        <v>58</v>
+      </c>
+      <c r="G602">
+        <v>21</v>
+      </c>
+      <c r="H602" t="s">
+        <v>231</v>
+      </c>
+      <c r="I602" t="s">
+        <v>157</v>
+      </c>
+      <c r="J602" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K602" t="s">
+        <v>24</v>
+      </c>
+      <c r="L602" t="s">
+        <v>25</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N602" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O602" t="s">
+        <v>80</v>
+      </c>
+      <c r="P602" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B603" t="s">
+        <v>58</v>
+      </c>
+      <c r="C603" t="s">
+        <v>41</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E603" t="s">
+        <v>18</v>
+      </c>
+      <c r="F603" t="s">
+        <v>29</v>
+      </c>
+      <c r="G603">
+        <v>15</v>
+      </c>
+      <c r="H603" t="s">
+        <v>58</v>
+      </c>
+      <c r="I603" t="s">
+        <v>55</v>
+      </c>
+      <c r="J603" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K603" t="s">
+        <v>24</v>
+      </c>
+      <c r="L603" t="s">
+        <v>25</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N603" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O603" t="s">
+        <v>80</v>
+      </c>
+      <c r="P603" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B604" t="s">
+        <v>58</v>
+      </c>
+      <c r="C604" t="s">
+        <v>41</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E604" t="s">
+        <v>18</v>
+      </c>
+      <c r="F604" t="s">
+        <v>58</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I604" t="s">
+        <v>55</v>
+      </c>
+      <c r="J604" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K604" t="s">
+        <v>24</v>
+      </c>
+      <c r="L604" t="s">
+        <v>25</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N604" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O604" t="s">
+        <v>80</v>
+      </c>
+      <c r="P604" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B605" t="s">
+        <v>58</v>
+      </c>
+      <c r="C605" t="s">
+        <v>27</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E605" t="s">
+        <v>65</v>
+      </c>
+      <c r="F605" t="s">
+        <v>58</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605" t="s">
+        <v>58</v>
+      </c>
+      <c r="I605" t="s">
+        <v>55</v>
+      </c>
+      <c r="J605" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K605" t="s">
+        <v>24</v>
+      </c>
+      <c r="L605" t="s">
+        <v>25</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N605" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O605" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P605" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B606" t="s">
+        <v>58</v>
+      </c>
+      <c r="C606" t="s">
+        <v>27</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E606" t="s">
+        <v>65</v>
+      </c>
+      <c r="F606" t="s">
+        <v>19</v>
+      </c>
+      <c r="G606">
+        <v>42</v>
+      </c>
+      <c r="H606" t="s">
+        <v>44</v>
+      </c>
+      <c r="I606" t="s">
+        <v>22</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K606" t="s">
+        <v>24</v>
+      </c>
+      <c r="L606" t="s">
+        <v>25</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N606" t="s">
+        <v>1837</v>
+      </c>
+      <c r="O606" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P606" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B607" t="s">
+        <v>58</v>
+      </c>
+      <c r="C607" t="s">
+        <v>41</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E607" t="s">
+        <v>65</v>
+      </c>
+      <c r="F607" t="s">
+        <v>29</v>
+      </c>
+      <c r="G607">
+        <v>22</v>
+      </c>
+      <c r="H607" t="s">
+        <v>816</v>
+      </c>
+      <c r="I607" t="s">
+        <v>22</v>
+      </c>
+      <c r="J607" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K607" t="s">
+        <v>24</v>
+      </c>
+      <c r="L607" t="s">
+        <v>25</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N607" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O607" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P607" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B608" t="s">
+        <v>58</v>
+      </c>
+      <c r="C608" t="s">
+        <v>41</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E608" t="s">
+        <v>65</v>
+      </c>
+      <c r="F608" t="s">
+        <v>19</v>
+      </c>
+      <c r="G608">
+        <v>29</v>
+      </c>
+      <c r="H608" t="s">
+        <v>58</v>
+      </c>
+      <c r="I608" t="s">
+        <v>55</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K608" t="s">
+        <v>24</v>
+      </c>
+      <c r="L608" t="s">
+        <v>25</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N608" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O608" t="s">
+        <v>80</v>
+      </c>
+      <c r="P608" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B609" t="s">
+        <v>58</v>
+      </c>
+      <c r="C609" t="s">
+        <v>27</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E609" t="s">
+        <v>65</v>
+      </c>
+      <c r="F609" t="s">
+        <v>58</v>
+      </c>
+      <c r="G609">
+        <v>12</v>
+      </c>
+      <c r="H609" t="s">
+        <v>44</v>
+      </c>
+      <c r="I609" t="s">
+        <v>22</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K609" t="s">
+        <v>24</v>
+      </c>
+      <c r="L609" t="s">
+        <v>25</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N609" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O609" t="s">
+        <v>80</v>
+      </c>
+      <c r="P609" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B610" t="s">
+        <v>58</v>
+      </c>
+      <c r="C610" t="s">
+        <v>27</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E610" t="s">
+        <v>65</v>
+      </c>
+      <c r="F610" t="s">
+        <v>29</v>
+      </c>
+      <c r="G610">
+        <v>32</v>
+      </c>
+      <c r="H610" t="s">
+        <v>58</v>
+      </c>
+      <c r="I610" t="s">
+        <v>55</v>
+      </c>
+      <c r="J610" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K610" t="s">
+        <v>24</v>
+      </c>
+      <c r="L610" t="s">
+        <v>46</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N610" t="s">
+        <v>1848</v>
+      </c>
+      <c r="O610" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P610" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B611" t="s">
+        <v>58</v>
+      </c>
+      <c r="C611" t="s">
+        <v>27</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E611" t="s">
+        <v>65</v>
+      </c>
+      <c r="F611" t="s">
+        <v>185</v>
+      </c>
+      <c r="G611">
+        <v>25</v>
+      </c>
+      <c r="H611" t="s">
+        <v>58</v>
+      </c>
+      <c r="I611" t="s">
+        <v>55</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K611" t="s">
+        <v>80</v>
+      </c>
+      <c r="L611" t="s">
+        <v>25</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N611" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O611" t="s">
+        <v>80</v>
+      </c>
+      <c r="P611" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B612" t="s">
+        <v>58</v>
+      </c>
+      <c r="C612" t="s">
+        <v>41</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E612" t="s">
+        <v>65</v>
+      </c>
+      <c r="F612" t="s">
+        <v>58</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612" t="s">
+        <v>231</v>
+      </c>
+      <c r="I612" t="s">
+        <v>55</v>
+      </c>
+      <c r="J612" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K612" t="s">
+        <v>24</v>
+      </c>
+      <c r="L612" t="s">
+        <v>46</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N612" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O612" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P612" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B613" t="s">
+        <v>58</v>
+      </c>
+      <c r="C613" t="s">
+        <v>16</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E613" t="s">
+        <v>65</v>
+      </c>
+      <c r="F613" t="s">
+        <v>29</v>
+      </c>
+      <c r="G613">
+        <v>39</v>
+      </c>
+      <c r="H613" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I613" t="s">
+        <v>55</v>
+      </c>
+      <c r="J613" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K613" t="s">
+        <v>24</v>
+      </c>
+      <c r="L613" t="s">
+        <v>25</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N613" t="s">
+        <v>1857</v>
+      </c>
+      <c r="O613" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P613" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B614" t="s">
+        <v>58</v>
+      </c>
+      <c r="C614" t="s">
+        <v>27</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E614" t="s">
+        <v>65</v>
+      </c>
+      <c r="F614" t="s">
+        <v>58</v>
+      </c>
+      <c r="G614">
+        <v>54</v>
+      </c>
+      <c r="H614" t="s">
+        <v>58</v>
+      </c>
+      <c r="I614" t="s">
+        <v>55</v>
+      </c>
+      <c r="J614" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K614" t="s">
+        <v>24</v>
+      </c>
+      <c r="L614" t="s">
+        <v>25</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N614" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O614" t="s">
+        <v>80</v>
+      </c>
+      <c r="P614" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B615" t="s">
+        <v>58</v>
+      </c>
+      <c r="C615" t="s">
+        <v>27</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E615" t="s">
+        <v>65</v>
+      </c>
+      <c r="F615" t="s">
+        <v>29</v>
+      </c>
+      <c r="G615">
+        <v>28</v>
+      </c>
+      <c r="H615" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I615" t="s">
+        <v>157</v>
+      </c>
+      <c r="J615" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K615" t="s">
+        <v>24</v>
+      </c>
+      <c r="L615" t="s">
+        <v>46</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N615" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O615" t="s">
+        <v>80</v>
+      </c>
+      <c r="P615" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B616" t="s">
+        <v>58</v>
+      </c>
+      <c r="C616" t="s">
+        <v>16</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E616" t="s">
+        <v>65</v>
+      </c>
+      <c r="F616" t="s">
+        <v>29</v>
+      </c>
+      <c r="G616">
+        <v>25</v>
+      </c>
+      <c r="H616" t="s">
+        <v>166</v>
+      </c>
+      <c r="I616" t="s">
+        <v>55</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K616" t="s">
+        <v>24</v>
+      </c>
+      <c r="L616" t="s">
+        <v>25</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N616" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O616" t="s">
+        <v>80</v>
+      </c>
+      <c r="P616" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B617" t="s">
+        <v>58</v>
+      </c>
+      <c r="C617" t="s">
+        <v>41</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E617" t="s">
+        <v>65</v>
+      </c>
+      <c r="F617" t="s">
+        <v>58</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617" t="s">
+        <v>58</v>
+      </c>
+      <c r="I617" t="s">
+        <v>55</v>
+      </c>
+      <c r="J617" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K617" t="s">
+        <v>24</v>
+      </c>
+      <c r="L617" t="s">
+        <v>25</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N617" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O617" t="s">
+        <v>80</v>
+      </c>
+      <c r="P617" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B618" t="s">
+        <v>58</v>
+      </c>
+      <c r="C618" t="s">
+        <v>41</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E618" t="s">
+        <v>65</v>
+      </c>
+      <c r="F618" t="s">
+        <v>58</v>
+      </c>
+      <c r="G618">
+        <v>54</v>
+      </c>
+      <c r="H618" t="s">
+        <v>58</v>
+      </c>
+      <c r="I618" t="s">
+        <v>55</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K618" t="s">
+        <v>24</v>
+      </c>
+      <c r="L618" t="s">
+        <v>201</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N618" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O618" t="s">
+        <v>80</v>
+      </c>
+      <c r="P618" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B619" t="s">
+        <v>58</v>
+      </c>
+      <c r="C619" t="s">
+        <v>41</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E619" t="s">
+        <v>65</v>
+      </c>
+      <c r="F619" t="s">
+        <v>19</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I619" t="s">
+        <v>55</v>
+      </c>
+      <c r="J619" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K619" t="s">
+        <v>24</v>
+      </c>
+      <c r="L619" t="s">
+        <v>201</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N619" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O619" t="s">
+        <v>80</v>
+      </c>
+      <c r="P619" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B620" t="s">
+        <v>58</v>
+      </c>
+      <c r="C620" t="s">
+        <v>27</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E620" t="s">
+        <v>65</v>
+      </c>
+      <c r="F620" t="s">
+        <v>29</v>
+      </c>
+      <c r="G620">
+        <v>17</v>
+      </c>
+      <c r="H620" t="s">
+        <v>58</v>
+      </c>
+      <c r="I620" t="s">
+        <v>55</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K620" t="s">
+        <v>24</v>
+      </c>
+      <c r="L620" t="s">
+        <v>25</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N620" t="s">
+        <v>1872</v>
+      </c>
+      <c r="O620" t="s">
+        <v>80</v>
+      </c>
+      <c r="P620" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B621" t="s">
+        <v>58</v>
+      </c>
+      <c r="C621" t="s">
+        <v>41</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E621" t="s">
+        <v>65</v>
+      </c>
+      <c r="F621" t="s">
+        <v>29</v>
+      </c>
+      <c r="G621">
+        <v>29</v>
+      </c>
+      <c r="H621" t="s">
+        <v>281</v>
+      </c>
+      <c r="I621" t="s">
+        <v>22</v>
+      </c>
+      <c r="J621" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K621" t="s">
+        <v>24</v>
+      </c>
+      <c r="L621" t="s">
+        <v>25</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N621" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O621" t="s">
+        <v>80</v>
+      </c>
+      <c r="P621" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B622" t="s">
+        <v>58</v>
+      </c>
+      <c r="C622" t="s">
+        <v>27</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E622" t="s">
+        <v>65</v>
+      </c>
+      <c r="F622" t="s">
+        <v>91</v>
+      </c>
+      <c r="G622">
+        <v>56</v>
+      </c>
+      <c r="H622" t="s">
+        <v>58</v>
+      </c>
+      <c r="I622" t="s">
+        <v>55</v>
+      </c>
+      <c r="J622" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K622" t="s">
+        <v>24</v>
+      </c>
+      <c r="L622" t="s">
+        <v>25</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N622" t="s">
+        <v>1877</v>
+      </c>
+      <c r="O622" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P622" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B623" t="s">
+        <v>58</v>
+      </c>
+      <c r="C623" t="s">
+        <v>16</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E623" t="s">
+        <v>65</v>
+      </c>
+      <c r="F623" t="s">
+        <v>58</v>
+      </c>
+      <c r="G623">
+        <v>21</v>
+      </c>
+      <c r="H623" t="s">
+        <v>58</v>
+      </c>
+      <c r="I623" t="s">
+        <v>55</v>
+      </c>
+      <c r="J623" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K623" t="s">
+        <v>24</v>
+      </c>
+      <c r="L623" t="s">
+        <v>457</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N623" t="s">
+        <v>1880</v>
+      </c>
+      <c r="O623" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P623" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B624" t="s">
+        <v>58</v>
+      </c>
+      <c r="C624" t="s">
+        <v>27</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E624" t="s">
+        <v>65</v>
+      </c>
+      <c r="F624" t="s">
+        <v>29</v>
+      </c>
+      <c r="G624">
+        <v>17</v>
+      </c>
+      <c r="H624" t="s">
+        <v>58</v>
+      </c>
+      <c r="I624" t="s">
+        <v>55</v>
+      </c>
+      <c r="J624" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K624" t="s">
+        <v>24</v>
+      </c>
+      <c r="L624" t="s">
+        <v>25</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N624" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O624" t="s">
+        <v>80</v>
+      </c>
+      <c r="P624" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B625" t="s">
+        <v>58</v>
+      </c>
+      <c r="C625" t="s">
+        <v>41</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E625" t="s">
+        <v>65</v>
+      </c>
+      <c r="F625" t="s">
+        <v>29</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625" t="s">
+        <v>231</v>
+      </c>
+      <c r="I625" t="s">
+        <v>55</v>
+      </c>
+      <c r="J625" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K625" t="s">
+        <v>24</v>
+      </c>
+      <c r="L625" t="s">
+        <v>25</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N625" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O625" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P625" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B626" t="s">
+        <v>58</v>
+      </c>
+      <c r="C626" t="s">
+        <v>27</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E626" t="s">
+        <v>65</v>
+      </c>
+      <c r="F626" t="s">
+        <v>29</v>
+      </c>
+      <c r="G626">
+        <v>47</v>
+      </c>
+      <c r="H626" t="s">
+        <v>231</v>
+      </c>
+      <c r="I626" t="s">
+        <v>157</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K626" t="s">
+        <v>24</v>
+      </c>
+      <c r="L626" t="s">
+        <v>25</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N626" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O626" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P626" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B627" t="s">
+        <v>58</v>
+      </c>
+      <c r="C627" t="s">
+        <v>16</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E627" t="s">
+        <v>65</v>
+      </c>
+      <c r="F627" t="s">
+        <v>91</v>
+      </c>
+      <c r="G627">
+        <v>53</v>
+      </c>
+      <c r="H627" t="s">
+        <v>231</v>
+      </c>
+      <c r="I627" t="s">
+        <v>157</v>
+      </c>
+      <c r="J627" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K627" t="s">
+        <v>24</v>
+      </c>
+      <c r="L627" t="s">
+        <v>25</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N627" t="s">
+        <v>943</v>
+      </c>
+      <c r="O627" t="s">
+        <v>80</v>
+      </c>
+      <c r="P627" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B628" t="s">
+        <v>58</v>
+      </c>
+      <c r="C628" t="s">
+        <v>41</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E628" t="s">
+        <v>65</v>
+      </c>
+      <c r="F628" t="s">
+        <v>29</v>
+      </c>
+      <c r="G628">
+        <v>20</v>
+      </c>
+      <c r="H628" t="s">
+        <v>44</v>
+      </c>
+      <c r="I628" t="s">
+        <v>22</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K628" t="s">
+        <v>24</v>
+      </c>
+      <c r="L628" t="s">
+        <v>25</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N628" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O628" t="s">
+        <v>80</v>
+      </c>
+      <c r="P628" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B629" t="s">
+        <v>58</v>
+      </c>
+      <c r="C629" t="s">
+        <v>41</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E629" t="s">
+        <v>18</v>
+      </c>
+      <c r="F629" t="s">
+        <v>29</v>
+      </c>
+      <c r="G629">
+        <v>21</v>
+      </c>
+      <c r="H629" t="s">
+        <v>152</v>
+      </c>
+      <c r="I629" t="s">
+        <v>22</v>
+      </c>
+      <c r="J629" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K629" t="s">
+        <v>24</v>
+      </c>
+      <c r="L629" t="s">
+        <v>25</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N629" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O629" t="s">
+        <v>80</v>
+      </c>
+      <c r="P629" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B630" t="s">
+        <v>58</v>
+      </c>
+      <c r="C630" t="s">
+        <v>41</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E630" t="s">
+        <v>18</v>
+      </c>
+      <c r="F630" t="s">
+        <v>29</v>
+      </c>
+      <c r="G630">
+        <v>15</v>
+      </c>
+      <c r="H630" t="s">
+        <v>166</v>
+      </c>
+      <c r="I630" t="s">
+        <v>22</v>
+      </c>
+      <c r="J630" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K630" t="s">
+        <v>24</v>
+      </c>
+      <c r="L630" t="s">
+        <v>25</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N630" t="s">
+        <v>1895</v>
+      </c>
+      <c r="O630" t="s">
+        <v>24</v>
+      </c>
+      <c r="P630" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B631" t="s">
+        <v>58</v>
+      </c>
+      <c r="C631" t="s">
+        <v>27</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E631" t="s">
+        <v>18</v>
+      </c>
+      <c r="F631" t="s">
+        <v>91</v>
+      </c>
+      <c r="G631">
+        <v>54</v>
+      </c>
+      <c r="H631" t="s">
+        <v>166</v>
+      </c>
+      <c r="I631" t="s">
+        <v>22</v>
+      </c>
+      <c r="J631" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K631" t="s">
+        <v>24</v>
+      </c>
+      <c r="L631" t="s">
+        <v>450</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N631" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O631" t="s">
+        <v>24</v>
+      </c>
+      <c r="P631" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B632" t="s">
+        <v>58</v>
+      </c>
+      <c r="C632" t="s">
+        <v>41</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E632" t="s">
+        <v>18</v>
+      </c>
+      <c r="F632" t="s">
+        <v>29</v>
+      </c>
+      <c r="G632">
+        <v>31</v>
+      </c>
+      <c r="H632" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I632" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J632" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K632" t="s">
+        <v>24</v>
+      </c>
+      <c r="L632" t="s">
+        <v>25</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N632" t="s">
+        <v>1903</v>
+      </c>
+      <c r="O632" t="s">
+        <v>80</v>
+      </c>
+      <c r="P632" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B633" t="s">
+        <v>58</v>
+      </c>
+      <c r="C633" t="s">
+        <v>16</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E633" t="s">
+        <v>18</v>
+      </c>
+      <c r="F633" t="s">
+        <v>91</v>
+      </c>
+      <c r="G633">
+        <v>55</v>
+      </c>
+      <c r="H633" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I633" t="s">
+        <v>22</v>
+      </c>
+      <c r="J633" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K633" t="s">
+        <v>24</v>
+      </c>
+      <c r="L633" t="s">
+        <v>25</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N633" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O633" t="s">
+        <v>24</v>
+      </c>
+      <c r="P633" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B634" t="s">
+        <v>58</v>
+      </c>
+      <c r="C634" t="s">
+        <v>27</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E634" t="s">
+        <v>18</v>
+      </c>
+      <c r="F634" t="s">
+        <v>29</v>
+      </c>
+      <c r="G634">
+        <v>18</v>
+      </c>
+      <c r="H634" t="s">
+        <v>502</v>
+      </c>
+      <c r="I634" t="s">
+        <v>22</v>
+      </c>
+      <c r="J634" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K634" t="s">
+        <v>24</v>
+      </c>
+      <c r="L634" t="s">
+        <v>25</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N634" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O634" t="s">
+        <v>80</v>
+      </c>
+      <c r="P634" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B635" t="s">
+        <v>58</v>
+      </c>
+      <c r="C635" t="s">
+        <v>16</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E635" t="s">
+        <v>18</v>
+      </c>
+      <c r="F635" t="s">
+        <v>19</v>
+      </c>
+      <c r="G635">
+        <v>25</v>
+      </c>
+      <c r="H635" t="s">
+        <v>618</v>
+      </c>
+      <c r="I635" t="s">
+        <v>22</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K635" t="s">
+        <v>24</v>
+      </c>
+      <c r="L635" t="s">
+        <v>25</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N635" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O635" t="s">
+        <v>24</v>
+      </c>
+      <c r="P635" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B636" t="s">
+        <v>58</v>
+      </c>
+      <c r="C636" t="s">
+        <v>41</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E636" t="s">
+        <v>65</v>
+      </c>
+      <c r="F636" t="s">
+        <v>29</v>
+      </c>
+      <c r="G636">
+        <v>20</v>
+      </c>
+      <c r="H636" t="s">
+        <v>152</v>
+      </c>
+      <c r="I636" t="s">
+        <v>22</v>
+      </c>
+      <c r="J636" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K636" t="s">
+        <v>24</v>
+      </c>
+      <c r="L636" t="s">
+        <v>25</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N636" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O636" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P636" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B637" t="s">
+        <v>58</v>
+      </c>
+      <c r="C637" t="s">
+        <v>41</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E637" t="s">
+        <v>65</v>
+      </c>
+      <c r="F637" t="s">
+        <v>19</v>
+      </c>
+      <c r="G637">
+        <v>45</v>
+      </c>
+      <c r="H637" t="s">
+        <v>618</v>
+      </c>
+      <c r="I637" t="s">
+        <v>22</v>
+      </c>
+      <c r="J637" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K637" t="s">
+        <v>24</v>
+      </c>
+      <c r="L637" t="s">
+        <v>25</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N637" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O637" t="s">
+        <v>24</v>
+      </c>
+      <c r="P637" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B638" t="s">
+        <v>58</v>
+      </c>
+      <c r="C638" t="s">
+        <v>41</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E638" t="s">
+        <v>65</v>
+      </c>
+      <c r="F638" t="s">
+        <v>91</v>
+      </c>
+      <c r="G638">
+        <v>61</v>
+      </c>
+      <c r="H638" t="s">
+        <v>44</v>
+      </c>
+      <c r="I638" t="s">
+        <v>22</v>
+      </c>
+      <c r="J638" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K638" t="s">
+        <v>24</v>
+      </c>
+      <c r="L638" t="s">
+        <v>25</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N638" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O638" t="s">
+        <v>80</v>
+      </c>
+      <c r="P638" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B639" t="s">
+        <v>58</v>
+      </c>
+      <c r="C639" t="s">
+        <v>41</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E639" t="s">
+        <v>65</v>
+      </c>
+      <c r="F639" t="s">
+        <v>29</v>
+      </c>
+      <c r="G639">
+        <v>32</v>
+      </c>
+      <c r="H639" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I639" t="s">
+        <v>22</v>
+      </c>
+      <c r="J639" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K639" t="s">
+        <v>24</v>
+      </c>
+      <c r="L639" t="s">
+        <v>25</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N639" t="s">
+        <v>1925</v>
+      </c>
+      <c r="O639" t="s">
+        <v>24</v>
+      </c>
+      <c r="P639" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B640" t="s">
+        <v>58</v>
+      </c>
+      <c r="C640" t="s">
+        <v>41</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E640" t="s">
+        <v>65</v>
+      </c>
+      <c r="F640" t="s">
+        <v>19</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640" t="s">
+        <v>166</v>
+      </c>
+      <c r="I640" t="s">
+        <v>22</v>
+      </c>
+      <c r="J640" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K640" t="s">
+        <v>24</v>
+      </c>
+      <c r="L640" t="s">
+        <v>25</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N640" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O640" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P640" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B641" t="s">
+        <v>58</v>
+      </c>
+      <c r="C641" t="s">
+        <v>27</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E641" t="s">
+        <v>65</v>
+      </c>
+      <c r="F641" t="s">
+        <v>91</v>
+      </c>
+      <c r="G641">
+        <v>76</v>
+      </c>
+      <c r="H641" t="s">
+        <v>58</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J641" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K641" t="s">
+        <v>24</v>
+      </c>
+      <c r="L641" t="s">
+        <v>46</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N641" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O641" t="s">
+        <v>80</v>
+      </c>
+      <c r="P641" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B642" t="s">
+        <v>58</v>
+      </c>
+      <c r="C642" t="s">
+        <v>41</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E642" t="s">
+        <v>65</v>
+      </c>
+      <c r="F642" t="s">
+        <v>29</v>
+      </c>
+      <c r="G642">
+        <v>33</v>
+      </c>
+      <c r="H642" t="s">
+        <v>58</v>
+      </c>
+      <c r="I642" t="s">
+        <v>55</v>
+      </c>
+      <c r="J642" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K642" t="s">
+        <v>24</v>
+      </c>
+      <c r="L642" t="s">
+        <v>25</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N642" t="s">
+        <v>1933</v>
+      </c>
+      <c r="O642" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P642" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B643" t="s">
+        <v>58</v>
+      </c>
+      <c r="C643" t="s">
+        <v>41</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E643" t="s">
+        <v>65</v>
+      </c>
+      <c r="F643" t="s">
+        <v>29</v>
+      </c>
+      <c r="G643">
+        <v>66</v>
+      </c>
+      <c r="H643" t="s">
+        <v>231</v>
+      </c>
+      <c r="I643" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J643" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K643" t="s">
+        <v>24</v>
+      </c>
+      <c r="L643" t="s">
+        <v>25</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N643" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O643" t="s">
+        <v>80</v>
+      </c>
+      <c r="P643" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B644" t="s">
+        <v>58</v>
+      </c>
+      <c r="C644" t="s">
+        <v>41</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E644" t="s">
+        <v>65</v>
+      </c>
+      <c r="F644" t="s">
+        <v>29</v>
+      </c>
+      <c r="G644">
+        <v>48</v>
+      </c>
+      <c r="H644" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I644" t="s">
+        <v>22</v>
+      </c>
+      <c r="J644" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K644" t="s">
+        <v>24</v>
+      </c>
+      <c r="L644" t="s">
+        <v>201</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N644" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O644" t="s">
+        <v>24</v>
+      </c>
+      <c r="P644" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B645" t="s">
+        <v>58</v>
+      </c>
+      <c r="C645" t="s">
+        <v>27</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E645" t="s">
+        <v>65</v>
+      </c>
+      <c r="F645" t="s">
+        <v>29</v>
+      </c>
+      <c r="G645">
+        <v>39</v>
+      </c>
+      <c r="H645" t="s">
+        <v>58</v>
+      </c>
+      <c r="I645" t="s">
+        <v>55</v>
+      </c>
+      <c r="J645" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K645" t="s">
+        <v>24</v>
+      </c>
+      <c r="L645" t="s">
+        <v>25</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N645" t="s">
+        <v>1941</v>
+      </c>
+      <c r="O645" t="s">
+        <v>24</v>
+      </c>
+      <c r="P645" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B646" t="s">
+        <v>58</v>
+      </c>
+      <c r="C646" t="s">
+        <v>41</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E646" t="s">
+        <v>65</v>
+      </c>
+      <c r="F646" t="s">
+        <v>19</v>
+      </c>
+      <c r="G646">
+        <v>33</v>
+      </c>
+      <c r="H646" t="s">
+        <v>58</v>
+      </c>
+      <c r="I646" t="s">
+        <v>1943</v>
+      </c>
+      <c r="J646" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K646" t="s">
+        <v>24</v>
+      </c>
+      <c r="L646" t="s">
+        <v>25</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N646" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O646" t="s">
+        <v>24</v>
+      </c>
+      <c r="P646" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B647" t="s">
+        <v>58</v>
+      </c>
+      <c r="C647" t="s">
+        <v>27</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E647" t="s">
+        <v>65</v>
+      </c>
+      <c r="F647" t="s">
+        <v>29</v>
+      </c>
+      <c r="G647">
+        <v>25</v>
+      </c>
+      <c r="H647" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I647" t="s">
+        <v>157</v>
+      </c>
+      <c r="J647" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K647" t="s">
+        <v>24</v>
+      </c>
+      <c r="L647" t="s">
+        <v>25</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N647" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O647" t="s">
+        <v>80</v>
+      </c>
+      <c r="P647" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B648" t="s">
+        <v>58</v>
+      </c>
+      <c r="C648" t="s">
+        <v>27</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E648" t="s">
+        <v>65</v>
+      </c>
+      <c r="F648" t="s">
+        <v>29</v>
+      </c>
+      <c r="G648">
+        <v>18</v>
+      </c>
+      <c r="H648" t="s">
+        <v>366</v>
+      </c>
+      <c r="I648" t="s">
+        <v>22</v>
+      </c>
+      <c r="J648" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K648" t="s">
+        <v>24</v>
+      </c>
+      <c r="L648" t="s">
+        <v>25</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N648" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O648" t="s">
+        <v>80</v>
+      </c>
+      <c r="P648" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B649" t="s">
+        <v>58</v>
+      </c>
+      <c r="C649" t="s">
+        <v>16</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E649" t="s">
+        <v>18</v>
+      </c>
+      <c r="F649" t="s">
+        <v>29</v>
+      </c>
+      <c r="G649">
+        <v>27</v>
+      </c>
+      <c r="H649" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I649" t="s">
+        <v>22</v>
+      </c>
+      <c r="J649" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K649" t="s">
+        <v>24</v>
+      </c>
+      <c r="L649" t="s">
+        <v>25</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N649" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O649" t="s">
+        <v>80</v>
+      </c>
+      <c r="P649" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B650" t="s">
+        <v>58</v>
+      </c>
+      <c r="C650" t="s">
+        <v>27</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E650" t="s">
+        <v>18</v>
+      </c>
+      <c r="F650" t="s">
+        <v>29</v>
+      </c>
+      <c r="G650">
+        <v>50</v>
+      </c>
+      <c r="H650" t="s">
+        <v>516</v>
+      </c>
+      <c r="I650" t="s">
+        <v>22</v>
+      </c>
+      <c r="J650" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K650" t="s">
+        <v>24</v>
+      </c>
+      <c r="L650" t="s">
+        <v>25</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N650" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O650" t="s">
+        <v>80</v>
+      </c>
+      <c r="P650" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B651" t="s">
+        <v>58</v>
+      </c>
+      <c r="C651" t="s">
+        <v>41</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E651" t="s">
+        <v>18</v>
+      </c>
+      <c r="F651" t="s">
+        <v>29</v>
+      </c>
+      <c r="G651">
+        <v>33</v>
+      </c>
+      <c r="H651" t="s">
+        <v>58</v>
+      </c>
+      <c r="I651" t="s">
+        <v>55</v>
+      </c>
+      <c r="J651" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K651" t="s">
+        <v>24</v>
+      </c>
+      <c r="L651" t="s">
+        <v>457</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N651" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O651" t="s">
+        <v>24</v>
+      </c>
+      <c r="P651" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B652" t="s">
+        <v>58</v>
+      </c>
+      <c r="C652" t="s">
+        <v>27</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E652" t="s">
+        <v>18</v>
+      </c>
+      <c r="F652" t="s">
+        <v>29</v>
+      </c>
+      <c r="G652">
+        <v>23</v>
+      </c>
+      <c r="H652" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I652" t="s">
+        <v>55</v>
+      </c>
+      <c r="J652" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K652" t="s">
+        <v>24</v>
+      </c>
+      <c r="L652" t="s">
+        <v>25</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N652" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O652" t="s">
+        <v>24</v>
+      </c>
+      <c r="P652" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B653" t="s">
+        <v>58</v>
+      </c>
+      <c r="C653" t="s">
+        <v>27</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E653" t="s">
+        <v>18</v>
+      </c>
+      <c r="F653" t="s">
+        <v>29</v>
+      </c>
+      <c r="G653">
+        <v>25</v>
+      </c>
+      <c r="H653" t="s">
+        <v>58</v>
+      </c>
+      <c r="I653" t="s">
+        <v>324</v>
+      </c>
+      <c r="J653" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K653" t="s">
+        <v>24</v>
+      </c>
+      <c r="L653" t="s">
+        <v>25</v>
+      </c>
+      <c r="M653" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N653" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O653" t="s">
+        <v>24</v>
+      </c>
+      <c r="P653" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B654" t="s">
+        <v>58</v>
+      </c>
+      <c r="C654" t="s">
+        <v>27</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E654" t="s">
+        <v>18</v>
+      </c>
+      <c r="F654" t="s">
+        <v>19</v>
+      </c>
+      <c r="G654">
+        <v>40</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I654" t="s">
+        <v>157</v>
+      </c>
+      <c r="J654" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K654" t="s">
+        <v>24</v>
+      </c>
+      <c r="L654" t="s">
+        <v>445</v>
+      </c>
+      <c r="M654" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N654" t="s">
+        <v>1966</v>
+      </c>
+      <c r="O654" t="s">
+        <v>24</v>
+      </c>
+      <c r="P654" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B655" t="s">
+        <v>58</v>
+      </c>
+      <c r="C655" t="s">
+        <v>41</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E655" t="s">
+        <v>18</v>
+      </c>
+      <c r="F655" t="s">
+        <v>19</v>
+      </c>
+      <c r="G655">
+        <v>41</v>
+      </c>
+      <c r="H655" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I655" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J655" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K655" t="s">
+        <v>24</v>
+      </c>
+      <c r="L655" t="s">
+        <v>25</v>
+      </c>
+      <c r="M655" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N655" t="s">
+        <v>1972</v>
+      </c>
+      <c r="O655" t="s">
+        <v>24</v>
+      </c>
+      <c r="P655" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B656" t="s">
+        <v>58</v>
+      </c>
+      <c r="C656" t="s">
+        <v>41</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E656" t="s">
+        <v>18</v>
+      </c>
+      <c r="F656" t="s">
+        <v>19</v>
+      </c>
+      <c r="G656">
+        <v>31</v>
+      </c>
+      <c r="H656" t="s">
+        <v>393</v>
+      </c>
+      <c r="I656" t="s">
+        <v>22</v>
+      </c>
+      <c r="J656" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K656" t="s">
+        <v>24</v>
+      </c>
+      <c r="L656" t="s">
+        <v>25</v>
+      </c>
+      <c r="M656" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N656" t="s">
+        <v>1975</v>
+      </c>
+      <c r="O656" t="s">
+        <v>24</v>
+      </c>
+      <c r="P656" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B657" t="s">
+        <v>58</v>
+      </c>
+      <c r="C657" t="s">
+        <v>27</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E657" t="s">
+        <v>18</v>
+      </c>
+      <c r="F657" t="s">
+        <v>19</v>
+      </c>
+      <c r="G657">
+        <v>39</v>
+      </c>
+      <c r="H657" t="s">
+        <v>231</v>
+      </c>
+      <c r="I657" t="s">
+        <v>157</v>
+      </c>
+      <c r="J657" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K657" t="s">
+        <v>24</v>
+      </c>
+      <c r="L657" t="s">
+        <v>25</v>
+      </c>
+      <c r="M657" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N657" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O657" t="s">
+        <v>24</v>
+      </c>
+      <c r="P657" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B658" t="s">
+        <v>58</v>
+      </c>
+      <c r="C658" t="s">
+        <v>41</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E658" t="s">
+        <v>18</v>
+      </c>
+      <c r="F658" t="s">
+        <v>29</v>
+      </c>
+      <c r="G658">
+        <v>24</v>
+      </c>
+      <c r="H658" t="s">
+        <v>44</v>
+      </c>
+      <c r="I658" t="s">
+        <v>22</v>
+      </c>
+      <c r="J658" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K658" t="s">
+        <v>24</v>
+      </c>
+      <c r="L658" t="s">
+        <v>25</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N658" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O658" t="s">
+        <v>24</v>
+      </c>
+      <c r="P658" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B659" t="s">
+        <v>58</v>
+      </c>
+      <c r="C659" t="s">
+        <v>41</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E659" t="s">
+        <v>18</v>
+      </c>
+      <c r="F659" t="s">
+        <v>29</v>
+      </c>
+      <c r="G659">
+        <v>17</v>
+      </c>
+      <c r="H659" t="s">
+        <v>44</v>
+      </c>
+      <c r="I659" t="s">
+        <v>22</v>
+      </c>
+      <c r="J659" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K659" t="s">
+        <v>24</v>
+      </c>
+      <c r="L659" t="s">
+        <v>25</v>
+      </c>
+      <c r="M659" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N659" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O659" t="s">
+        <v>24</v>
+      </c>
+      <c r="P659" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B660" t="s">
+        <v>58</v>
+      </c>
+      <c r="C660" t="s">
+        <v>16</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E660" t="s">
+        <v>65</v>
+      </c>
+      <c r="F660" t="s">
+        <v>29</v>
+      </c>
+      <c r="G660">
+        <v>46</v>
+      </c>
+      <c r="H660" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I660" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J660" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K660" t="s">
+        <v>24</v>
+      </c>
+      <c r="L660" t="s">
+        <v>25</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N660" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O660" t="s">
+        <v>80</v>
+      </c>
+      <c r="P660" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B661" t="s">
+        <v>58</v>
+      </c>
+      <c r="C661" t="s">
+        <v>27</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E661" t="s">
+        <v>65</v>
+      </c>
+      <c r="F661" t="s">
+        <v>185</v>
+      </c>
+      <c r="G661">
+        <v>38</v>
+      </c>
+      <c r="H661" t="s">
+        <v>608</v>
+      </c>
+      <c r="I661" t="s">
+        <v>22</v>
+      </c>
+      <c r="J661" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K661" t="s">
+        <v>24</v>
+      </c>
+      <c r="L661" t="s">
+        <v>25</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N661" t="s">
+        <v>1991</v>
+      </c>
+      <c r="O661" t="s">
+        <v>24</v>
+      </c>
+      <c r="P661" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B662" t="s">
+        <v>58</v>
+      </c>
+      <c r="C662" t="s">
+        <v>41</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E662" t="s">
+        <v>65</v>
+      </c>
+      <c r="F662" t="s">
+        <v>29</v>
+      </c>
+      <c r="G662">
+        <v>39</v>
+      </c>
+      <c r="H662" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I662" t="s">
+        <v>55</v>
+      </c>
+      <c r="J662" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K662" t="s">
+        <v>24</v>
+      </c>
+      <c r="L662" t="s">
+        <v>25</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N662" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O662" t="s">
+        <v>24</v>
+      </c>
+      <c r="P662" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B663" t="s">
+        <v>58</v>
+      </c>
+      <c r="C663" t="s">
+        <v>41</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E663" t="s">
+        <v>65</v>
+      </c>
+      <c r="F663" t="s">
+        <v>292</v>
+      </c>
+      <c r="G663">
+        <v>67</v>
+      </c>
+      <c r="H663" t="s">
+        <v>281</v>
+      </c>
+      <c r="I663" t="s">
+        <v>22</v>
+      </c>
+      <c r="J663" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K663" t="s">
+        <v>24</v>
+      </c>
+      <c r="L663" t="s">
+        <v>25</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N663" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O663" t="s">
+        <v>80</v>
+      </c>
+      <c r="P663" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B664" t="s">
+        <v>58</v>
+      </c>
+      <c r="C664" t="s">
+        <v>41</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E664" t="s">
+        <v>65</v>
+      </c>
+      <c r="F664" t="s">
+        <v>29</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664" t="s">
+        <v>319</v>
+      </c>
+      <c r="I664" t="s">
+        <v>157</v>
+      </c>
+      <c r="J664" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K664" t="s">
+        <v>24</v>
+      </c>
+      <c r="L664" t="s">
+        <v>25</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N664" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O664" t="s">
+        <v>80</v>
+      </c>
+      <c r="P664" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B665" t="s">
+        <v>58</v>
+      </c>
+      <c r="C665" t="s">
+        <v>41</v>
+      </c>
+      <c r="D665" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E665" t="s">
+        <v>65</v>
+      </c>
+      <c r="F665" t="s">
+        <v>29</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I665" t="s">
+        <v>55</v>
+      </c>
+      <c r="J665" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K665" t="s">
+        <v>24</v>
+      </c>
+      <c r="L665" t="s">
+        <v>25</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N665" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O665" t="s">
+        <v>80</v>
+      </c>
+      <c r="P665" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B666" t="s">
+        <v>58</v>
+      </c>
+      <c r="C666" t="s">
+        <v>16</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E666" t="s">
+        <v>65</v>
+      </c>
+      <c r="F666" t="s">
+        <v>29</v>
+      </c>
+      <c r="G666">
+        <v>22</v>
+      </c>
+      <c r="H666" t="s">
+        <v>523</v>
+      </c>
+      <c r="I666" t="s">
+        <v>85</v>
+      </c>
+      <c r="J666" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K666" t="s">
+        <v>24</v>
+      </c>
+      <c r="L666" t="s">
+        <v>25</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N666" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O666" t="s">
+        <v>24</v>
+      </c>
+      <c r="P666" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B667" t="s">
+        <v>58</v>
+      </c>
+      <c r="C667" t="s">
+        <v>41</v>
+      </c>
+      <c r="D667" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E667" t="s">
+        <v>65</v>
+      </c>
+      <c r="F667" t="s">
+        <v>19</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667" t="s">
+        <v>129</v>
+      </c>
+      <c r="I667" t="s">
+        <v>157</v>
+      </c>
+      <c r="J667" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K667" t="s">
+        <v>24</v>
+      </c>
+      <c r="L667" t="s">
+        <v>25</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N667" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O667" t="s">
+        <v>24</v>
+      </c>
+      <c r="P667" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B668" t="s">
+        <v>58</v>
+      </c>
+      <c r="C668" t="s">
+        <v>16</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E668" t="s">
+        <v>65</v>
+      </c>
+      <c r="F668" t="s">
+        <v>29</v>
+      </c>
+      <c r="G668">
+        <v>33</v>
+      </c>
+      <c r="H668" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I668" t="s">
+        <v>55</v>
+      </c>
+      <c r="J668" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K668" t="s">
+        <v>24</v>
+      </c>
+      <c r="L668" t="s">
+        <v>25</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N668" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O668" t="s">
+        <v>80</v>
+      </c>
+      <c r="P668" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B669" t="s">
+        <v>58</v>
+      </c>
+      <c r="C669" t="s">
+        <v>27</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E669" t="s">
+        <v>65</v>
+      </c>
+      <c r="F669" t="s">
+        <v>29</v>
+      </c>
+      <c r="G669">
+        <v>36</v>
+      </c>
+      <c r="H669" t="s">
+        <v>231</v>
+      </c>
+      <c r="I669" t="s">
+        <v>55</v>
+      </c>
+      <c r="J669" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K669" t="s">
+        <v>24</v>
+      </c>
+      <c r="L669" t="s">
+        <v>25</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N669" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O669" t="s">
+        <v>80</v>
+      </c>
+      <c r="P669" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B670" t="s">
+        <v>58</v>
+      </c>
+      <c r="C670" t="s">
+        <v>27</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E670" t="s">
+        <v>65</v>
+      </c>
+      <c r="F670" t="s">
+        <v>19</v>
+      </c>
+      <c r="G670">
+        <v>38</v>
+      </c>
+      <c r="H670" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I670" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J670" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K670" t="s">
+        <v>24</v>
+      </c>
+      <c r="L670" t="s">
+        <v>25</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N670" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O670" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P670" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B671" t="s">
+        <v>58</v>
+      </c>
+      <c r="C671" t="s">
+        <v>41</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E671" t="s">
+        <v>65</v>
+      </c>
+      <c r="F671" t="s">
+        <v>19</v>
+      </c>
+      <c r="G671">
+        <v>40</v>
+      </c>
+      <c r="H671" t="s">
+        <v>816</v>
+      </c>
+      <c r="I671" t="s">
+        <v>55</v>
+      </c>
+      <c r="J671" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K671" t="s">
+        <v>24</v>
+      </c>
+      <c r="L671" t="s">
+        <v>46</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N671" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O671" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P671" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B672" t="s">
+        <v>58</v>
+      </c>
+      <c r="C672" t="s">
+        <v>41</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E672" t="s">
+        <v>65</v>
+      </c>
+      <c r="F672" t="s">
+        <v>91</v>
+      </c>
+      <c r="G672">
+        <v>48</v>
+      </c>
+      <c r="H672" t="s">
+        <v>58</v>
+      </c>
+      <c r="I672" t="s">
+        <v>55</v>
+      </c>
+      <c r="J672" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K672" t="s">
+        <v>24</v>
+      </c>
+      <c r="L672" t="s">
+        <v>25</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N672" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O672" t="s">
+        <v>24</v>
+      </c>
+      <c r="P672" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B673" t="s">
+        <v>58</v>
+      </c>
+      <c r="C673" t="s">
+        <v>27</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E673" t="s">
+        <v>65</v>
+      </c>
+      <c r="F673" t="s">
+        <v>58</v>
+      </c>
+      <c r="G673">
+        <v>0</v>
+      </c>
+      <c r="H673" t="s">
+        <v>44</v>
+      </c>
+      <c r="I673" t="s">
+        <v>22</v>
+      </c>
+      <c r="J673" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K673" t="s">
+        <v>24</v>
+      </c>
+      <c r="L673" t="s">
+        <v>25</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N673" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O673" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P673" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B674" t="s">
+        <v>58</v>
+      </c>
+      <c r="C674" t="s">
+        <v>16</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E674" t="s">
+        <v>65</v>
+      </c>
+      <c r="F674" t="s">
+        <v>19</v>
+      </c>
+      <c r="G674">
+        <v>38</v>
+      </c>
+      <c r="H674" t="s">
+        <v>152</v>
+      </c>
+      <c r="I674" t="s">
+        <v>22</v>
+      </c>
+      <c r="J674" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K674" t="s">
+        <v>24</v>
+      </c>
+      <c r="L674" t="s">
+        <v>25</v>
+      </c>
+      <c r="M674" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N674" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O674" t="s">
+        <v>80</v>
+      </c>
+      <c r="P674" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B675" t="s">
+        <v>58</v>
+      </c>
+      <c r="C675" t="s">
+        <v>41</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E675" t="s">
+        <v>65</v>
+      </c>
+      <c r="F675" t="s">
+        <v>29</v>
+      </c>
+      <c r="G675">
+        <v>32</v>
+      </c>
+      <c r="H675" t="s">
+        <v>58</v>
+      </c>
+      <c r="I675" t="s">
+        <v>55</v>
+      </c>
+      <c r="J675" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K675" t="s">
+        <v>24</v>
+      </c>
+      <c r="L675" t="s">
+        <v>46</v>
+      </c>
+      <c r="M675" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N675" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O675" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P675" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B676" t="s">
+        <v>58</v>
+      </c>
+      <c r="C676" t="s">
+        <v>27</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E676" t="s">
+        <v>65</v>
+      </c>
+      <c r="F676" t="s">
+        <v>29</v>
+      </c>
+      <c r="G676">
+        <v>25</v>
+      </c>
+      <c r="H676" t="s">
+        <v>909</v>
+      </c>
+      <c r="I676" t="s">
+        <v>22</v>
+      </c>
+      <c r="J676" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K676" t="s">
+        <v>24</v>
+      </c>
+      <c r="L676" t="s">
+        <v>46</v>
+      </c>
+      <c r="M676" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N676" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O676" t="s">
+        <v>24</v>
+      </c>
+      <c r="P676" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B677" t="s">
+        <v>58</v>
+      </c>
+      <c r="C677" t="s">
+        <v>16</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E677" t="s">
+        <v>65</v>
+      </c>
+      <c r="F677" t="s">
+        <v>19</v>
+      </c>
+      <c r="G677">
+        <v>34</v>
+      </c>
+      <c r="H677" t="s">
+        <v>58</v>
+      </c>
+      <c r="I677" t="s">
+        <v>55</v>
+      </c>
+      <c r="J677" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K677" t="s">
+        <v>24</v>
+      </c>
+      <c r="L677" t="s">
+        <v>46</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N677" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O677" t="s">
+        <v>80</v>
+      </c>
+      <c r="P677" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B678" t="s">
+        <v>58</v>
+      </c>
+      <c r="C678" t="s">
+        <v>27</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E678" t="s">
+        <v>65</v>
+      </c>
+      <c r="F678" t="s">
+        <v>19</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678" t="s">
+        <v>44</v>
+      </c>
+      <c r="I678" t="s">
+        <v>22</v>
+      </c>
+      <c r="J678" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K678" t="s">
+        <v>24</v>
+      </c>
+      <c r="L678" t="s">
+        <v>25</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N678" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O678" t="s">
+        <v>80</v>
+      </c>
+      <c r="P678" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B679" t="s">
+        <v>58</v>
+      </c>
+      <c r="C679" t="s">
+        <v>27</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E679" t="s">
+        <v>65</v>
+      </c>
+      <c r="F679" t="s">
+        <v>29</v>
+      </c>
+      <c r="G679">
+        <v>27</v>
+      </c>
+      <c r="H679" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I679" t="s">
+        <v>22</v>
+      </c>
+      <c r="J679" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K679" t="s">
+        <v>24</v>
+      </c>
+      <c r="L679" t="s">
+        <v>25</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N679" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O679" t="s">
+        <v>24</v>
+      </c>
+      <c r="P679" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B680" t="s">
+        <v>58</v>
+      </c>
+      <c r="C680" t="s">
+        <v>41</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E680" t="s">
+        <v>65</v>
+      </c>
+      <c r="F680" t="s">
+        <v>29</v>
+      </c>
+      <c r="G680">
+        <v>33</v>
+      </c>
+      <c r="H680" t="s">
+        <v>281</v>
+      </c>
+      <c r="I680" t="s">
+        <v>22</v>
+      </c>
+      <c r="J680" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K680" t="s">
+        <v>24</v>
+      </c>
+      <c r="L680" t="s">
+        <v>25</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N680" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O680" t="s">
+        <v>80</v>
+      </c>
+      <c r="P680" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B681" t="s">
+        <v>58</v>
+      </c>
+      <c r="C681" t="s">
+        <v>27</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E681" t="s">
+        <v>65</v>
+      </c>
+      <c r="F681" t="s">
+        <v>185</v>
+      </c>
+      <c r="G681">
+        <v>32</v>
+      </c>
+      <c r="H681" t="s">
+        <v>58</v>
+      </c>
+      <c r="I681" t="s">
+        <v>55</v>
+      </c>
+      <c r="J681" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K681" t="s">
+        <v>24</v>
+      </c>
+      <c r="L681" t="s">
+        <v>25</v>
+      </c>
+      <c r="M681" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N681" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O681" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P681" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B682" t="s">
+        <v>58</v>
+      </c>
+      <c r="C682" t="s">
+        <v>41</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E682" t="s">
+        <v>65</v>
+      </c>
+      <c r="F682" t="s">
+        <v>19</v>
+      </c>
+      <c r="G682">
+        <v>28</v>
+      </c>
+      <c r="H682" t="s">
+        <v>152</v>
+      </c>
+      <c r="I682" t="s">
+        <v>22</v>
+      </c>
+      <c r="J682" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K682" t="s">
+        <v>24</v>
+      </c>
+      <c r="L682" t="s">
+        <v>25</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N682" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O682" t="s">
+        <v>24</v>
+      </c>
+      <c r="P682" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B683" t="s">
+        <v>58</v>
+      </c>
+      <c r="C683" t="s">
+        <v>41</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E683" t="s">
+        <v>65</v>
+      </c>
+      <c r="F683" t="s">
+        <v>19</v>
+      </c>
+      <c r="G683">
+        <v>69</v>
+      </c>
+      <c r="H683" t="s">
+        <v>58</v>
+      </c>
+      <c r="I683" t="s">
+        <v>55</v>
+      </c>
+      <c r="J683" t="s">
+        <v>2045</v>
+      </c>
+      <c r="K683" t="s">
+        <v>24</v>
+      </c>
+      <c r="L683" t="s">
+        <v>25</v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N683" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O683" t="s">
+        <v>80</v>
+      </c>
+      <c r="P683" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B684" t="s">
+        <v>58</v>
+      </c>
+      <c r="C684" t="s">
+        <v>41</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E684" t="s">
+        <v>65</v>
+      </c>
+      <c r="F684" t="s">
+        <v>19</v>
+      </c>
+      <c r="G684">
+        <v>36</v>
+      </c>
+      <c r="H684" t="s">
+        <v>44</v>
+      </c>
+      <c r="I684" t="s">
+        <v>22</v>
+      </c>
+      <c r="J684" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K684" t="s">
+        <v>24</v>
+      </c>
+      <c r="L684" t="s">
+        <v>25</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N684" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O684" t="s">
+        <v>24</v>
+      </c>
+      <c r="P684" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B685" t="s">
+        <v>58</v>
+      </c>
+      <c r="C685" t="s">
+        <v>41</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E685" t="s">
+        <v>65</v>
+      </c>
+      <c r="F685" t="s">
+        <v>58</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685" t="s">
+        <v>58</v>
+      </c>
+      <c r="I685" t="s">
+        <v>55</v>
+      </c>
+      <c r="J685" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K685" t="s">
+        <v>24</v>
+      </c>
+      <c r="L685" t="s">
+        <v>25</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N685" t="s">
+        <v>2050</v>
+      </c>
+      <c r="O685" t="s">
+        <v>24</v>
+      </c>
+      <c r="P685" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B686" t="s">
+        <v>58</v>
+      </c>
+      <c r="C686" t="s">
+        <v>27</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E686" t="s">
+        <v>65</v>
+      </c>
+      <c r="F686" t="s">
+        <v>58</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686" t="s">
+        <v>21</v>
+      </c>
+      <c r="I686" t="s">
+        <v>22</v>
+      </c>
+      <c r="J686" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K686" t="s">
+        <v>24</v>
+      </c>
+      <c r="L686" t="s">
+        <v>25</v>
+      </c>
+      <c r="M686" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N686" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O686" t="s">
+        <v>24</v>
+      </c>
+      <c r="P686" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B687" t="s">
+        <v>58</v>
+      </c>
+      <c r="C687" t="s">
+        <v>27</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E687" t="s">
+        <v>65</v>
+      </c>
+      <c r="F687" t="s">
+        <v>29</v>
+      </c>
+      <c r="G687">
+        <v>37</v>
+      </c>
+      <c r="H687" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I687" t="s">
+        <v>55</v>
+      </c>
+      <c r="J687" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K687" t="s">
+        <v>24</v>
+      </c>
+      <c r="L687" t="s">
+        <v>25</v>
+      </c>
+      <c r="M687" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N687" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O687" t="s">
+        <v>80</v>
+      </c>
+      <c r="P687" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B688" t="s">
+        <v>58</v>
+      </c>
+      <c r="C688" t="s">
+        <v>27</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E688" t="s">
+        <v>65</v>
+      </c>
+      <c r="F688" t="s">
+        <v>29</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688" t="s">
+        <v>281</v>
+      </c>
+      <c r="I688" t="s">
+        <v>22</v>
+      </c>
+      <c r="J688" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K688" t="s">
+        <v>24</v>
+      </c>
+      <c r="L688" t="s">
+        <v>25</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N688" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O688" t="s">
+        <v>80</v>
+      </c>
+      <c r="P688" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B689" t="s">
+        <v>58</v>
+      </c>
+      <c r="C689" t="s">
+        <v>41</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E689" t="s">
+        <v>65</v>
+      </c>
+      <c r="F689" t="s">
+        <v>19</v>
+      </c>
+      <c r="G689">
+        <v>35</v>
+      </c>
+      <c r="H689" t="s">
+        <v>58</v>
+      </c>
+      <c r="I689" t="s">
+        <v>55</v>
+      </c>
+      <c r="J689" t="s">
+        <v>2058</v>
+      </c>
+      <c r="K689" t="s">
+        <v>24</v>
+      </c>
+      <c r="L689" t="s">
+        <v>148</v>
+      </c>
+      <c r="M689" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N689" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O689" t="s">
+        <v>24</v>
+      </c>
+      <c r="P689" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B690" t="s">
+        <v>58</v>
+      </c>
+      <c r="C690" t="s">
+        <v>41</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E690" t="s">
+        <v>65</v>
+      </c>
+      <c r="F690" t="s">
+        <v>29</v>
+      </c>
+      <c r="G690">
+        <v>24</v>
+      </c>
+      <c r="H690" t="s">
+        <v>129</v>
+      </c>
+      <c r="I690" t="s">
+        <v>22</v>
+      </c>
+      <c r="J690" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K690" t="s">
+        <v>24</v>
+      </c>
+      <c r="L690" t="s">
+        <v>25</v>
+      </c>
+      <c r="M690" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N690" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O690" t="s">
+        <v>24</v>
+      </c>
+      <c r="P690" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B691" t="s">
+        <v>58</v>
+      </c>
+      <c r="C691" t="s">
+        <v>16</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E691" t="s">
+        <v>65</v>
+      </c>
+      <c r="F691" t="s">
+        <v>19</v>
+      </c>
+      <c r="G691">
+        <v>66</v>
+      </c>
+      <c r="H691" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I691" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J691" t="s">
+        <v>2064</v>
+      </c>
+      <c r="K691" t="s">
+        <v>24</v>
+      </c>
+      <c r="L691" t="s">
+        <v>25</v>
+      </c>
+      <c r="M691" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N691" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O691" t="s">
+        <v>80</v>
+      </c>
+      <c r="P691" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B692" t="s">
+        <v>58</v>
+      </c>
+      <c r="C692" t="s">
+        <v>41</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E692" t="s">
+        <v>65</v>
+      </c>
+      <c r="F692" t="s">
+        <v>29</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692" t="s">
+        <v>58</v>
+      </c>
+      <c r="I692" t="s">
+        <v>55</v>
+      </c>
+      <c r="J692" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K692" t="s">
+        <v>24</v>
+      </c>
+      <c r="L692" t="s">
+        <v>25</v>
+      </c>
+      <c r="M692" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N692" t="s">
+        <v>2067</v>
+      </c>
+      <c r="O692" t="s">
+        <v>24</v>
+      </c>
+      <c r="P692" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B693" t="s">
+        <v>58</v>
+      </c>
+      <c r="C693" t="s">
+        <v>27</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E693" t="s">
+        <v>65</v>
+      </c>
+      <c r="F693" t="s">
+        <v>29</v>
+      </c>
+      <c r="G693">
+        <v>36</v>
+      </c>
+      <c r="H693" t="s">
+        <v>44</v>
+      </c>
+      <c r="I693" t="s">
+        <v>55</v>
+      </c>
+      <c r="J693" t="s">
+        <v>2069</v>
+      </c>
+      <c r="K693" t="s">
+        <v>24</v>
+      </c>
+      <c r="L693" t="s">
+        <v>25</v>
+      </c>
+      <c r="M693" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N693" t="s">
+        <v>2070</v>
+      </c>
+      <c r="O693" t="s">
+        <v>24</v>
+      </c>
+      <c r="P693" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B694" t="s">
+        <v>58</v>
+      </c>
+      <c r="C694" t="s">
+        <v>41</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E694" t="s">
+        <v>65</v>
+      </c>
+      <c r="F694" t="s">
+        <v>29</v>
+      </c>
+      <c r="G694">
+        <v>29</v>
+      </c>
+      <c r="H694" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I694" t="s">
+        <v>157</v>
+      </c>
+      <c r="J694" t="s">
+        <v>2073</v>
+      </c>
+      <c r="K694" t="s">
+        <v>24</v>
+      </c>
+      <c r="L694" t="s">
+        <v>25</v>
+      </c>
+      <c r="M694" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N694" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O694" t="s">
+        <v>80</v>
+      </c>
+      <c r="P694" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B695" t="s">
+        <v>58</v>
+      </c>
+      <c r="C695" t="s">
+        <v>27</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E695" t="s">
+        <v>65</v>
+      </c>
+      <c r="F695" t="s">
+        <v>19</v>
+      </c>
+      <c r="G695">
+        <v>45</v>
+      </c>
+      <c r="H695" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I695" t="s">
+        <v>22</v>
+      </c>
+      <c r="J695" t="s">
+        <v>2075</v>
+      </c>
+      <c r="K695" t="s">
+        <v>24</v>
+      </c>
+      <c r="L695" t="s">
+        <v>25</v>
+      </c>
+      <c r="M695" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N695" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O695" t="s">
+        <v>80</v>
+      </c>
+      <c r="P695" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B696" t="s">
+        <v>58</v>
+      </c>
+      <c r="C696" t="s">
+        <v>27</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E696" t="s">
+        <v>18</v>
+      </c>
+      <c r="F696" t="s">
+        <v>19</v>
+      </c>
+      <c r="G696">
+        <v>41</v>
+      </c>
+      <c r="H696" t="s">
+        <v>393</v>
+      </c>
+      <c r="I696" t="s">
+        <v>22</v>
+      </c>
+      <c r="J696" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K696" t="s">
+        <v>24</v>
+      </c>
+      <c r="L696" t="s">
+        <v>450</v>
+      </c>
+      <c r="M696" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N696" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O696" t="s">
+        <v>24</v>
+      </c>
+      <c r="P696" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B697" t="s">
+        <v>58</v>
+      </c>
+      <c r="C697" t="s">
+        <v>41</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E697" t="s">
+        <v>18</v>
+      </c>
+      <c r="F697" t="s">
+        <v>29</v>
+      </c>
+      <c r="G697">
+        <v>30</v>
+      </c>
+      <c r="H697" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I697" t="s">
+        <v>335</v>
+      </c>
+      <c r="J697" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K697" t="s">
+        <v>24</v>
+      </c>
+      <c r="L697" t="s">
+        <v>25</v>
+      </c>
+      <c r="M697" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N697" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O697" t="s">
+        <v>24</v>
+      </c>
+      <c r="P697" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B698" t="s">
+        <v>58</v>
+      </c>
+      <c r="C698" t="s">
+        <v>41</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E698" t="s">
+        <v>18</v>
+      </c>
+      <c r="F698" t="s">
+        <v>29</v>
+      </c>
+      <c r="G698">
+        <v>26</v>
+      </c>
+      <c r="H698" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I698" t="s">
+        <v>55</v>
+      </c>
+      <c r="J698" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K698" t="s">
+        <v>24</v>
+      </c>
+      <c r="L698" t="s">
+        <v>25</v>
+      </c>
+      <c r="M698" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N698" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O698" t="s">
+        <v>24</v>
+      </c>
+      <c r="P698" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B699" t="s">
+        <v>58</v>
+      </c>
+      <c r="C699" t="s">
+        <v>41</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E699" t="s">
+        <v>18</v>
+      </c>
+      <c r="F699" t="s">
+        <v>29</v>
+      </c>
+      <c r="G699">
+        <v>16</v>
+      </c>
+      <c r="H699" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I699" t="s">
+        <v>22</v>
+      </c>
+      <c r="J699" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K699" t="s">
+        <v>24</v>
+      </c>
+      <c r="L699" t="s">
+        <v>25</v>
+      </c>
+      <c r="M699" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N699" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O699" t="s">
+        <v>80</v>
+      </c>
+      <c r="P699" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="700" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B700" t="s">
+        <v>58</v>
+      </c>
+      <c r="C700" t="s">
+        <v>41</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E700" t="s">
+        <v>65</v>
+      </c>
+      <c r="F700" t="s">
+        <v>29</v>
+      </c>
+      <c r="G700">
+        <v>41</v>
+      </c>
+      <c r="H700" t="s">
+        <v>61</v>
+      </c>
+      <c r="I700" t="s">
+        <v>22</v>
+      </c>
+      <c r="J700" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K700" t="s">
+        <v>24</v>
+      </c>
+      <c r="L700" t="s">
+        <v>25</v>
+      </c>
+      <c r="M700" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N700" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O700" t="s">
+        <v>80</v>
+      </c>
+      <c r="P700" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B701" t="s">
+        <v>58</v>
+      </c>
+      <c r="C701" t="s">
+        <v>41</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E701" t="s">
+        <v>65</v>
+      </c>
+      <c r="F701" t="s">
+        <v>29</v>
+      </c>
+      <c r="G701">
+        <v>29</v>
+      </c>
+      <c r="H701" t="s">
+        <v>364</v>
+      </c>
+      <c r="I701" t="s">
+        <v>22</v>
+      </c>
+      <c r="J701" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K701" t="s">
+        <v>24</v>
+      </c>
+      <c r="L701" t="s">
+        <v>25</v>
+      </c>
+      <c r="M701" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N701" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O701" t="s">
+        <v>24</v>
+      </c>
+      <c r="P701" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B702" t="s">
+        <v>58</v>
+      </c>
+      <c r="C702" t="s">
+        <v>27</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E702" t="s">
+        <v>65</v>
+      </c>
+      <c r="F702" t="s">
+        <v>91</v>
+      </c>
+      <c r="G702">
+        <v>41</v>
+      </c>
+      <c r="H702" t="s">
+        <v>307</v>
+      </c>
+      <c r="I702" t="s">
+        <v>22</v>
+      </c>
+      <c r="J702" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K702" t="s">
+        <v>24</v>
+      </c>
+      <c r="L702" t="s">
+        <v>25</v>
+      </c>
+      <c r="M702" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N702" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O702" t="s">
+        <v>24</v>
+      </c>
+      <c r="P702" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="703" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B703" t="s">
+        <v>58</v>
+      </c>
+      <c r="C703" t="s">
+        <v>41</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E703" t="s">
+        <v>65</v>
+      </c>
+      <c r="F703" t="s">
+        <v>19</v>
+      </c>
+      <c r="G703">
+        <v>39</v>
+      </c>
+      <c r="H703" t="s">
+        <v>393</v>
+      </c>
+      <c r="I703" t="s">
+        <v>55</v>
+      </c>
+      <c r="J703" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K703" t="s">
+        <v>24</v>
+      </c>
+      <c r="L703" t="s">
+        <v>46</v>
+      </c>
+      <c r="M703" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N703" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O703" t="s">
+        <v>24</v>
+      </c>
+      <c r="P703" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B704" t="s">
+        <v>58</v>
+      </c>
+      <c r="C704" t="s">
+        <v>41</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E704" t="s">
+        <v>65</v>
+      </c>
+      <c r="F704" t="s">
+        <v>29</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704" t="s">
+        <v>58</v>
+      </c>
+      <c r="I704" t="s">
+        <v>55</v>
+      </c>
+      <c r="J704" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K704" t="s">
+        <v>24</v>
+      </c>
+      <c r="L704" t="s">
+        <v>201</v>
+      </c>
+      <c r="M704" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N704" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O704" t="s">
+        <v>24</v>
+      </c>
+      <c r="P704" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B705" t="s">
+        <v>58</v>
+      </c>
+      <c r="C705" t="s">
+        <v>16</v>
+      </c>
+      <c r="D705" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E705" t="s">
+        <v>65</v>
+      </c>
+      <c r="F705" t="s">
+        <v>91</v>
+      </c>
+      <c r="G705">
+        <v>32</v>
+      </c>
+      <c r="H705" t="s">
+        <v>44</v>
+      </c>
+      <c r="I705" t="s">
+        <v>22</v>
+      </c>
+      <c r="J705" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K705" t="s">
+        <v>24</v>
+      </c>
+      <c r="L705" t="s">
+        <v>25</v>
+      </c>
+      <c r="M705" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N705" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O705" t="s">
+        <v>80</v>
+      </c>
+      <c r="P705" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B706" t="s">
+        <v>58</v>
+      </c>
+      <c r="C706" t="s">
+        <v>27</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E706" t="s">
+        <v>65</v>
+      </c>
+      <c r="F706" t="s">
+        <v>29</v>
+      </c>
+      <c r="G706">
+        <v>13</v>
+      </c>
+      <c r="H706" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I706" t="s">
+        <v>335</v>
+      </c>
+      <c r="J706" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K706" t="s">
+        <v>24</v>
+      </c>
+      <c r="L706" t="s">
+        <v>25</v>
+      </c>
+      <c r="M706" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N706" t="s">
+        <v>2105</v>
+      </c>
+      <c r="O706" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P706" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B707" t="s">
+        <v>58</v>
+      </c>
+      <c r="C707" t="s">
+        <v>41</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E707" t="s">
+        <v>65</v>
+      </c>
+      <c r="F707" t="s">
+        <v>29</v>
+      </c>
+      <c r="G707">
+        <v>21</v>
+      </c>
+      <c r="H707" t="s">
+        <v>58</v>
+      </c>
+      <c r="I707" t="s">
+        <v>55</v>
+      </c>
+      <c r="J707" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K707" t="s">
+        <v>24</v>
+      </c>
+      <c r="L707" t="s">
+        <v>25</v>
+      </c>
+      <c r="M707" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N707" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O707" t="s">
+        <v>80</v>
+      </c>
+      <c r="P707" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B708" t="s">
+        <v>58</v>
+      </c>
+      <c r="C708" t="s">
+        <v>27</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E708" t="s">
+        <v>65</v>
+      </c>
+      <c r="F708" t="s">
+        <v>29</v>
+      </c>
+      <c r="G708">
+        <v>100</v>
+      </c>
+      <c r="H708" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I708" t="s">
+        <v>157</v>
+      </c>
+      <c r="J708" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K708" t="s">
+        <v>24</v>
+      </c>
+      <c r="L708" t="s">
+        <v>25</v>
+      </c>
+      <c r="M708" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N708" t="s">
+        <v>95</v>
+      </c>
+      <c r="O708" t="s">
+        <v>80</v>
+      </c>
+      <c r="P708" t="s">
         <v>824</v>
       </c>
     </row>

--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Desktop/BRIDGE/consolidado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE888C6-418B-4C16-8479-D50EA5CEDD67}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84FD7C7D-C16D-408A-B09D-5A7E31300699}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="2112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="2475">
   <si>
     <t>Quando</t>
   </si>
@@ -6398,6 +6398,1095 @@
   </si>
   <si>
     <t>21 98667-9866</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>Pierre Souza</t>
+  </si>
+  <si>
+    <t>21 98344-6853</t>
+  </si>
+  <si>
+    <t>Carlos Alberto De Souza Jr</t>
+  </si>
+  <si>
+    <t>21 99827-5183</t>
+  </si>
+  <si>
+    <t>Maxi Vila</t>
+  </si>
+  <si>
+    <t>21 99881-6640</t>
+  </si>
+  <si>
+    <t>Jonildo Viegas</t>
+  </si>
+  <si>
+    <t>21 98257-7569</t>
+  </si>
+  <si>
+    <t>Luiz Antônio De Azevedo</t>
+  </si>
+  <si>
+    <t>21 99409-6903</t>
+  </si>
+  <si>
+    <t>Yago Elias Lessa Nascimento</t>
+  </si>
+  <si>
+    <t>21 97883-9918</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar ao gc</t>
+  </si>
+  <si>
+    <t>Nelmar Paiva</t>
+  </si>
+  <si>
+    <t>21 99969-6367</t>
+  </si>
+  <si>
+    <t>Camilly Neves</t>
+  </si>
+  <si>
+    <t>21 96543-3580</t>
+  </si>
+  <si>
+    <t>Chrystiane Thomas</t>
+  </si>
+  <si>
+    <t>21 96567-7704</t>
+  </si>
+  <si>
+    <t>Eduardo Bernardino</t>
+  </si>
+  <si>
+    <t>21 96536-0809</t>
+  </si>
+  <si>
+    <t>Esta indo aos cultos e quando puder disse que vai ao gc</t>
+  </si>
+  <si>
+    <t>Tamyres Moreira</t>
+  </si>
+  <si>
+    <t>32 99814-7464</t>
+  </si>
+  <si>
+    <t>06/07/2025</t>
+  </si>
+  <si>
+    <t>Jonathan Siqueira Nascimento</t>
+  </si>
+  <si>
+    <t>21 98330-9557</t>
+  </si>
+  <si>
+    <t>Entrei em contato por whatsApp e dei as boas vindas</t>
+  </si>
+  <si>
+    <t>Leandro Garcia Da Silva Filho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trezentos </t>
+  </si>
+  <si>
+    <t>São Cristóvão  / RJ</t>
+  </si>
+  <si>
+    <t>21 97932-2184</t>
+  </si>
+  <si>
+    <t>Entrei em contato mas a pessoa informou que o número estava errado.</t>
+  </si>
+  <si>
+    <t>Davi Siqueira Nascimento</t>
+  </si>
+  <si>
+    <t>21 99441-4251</t>
+  </si>
+  <si>
+    <t>Já foi a frente algumas vezes. Tentamos encaminhar para o GC Barrinha diversas vezes sem sucesso.</t>
+  </si>
+  <si>
+    <t>Laudson Rodrigues</t>
+  </si>
+  <si>
+    <t>21 96425-8696</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Dias</t>
+  </si>
+  <si>
+    <t>Piedade</t>
+  </si>
+  <si>
+    <t>21 98839-0666</t>
+  </si>
+  <si>
+    <t>Tiago Alves Santana</t>
+  </si>
+  <si>
+    <t>21 99408-6398</t>
+  </si>
+  <si>
+    <t>Herik Lobo</t>
+  </si>
+  <si>
+    <t>98 8168-1256</t>
+  </si>
+  <si>
+    <t>Anderson Soares Silverio</t>
+  </si>
+  <si>
+    <t>21 98046-7490</t>
+  </si>
+  <si>
+    <t>Ewerton Vignolli</t>
+  </si>
+  <si>
+    <t>28 99904-1883</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>Caio De Castro Faria</t>
+  </si>
+  <si>
+    <t>21 99616-6377</t>
+  </si>
+  <si>
+    <t>Victoria Silva</t>
+  </si>
+  <si>
+    <t>21 97614-0071</t>
+  </si>
+  <si>
+    <t>Encaminhada para um gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle Mariano </t>
+  </si>
+  <si>
+    <t>Viviane R B Paradelas</t>
+  </si>
+  <si>
+    <t>21 98377-4305</t>
+  </si>
+  <si>
+    <t>Ana Paula Silva</t>
+  </si>
+  <si>
+    <t>21 96601-9584</t>
+  </si>
+  <si>
+    <t>Stefanie Lucena</t>
+  </si>
+  <si>
+    <t>21 98082-8923</t>
+  </si>
+  <si>
+    <t>Kesllen Brito</t>
+  </si>
+  <si>
+    <t>21 96516-6137</t>
+  </si>
+  <si>
+    <t>Fernanda Nanda</t>
+  </si>
+  <si>
+    <t>Humaita</t>
+  </si>
+  <si>
+    <t>21 97205-5760</t>
+  </si>
+  <si>
+    <t>Vilane Brito</t>
+  </si>
+  <si>
+    <t>21 98100-0913</t>
+  </si>
+  <si>
+    <t>Aline Araujo</t>
+  </si>
+  <si>
+    <t>21 97921-1000</t>
+  </si>
+  <si>
+    <t>Denise Santana</t>
+  </si>
+  <si>
+    <t>21 97974-7402</t>
+  </si>
+  <si>
+    <t>Pediu apenas oração, não quer aindaparticipar do gc</t>
+  </si>
+  <si>
+    <t>Thuany Vicente</t>
+  </si>
+  <si>
+    <t>21 98385-9183</t>
+  </si>
+  <si>
+    <t>Priscila Mozer</t>
+  </si>
+  <si>
+    <t>21 99734-3978</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Misto Botafogo</t>
+  </si>
+  <si>
+    <t>Fernanda Gomes</t>
+  </si>
+  <si>
+    <t>21 96505-7716</t>
+  </si>
+  <si>
+    <t>Tatiana Da Silva Rodrigues</t>
+  </si>
+  <si>
+    <t>21 96413-2416</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Pink</t>
+  </si>
+  <si>
+    <t>Nathalia Fleming Ricci Fonseca</t>
+  </si>
+  <si>
+    <t>21 99387-4289</t>
+  </si>
+  <si>
+    <t>Francine Alvez</t>
+  </si>
+  <si>
+    <t>21 99100-4009</t>
+  </si>
+  <si>
+    <t>Está indo ao GC Barrinha</t>
+  </si>
+  <si>
+    <t>Laís Marcela</t>
+  </si>
+  <si>
+    <t>21 96428-7733</t>
+  </si>
+  <si>
+    <t>Maria Carolina Montezano</t>
+  </si>
+  <si>
+    <t>21 ---</t>
+  </si>
+  <si>
+    <t>Não tem o telefone</t>
+  </si>
+  <si>
+    <t>Andreza Cecilia Caetano De Castro</t>
+  </si>
+  <si>
+    <t>21 96871-5665</t>
+  </si>
+  <si>
+    <t>Encaminhada para o GC Botafogo</t>
+  </si>
+  <si>
+    <t>Amira Barrett</t>
+  </si>
+  <si>
+    <t>21 96895-4602</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>Daniel De Souza Araújo</t>
+  </si>
+  <si>
+    <t>Enviei mensagem pelo WhatsApp.</t>
+  </si>
+  <si>
+    <t>Robert Oliveira</t>
+  </si>
+  <si>
+    <t>21 98034-4626</t>
+  </si>
+  <si>
+    <t>André Moraes</t>
+  </si>
+  <si>
+    <t>11 99342-5391</t>
+  </si>
+  <si>
+    <t>Fernando Neves</t>
+  </si>
+  <si>
+    <t>21 98891-2600</t>
+  </si>
+  <si>
+    <t>Felipe Chiba</t>
+  </si>
+  <si>
+    <t>11 99999-0736</t>
+  </si>
+  <si>
+    <t>Victor Santiago</t>
+  </si>
+  <si>
+    <t>21 97268-9840</t>
+  </si>
+  <si>
+    <t>Liguei e deixei recado na caixa postal. Não tem WhatsApp</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>Andrew Peixoto</t>
+  </si>
+  <si>
+    <t>Comendador Soares</t>
+  </si>
+  <si>
+    <t>21 97152-5982</t>
+  </si>
+  <si>
+    <t>Bruno Almeida</t>
+  </si>
+  <si>
+    <t>21 97937-6645</t>
+  </si>
+  <si>
+    <t>Tauã Victor</t>
+  </si>
+  <si>
+    <t>21 96501-7222</t>
+  </si>
+  <si>
+    <t>Carolina Correa</t>
+  </si>
+  <si>
+    <t>19 99194-4744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviei mensagem e estou aguardando responder </t>
+  </si>
+  <si>
+    <t>Naiara Soares</t>
+  </si>
+  <si>
+    <t>21 96583-8705</t>
+  </si>
+  <si>
+    <t>Segunda vez à frente. Já está indo ao GC Flamengo</t>
+  </si>
+  <si>
+    <t>Kelly Souza</t>
+  </si>
+  <si>
+    <t>21 98455-8344</t>
+  </si>
+  <si>
+    <t>Raissa Vitória</t>
+  </si>
+  <si>
+    <t>21 99719-5478</t>
+  </si>
+  <si>
+    <t>Segunda vez à frente. Encaminhada para o Nexteen</t>
+  </si>
+  <si>
+    <t>Betsy Torres</t>
+  </si>
+  <si>
+    <t>21 98701-5522</t>
+  </si>
+  <si>
+    <t>Marcia Regina</t>
+  </si>
+  <si>
+    <t>21 99608-0386</t>
+  </si>
+  <si>
+    <t>Millena Souza</t>
+  </si>
+  <si>
+    <t>Jailda Duarte</t>
+  </si>
+  <si>
+    <t>21 98784-2207</t>
+  </si>
+  <si>
+    <t>Maria Rute Lima Maceda</t>
+  </si>
+  <si>
+    <t>Manacapuru</t>
+  </si>
+  <si>
+    <t>Residencial Manacapuru / AM</t>
+  </si>
+  <si>
+    <t>92 99264-2593</t>
+  </si>
+  <si>
+    <t>Andréia Carmo</t>
+  </si>
+  <si>
+    <t>21 99851-1246</t>
+  </si>
+  <si>
+    <t>Jessica Santos</t>
+  </si>
+  <si>
+    <t>21 97174-6949</t>
+  </si>
+  <si>
+    <t>Priscila Max</t>
+  </si>
+  <si>
+    <t>21 99656-0178</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Leme</t>
+  </si>
+  <si>
+    <t>Ravena Alexandre De Oliveira</t>
+  </si>
+  <si>
+    <t>21 97657-5345</t>
+  </si>
+  <si>
+    <t>Julia Câmara</t>
+  </si>
+  <si>
+    <t>21 99101-7355</t>
+  </si>
+  <si>
+    <t>Maria José Alexandre Da Costa</t>
+  </si>
+  <si>
+    <t>21 98118-0451</t>
+  </si>
+  <si>
+    <t>Alexandra Dos Santos Rocha</t>
+  </si>
+  <si>
+    <t>21 99104-6050</t>
+  </si>
+  <si>
+    <t>Encaminhada para pink ipanema</t>
+  </si>
+  <si>
+    <t>Dila Sousa</t>
+  </si>
+  <si>
+    <t>21 99104-8493</t>
+  </si>
+  <si>
+    <t>Respondeu. Encaminhada ao 27+</t>
+  </si>
+  <si>
+    <t>Uini Veiga</t>
+  </si>
+  <si>
+    <t>21 99642-2080</t>
+  </si>
+  <si>
+    <t>Lorrany Moitim</t>
+  </si>
+  <si>
+    <t>24 98117-2700</t>
+  </si>
+  <si>
+    <t>Respondeu. Encaminhada para o Nexteen</t>
+  </si>
+  <si>
+    <t>Graziele Maciel</t>
+  </si>
+  <si>
+    <t>24 99288-5878</t>
+  </si>
+  <si>
+    <t>Juliana Machado</t>
+  </si>
+  <si>
+    <t>Rancho Fundo</t>
+  </si>
+  <si>
+    <t>21 96569-2743</t>
+  </si>
+  <si>
+    <t>Rosa Moitim</t>
+  </si>
+  <si>
+    <t>24 99952-4593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora em volta redonda </t>
+  </si>
+  <si>
+    <t>Desiree Duarte Cordeiro</t>
+  </si>
+  <si>
+    <t>Vila Gaúcha</t>
+  </si>
+  <si>
+    <t>21 97489-6654</t>
+  </si>
+  <si>
+    <t>Joseane Bezerra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Conrado </t>
+  </si>
+  <si>
+    <t>21 99401-5419</t>
+  </si>
+  <si>
+    <t>Alani Araujo</t>
+  </si>
+  <si>
+    <t>Rio / RJ</t>
+  </si>
+  <si>
+    <t>21 97775-7585</t>
+  </si>
+  <si>
+    <t>Roberta Passomides</t>
+  </si>
+  <si>
+    <t>21 98864-4907</t>
+  </si>
+  <si>
+    <t>Respondeu. Disse que está indo ao GC com amigos</t>
+  </si>
+  <si>
+    <t>20/07/2025</t>
+  </si>
+  <si>
+    <t>João Henrique Ferro Lopes</t>
+  </si>
+  <si>
+    <t>21 98103-4640</t>
+  </si>
+  <si>
+    <t>Enviei mensagem via WhatsApp</t>
+  </si>
+  <si>
+    <t>Marcos Oliveira Mota</t>
+  </si>
+  <si>
+    <t>22 99967-5264</t>
+  </si>
+  <si>
+    <t>Rafael Nascimento De Carvalho</t>
+  </si>
+  <si>
+    <t>21 98026-2283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irajá </t>
+  </si>
+  <si>
+    <t>21 98441-8996</t>
+  </si>
+  <si>
+    <t>Gutemberg Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenho De Dentro </t>
+  </si>
+  <si>
+    <t>21 98028-9166</t>
+  </si>
+  <si>
+    <t>Patrick Pereira</t>
+  </si>
+  <si>
+    <t>Agostinho Porto</t>
+  </si>
+  <si>
+    <t>21 96475-7643</t>
+  </si>
+  <si>
+    <t>Vitor De Lima Pereira</t>
+  </si>
+  <si>
+    <t>21 97624-3343</t>
+  </si>
+  <si>
+    <t>Rafael Carvalho</t>
+  </si>
+  <si>
+    <t>22 99854-2513</t>
+  </si>
+  <si>
+    <t>Yves Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Paula São Gonçalo </t>
+  </si>
+  <si>
+    <t>21 96552-6567</t>
+  </si>
+  <si>
+    <t>Joao Victor De Azevedo Looes</t>
+  </si>
+  <si>
+    <t>21 99772-7209</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>Toni Matias</t>
+  </si>
+  <si>
+    <t>Copacaba</t>
+  </si>
+  <si>
+    <t>21 96826-9080</t>
+  </si>
+  <si>
+    <t>Natália Pires Santos</t>
+  </si>
+  <si>
+    <t>21 98363-5890</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando Encaminhar ao GC</t>
+  </si>
+  <si>
+    <t>Camila Souza</t>
+  </si>
+  <si>
+    <t>Canasvieiras</t>
+  </si>
+  <si>
+    <t>Florianópolis / SC</t>
+  </si>
+  <si>
+    <t>48 99864-0922</t>
+  </si>
+  <si>
+    <t>Enviei Mensagem. Aguardando responder</t>
+  </si>
+  <si>
+    <t>Rejane Medeiros</t>
+  </si>
+  <si>
+    <t>21 98756-3835</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc pink</t>
+  </si>
+  <si>
+    <t>Julia Ribeiro Lopes</t>
+  </si>
+  <si>
+    <t>31 99380-0050</t>
+  </si>
+  <si>
+    <t>Isabella Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardim Botanico </t>
+  </si>
+  <si>
+    <t>11 97399-0041</t>
+  </si>
+  <si>
+    <t>Encaminhei para o GC 27+</t>
+  </si>
+  <si>
+    <t>Janaina De Oliveira Mrwues</t>
+  </si>
+  <si>
+    <t>21 99989-6794</t>
+  </si>
+  <si>
+    <t>Dayana Soares</t>
+  </si>
+  <si>
+    <t>21 96431-2085</t>
+  </si>
+  <si>
+    <t>Pamela Farias Mattos</t>
+  </si>
+  <si>
+    <t>21 99217-3047</t>
+  </si>
+  <si>
+    <t>Disse que quando puder, irá ao gc</t>
+  </si>
+  <si>
+    <t>Eneida Mello Costa</t>
+  </si>
+  <si>
+    <t>21 99992-6454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respondeu. Está em contato com lider gc tijuca </t>
+  </si>
+  <si>
+    <t>Manuela Gonçalves Guimaraes</t>
+  </si>
+  <si>
+    <t>SEM TELEFONE</t>
+  </si>
+  <si>
+    <t>Thalita Lustoza Pereira</t>
+  </si>
+  <si>
+    <t>Conforto</t>
+  </si>
+  <si>
+    <t>Volta Redonda / RJ</t>
+  </si>
+  <si>
+    <t>24 99325-4646</t>
+  </si>
+  <si>
+    <t>Livia Brito</t>
+  </si>
+  <si>
+    <t>98 99231-3365</t>
+  </si>
+  <si>
+    <t>Aline Lopes Vidal</t>
+  </si>
+  <si>
+    <t>21 99982-5414</t>
+  </si>
+  <si>
+    <t>Rubia Santis</t>
+  </si>
+  <si>
+    <t>21 98292-0991</t>
+  </si>
+  <si>
+    <t>Valdenice Maria Da Silva</t>
+  </si>
+  <si>
+    <t>21 97295-0337</t>
+  </si>
+  <si>
+    <t>Encaminhada para o gc tijuca</t>
+  </si>
+  <si>
+    <t>Beatriz Oliveira</t>
+  </si>
+  <si>
+    <t>21 98370-9034</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Ribeiro</t>
+  </si>
+  <si>
+    <t>21 98897-6115</t>
+  </si>
+  <si>
+    <t>Priscila Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botofogo </t>
+  </si>
+  <si>
+    <t>Rio Janeiro  / --</t>
+  </si>
+  <si>
+    <t>21 98030-8426</t>
+  </si>
+  <si>
+    <t>Luiza Victoria Da Silva</t>
+  </si>
+  <si>
+    <t>21 99731-3515</t>
+  </si>
+  <si>
+    <t>Letícia Mendonça</t>
+  </si>
+  <si>
+    <t>21 98269-5040</t>
+  </si>
+  <si>
+    <t>Encaminhada para NEXT</t>
+  </si>
+  <si>
+    <t>Ana Paula Rodrigues</t>
+  </si>
+  <si>
+    <t>21 97940-2121</t>
+  </si>
+  <si>
+    <t>Luísa Moura De Oliveira</t>
+  </si>
+  <si>
+    <t>21 96706-3112</t>
+  </si>
+  <si>
+    <t>Camila De Andrade</t>
+  </si>
+  <si>
+    <t>21 96805-1684</t>
+  </si>
+  <si>
+    <t>Bárbara Barbedo</t>
+  </si>
+  <si>
+    <t>21 99870-4066</t>
+  </si>
+  <si>
+    <t>Manoella Werneck</t>
+  </si>
+  <si>
+    <t>21 98714-0901</t>
+  </si>
+  <si>
+    <t>Tentando enviar para um gc</t>
+  </si>
+  <si>
+    <t>Kelty Suzy Da Silva</t>
+  </si>
+  <si>
+    <t>21 99270-9640</t>
+  </si>
+  <si>
+    <t>Maiara Lacerda Silva</t>
+  </si>
+  <si>
+    <t>21 97980-5609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta indo no gc flamengo </t>
+  </si>
+  <si>
+    <t>Juliana Barcellos</t>
+  </si>
+  <si>
+    <t>21 97645-2785</t>
+  </si>
+  <si>
+    <t>Ana Carla Da Silva Schelck</t>
+  </si>
+  <si>
+    <t>21 96434-9659</t>
+  </si>
+  <si>
+    <t>Renata Fernades Da Rocha</t>
+  </si>
+  <si>
+    <t>21 99783-0462</t>
+  </si>
+  <si>
+    <t>Stephany Roza</t>
+  </si>
+  <si>
+    <t>21 98120-8260</t>
+  </si>
+  <si>
+    <t>Enviei para o GC Maes</t>
+  </si>
+  <si>
+    <t>Danielle Bardeli Palhano Silva</t>
+  </si>
+  <si>
+    <t>21 97943-6816</t>
+  </si>
+  <si>
+    <t>Jessica Carvalho</t>
+  </si>
+  <si>
+    <t>61 98405-1256</t>
+  </si>
+  <si>
+    <t>Wal Silva</t>
+  </si>
+  <si>
+    <t>21 98758-8647</t>
+  </si>
+  <si>
+    <t>Fabiana Lopes Maia</t>
+  </si>
+  <si>
+    <t>Acari</t>
+  </si>
+  <si>
+    <t>21 99216-8906</t>
+  </si>
+  <si>
+    <t>Yasmin Menezes Bahiense</t>
+  </si>
+  <si>
+    <t>21 96644-2497</t>
+  </si>
+  <si>
+    <t>Ana Paula Mota</t>
+  </si>
+  <si>
+    <t>21 97933-8848</t>
+  </si>
+  <si>
+    <t>27/07/2025</t>
+  </si>
+  <si>
+    <t>Alexandre Soares Da Silva Júnior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irará </t>
+  </si>
+  <si>
+    <t>21 99373-1948</t>
+  </si>
+  <si>
+    <t>Victor Leite</t>
+  </si>
+  <si>
+    <t>22 99781-3185</t>
+  </si>
+  <si>
+    <t>David Lopez Autino</t>
+  </si>
+  <si>
+    <t>21 96512-1280</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>Tiago De Moraes</t>
+  </si>
+  <si>
+    <t>Inhaúma</t>
+  </si>
+  <si>
+    <t>21 96886-6330</t>
+  </si>
+  <si>
+    <t>Davi Marcondes</t>
+  </si>
+  <si>
+    <t>21 96774-9625</t>
+  </si>
+  <si>
+    <t>Joao Gabriel Teixeira Da Silva</t>
+  </si>
+  <si>
+    <t>21 97932-2870</t>
+  </si>
+  <si>
+    <t>Sandra Vieira</t>
+  </si>
+  <si>
+    <t>21 97034-1880</t>
+  </si>
+  <si>
+    <t>Encaminhada para gc maes online</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Moura</t>
+  </si>
+  <si>
+    <t>22 99787-3642</t>
+  </si>
+  <si>
+    <t>Encaminhada para o 27+ tijuca</t>
+  </si>
+  <si>
+    <t>Janine Cotinho</t>
+  </si>
+  <si>
+    <t>21 99859-2544</t>
+  </si>
+  <si>
+    <t>Respondeu. Tentando encaminhar para o gc</t>
+  </si>
+  <si>
+    <t>Roberta Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catumbi </t>
+  </si>
+  <si>
+    <t>21 99021-9090</t>
+  </si>
+  <si>
+    <t>Enviei mensagem. Aguradando responder</t>
+  </si>
+  <si>
+    <t>Alexandra Paixao</t>
+  </si>
+  <si>
+    <t>21 98727-3018</t>
+  </si>
+  <si>
+    <t>enviei mensagem. Aguradando responder</t>
+  </si>
+  <si>
+    <t>Lea Magalhaes</t>
+  </si>
+  <si>
+    <t>21 97194-3776</t>
+  </si>
+  <si>
+    <t>Karla Rodrigues</t>
+  </si>
+  <si>
+    <t>21 99956-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia </t>
+  </si>
+  <si>
+    <t>21 96838-9924</t>
+  </si>
+  <si>
+    <t>Camilly Henrique Corrêa Da Luz</t>
+  </si>
+  <si>
+    <t>21 96524-1047</t>
+  </si>
+  <si>
+    <t>Priscilla Rocha</t>
+  </si>
+  <si>
+    <t>21 99602-2356</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Oliveira Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque União </t>
+  </si>
+  <si>
+    <t>21 99895-8728</t>
+  </si>
+  <si>
+    <t>Encaminhada para nexteen copacabana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paloma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenho Da Rainha </t>
+  </si>
+  <si>
+    <t>21 98123-6410</t>
+  </si>
+  <si>
+    <t>Encaminhada para GC Del castilho</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Gonçalves</t>
+  </si>
+  <si>
+    <t>21 98968-0406</t>
   </si>
 </sst>
 </file>
@@ -6798,12 +7887,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P708"/>
+  <dimension ref="A1:P865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A837" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A853" sqref="A853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42125,6 +43214,7856 @@
         <v>824</v>
       </c>
     </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B709" t="s">
+        <v>58</v>
+      </c>
+      <c r="C709" t="s">
+        <v>27</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E709" t="s">
+        <v>18</v>
+      </c>
+      <c r="F709" t="s">
+        <v>19</v>
+      </c>
+      <c r="G709">
+        <v>41</v>
+      </c>
+      <c r="H709" t="s">
+        <v>393</v>
+      </c>
+      <c r="I709" t="s">
+        <v>22</v>
+      </c>
+      <c r="J709" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K709" t="s">
+        <v>24</v>
+      </c>
+      <c r="L709" t="s">
+        <v>450</v>
+      </c>
+      <c r="M709" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N709" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O709" t="s">
+        <v>24</v>
+      </c>
+      <c r="P709" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B710" t="s">
+        <v>58</v>
+      </c>
+      <c r="C710" t="s">
+        <v>41</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E710" t="s">
+        <v>18</v>
+      </c>
+      <c r="F710" t="s">
+        <v>29</v>
+      </c>
+      <c r="G710">
+        <v>30</v>
+      </c>
+      <c r="H710" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I710" t="s">
+        <v>335</v>
+      </c>
+      <c r="J710" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K710" t="s">
+        <v>24</v>
+      </c>
+      <c r="L710" t="s">
+        <v>25</v>
+      </c>
+      <c r="M710" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N710" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O710" t="s">
+        <v>24</v>
+      </c>
+      <c r="P710" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B711" t="s">
+        <v>58</v>
+      </c>
+      <c r="C711" t="s">
+        <v>41</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E711" t="s">
+        <v>18</v>
+      </c>
+      <c r="F711" t="s">
+        <v>29</v>
+      </c>
+      <c r="G711">
+        <v>26</v>
+      </c>
+      <c r="H711" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I711" t="s">
+        <v>55</v>
+      </c>
+      <c r="J711" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K711" t="s">
+        <v>24</v>
+      </c>
+      <c r="L711" t="s">
+        <v>25</v>
+      </c>
+      <c r="M711" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N711" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O711" t="s">
+        <v>24</v>
+      </c>
+      <c r="P711" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B712" t="s">
+        <v>58</v>
+      </c>
+      <c r="C712" t="s">
+        <v>41</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E712" t="s">
+        <v>18</v>
+      </c>
+      <c r="F712" t="s">
+        <v>29</v>
+      </c>
+      <c r="G712">
+        <v>16</v>
+      </c>
+      <c r="H712" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I712" t="s">
+        <v>22</v>
+      </c>
+      <c r="J712" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K712" t="s">
+        <v>24</v>
+      </c>
+      <c r="L712" t="s">
+        <v>25</v>
+      </c>
+      <c r="M712" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N712" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O712" t="s">
+        <v>80</v>
+      </c>
+      <c r="P712" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B713" t="s">
+        <v>58</v>
+      </c>
+      <c r="C713" t="s">
+        <v>16</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E713" t="s">
+        <v>18</v>
+      </c>
+      <c r="F713" t="s">
+        <v>19</v>
+      </c>
+      <c r="G713">
+        <v>24</v>
+      </c>
+      <c r="H713" t="s">
+        <v>618</v>
+      </c>
+      <c r="I713" t="s">
+        <v>22</v>
+      </c>
+      <c r="J713" t="s">
+        <v>2114</v>
+      </c>
+      <c r="K713" t="s">
+        <v>24</v>
+      </c>
+      <c r="L713" t="s">
+        <v>25</v>
+      </c>
+      <c r="M713" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N713" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O713" t="s">
+        <v>80</v>
+      </c>
+      <c r="P713" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B714" t="s">
+        <v>58</v>
+      </c>
+      <c r="C714" t="s">
+        <v>41</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E714" t="s">
+        <v>18</v>
+      </c>
+      <c r="F714" t="s">
+        <v>29</v>
+      </c>
+      <c r="G714">
+        <v>46</v>
+      </c>
+      <c r="H714" t="s">
+        <v>152</v>
+      </c>
+      <c r="I714" t="s">
+        <v>55</v>
+      </c>
+      <c r="J714" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K714" t="s">
+        <v>24</v>
+      </c>
+      <c r="L714" t="s">
+        <v>148</v>
+      </c>
+      <c r="M714" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N714" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O714" t="s">
+        <v>24</v>
+      </c>
+      <c r="P714" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B715" t="s">
+        <v>58</v>
+      </c>
+      <c r="C715" t="s">
+        <v>41</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E715" t="s">
+        <v>18</v>
+      </c>
+      <c r="F715" t="s">
+        <v>91</v>
+      </c>
+      <c r="G715">
+        <v>54</v>
+      </c>
+      <c r="H715" t="s">
+        <v>35</v>
+      </c>
+      <c r="I715" t="s">
+        <v>22</v>
+      </c>
+      <c r="J715" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K715" t="s">
+        <v>24</v>
+      </c>
+      <c r="L715" t="s">
+        <v>25</v>
+      </c>
+      <c r="M715" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N715" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O715" t="s">
+        <v>24</v>
+      </c>
+      <c r="P715" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B716" t="s">
+        <v>58</v>
+      </c>
+      <c r="C716" t="s">
+        <v>16</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E716" t="s">
+        <v>18</v>
+      </c>
+      <c r="F716" t="s">
+        <v>29</v>
+      </c>
+      <c r="G716">
+        <v>32</v>
+      </c>
+      <c r="H716" t="s">
+        <v>393</v>
+      </c>
+      <c r="I716" t="s">
+        <v>22</v>
+      </c>
+      <c r="J716" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K716" t="s">
+        <v>24</v>
+      </c>
+      <c r="L716" t="s">
+        <v>201</v>
+      </c>
+      <c r="M716" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N716" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O716" t="s">
+        <v>24</v>
+      </c>
+      <c r="P716" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B717" t="s">
+        <v>58</v>
+      </c>
+      <c r="C717" t="s">
+        <v>41</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E717" t="s">
+        <v>18</v>
+      </c>
+      <c r="F717" t="s">
+        <v>29</v>
+      </c>
+      <c r="G717">
+        <v>36</v>
+      </c>
+      <c r="H717" t="s">
+        <v>393</v>
+      </c>
+      <c r="I717" t="s">
+        <v>55</v>
+      </c>
+      <c r="J717" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K717" t="s">
+        <v>24</v>
+      </c>
+      <c r="L717" t="s">
+        <v>201</v>
+      </c>
+      <c r="M717" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N717" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O717" t="s">
+        <v>24</v>
+      </c>
+      <c r="P717" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B718" t="s">
+        <v>58</v>
+      </c>
+      <c r="C718" t="s">
+        <v>41</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E718" t="s">
+        <v>18</v>
+      </c>
+      <c r="F718" t="s">
+        <v>29</v>
+      </c>
+      <c r="G718">
+        <v>28</v>
+      </c>
+      <c r="H718" t="s">
+        <v>166</v>
+      </c>
+      <c r="I718" t="s">
+        <v>22</v>
+      </c>
+      <c r="J718" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K718" t="s">
+        <v>24</v>
+      </c>
+      <c r="L718" t="s">
+        <v>445</v>
+      </c>
+      <c r="M718" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N718" t="s">
+        <v>2082</v>
+      </c>
+      <c r="O718" t="s">
+        <v>24</v>
+      </c>
+      <c r="P718" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B719" t="s">
+        <v>58</v>
+      </c>
+      <c r="C719" t="s">
+        <v>41</v>
+      </c>
+      <c r="D719" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E719" t="s">
+        <v>65</v>
+      </c>
+      <c r="F719" t="s">
+        <v>29</v>
+      </c>
+      <c r="G719">
+        <v>41</v>
+      </c>
+      <c r="H719" t="s">
+        <v>61</v>
+      </c>
+      <c r="I719" t="s">
+        <v>22</v>
+      </c>
+      <c r="J719" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K719" t="s">
+        <v>24</v>
+      </c>
+      <c r="L719" t="s">
+        <v>25</v>
+      </c>
+      <c r="M719" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N719" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O719" t="s">
+        <v>80</v>
+      </c>
+      <c r="P719" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B720" t="s">
+        <v>58</v>
+      </c>
+      <c r="C720" t="s">
+        <v>41</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E720" t="s">
+        <v>65</v>
+      </c>
+      <c r="F720" t="s">
+        <v>29</v>
+      </c>
+      <c r="G720">
+        <v>29</v>
+      </c>
+      <c r="H720" t="s">
+        <v>364</v>
+      </c>
+      <c r="I720" t="s">
+        <v>22</v>
+      </c>
+      <c r="J720" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K720" t="s">
+        <v>24</v>
+      </c>
+      <c r="L720" t="s">
+        <v>25</v>
+      </c>
+      <c r="M720" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N720" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O720" t="s">
+        <v>24</v>
+      </c>
+      <c r="P720" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B721" t="s">
+        <v>58</v>
+      </c>
+      <c r="C721" t="s">
+        <v>27</v>
+      </c>
+      <c r="D721" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E721" t="s">
+        <v>65</v>
+      </c>
+      <c r="F721" t="s">
+        <v>91</v>
+      </c>
+      <c r="G721">
+        <v>41</v>
+      </c>
+      <c r="H721" t="s">
+        <v>307</v>
+      </c>
+      <c r="I721" t="s">
+        <v>22</v>
+      </c>
+      <c r="J721" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K721" t="s">
+        <v>24</v>
+      </c>
+      <c r="L721" t="s">
+        <v>25</v>
+      </c>
+      <c r="M721" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N721" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O721" t="s">
+        <v>24</v>
+      </c>
+      <c r="P721" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B722" t="s">
+        <v>58</v>
+      </c>
+      <c r="C722" t="s">
+        <v>41</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E722" t="s">
+        <v>65</v>
+      </c>
+      <c r="F722" t="s">
+        <v>19</v>
+      </c>
+      <c r="G722">
+        <v>39</v>
+      </c>
+      <c r="H722" t="s">
+        <v>393</v>
+      </c>
+      <c r="I722" t="s">
+        <v>55</v>
+      </c>
+      <c r="J722" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K722" t="s">
+        <v>24</v>
+      </c>
+      <c r="L722" t="s">
+        <v>46</v>
+      </c>
+      <c r="M722" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N722" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O722" t="s">
+        <v>24</v>
+      </c>
+      <c r="P722" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B723" t="s">
+        <v>58</v>
+      </c>
+      <c r="C723" t="s">
+        <v>41</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E723" t="s">
+        <v>65</v>
+      </c>
+      <c r="F723" t="s">
+        <v>29</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723" t="s">
+        <v>58</v>
+      </c>
+      <c r="I723" t="s">
+        <v>55</v>
+      </c>
+      <c r="J723" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K723" t="s">
+        <v>24</v>
+      </c>
+      <c r="L723" t="s">
+        <v>201</v>
+      </c>
+      <c r="M723" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N723" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O723" t="s">
+        <v>24</v>
+      </c>
+      <c r="P723" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B724" t="s">
+        <v>58</v>
+      </c>
+      <c r="C724" t="s">
+        <v>16</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E724" t="s">
+        <v>65</v>
+      </c>
+      <c r="F724" t="s">
+        <v>91</v>
+      </c>
+      <c r="G724">
+        <v>32</v>
+      </c>
+      <c r="H724" t="s">
+        <v>44</v>
+      </c>
+      <c r="I724" t="s">
+        <v>22</v>
+      </c>
+      <c r="J724" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K724" t="s">
+        <v>24</v>
+      </c>
+      <c r="L724" t="s">
+        <v>25</v>
+      </c>
+      <c r="M724" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N724" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O724" t="s">
+        <v>80</v>
+      </c>
+      <c r="P724" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B725" t="s">
+        <v>58</v>
+      </c>
+      <c r="C725" t="s">
+        <v>27</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E725" t="s">
+        <v>65</v>
+      </c>
+      <c r="F725" t="s">
+        <v>29</v>
+      </c>
+      <c r="G725">
+        <v>13</v>
+      </c>
+      <c r="H725" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I725" t="s">
+        <v>335</v>
+      </c>
+      <c r="J725" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K725" t="s">
+        <v>24</v>
+      </c>
+      <c r="L725" t="s">
+        <v>25</v>
+      </c>
+      <c r="M725" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N725" t="s">
+        <v>2105</v>
+      </c>
+      <c r="O725" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P725" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B726" t="s">
+        <v>58</v>
+      </c>
+      <c r="C726" t="s">
+        <v>41</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E726" t="s">
+        <v>65</v>
+      </c>
+      <c r="F726" t="s">
+        <v>29</v>
+      </c>
+      <c r="G726">
+        <v>21</v>
+      </c>
+      <c r="H726" t="s">
+        <v>58</v>
+      </c>
+      <c r="I726" t="s">
+        <v>55</v>
+      </c>
+      <c r="J726" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K726" t="s">
+        <v>24</v>
+      </c>
+      <c r="L726" t="s">
+        <v>25</v>
+      </c>
+      <c r="M726" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N726" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O726" t="s">
+        <v>80</v>
+      </c>
+      <c r="P726" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B727" t="s">
+        <v>58</v>
+      </c>
+      <c r="C727" t="s">
+        <v>27</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E727" t="s">
+        <v>65</v>
+      </c>
+      <c r="F727" t="s">
+        <v>29</v>
+      </c>
+      <c r="G727">
+        <v>100</v>
+      </c>
+      <c r="H727" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I727" t="s">
+        <v>157</v>
+      </c>
+      <c r="J727" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K727" t="s">
+        <v>24</v>
+      </c>
+      <c r="L727" t="s">
+        <v>25</v>
+      </c>
+      <c r="M727" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N727" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O727" t="s">
+        <v>24</v>
+      </c>
+      <c r="P727" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B728" t="s">
+        <v>58</v>
+      </c>
+      <c r="C728" t="s">
+        <v>27</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E728" t="s">
+        <v>65</v>
+      </c>
+      <c r="F728" t="s">
+        <v>29</v>
+      </c>
+      <c r="G728">
+        <v>45</v>
+      </c>
+      <c r="H728" t="s">
+        <v>909</v>
+      </c>
+      <c r="I728" t="s">
+        <v>22</v>
+      </c>
+      <c r="J728" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K728" t="s">
+        <v>24</v>
+      </c>
+      <c r="L728" t="s">
+        <v>25</v>
+      </c>
+      <c r="M728" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N728" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O728" t="s">
+        <v>80</v>
+      </c>
+      <c r="P728" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B729" t="s">
+        <v>58</v>
+      </c>
+      <c r="C729" t="s">
+        <v>16</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E729" t="s">
+        <v>65</v>
+      </c>
+      <c r="F729" t="s">
+        <v>185</v>
+      </c>
+      <c r="G729">
+        <v>27</v>
+      </c>
+      <c r="H729" t="s">
+        <v>120</v>
+      </c>
+      <c r="I729" t="s">
+        <v>22</v>
+      </c>
+      <c r="J729" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K729" t="s">
+        <v>24</v>
+      </c>
+      <c r="L729" t="s">
+        <v>148</v>
+      </c>
+      <c r="M729" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N729" t="s">
+        <v>2089</v>
+      </c>
+      <c r="O729" t="s">
+        <v>80</v>
+      </c>
+      <c r="P729" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B730" t="s">
+        <v>58</v>
+      </c>
+      <c r="C730" t="s">
+        <v>27</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E730" t="s">
+        <v>65</v>
+      </c>
+      <c r="F730" t="s">
+        <v>29</v>
+      </c>
+      <c r="G730">
+        <v>26</v>
+      </c>
+      <c r="H730" t="s">
+        <v>44</v>
+      </c>
+      <c r="I730" t="s">
+        <v>22</v>
+      </c>
+      <c r="J730" t="s">
+        <v>2131</v>
+      </c>
+      <c r="K730" t="s">
+        <v>24</v>
+      </c>
+      <c r="L730" t="s">
+        <v>25</v>
+      </c>
+      <c r="M730" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N730" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O730" t="s">
+        <v>24</v>
+      </c>
+      <c r="P730" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B731" t="s">
+        <v>58</v>
+      </c>
+      <c r="C731" t="s">
+        <v>16</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E731" t="s">
+        <v>65</v>
+      </c>
+      <c r="F731" t="s">
+        <v>29</v>
+      </c>
+      <c r="G731">
+        <v>24</v>
+      </c>
+      <c r="H731" t="s">
+        <v>152</v>
+      </c>
+      <c r="I731" t="s">
+        <v>22</v>
+      </c>
+      <c r="J731" t="s">
+        <v>2133</v>
+      </c>
+      <c r="K731" t="s">
+        <v>24</v>
+      </c>
+      <c r="L731" t="s">
+        <v>46</v>
+      </c>
+      <c r="M731" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N731" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O731" t="s">
+        <v>24</v>
+      </c>
+      <c r="P731" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B732" t="s">
+        <v>58</v>
+      </c>
+      <c r="C732" t="s">
+        <v>27</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E732" t="s">
+        <v>65</v>
+      </c>
+      <c r="F732" t="s">
+        <v>29</v>
+      </c>
+      <c r="G732">
+        <v>26</v>
+      </c>
+      <c r="H732" t="s">
+        <v>366</v>
+      </c>
+      <c r="I732" t="s">
+        <v>22</v>
+      </c>
+      <c r="J732" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K732" t="s">
+        <v>24</v>
+      </c>
+      <c r="L732" t="s">
+        <v>25</v>
+      </c>
+      <c r="M732" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N732" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O732" t="s">
+        <v>24</v>
+      </c>
+      <c r="P732" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B733" t="s">
+        <v>58</v>
+      </c>
+      <c r="C733" t="s">
+        <v>27</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E733" t="s">
+        <v>18</v>
+      </c>
+      <c r="F733" t="s">
+        <v>29</v>
+      </c>
+      <c r="G733">
+        <v>41</v>
+      </c>
+      <c r="H733" t="s">
+        <v>281</v>
+      </c>
+      <c r="I733" t="s">
+        <v>22</v>
+      </c>
+      <c r="J733" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K733" t="s">
+        <v>24</v>
+      </c>
+      <c r="L733" t="s">
+        <v>25</v>
+      </c>
+      <c r="M733" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N733" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O733" t="s">
+        <v>24</v>
+      </c>
+      <c r="P733" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B734" t="s">
+        <v>58</v>
+      </c>
+      <c r="C734" t="s">
+        <v>16</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E734" t="s">
+        <v>18</v>
+      </c>
+      <c r="F734" t="s">
+        <v>29</v>
+      </c>
+      <c r="G734">
+        <v>15</v>
+      </c>
+      <c r="H734" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I734" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J734" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K734" t="s">
+        <v>24</v>
+      </c>
+      <c r="L734" t="s">
+        <v>25</v>
+      </c>
+      <c r="M734" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N734" t="s">
+        <v>2145</v>
+      </c>
+      <c r="O734" t="s">
+        <v>24</v>
+      </c>
+      <c r="P734" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B735" t="s">
+        <v>58</v>
+      </c>
+      <c r="C735" t="s">
+        <v>27</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E735" t="s">
+        <v>18</v>
+      </c>
+      <c r="F735" t="s">
+        <v>29</v>
+      </c>
+      <c r="G735">
+        <v>12</v>
+      </c>
+      <c r="H735" t="s">
+        <v>281</v>
+      </c>
+      <c r="I735" t="s">
+        <v>22</v>
+      </c>
+      <c r="J735" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K735" t="s">
+        <v>24</v>
+      </c>
+      <c r="L735" t="s">
+        <v>25</v>
+      </c>
+      <c r="M735" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N735" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O735" t="s">
+        <v>80</v>
+      </c>
+      <c r="P735" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B736" t="s">
+        <v>58</v>
+      </c>
+      <c r="C736" t="s">
+        <v>41</v>
+      </c>
+      <c r="D736" t="s">
+        <v>582</v>
+      </c>
+      <c r="E736" t="s">
+        <v>18</v>
+      </c>
+      <c r="F736" t="s">
+        <v>29</v>
+      </c>
+      <c r="G736">
+        <v>44</v>
+      </c>
+      <c r="H736" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I736" t="s">
+        <v>22</v>
+      </c>
+      <c r="J736" t="s">
+        <v>2147</v>
+      </c>
+      <c r="K736" t="s">
+        <v>24</v>
+      </c>
+      <c r="L736" t="s">
+        <v>25</v>
+      </c>
+      <c r="M736" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N736" t="s">
+        <v>2148</v>
+      </c>
+      <c r="O736" t="s">
+        <v>24</v>
+      </c>
+      <c r="P736" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B737" t="s">
+        <v>58</v>
+      </c>
+      <c r="C737" t="s">
+        <v>16</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E737" t="s">
+        <v>18</v>
+      </c>
+      <c r="F737" t="s">
+        <v>19</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I737" t="s">
+        <v>157</v>
+      </c>
+      <c r="J737" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K737" t="s">
+        <v>24</v>
+      </c>
+      <c r="L737" t="s">
+        <v>201</v>
+      </c>
+      <c r="M737" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N737" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O737" t="s">
+        <v>80</v>
+      </c>
+      <c r="P737" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B738" t="s">
+        <v>58</v>
+      </c>
+      <c r="C738" t="s">
+        <v>27</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E738" t="s">
+        <v>18</v>
+      </c>
+      <c r="F738" t="s">
+        <v>185</v>
+      </c>
+      <c r="G738">
+        <v>35</v>
+      </c>
+      <c r="H738" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I738" t="s">
+        <v>22</v>
+      </c>
+      <c r="J738" t="s">
+        <v>2153</v>
+      </c>
+      <c r="K738" t="s">
+        <v>24</v>
+      </c>
+      <c r="L738" t="s">
+        <v>25</v>
+      </c>
+      <c r="M738" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N738" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O738" t="s">
+        <v>80</v>
+      </c>
+      <c r="P738" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B739" t="s">
+        <v>58</v>
+      </c>
+      <c r="C739" t="s">
+        <v>27</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E739" t="s">
+        <v>18</v>
+      </c>
+      <c r="F739" t="s">
+        <v>29</v>
+      </c>
+      <c r="G739">
+        <v>19</v>
+      </c>
+      <c r="H739" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I739" t="s">
+        <v>420</v>
+      </c>
+      <c r="J739" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K739" t="s">
+        <v>24</v>
+      </c>
+      <c r="L739" t="s">
+        <v>25</v>
+      </c>
+      <c r="M739" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N739" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O739" t="s">
+        <v>80</v>
+      </c>
+      <c r="P739" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B740" t="s">
+        <v>58</v>
+      </c>
+      <c r="C740" t="s">
+        <v>41</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E740" t="s">
+        <v>18</v>
+      </c>
+      <c r="F740" t="s">
+        <v>29</v>
+      </c>
+      <c r="G740">
+        <v>31</v>
+      </c>
+      <c r="H740" t="s">
+        <v>61</v>
+      </c>
+      <c r="I740" t="s">
+        <v>55</v>
+      </c>
+      <c r="J740" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K740" t="s">
+        <v>24</v>
+      </c>
+      <c r="L740" t="s">
+        <v>46</v>
+      </c>
+      <c r="M740" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N740" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O740" t="s">
+        <v>24</v>
+      </c>
+      <c r="P740" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B741" t="s">
+        <v>58</v>
+      </c>
+      <c r="C741" t="s">
+        <v>41</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E741" t="s">
+        <v>18</v>
+      </c>
+      <c r="F741" t="s">
+        <v>19</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741" t="s">
+        <v>991</v>
+      </c>
+      <c r="I741" t="s">
+        <v>335</v>
+      </c>
+      <c r="J741" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K741" t="s">
+        <v>24</v>
+      </c>
+      <c r="L741" t="s">
+        <v>25</v>
+      </c>
+      <c r="M741" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N741" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O741" t="s">
+        <v>24</v>
+      </c>
+      <c r="P741" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B742" t="s">
+        <v>58</v>
+      </c>
+      <c r="C742" t="s">
+        <v>41</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E742" t="s">
+        <v>18</v>
+      </c>
+      <c r="F742" t="s">
+        <v>19</v>
+      </c>
+      <c r="G742">
+        <v>37</v>
+      </c>
+      <c r="H742" t="s">
+        <v>44</v>
+      </c>
+      <c r="I742" t="s">
+        <v>22</v>
+      </c>
+      <c r="J742" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K742" t="s">
+        <v>24</v>
+      </c>
+      <c r="L742" t="s">
+        <v>46</v>
+      </c>
+      <c r="M742" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N742" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O742" t="s">
+        <v>80</v>
+      </c>
+      <c r="P742" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B743" t="s">
+        <v>58</v>
+      </c>
+      <c r="C743" t="s">
+        <v>41</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E743" t="s">
+        <v>18</v>
+      </c>
+      <c r="F743" t="s">
+        <v>19</v>
+      </c>
+      <c r="G743">
+        <v>29</v>
+      </c>
+      <c r="H743" t="s">
+        <v>281</v>
+      </c>
+      <c r="I743" t="s">
+        <v>22</v>
+      </c>
+      <c r="J743" t="s">
+        <v>2164</v>
+      </c>
+      <c r="K743" t="s">
+        <v>24</v>
+      </c>
+      <c r="L743" t="s">
+        <v>25</v>
+      </c>
+      <c r="M743" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N743" t="s">
+        <v>2140</v>
+      </c>
+      <c r="O743" t="s">
+        <v>80</v>
+      </c>
+      <c r="P743" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B744" t="s">
+        <v>58</v>
+      </c>
+      <c r="C744" t="s">
+        <v>41</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E744" t="s">
+        <v>65</v>
+      </c>
+      <c r="F744" t="s">
+        <v>29</v>
+      </c>
+      <c r="G744">
+        <v>27</v>
+      </c>
+      <c r="H744" t="s">
+        <v>58</v>
+      </c>
+      <c r="I744" t="s">
+        <v>55</v>
+      </c>
+      <c r="J744" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K744" t="s">
+        <v>24</v>
+      </c>
+      <c r="L744" t="s">
+        <v>201</v>
+      </c>
+      <c r="M744" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N744" t="s">
+        <v>2167</v>
+      </c>
+      <c r="O744" t="s">
+        <v>24</v>
+      </c>
+      <c r="P744" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B745" t="s">
+        <v>58</v>
+      </c>
+      <c r="C745" t="s">
+        <v>16</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E745" t="s">
+        <v>65</v>
+      </c>
+      <c r="F745" t="s">
+        <v>29</v>
+      </c>
+      <c r="G745">
+        <v>44</v>
+      </c>
+      <c r="H745" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I745" t="s">
+        <v>324</v>
+      </c>
+      <c r="J745" t="s">
+        <v>2170</v>
+      </c>
+      <c r="K745" t="s">
+        <v>24</v>
+      </c>
+      <c r="L745" t="s">
+        <v>450</v>
+      </c>
+      <c r="M745" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N745" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O745" t="s">
+        <v>80</v>
+      </c>
+      <c r="P745" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B746" t="s">
+        <v>58</v>
+      </c>
+      <c r="C746" t="s">
+        <v>41</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E746" t="s">
+        <v>65</v>
+      </c>
+      <c r="F746" t="s">
+        <v>58</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746" t="s">
+        <v>58</v>
+      </c>
+      <c r="I746" t="s">
+        <v>55</v>
+      </c>
+      <c r="J746" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K746" t="s">
+        <v>24</v>
+      </c>
+      <c r="L746" t="s">
+        <v>201</v>
+      </c>
+      <c r="M746" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N746" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O746" t="s">
+        <v>80</v>
+      </c>
+      <c r="P746" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B747" t="s">
+        <v>58</v>
+      </c>
+      <c r="C747" t="s">
+        <v>41</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E747" t="s">
+        <v>65</v>
+      </c>
+      <c r="F747" t="s">
+        <v>58</v>
+      </c>
+      <c r="G747">
+        <v>38</v>
+      </c>
+      <c r="H747" t="s">
+        <v>58</v>
+      </c>
+      <c r="I747" t="s">
+        <v>55</v>
+      </c>
+      <c r="J747" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K747" t="s">
+        <v>24</v>
+      </c>
+      <c r="L747" t="s">
+        <v>148</v>
+      </c>
+      <c r="M747" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N747" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O747" t="s">
+        <v>24</v>
+      </c>
+      <c r="P747" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B748" t="s">
+        <v>58</v>
+      </c>
+      <c r="C748" t="s">
+        <v>16</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E748" t="s">
+        <v>65</v>
+      </c>
+      <c r="F748" t="s">
+        <v>29</v>
+      </c>
+      <c r="G748">
+        <v>22</v>
+      </c>
+      <c r="H748" t="s">
+        <v>58</v>
+      </c>
+      <c r="I748" t="s">
+        <v>55</v>
+      </c>
+      <c r="J748" t="s">
+        <v>2176</v>
+      </c>
+      <c r="K748" t="s">
+        <v>24</v>
+      </c>
+      <c r="L748" t="s">
+        <v>46</v>
+      </c>
+      <c r="M748" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N748" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O748" t="s">
+        <v>24</v>
+      </c>
+      <c r="P748" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B749" t="s">
+        <v>58</v>
+      </c>
+      <c r="C749" t="s">
+        <v>41</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E749" t="s">
+        <v>65</v>
+      </c>
+      <c r="F749" t="s">
+        <v>185</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I749" t="s">
+        <v>55</v>
+      </c>
+      <c r="J749" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K749" t="s">
+        <v>24</v>
+      </c>
+      <c r="L749" t="s">
+        <v>201</v>
+      </c>
+      <c r="M749" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N749" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O749" t="s">
+        <v>80</v>
+      </c>
+      <c r="P749" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B750" t="s">
+        <v>58</v>
+      </c>
+      <c r="C750" t="s">
+        <v>16</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E750" t="s">
+        <v>65</v>
+      </c>
+      <c r="F750" t="s">
+        <v>58</v>
+      </c>
+      <c r="G750">
+        <v>49</v>
+      </c>
+      <c r="H750" t="s">
+        <v>58</v>
+      </c>
+      <c r="I750" t="s">
+        <v>55</v>
+      </c>
+      <c r="J750" t="s">
+        <v>2181</v>
+      </c>
+      <c r="K750" t="s">
+        <v>24</v>
+      </c>
+      <c r="L750" t="s">
+        <v>25</v>
+      </c>
+      <c r="M750" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N750" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O750" t="s">
+        <v>24</v>
+      </c>
+      <c r="P750" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B751" t="s">
+        <v>58</v>
+      </c>
+      <c r="C751" t="s">
+        <v>41</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E751" t="s">
+        <v>65</v>
+      </c>
+      <c r="F751" t="s">
+        <v>29</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751" t="s">
+        <v>231</v>
+      </c>
+      <c r="I751" t="s">
+        <v>55</v>
+      </c>
+      <c r="J751" t="s">
+        <v>2183</v>
+      </c>
+      <c r="K751" t="s">
+        <v>24</v>
+      </c>
+      <c r="L751" t="s">
+        <v>46</v>
+      </c>
+      <c r="M751" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N751" t="s">
+        <v>1933</v>
+      </c>
+      <c r="O751" t="s">
+        <v>24</v>
+      </c>
+      <c r="P751" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B752" t="s">
+        <v>58</v>
+      </c>
+      <c r="C752" t="s">
+        <v>41</v>
+      </c>
+      <c r="D752" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E752" t="s">
+        <v>65</v>
+      </c>
+      <c r="F752" t="s">
+        <v>292</v>
+      </c>
+      <c r="G752">
+        <v>60</v>
+      </c>
+      <c r="H752" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I752" t="s">
+        <v>22</v>
+      </c>
+      <c r="J752" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K752" t="s">
+        <v>24</v>
+      </c>
+      <c r="L752" t="s">
+        <v>25</v>
+      </c>
+      <c r="M752" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N752" t="s">
+        <v>2186</v>
+      </c>
+      <c r="O752" t="s">
+        <v>24</v>
+      </c>
+      <c r="P752" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B753" t="s">
+        <v>58</v>
+      </c>
+      <c r="C753" t="s">
+        <v>27</v>
+      </c>
+      <c r="D753" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E753" t="s">
+        <v>65</v>
+      </c>
+      <c r="F753" t="s">
+        <v>58</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753" t="s">
+        <v>58</v>
+      </c>
+      <c r="I753" t="s">
+        <v>55</v>
+      </c>
+      <c r="J753" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K753" t="s">
+        <v>24</v>
+      </c>
+      <c r="L753" t="s">
+        <v>46</v>
+      </c>
+      <c r="M753" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N753" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O753" t="s">
+        <v>24</v>
+      </c>
+      <c r="P753" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B754" t="s">
+        <v>58</v>
+      </c>
+      <c r="C754" t="s">
+        <v>16</v>
+      </c>
+      <c r="D754" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E754" t="s">
+        <v>65</v>
+      </c>
+      <c r="F754" t="s">
+        <v>91</v>
+      </c>
+      <c r="G754">
+        <v>40</v>
+      </c>
+      <c r="H754" t="s">
+        <v>281</v>
+      </c>
+      <c r="I754" t="s">
+        <v>55</v>
+      </c>
+      <c r="J754" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K754" t="s">
+        <v>24</v>
+      </c>
+      <c r="L754" t="s">
+        <v>25</v>
+      </c>
+      <c r="M754" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N754" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O754" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P754" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B755" t="s">
+        <v>58</v>
+      </c>
+      <c r="C755" t="s">
+        <v>41</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E755" t="s">
+        <v>65</v>
+      </c>
+      <c r="F755" t="s">
+        <v>29</v>
+      </c>
+      <c r="G755">
+        <v>33</v>
+      </c>
+      <c r="H755" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I755" t="s">
+        <v>420</v>
+      </c>
+      <c r="J755" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K755" t="s">
+        <v>24</v>
+      </c>
+      <c r="L755" t="s">
+        <v>46</v>
+      </c>
+      <c r="M755" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N755" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O755" t="s">
+        <v>24</v>
+      </c>
+      <c r="P755" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B756" t="s">
+        <v>58</v>
+      </c>
+      <c r="C756" t="s">
+        <v>27</v>
+      </c>
+      <c r="D756" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E756" t="s">
+        <v>65</v>
+      </c>
+      <c r="F756" t="s">
+        <v>58</v>
+      </c>
+      <c r="G756">
+        <v>44</v>
+      </c>
+      <c r="H756" t="s">
+        <v>58</v>
+      </c>
+      <c r="I756" t="s">
+        <v>55</v>
+      </c>
+      <c r="J756" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K756" t="s">
+        <v>24</v>
+      </c>
+      <c r="L756" t="s">
+        <v>25</v>
+      </c>
+      <c r="M756" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N756" t="s">
+        <v>2196</v>
+      </c>
+      <c r="O756" t="s">
+        <v>24</v>
+      </c>
+      <c r="P756" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B757" t="s">
+        <v>58</v>
+      </c>
+      <c r="C757" t="s">
+        <v>41</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E757" t="s">
+        <v>65</v>
+      </c>
+      <c r="F757" t="s">
+        <v>58</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757" t="s">
+        <v>58</v>
+      </c>
+      <c r="I757" t="s">
+        <v>55</v>
+      </c>
+      <c r="J757" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K757" t="s">
+        <v>24</v>
+      </c>
+      <c r="L757" t="s">
+        <v>25</v>
+      </c>
+      <c r="M757" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N757" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O757" t="s">
+        <v>24</v>
+      </c>
+      <c r="P757" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B758" t="s">
+        <v>58</v>
+      </c>
+      <c r="C758" t="s">
+        <v>41</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E758" t="s">
+        <v>65</v>
+      </c>
+      <c r="F758" t="s">
+        <v>19</v>
+      </c>
+      <c r="G758">
+        <v>43</v>
+      </c>
+      <c r="H758" t="s">
+        <v>178</v>
+      </c>
+      <c r="I758" t="s">
+        <v>22</v>
+      </c>
+      <c r="J758" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K758" t="s">
+        <v>24</v>
+      </c>
+      <c r="L758" t="s">
+        <v>25</v>
+      </c>
+      <c r="M758" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N758" t="s">
+        <v>2201</v>
+      </c>
+      <c r="O758" t="s">
+        <v>24</v>
+      </c>
+      <c r="P758" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B759" t="s">
+        <v>58</v>
+      </c>
+      <c r="C759" t="s">
+        <v>41</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E759" t="s">
+        <v>65</v>
+      </c>
+      <c r="F759" t="s">
+        <v>29</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I759" t="s">
+        <v>55</v>
+      </c>
+      <c r="J759" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K759" t="s">
+        <v>24</v>
+      </c>
+      <c r="L759" t="s">
+        <v>25</v>
+      </c>
+      <c r="M759" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N759" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O759" t="s">
+        <v>80</v>
+      </c>
+      <c r="P759" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B760" t="s">
+        <v>58</v>
+      </c>
+      <c r="C760" t="s">
+        <v>41</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E760" t="s">
+        <v>65</v>
+      </c>
+      <c r="F760" t="s">
+        <v>29</v>
+      </c>
+      <c r="G760">
+        <v>20</v>
+      </c>
+      <c r="H760" t="s">
+        <v>58</v>
+      </c>
+      <c r="I760" t="s">
+        <v>55</v>
+      </c>
+      <c r="J760" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K760" t="s">
+        <v>24</v>
+      </c>
+      <c r="L760" t="s">
+        <v>25</v>
+      </c>
+      <c r="M760" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N760" t="s">
+        <v>2206</v>
+      </c>
+      <c r="O760" t="s">
+        <v>80</v>
+      </c>
+      <c r="P760" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B761" t="s">
+        <v>58</v>
+      </c>
+      <c r="C761" t="s">
+        <v>27</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E761" t="s">
+        <v>65</v>
+      </c>
+      <c r="F761" t="s">
+        <v>19</v>
+      </c>
+      <c r="G761">
+        <v>30</v>
+      </c>
+      <c r="H761" t="s">
+        <v>281</v>
+      </c>
+      <c r="I761" t="s">
+        <v>22</v>
+      </c>
+      <c r="J761" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K761" t="s">
+        <v>24</v>
+      </c>
+      <c r="L761" t="s">
+        <v>25</v>
+      </c>
+      <c r="M761" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N761" t="s">
+        <v>2209</v>
+      </c>
+      <c r="O761" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P761" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B762" t="s">
+        <v>58</v>
+      </c>
+      <c r="C762" t="s">
+        <v>27</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E762" t="s">
+        <v>65</v>
+      </c>
+      <c r="F762" t="s">
+        <v>29</v>
+      </c>
+      <c r="G762">
+        <v>22</v>
+      </c>
+      <c r="H762" t="s">
+        <v>231</v>
+      </c>
+      <c r="I762" t="s">
+        <v>36</v>
+      </c>
+      <c r="J762" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K762" t="s">
+        <v>24</v>
+      </c>
+      <c r="L762" t="s">
+        <v>25</v>
+      </c>
+      <c r="M762" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N762" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O762" t="s">
+        <v>80</v>
+      </c>
+      <c r="P762" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B763" t="s">
+        <v>58</v>
+      </c>
+      <c r="C763" t="s">
+        <v>27</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E763" t="s">
+        <v>18</v>
+      </c>
+      <c r="F763" t="s">
+        <v>29</v>
+      </c>
+      <c r="G763">
+        <v>39</v>
+      </c>
+      <c r="H763" t="s">
+        <v>658</v>
+      </c>
+      <c r="I763" t="s">
+        <v>22</v>
+      </c>
+      <c r="J763" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K763" t="s">
+        <v>24</v>
+      </c>
+      <c r="L763" t="s">
+        <v>25</v>
+      </c>
+      <c r="M763" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N763" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O763" t="s">
+        <v>80</v>
+      </c>
+      <c r="P763" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B764" t="s">
+        <v>58</v>
+      </c>
+      <c r="C764" t="s">
+        <v>41</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E764" t="s">
+        <v>18</v>
+      </c>
+      <c r="F764" t="s">
+        <v>29</v>
+      </c>
+      <c r="G764">
+        <v>24</v>
+      </c>
+      <c r="H764" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I764" t="s">
+        <v>22</v>
+      </c>
+      <c r="J764" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K764" t="s">
+        <v>24</v>
+      </c>
+      <c r="L764" t="s">
+        <v>25</v>
+      </c>
+      <c r="M764" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N764" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O764" t="s">
+        <v>80</v>
+      </c>
+      <c r="P764" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B765" t="s">
+        <v>58</v>
+      </c>
+      <c r="C765" t="s">
+        <v>41</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E765" t="s">
+        <v>18</v>
+      </c>
+      <c r="F765" t="s">
+        <v>29</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765" t="s">
+        <v>319</v>
+      </c>
+      <c r="I765" t="s">
+        <v>55</v>
+      </c>
+      <c r="J765" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K765" t="s">
+        <v>24</v>
+      </c>
+      <c r="L765" t="s">
+        <v>796</v>
+      </c>
+      <c r="M765" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N765" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O765" t="s">
+        <v>80</v>
+      </c>
+      <c r="P765" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B766" t="s">
+        <v>58</v>
+      </c>
+      <c r="C766" t="s">
+        <v>16</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E766" t="s">
+        <v>18</v>
+      </c>
+      <c r="F766" t="s">
+        <v>19</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766" t="s">
+        <v>523</v>
+      </c>
+      <c r="I766" t="s">
+        <v>55</v>
+      </c>
+      <c r="J766" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K766" t="s">
+        <v>24</v>
+      </c>
+      <c r="L766" t="s">
+        <v>25</v>
+      </c>
+      <c r="M766" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N766" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O766" t="s">
+        <v>24</v>
+      </c>
+      <c r="P766" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B767" t="s">
+        <v>58</v>
+      </c>
+      <c r="C767" t="s">
+        <v>27</v>
+      </c>
+      <c r="D767" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E767" t="s">
+        <v>18</v>
+      </c>
+      <c r="F767" t="s">
+        <v>29</v>
+      </c>
+      <c r="G767">
+        <v>33</v>
+      </c>
+      <c r="H767" t="s">
+        <v>58</v>
+      </c>
+      <c r="I767" t="s">
+        <v>55</v>
+      </c>
+      <c r="J767" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K767" t="s">
+        <v>24</v>
+      </c>
+      <c r="L767" t="s">
+        <v>25</v>
+      </c>
+      <c r="M767" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N767" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O767" t="s">
+        <v>24</v>
+      </c>
+      <c r="P767" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B768" t="s">
+        <v>58</v>
+      </c>
+      <c r="C768" t="s">
+        <v>41</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E768" t="s">
+        <v>18</v>
+      </c>
+      <c r="F768" t="s">
+        <v>19</v>
+      </c>
+      <c r="G768">
+        <v>54</v>
+      </c>
+      <c r="H768" t="s">
+        <v>44</v>
+      </c>
+      <c r="I768" t="s">
+        <v>22</v>
+      </c>
+      <c r="J768" t="s">
+        <v>2224</v>
+      </c>
+      <c r="K768" t="s">
+        <v>24</v>
+      </c>
+      <c r="L768" t="s">
+        <v>25</v>
+      </c>
+      <c r="M768" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N768" t="s">
+        <v>2225</v>
+      </c>
+      <c r="O768" t="s">
+        <v>80</v>
+      </c>
+      <c r="P768" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B769" t="s">
+        <v>58</v>
+      </c>
+      <c r="C769" t="s">
+        <v>27</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E769" t="s">
+        <v>18</v>
+      </c>
+      <c r="F769" t="s">
+        <v>29</v>
+      </c>
+      <c r="G769">
+        <v>29</v>
+      </c>
+      <c r="H769" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I769" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J769" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K769" t="s">
+        <v>24</v>
+      </c>
+      <c r="L769" t="s">
+        <v>25</v>
+      </c>
+      <c r="M769" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N769" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O769" t="s">
+        <v>80</v>
+      </c>
+      <c r="P769" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B770" t="s">
+        <v>58</v>
+      </c>
+      <c r="C770" t="s">
+        <v>27</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E770" t="s">
+        <v>18</v>
+      </c>
+      <c r="F770" t="s">
+        <v>19</v>
+      </c>
+      <c r="G770">
+        <v>30</v>
+      </c>
+      <c r="H770" t="s">
+        <v>369</v>
+      </c>
+      <c r="I770" t="s">
+        <v>55</v>
+      </c>
+      <c r="J770" t="s">
+        <v>2231</v>
+      </c>
+      <c r="K770" t="s">
+        <v>24</v>
+      </c>
+      <c r="L770" t="s">
+        <v>201</v>
+      </c>
+      <c r="M770" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N770" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O770" t="s">
+        <v>80</v>
+      </c>
+      <c r="P770" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B771" t="s">
+        <v>58</v>
+      </c>
+      <c r="C771" t="s">
+        <v>27</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E771" t="s">
+        <v>18</v>
+      </c>
+      <c r="F771" t="s">
+        <v>29</v>
+      </c>
+      <c r="G771">
+        <v>19</v>
+      </c>
+      <c r="H771" t="s">
+        <v>166</v>
+      </c>
+      <c r="I771" t="s">
+        <v>22</v>
+      </c>
+      <c r="J771" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K771" t="s">
+        <v>24</v>
+      </c>
+      <c r="L771" t="s">
+        <v>25</v>
+      </c>
+      <c r="M771" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N771" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O771" t="s">
+        <v>80</v>
+      </c>
+      <c r="P771" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B772" t="s">
+        <v>58</v>
+      </c>
+      <c r="C772" t="s">
+        <v>27</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E772" t="s">
+        <v>65</v>
+      </c>
+      <c r="F772" t="s">
+        <v>29</v>
+      </c>
+      <c r="G772">
+        <v>41</v>
+      </c>
+      <c r="H772" t="s">
+        <v>58</v>
+      </c>
+      <c r="I772" t="s">
+        <v>55</v>
+      </c>
+      <c r="J772" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K772" t="s">
+        <v>24</v>
+      </c>
+      <c r="L772" t="s">
+        <v>25</v>
+      </c>
+      <c r="M772" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N772" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O772" t="s">
+        <v>80</v>
+      </c>
+      <c r="P772" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B773" t="s">
+        <v>58</v>
+      </c>
+      <c r="C773" t="s">
+        <v>41</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E773" t="s">
+        <v>65</v>
+      </c>
+      <c r="F773" t="s">
+        <v>91</v>
+      </c>
+      <c r="G773">
+        <v>38</v>
+      </c>
+      <c r="H773" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I773" t="s">
+        <v>157</v>
+      </c>
+      <c r="J773" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K773" t="s">
+        <v>24</v>
+      </c>
+      <c r="L773" t="s">
+        <v>46</v>
+      </c>
+      <c r="M773" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N773" t="s">
+        <v>2239</v>
+      </c>
+      <c r="O773" t="s">
+        <v>24</v>
+      </c>
+      <c r="P773" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B774" t="s">
+        <v>58</v>
+      </c>
+      <c r="C774" t="s">
+        <v>16</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E774" t="s">
+        <v>65</v>
+      </c>
+      <c r="F774" t="s">
+        <v>29</v>
+      </c>
+      <c r="G774">
+        <v>38</v>
+      </c>
+      <c r="H774" t="s">
+        <v>816</v>
+      </c>
+      <c r="I774" t="s">
+        <v>22</v>
+      </c>
+      <c r="J774" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K774" t="s">
+        <v>24</v>
+      </c>
+      <c r="L774" t="s">
+        <v>25</v>
+      </c>
+      <c r="M774" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N774" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O774" t="s">
+        <v>80</v>
+      </c>
+      <c r="P774" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B775" t="s">
+        <v>58</v>
+      </c>
+      <c r="C775" t="s">
+        <v>27</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E775" t="s">
+        <v>65</v>
+      </c>
+      <c r="F775" t="s">
+        <v>29</v>
+      </c>
+      <c r="G775">
+        <v>17</v>
+      </c>
+      <c r="H775" t="s">
+        <v>58</v>
+      </c>
+      <c r="I775" t="s">
+        <v>55</v>
+      </c>
+      <c r="J775" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K775" t="s">
+        <v>24</v>
+      </c>
+      <c r="L775" t="s">
+        <v>25</v>
+      </c>
+      <c r="M775" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N775" t="s">
+        <v>2244</v>
+      </c>
+      <c r="O775" t="s">
+        <v>24</v>
+      </c>
+      <c r="P775" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B776" t="s">
+        <v>58</v>
+      </c>
+      <c r="C776" t="s">
+        <v>27</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E776" t="s">
+        <v>65</v>
+      </c>
+      <c r="F776" t="s">
+        <v>29</v>
+      </c>
+      <c r="G776">
+        <v>34</v>
+      </c>
+      <c r="H776" t="s">
+        <v>58</v>
+      </c>
+      <c r="I776" t="s">
+        <v>55</v>
+      </c>
+      <c r="J776" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K776" t="s">
+        <v>24</v>
+      </c>
+      <c r="L776" t="s">
+        <v>25</v>
+      </c>
+      <c r="M776" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N776" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O776" t="s">
+        <v>24</v>
+      </c>
+      <c r="P776" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B777" t="s">
+        <v>58</v>
+      </c>
+      <c r="C777" t="s">
+        <v>41</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E777" t="s">
+        <v>65</v>
+      </c>
+      <c r="F777" t="s">
+        <v>91</v>
+      </c>
+      <c r="G777">
+        <v>51</v>
+      </c>
+      <c r="H777" t="s">
+        <v>378</v>
+      </c>
+      <c r="I777" t="s">
+        <v>22</v>
+      </c>
+      <c r="J777" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K777" t="s">
+        <v>24</v>
+      </c>
+      <c r="L777" t="s">
+        <v>25</v>
+      </c>
+      <c r="M777" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N777" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O777" t="s">
+        <v>24</v>
+      </c>
+      <c r="P777" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B778" t="s">
+        <v>58</v>
+      </c>
+      <c r="C778" t="s">
+        <v>41</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E778" t="s">
+        <v>65</v>
+      </c>
+      <c r="F778" t="s">
+        <v>91</v>
+      </c>
+      <c r="G778">
+        <v>46</v>
+      </c>
+      <c r="H778" t="s">
+        <v>58</v>
+      </c>
+      <c r="I778" t="s">
+        <v>55</v>
+      </c>
+      <c r="J778" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K778" t="s">
+        <v>24</v>
+      </c>
+      <c r="L778" t="s">
+        <v>25</v>
+      </c>
+      <c r="M778" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N778" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O778" t="s">
+        <v>80</v>
+      </c>
+      <c r="P778" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B779" t="s">
+        <v>58</v>
+      </c>
+      <c r="C779" t="s">
+        <v>16</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E779" t="s">
+        <v>65</v>
+      </c>
+      <c r="F779" t="s">
+        <v>19</v>
+      </c>
+      <c r="G779">
+        <v>51</v>
+      </c>
+      <c r="H779" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I779" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J779" t="s">
+        <v>2255</v>
+      </c>
+      <c r="K779" t="s">
+        <v>24</v>
+      </c>
+      <c r="L779" t="s">
+        <v>25</v>
+      </c>
+      <c r="M779" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N779" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O779" t="s">
+        <v>80</v>
+      </c>
+      <c r="P779" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B780" t="s">
+        <v>58</v>
+      </c>
+      <c r="C780" t="s">
+        <v>41</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E780" t="s">
+        <v>65</v>
+      </c>
+      <c r="F780" t="s">
+        <v>29</v>
+      </c>
+      <c r="G780">
+        <v>54</v>
+      </c>
+      <c r="H780" t="s">
+        <v>523</v>
+      </c>
+      <c r="I780" t="s">
+        <v>335</v>
+      </c>
+      <c r="J780" t="s">
+        <v>2257</v>
+      </c>
+      <c r="K780" t="s">
+        <v>24</v>
+      </c>
+      <c r="L780" t="s">
+        <v>25</v>
+      </c>
+      <c r="M780" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N780" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O780" t="s">
+        <v>24</v>
+      </c>
+      <c r="P780" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="781" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B781" t="s">
+        <v>58</v>
+      </c>
+      <c r="C781" t="s">
+        <v>27</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E781" t="s">
+        <v>65</v>
+      </c>
+      <c r="F781" t="s">
+        <v>185</v>
+      </c>
+      <c r="G781">
+        <v>33</v>
+      </c>
+      <c r="H781" t="s">
+        <v>618</v>
+      </c>
+      <c r="I781" t="s">
+        <v>22</v>
+      </c>
+      <c r="J781" t="s">
+        <v>2259</v>
+      </c>
+      <c r="K781" t="s">
+        <v>24</v>
+      </c>
+      <c r="L781" t="s">
+        <v>25</v>
+      </c>
+      <c r="M781" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N781" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O781" t="s">
+        <v>80</v>
+      </c>
+      <c r="P781" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B782" t="s">
+        <v>58</v>
+      </c>
+      <c r="C782" t="s">
+        <v>41</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E782" t="s">
+        <v>65</v>
+      </c>
+      <c r="F782" t="s">
+        <v>91</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782" t="s">
+        <v>44</v>
+      </c>
+      <c r="I782" t="s">
+        <v>22</v>
+      </c>
+      <c r="J782" t="s">
+        <v>2261</v>
+      </c>
+      <c r="K782" t="s">
+        <v>24</v>
+      </c>
+      <c r="L782" t="s">
+        <v>25</v>
+      </c>
+      <c r="M782" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N782" t="s">
+        <v>2262</v>
+      </c>
+      <c r="O782" t="s">
+        <v>24</v>
+      </c>
+      <c r="P782" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="783" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B783" t="s">
+        <v>58</v>
+      </c>
+      <c r="C783" t="s">
+        <v>16</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E783" t="s">
+        <v>65</v>
+      </c>
+      <c r="F783" t="s">
+        <v>29</v>
+      </c>
+      <c r="G783">
+        <v>31</v>
+      </c>
+      <c r="H783" t="s">
+        <v>58</v>
+      </c>
+      <c r="I783" t="s">
+        <v>55</v>
+      </c>
+      <c r="J783" t="s">
+        <v>2264</v>
+      </c>
+      <c r="K783" t="s">
+        <v>24</v>
+      </c>
+      <c r="L783" t="s">
+        <v>25</v>
+      </c>
+      <c r="M783" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N783" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O783" t="s">
+        <v>80</v>
+      </c>
+      <c r="P783" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B784" t="s">
+        <v>58</v>
+      </c>
+      <c r="C784" t="s">
+        <v>27</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E784" t="s">
+        <v>65</v>
+      </c>
+      <c r="F784" t="s">
+        <v>19</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784" t="s">
+        <v>21</v>
+      </c>
+      <c r="I784" t="s">
+        <v>55</v>
+      </c>
+      <c r="J784" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K784" t="s">
+        <v>24</v>
+      </c>
+      <c r="L784" t="s">
+        <v>25</v>
+      </c>
+      <c r="M784" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N784" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O784" t="s">
+        <v>80</v>
+      </c>
+      <c r="P784" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="785" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B785" t="s">
+        <v>58</v>
+      </c>
+      <c r="C785" t="s">
+        <v>16</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E785" t="s">
+        <v>65</v>
+      </c>
+      <c r="F785" t="s">
+        <v>91</v>
+      </c>
+      <c r="G785">
+        <v>57</v>
+      </c>
+      <c r="H785" t="s">
+        <v>307</v>
+      </c>
+      <c r="I785" t="s">
+        <v>22</v>
+      </c>
+      <c r="J785" t="s">
+        <v>2268</v>
+      </c>
+      <c r="K785" t="s">
+        <v>24</v>
+      </c>
+      <c r="L785" t="s">
+        <v>25</v>
+      </c>
+      <c r="M785" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N785" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O785" t="s">
+        <v>24</v>
+      </c>
+      <c r="P785" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B786" t="s">
+        <v>58</v>
+      </c>
+      <c r="C786" t="s">
+        <v>41</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E786" t="s">
+        <v>65</v>
+      </c>
+      <c r="F786" t="s">
+        <v>19</v>
+      </c>
+      <c r="G786">
+        <v>40</v>
+      </c>
+      <c r="H786" t="s">
+        <v>44</v>
+      </c>
+      <c r="I786" t="s">
+        <v>22</v>
+      </c>
+      <c r="J786" t="s">
+        <v>2270</v>
+      </c>
+      <c r="K786" t="s">
+        <v>24</v>
+      </c>
+      <c r="L786" t="s">
+        <v>445</v>
+      </c>
+      <c r="M786" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N786" t="s">
+        <v>2271</v>
+      </c>
+      <c r="O786" t="s">
+        <v>24</v>
+      </c>
+      <c r="P786" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="787" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B787" t="s">
+        <v>58</v>
+      </c>
+      <c r="C787" t="s">
+        <v>41</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E787" t="s">
+        <v>65</v>
+      </c>
+      <c r="F787" t="s">
+        <v>91</v>
+      </c>
+      <c r="G787">
+        <v>31</v>
+      </c>
+      <c r="H787" t="s">
+        <v>44</v>
+      </c>
+      <c r="I787" t="s">
+        <v>22</v>
+      </c>
+      <c r="J787" t="s">
+        <v>2273</v>
+      </c>
+      <c r="K787" t="s">
+        <v>24</v>
+      </c>
+      <c r="L787" t="s">
+        <v>25</v>
+      </c>
+      <c r="M787" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N787" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O787" t="s">
+        <v>24</v>
+      </c>
+      <c r="P787" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B788" t="s">
+        <v>58</v>
+      </c>
+      <c r="C788" t="s">
+        <v>27</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E788" t="s">
+        <v>65</v>
+      </c>
+      <c r="F788" t="s">
+        <v>29</v>
+      </c>
+      <c r="G788">
+        <v>23</v>
+      </c>
+      <c r="H788" t="s">
+        <v>166</v>
+      </c>
+      <c r="I788" t="s">
+        <v>22</v>
+      </c>
+      <c r="J788" t="s">
+        <v>2276</v>
+      </c>
+      <c r="K788" t="s">
+        <v>24</v>
+      </c>
+      <c r="L788" t="s">
+        <v>25</v>
+      </c>
+      <c r="M788" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N788" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O788" t="s">
+        <v>24</v>
+      </c>
+      <c r="P788" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B789" t="s">
+        <v>58</v>
+      </c>
+      <c r="C789" t="s">
+        <v>41</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E789" t="s">
+        <v>65</v>
+      </c>
+      <c r="F789" t="s">
+        <v>29</v>
+      </c>
+      <c r="G789">
+        <v>32</v>
+      </c>
+      <c r="H789" t="s">
+        <v>44</v>
+      </c>
+      <c r="I789" t="s">
+        <v>22</v>
+      </c>
+      <c r="J789" t="s">
+        <v>2278</v>
+      </c>
+      <c r="K789" t="s">
+        <v>24</v>
+      </c>
+      <c r="L789" t="s">
+        <v>457</v>
+      </c>
+      <c r="M789" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N789" t="s">
+        <v>2279</v>
+      </c>
+      <c r="O789" t="s">
+        <v>24</v>
+      </c>
+      <c r="P789" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B790" t="s">
+        <v>58</v>
+      </c>
+      <c r="C790" t="s">
+        <v>27</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E790" t="s">
+        <v>65</v>
+      </c>
+      <c r="F790" t="s">
+        <v>29</v>
+      </c>
+      <c r="G790">
+        <v>24</v>
+      </c>
+      <c r="H790" t="s">
+        <v>369</v>
+      </c>
+      <c r="I790" t="s">
+        <v>22</v>
+      </c>
+      <c r="J790" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K790" t="s">
+        <v>24</v>
+      </c>
+      <c r="L790" t="s">
+        <v>25</v>
+      </c>
+      <c r="M790" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N790" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O790" t="s">
+        <v>80</v>
+      </c>
+      <c r="P790" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B791" t="s">
+        <v>58</v>
+      </c>
+      <c r="C791" t="s">
+        <v>41</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E791" t="s">
+        <v>65</v>
+      </c>
+      <c r="F791" t="s">
+        <v>91</v>
+      </c>
+      <c r="G791">
+        <v>32</v>
+      </c>
+      <c r="H791" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I791" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J791" t="s">
+        <v>2284</v>
+      </c>
+      <c r="K791" t="s">
+        <v>24</v>
+      </c>
+      <c r="L791" t="s">
+        <v>25</v>
+      </c>
+      <c r="M791" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N791" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O791" t="s">
+        <v>80</v>
+      </c>
+      <c r="P791" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B792" t="s">
+        <v>58</v>
+      </c>
+      <c r="C792" t="s">
+        <v>41</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E792" t="s">
+        <v>65</v>
+      </c>
+      <c r="F792" t="s">
+        <v>91</v>
+      </c>
+      <c r="G792">
+        <v>65</v>
+      </c>
+      <c r="H792" t="s">
+        <v>44</v>
+      </c>
+      <c r="I792" t="s">
+        <v>22</v>
+      </c>
+      <c r="J792" t="s">
+        <v>2286</v>
+      </c>
+      <c r="K792" t="s">
+        <v>24</v>
+      </c>
+      <c r="L792" t="s">
+        <v>25</v>
+      </c>
+      <c r="M792" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N792" t="s">
+        <v>2287</v>
+      </c>
+      <c r="O792" t="s">
+        <v>24</v>
+      </c>
+      <c r="P792" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B793" t="s">
+        <v>58</v>
+      </c>
+      <c r="C793" t="s">
+        <v>41</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E793" t="s">
+        <v>65</v>
+      </c>
+      <c r="F793" t="s">
+        <v>29</v>
+      </c>
+      <c r="G793">
+        <v>32</v>
+      </c>
+      <c r="H793" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I793" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J793" t="s">
+        <v>2290</v>
+      </c>
+      <c r="K793" t="s">
+        <v>24</v>
+      </c>
+      <c r="L793" t="s">
+        <v>25</v>
+      </c>
+      <c r="M793" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N793" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O793" t="s">
+        <v>80</v>
+      </c>
+      <c r="P793" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B794" t="s">
+        <v>58</v>
+      </c>
+      <c r="C794" t="s">
+        <v>41</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E794" t="s">
+        <v>65</v>
+      </c>
+      <c r="F794" t="s">
+        <v>29</v>
+      </c>
+      <c r="G794">
+        <v>43</v>
+      </c>
+      <c r="H794" t="s">
+        <v>2292</v>
+      </c>
+      <c r="I794" t="s">
+        <v>22</v>
+      </c>
+      <c r="J794" t="s">
+        <v>2293</v>
+      </c>
+      <c r="K794" t="s">
+        <v>24</v>
+      </c>
+      <c r="L794" t="s">
+        <v>25</v>
+      </c>
+      <c r="M794" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N794" t="s">
+        <v>2236</v>
+      </c>
+      <c r="O794" t="s">
+        <v>80</v>
+      </c>
+      <c r="P794" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B795" t="s">
+        <v>58</v>
+      </c>
+      <c r="C795" t="s">
+        <v>41</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E795" t="s">
+        <v>65</v>
+      </c>
+      <c r="F795" t="s">
+        <v>29</v>
+      </c>
+      <c r="G795">
+        <v>21</v>
+      </c>
+      <c r="H795" t="s">
+        <v>231</v>
+      </c>
+      <c r="I795" t="s">
+        <v>2295</v>
+      </c>
+      <c r="J795" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K795" t="s">
+        <v>24</v>
+      </c>
+      <c r="L795" t="s">
+        <v>25</v>
+      </c>
+      <c r="M795" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N795" t="s">
+        <v>1840</v>
+      </c>
+      <c r="O795" t="s">
+        <v>24</v>
+      </c>
+      <c r="P795" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B796" t="s">
+        <v>58</v>
+      </c>
+      <c r="C796" t="s">
+        <v>41</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E796" t="s">
+        <v>65</v>
+      </c>
+      <c r="F796" t="s">
+        <v>29</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796" t="s">
+        <v>327</v>
+      </c>
+      <c r="I796" t="s">
+        <v>157</v>
+      </c>
+      <c r="J796" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K796" t="s">
+        <v>24</v>
+      </c>
+      <c r="L796" t="s">
+        <v>25</v>
+      </c>
+      <c r="M796" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N796" t="s">
+        <v>2299</v>
+      </c>
+      <c r="O796" t="s">
+        <v>24</v>
+      </c>
+      <c r="P796" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B797" t="s">
+        <v>58</v>
+      </c>
+      <c r="C797" t="s">
+        <v>41</v>
+      </c>
+      <c r="D797" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E797" t="s">
+        <v>18</v>
+      </c>
+      <c r="F797" t="s">
+        <v>29</v>
+      </c>
+      <c r="G797">
+        <v>33</v>
+      </c>
+      <c r="H797" t="s">
+        <v>366</v>
+      </c>
+      <c r="I797" t="s">
+        <v>22</v>
+      </c>
+      <c r="J797" t="s">
+        <v>2302</v>
+      </c>
+      <c r="K797" t="s">
+        <v>24</v>
+      </c>
+      <c r="L797" t="s">
+        <v>25</v>
+      </c>
+      <c r="M797" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N797" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O797" t="s">
+        <v>80</v>
+      </c>
+      <c r="P797" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B798" t="s">
+        <v>58</v>
+      </c>
+      <c r="C798" t="s">
+        <v>27</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E798" t="s">
+        <v>18</v>
+      </c>
+      <c r="F798" t="s">
+        <v>91</v>
+      </c>
+      <c r="G798">
+        <v>62</v>
+      </c>
+      <c r="H798" t="s">
+        <v>366</v>
+      </c>
+      <c r="I798" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J798" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K798" t="s">
+        <v>24</v>
+      </c>
+      <c r="L798" t="s">
+        <v>25</v>
+      </c>
+      <c r="M798" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N798" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O798" t="s">
+        <v>80</v>
+      </c>
+      <c r="P798" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B799" t="s">
+        <v>58</v>
+      </c>
+      <c r="C799" t="s">
+        <v>27</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E799" t="s">
+        <v>18</v>
+      </c>
+      <c r="F799" t="s">
+        <v>29</v>
+      </c>
+      <c r="G799">
+        <v>30</v>
+      </c>
+      <c r="H799" t="s">
+        <v>281</v>
+      </c>
+      <c r="I799" t="s">
+        <v>22</v>
+      </c>
+      <c r="J799" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K799" t="s">
+        <v>24</v>
+      </c>
+      <c r="L799" t="s">
+        <v>445</v>
+      </c>
+      <c r="M799" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N799" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O799" t="s">
+        <v>80</v>
+      </c>
+      <c r="P799" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B800" t="s">
+        <v>58</v>
+      </c>
+      <c r="C800" t="s">
+        <v>41</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E800" t="s">
+        <v>18</v>
+      </c>
+      <c r="F800" t="s">
+        <v>91</v>
+      </c>
+      <c r="G800">
+        <v>68</v>
+      </c>
+      <c r="H800" t="s">
+        <v>2309</v>
+      </c>
+      <c r="I800" t="s">
+        <v>55</v>
+      </c>
+      <c r="J800" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K800" t="s">
+        <v>24</v>
+      </c>
+      <c r="L800" t="s">
+        <v>25</v>
+      </c>
+      <c r="M800" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N800" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O800" t="s">
+        <v>24</v>
+      </c>
+      <c r="P800" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B801" t="s">
+        <v>58</v>
+      </c>
+      <c r="C801" t="s">
+        <v>41</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E801" t="s">
+        <v>18</v>
+      </c>
+      <c r="F801" t="s">
+        <v>19</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I801" t="s">
+        <v>157</v>
+      </c>
+      <c r="J801" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K801" t="s">
+        <v>24</v>
+      </c>
+      <c r="L801" t="s">
+        <v>25</v>
+      </c>
+      <c r="M801" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N801" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O801" t="s">
+        <v>24</v>
+      </c>
+      <c r="P801" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B802" t="s">
+        <v>58</v>
+      </c>
+      <c r="C802" t="s">
+        <v>41</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E802" t="s">
+        <v>18</v>
+      </c>
+      <c r="F802" t="s">
+        <v>29</v>
+      </c>
+      <c r="G802">
+        <v>20</v>
+      </c>
+      <c r="H802" t="s">
+        <v>2315</v>
+      </c>
+      <c r="I802" t="s">
+        <v>440</v>
+      </c>
+      <c r="J802" t="s">
+        <v>2316</v>
+      </c>
+      <c r="K802" t="s">
+        <v>24</v>
+      </c>
+      <c r="L802" t="s">
+        <v>25</v>
+      </c>
+      <c r="M802" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N802" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O802" t="s">
+        <v>80</v>
+      </c>
+      <c r="P802" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B803" t="s">
+        <v>58</v>
+      </c>
+      <c r="C803" t="s">
+        <v>41</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E803" t="s">
+        <v>18</v>
+      </c>
+      <c r="F803" t="s">
+        <v>91</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803" t="s">
+        <v>166</v>
+      </c>
+      <c r="I803" t="s">
+        <v>36</v>
+      </c>
+      <c r="J803" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K803" t="s">
+        <v>24</v>
+      </c>
+      <c r="L803" t="s">
+        <v>25</v>
+      </c>
+      <c r="M803" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N803" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O803" t="s">
+        <v>80</v>
+      </c>
+      <c r="P803" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B804" t="s">
+        <v>58</v>
+      </c>
+      <c r="C804" t="s">
+        <v>41</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E804" t="s">
+        <v>18</v>
+      </c>
+      <c r="F804" t="s">
+        <v>29</v>
+      </c>
+      <c r="G804">
+        <v>32</v>
+      </c>
+      <c r="H804" t="s">
+        <v>21</v>
+      </c>
+      <c r="I804" t="s">
+        <v>55</v>
+      </c>
+      <c r="J804" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K804" t="s">
+        <v>24</v>
+      </c>
+      <c r="L804" t="s">
+        <v>46</v>
+      </c>
+      <c r="M804" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N804" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O804" t="s">
+        <v>24</v>
+      </c>
+      <c r="P804" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B805" t="s">
+        <v>58</v>
+      </c>
+      <c r="C805" t="s">
+        <v>41</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E805" t="s">
+        <v>18</v>
+      </c>
+      <c r="F805" t="s">
+        <v>29</v>
+      </c>
+      <c r="G805">
+        <v>34</v>
+      </c>
+      <c r="H805" t="s">
+        <v>2322</v>
+      </c>
+      <c r="I805" t="s">
+        <v>335</v>
+      </c>
+      <c r="J805" t="s">
+        <v>2323</v>
+      </c>
+      <c r="K805" t="s">
+        <v>24</v>
+      </c>
+      <c r="L805" t="s">
+        <v>445</v>
+      </c>
+      <c r="M805" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N805" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O805" t="s">
+        <v>24</v>
+      </c>
+      <c r="P805" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B806" t="s">
+        <v>58</v>
+      </c>
+      <c r="C806" t="s">
+        <v>27</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E806" t="s">
+        <v>18</v>
+      </c>
+      <c r="F806" t="s">
+        <v>19</v>
+      </c>
+      <c r="G806">
+        <v>29</v>
+      </c>
+      <c r="H806" t="s">
+        <v>58</v>
+      </c>
+      <c r="I806" t="s">
+        <v>55</v>
+      </c>
+      <c r="J806" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K806" t="s">
+        <v>24</v>
+      </c>
+      <c r="L806" t="s">
+        <v>25</v>
+      </c>
+      <c r="M806" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N806" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O806" t="s">
+        <v>80</v>
+      </c>
+      <c r="P806" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B807" t="s">
+        <v>58</v>
+      </c>
+      <c r="C807" t="s">
+        <v>41</v>
+      </c>
+      <c r="D807" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E807" t="s">
+        <v>18</v>
+      </c>
+      <c r="F807" t="s">
+        <v>29</v>
+      </c>
+      <c r="G807">
+        <v>46</v>
+      </c>
+      <c r="H807" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I807" t="s">
+        <v>55</v>
+      </c>
+      <c r="J807" t="s">
+        <v>2329</v>
+      </c>
+      <c r="K807" t="s">
+        <v>24</v>
+      </c>
+      <c r="L807" t="s">
+        <v>25</v>
+      </c>
+      <c r="M807" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N807" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O807" t="s">
+        <v>24</v>
+      </c>
+      <c r="P807" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B808" t="s">
+        <v>58</v>
+      </c>
+      <c r="C808" t="s">
+        <v>27</v>
+      </c>
+      <c r="D808" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E808" t="s">
+        <v>65</v>
+      </c>
+      <c r="F808" t="s">
+        <v>58</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I808" t="s">
+        <v>335</v>
+      </c>
+      <c r="J808" t="s">
+        <v>2331</v>
+      </c>
+      <c r="K808" t="s">
+        <v>24</v>
+      </c>
+      <c r="L808" t="s">
+        <v>25</v>
+      </c>
+      <c r="M808" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N808" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O808" t="s">
+        <v>24</v>
+      </c>
+      <c r="P808" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B809" t="s">
+        <v>58</v>
+      </c>
+      <c r="C809" t="s">
+        <v>16</v>
+      </c>
+      <c r="D809" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E809" t="s">
+        <v>65</v>
+      </c>
+      <c r="F809" t="s">
+        <v>29</v>
+      </c>
+      <c r="G809">
+        <v>25</v>
+      </c>
+      <c r="H809" t="s">
+        <v>2334</v>
+      </c>
+      <c r="I809" t="s">
+        <v>2335</v>
+      </c>
+      <c r="J809" t="s">
+        <v>2336</v>
+      </c>
+      <c r="K809" t="s">
+        <v>24</v>
+      </c>
+      <c r="L809" t="s">
+        <v>201</v>
+      </c>
+      <c r="M809" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N809" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O809" t="s">
+        <v>80</v>
+      </c>
+      <c r="P809" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B810" t="s">
+        <v>58</v>
+      </c>
+      <c r="C810" t="s">
+        <v>41</v>
+      </c>
+      <c r="D810" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E810" t="s">
+        <v>65</v>
+      </c>
+      <c r="F810" t="s">
+        <v>58</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810" t="s">
+        <v>58</v>
+      </c>
+      <c r="I810" t="s">
+        <v>55</v>
+      </c>
+      <c r="J810" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K810" t="s">
+        <v>24</v>
+      </c>
+      <c r="L810" t="s">
+        <v>201</v>
+      </c>
+      <c r="M810" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N810" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O810" t="s">
+        <v>24</v>
+      </c>
+      <c r="P810" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B811" t="s">
+        <v>58</v>
+      </c>
+      <c r="C811" t="s">
+        <v>27</v>
+      </c>
+      <c r="D811" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E811" t="s">
+        <v>65</v>
+      </c>
+      <c r="F811" t="s">
+        <v>19</v>
+      </c>
+      <c r="G811">
+        <v>25</v>
+      </c>
+      <c r="H811" t="s">
+        <v>54</v>
+      </c>
+      <c r="I811" t="s">
+        <v>22</v>
+      </c>
+      <c r="J811" t="s">
+        <v>2342</v>
+      </c>
+      <c r="K811" t="s">
+        <v>24</v>
+      </c>
+      <c r="L811" t="s">
+        <v>46</v>
+      </c>
+      <c r="M811" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N811" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O811" t="s">
+        <v>80</v>
+      </c>
+      <c r="P811" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B812" t="s">
+        <v>58</v>
+      </c>
+      <c r="C812" t="s">
+        <v>16</v>
+      </c>
+      <c r="D812" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E812" t="s">
+        <v>65</v>
+      </c>
+      <c r="F812" t="s">
+        <v>29</v>
+      </c>
+      <c r="G812">
+        <v>27</v>
+      </c>
+      <c r="H812" t="s">
+        <v>2344</v>
+      </c>
+      <c r="I812" t="s">
+        <v>36</v>
+      </c>
+      <c r="J812" t="s">
+        <v>2345</v>
+      </c>
+      <c r="K812" t="s">
+        <v>24</v>
+      </c>
+      <c r="L812" t="s">
+        <v>450</v>
+      </c>
+      <c r="M812" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N812" t="s">
+        <v>2346</v>
+      </c>
+      <c r="O812" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P812" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B813" t="s">
+        <v>58</v>
+      </c>
+      <c r="C813" t="s">
+        <v>41</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E813" t="s">
+        <v>65</v>
+      </c>
+      <c r="F813" t="s">
+        <v>19</v>
+      </c>
+      <c r="G813">
+        <v>51</v>
+      </c>
+      <c r="H813" t="s">
+        <v>132</v>
+      </c>
+      <c r="I813" t="s">
+        <v>22</v>
+      </c>
+      <c r="J813" t="s">
+        <v>2348</v>
+      </c>
+      <c r="K813" t="s">
+        <v>24</v>
+      </c>
+      <c r="L813" t="s">
+        <v>25</v>
+      </c>
+      <c r="M813" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N813" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O813" t="s">
+        <v>24</v>
+      </c>
+      <c r="P813" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B814" t="s">
+        <v>58</v>
+      </c>
+      <c r="C814" t="s">
+        <v>41</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E814" t="s">
+        <v>65</v>
+      </c>
+      <c r="F814" t="s">
+        <v>58</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+      <c r="H814" t="s">
+        <v>58</v>
+      </c>
+      <c r="I814" t="s">
+        <v>55</v>
+      </c>
+      <c r="J814" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K814" t="s">
+        <v>24</v>
+      </c>
+      <c r="L814" t="s">
+        <v>201</v>
+      </c>
+      <c r="M814" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N814" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O814" t="s">
+        <v>24</v>
+      </c>
+      <c r="P814" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B815" t="s">
+        <v>58</v>
+      </c>
+      <c r="C815" t="s">
+        <v>27</v>
+      </c>
+      <c r="D815" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E815" t="s">
+        <v>65</v>
+      </c>
+      <c r="F815" t="s">
+        <v>29</v>
+      </c>
+      <c r="G815">
+        <v>41</v>
+      </c>
+      <c r="H815" t="s">
+        <v>44</v>
+      </c>
+      <c r="I815" t="s">
+        <v>22</v>
+      </c>
+      <c r="J815" t="s">
+        <v>2350</v>
+      </c>
+      <c r="K815" t="s">
+        <v>24</v>
+      </c>
+      <c r="L815" t="s">
+        <v>201</v>
+      </c>
+      <c r="M815" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N815" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O815" t="s">
+        <v>80</v>
+      </c>
+      <c r="P815" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B816" t="s">
+        <v>58</v>
+      </c>
+      <c r="C816" t="s">
+        <v>41</v>
+      </c>
+      <c r="D816" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E816" t="s">
+        <v>65</v>
+      </c>
+      <c r="F816" t="s">
+        <v>29</v>
+      </c>
+      <c r="G816">
+        <v>37</v>
+      </c>
+      <c r="H816" t="s">
+        <v>21</v>
+      </c>
+      <c r="I816" t="s">
+        <v>22</v>
+      </c>
+      <c r="J816" t="s">
+        <v>2352</v>
+      </c>
+      <c r="K816" t="s">
+        <v>24</v>
+      </c>
+      <c r="L816" t="s">
+        <v>46</v>
+      </c>
+      <c r="M816" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N816" t="s">
+        <v>2353</v>
+      </c>
+      <c r="O816" t="s">
+        <v>24</v>
+      </c>
+      <c r="P816" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="817" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B817" t="s">
+        <v>58</v>
+      </c>
+      <c r="C817" t="s">
+        <v>41</v>
+      </c>
+      <c r="D817" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E817" t="s">
+        <v>65</v>
+      </c>
+      <c r="F817" t="s">
+        <v>91</v>
+      </c>
+      <c r="G817">
+        <v>60</v>
+      </c>
+      <c r="H817" t="s">
+        <v>132</v>
+      </c>
+      <c r="I817" t="s">
+        <v>22</v>
+      </c>
+      <c r="J817" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K817" t="s">
+        <v>24</v>
+      </c>
+      <c r="L817" t="s">
+        <v>46</v>
+      </c>
+      <c r="M817" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N817" t="s">
+        <v>2356</v>
+      </c>
+      <c r="O817" t="s">
+        <v>24</v>
+      </c>
+      <c r="P817" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="818" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B818" t="s">
+        <v>58</v>
+      </c>
+      <c r="C818" t="s">
+        <v>41</v>
+      </c>
+      <c r="D818" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E818" t="s">
+        <v>65</v>
+      </c>
+      <c r="F818" t="s">
+        <v>29</v>
+      </c>
+      <c r="G818">
+        <v>20</v>
+      </c>
+      <c r="H818" t="s">
+        <v>44</v>
+      </c>
+      <c r="I818" t="s">
+        <v>22</v>
+      </c>
+      <c r="J818" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K818" t="s">
+        <v>24</v>
+      </c>
+      <c r="L818" t="s">
+        <v>46</v>
+      </c>
+      <c r="M818" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N818" t="s">
+        <v>2358</v>
+      </c>
+      <c r="O818" t="s">
+        <v>80</v>
+      </c>
+      <c r="P818" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="819" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B819" t="s">
+        <v>58</v>
+      </c>
+      <c r="C819" t="s">
+        <v>27</v>
+      </c>
+      <c r="D819" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E819" t="s">
+        <v>65</v>
+      </c>
+      <c r="F819" t="s">
+        <v>29</v>
+      </c>
+      <c r="G819">
+        <v>37</v>
+      </c>
+      <c r="H819" t="s">
+        <v>2360</v>
+      </c>
+      <c r="I819" t="s">
+        <v>2361</v>
+      </c>
+      <c r="J819" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K819" t="s">
+        <v>24</v>
+      </c>
+      <c r="L819" t="s">
+        <v>201</v>
+      </c>
+      <c r="M819" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N819" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O819" t="s">
+        <v>80</v>
+      </c>
+      <c r="P819" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="820" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B820" t="s">
+        <v>58</v>
+      </c>
+      <c r="C820" t="s">
+        <v>16</v>
+      </c>
+      <c r="D820" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E820" t="s">
+        <v>65</v>
+      </c>
+      <c r="F820" t="s">
+        <v>19</v>
+      </c>
+      <c r="G820">
+        <v>42</v>
+      </c>
+      <c r="H820" t="s">
+        <v>573</v>
+      </c>
+      <c r="I820" t="s">
+        <v>335</v>
+      </c>
+      <c r="J820" t="s">
+        <v>2364</v>
+      </c>
+      <c r="K820" t="s">
+        <v>24</v>
+      </c>
+      <c r="L820" t="s">
+        <v>25</v>
+      </c>
+      <c r="M820" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N820" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O820" t="s">
+        <v>80</v>
+      </c>
+      <c r="P820" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="821" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B821" t="s">
+        <v>58</v>
+      </c>
+      <c r="C821" t="s">
+        <v>27</v>
+      </c>
+      <c r="D821" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E821" t="s">
+        <v>65</v>
+      </c>
+      <c r="F821" t="s">
+        <v>58</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+      <c r="H821" t="s">
+        <v>58</v>
+      </c>
+      <c r="I821" t="s">
+        <v>55</v>
+      </c>
+      <c r="J821" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K821" t="s">
+        <v>24</v>
+      </c>
+      <c r="L821" t="s">
+        <v>25</v>
+      </c>
+      <c r="M821" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N821" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O821" t="s">
+        <v>24</v>
+      </c>
+      <c r="P821" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="822" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B822" t="s">
+        <v>58</v>
+      </c>
+      <c r="C822" t="s">
+        <v>41</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E822" t="s">
+        <v>65</v>
+      </c>
+      <c r="F822" t="s">
+        <v>29</v>
+      </c>
+      <c r="G822">
+        <v>27</v>
+      </c>
+      <c r="H822" t="s">
+        <v>58</v>
+      </c>
+      <c r="I822" t="s">
+        <v>55</v>
+      </c>
+      <c r="J822" t="s">
+        <v>2368</v>
+      </c>
+      <c r="K822" t="s">
+        <v>24</v>
+      </c>
+      <c r="L822" t="s">
+        <v>25</v>
+      </c>
+      <c r="M822" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N822" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O822" t="s">
+        <v>80</v>
+      </c>
+      <c r="P822" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="823" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B823" t="s">
+        <v>58</v>
+      </c>
+      <c r="C823" t="s">
+        <v>27</v>
+      </c>
+      <c r="D823" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E823" t="s">
+        <v>65</v>
+      </c>
+      <c r="F823" t="s">
+        <v>292</v>
+      </c>
+      <c r="G823">
+        <v>53</v>
+      </c>
+      <c r="H823" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I823" t="s">
+        <v>157</v>
+      </c>
+      <c r="J823" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K823" t="s">
+        <v>24</v>
+      </c>
+      <c r="L823" t="s">
+        <v>25</v>
+      </c>
+      <c r="M823" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N823" t="s">
+        <v>2371</v>
+      </c>
+      <c r="O823" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P823" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="824" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B824" t="s">
+        <v>58</v>
+      </c>
+      <c r="C824" t="s">
+        <v>27</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E824" t="s">
+        <v>65</v>
+      </c>
+      <c r="F824" t="s">
+        <v>58</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824" t="s">
+        <v>58</v>
+      </c>
+      <c r="I824" t="s">
+        <v>55</v>
+      </c>
+      <c r="J824" t="s">
+        <v>2373</v>
+      </c>
+      <c r="K824" t="s">
+        <v>24</v>
+      </c>
+      <c r="L824" t="s">
+        <v>25</v>
+      </c>
+      <c r="M824" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N824" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O824" t="s">
+        <v>80</v>
+      </c>
+      <c r="P824" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="825" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B825" t="s">
+        <v>58</v>
+      </c>
+      <c r="C825" t="s">
+        <v>41</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E825" t="s">
+        <v>65</v>
+      </c>
+      <c r="F825" t="s">
+        <v>58</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+      <c r="H825" t="s">
+        <v>58</v>
+      </c>
+      <c r="I825" t="s">
+        <v>55</v>
+      </c>
+      <c r="J825" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K825" t="s">
+        <v>24</v>
+      </c>
+      <c r="L825" t="s">
+        <v>25</v>
+      </c>
+      <c r="M825" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N825" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O825" t="s">
+        <v>24</v>
+      </c>
+      <c r="P825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B826" t="s">
+        <v>58</v>
+      </c>
+      <c r="C826" t="s">
+        <v>16</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E826" t="s">
+        <v>65</v>
+      </c>
+      <c r="F826" t="s">
+        <v>58</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826" t="s">
+        <v>58</v>
+      </c>
+      <c r="I826" t="s">
+        <v>55</v>
+      </c>
+      <c r="J826" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K826" t="s">
+        <v>24</v>
+      </c>
+      <c r="L826" t="s">
+        <v>25</v>
+      </c>
+      <c r="M826" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N826" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O826" t="s">
+        <v>80</v>
+      </c>
+      <c r="P826" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="827" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B827" t="s">
+        <v>58</v>
+      </c>
+      <c r="C827" t="s">
+        <v>41</v>
+      </c>
+      <c r="D827" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E827" t="s">
+        <v>65</v>
+      </c>
+      <c r="F827" t="s">
+        <v>91</v>
+      </c>
+      <c r="G827">
+        <v>40</v>
+      </c>
+      <c r="H827" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I827" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J827" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K827" t="s">
+        <v>24</v>
+      </c>
+      <c r="L827" t="s">
+        <v>148</v>
+      </c>
+      <c r="M827" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N827" t="s">
+        <v>2353</v>
+      </c>
+      <c r="O827" t="s">
+        <v>24</v>
+      </c>
+      <c r="P827" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="828" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B828" t="s">
+        <v>58</v>
+      </c>
+      <c r="C828" t="s">
+        <v>16</v>
+      </c>
+      <c r="D828" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E828" t="s">
+        <v>65</v>
+      </c>
+      <c r="F828" t="s">
+        <v>29</v>
+      </c>
+      <c r="G828">
+        <v>27</v>
+      </c>
+      <c r="H828" t="s">
+        <v>44</v>
+      </c>
+      <c r="I828" t="s">
+        <v>22</v>
+      </c>
+      <c r="J828" t="s">
+        <v>2381</v>
+      </c>
+      <c r="K828" t="s">
+        <v>24</v>
+      </c>
+      <c r="L828" t="s">
+        <v>25</v>
+      </c>
+      <c r="M828" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N828" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O828" t="s">
+        <v>80</v>
+      </c>
+      <c r="P828" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="829" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B829" t="s">
+        <v>58</v>
+      </c>
+      <c r="C829" t="s">
+        <v>16</v>
+      </c>
+      <c r="D829" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E829" t="s">
+        <v>65</v>
+      </c>
+      <c r="F829" t="s">
+        <v>29</v>
+      </c>
+      <c r="G829">
+        <v>21</v>
+      </c>
+      <c r="H829" t="s">
+        <v>523</v>
+      </c>
+      <c r="I829" t="s">
+        <v>335</v>
+      </c>
+      <c r="J829" t="s">
+        <v>2383</v>
+      </c>
+      <c r="K829" t="s">
+        <v>24</v>
+      </c>
+      <c r="L829" t="s">
+        <v>25</v>
+      </c>
+      <c r="M829" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N829" t="s">
+        <v>2384</v>
+      </c>
+      <c r="O829" t="s">
+        <v>24</v>
+      </c>
+      <c r="P829" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="830" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B830" t="s">
+        <v>58</v>
+      </c>
+      <c r="C830" t="s">
+        <v>27</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E830" t="s">
+        <v>65</v>
+      </c>
+      <c r="F830" t="s">
+        <v>29</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830" t="s">
+        <v>886</v>
+      </c>
+      <c r="I830" t="s">
+        <v>22</v>
+      </c>
+      <c r="J830" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K830" t="s">
+        <v>24</v>
+      </c>
+      <c r="L830" t="s">
+        <v>25</v>
+      </c>
+      <c r="M830" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N830" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O830" t="s">
+        <v>80</v>
+      </c>
+      <c r="P830" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="831" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B831" t="s">
+        <v>58</v>
+      </c>
+      <c r="C831" t="s">
+        <v>27</v>
+      </c>
+      <c r="D831" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E831" t="s">
+        <v>65</v>
+      </c>
+      <c r="F831" t="s">
+        <v>29</v>
+      </c>
+      <c r="G831">
+        <v>21</v>
+      </c>
+      <c r="H831" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I831" t="s">
+        <v>22</v>
+      </c>
+      <c r="J831" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K831" t="s">
+        <v>24</v>
+      </c>
+      <c r="L831" t="s">
+        <v>25</v>
+      </c>
+      <c r="M831" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N831" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O831" t="s">
+        <v>80</v>
+      </c>
+      <c r="P831" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="832" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B832" t="s">
+        <v>58</v>
+      </c>
+      <c r="C832" t="s">
+        <v>41</v>
+      </c>
+      <c r="D832" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E832" t="s">
+        <v>65</v>
+      </c>
+      <c r="F832" t="s">
+        <v>19</v>
+      </c>
+      <c r="G832">
+        <v>36</v>
+      </c>
+      <c r="H832" t="s">
+        <v>327</v>
+      </c>
+      <c r="I832" t="s">
+        <v>85</v>
+      </c>
+      <c r="J832" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K832" t="s">
+        <v>24</v>
+      </c>
+      <c r="L832" t="s">
+        <v>25</v>
+      </c>
+      <c r="M832" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N832" t="s">
+        <v>922</v>
+      </c>
+      <c r="O832" t="s">
+        <v>24</v>
+      </c>
+      <c r="P832" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="833" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B833" t="s">
+        <v>58</v>
+      </c>
+      <c r="C833" t="s">
+        <v>27</v>
+      </c>
+      <c r="D833" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E833" t="s">
+        <v>65</v>
+      </c>
+      <c r="F833" t="s">
+        <v>19</v>
+      </c>
+      <c r="G833">
+        <v>32</v>
+      </c>
+      <c r="H833" t="s">
+        <v>21</v>
+      </c>
+      <c r="I833" t="s">
+        <v>55</v>
+      </c>
+      <c r="J833" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K833" t="s">
+        <v>24</v>
+      </c>
+      <c r="L833" t="s">
+        <v>25</v>
+      </c>
+      <c r="M833" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N833" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O833" t="s">
+        <v>80</v>
+      </c>
+      <c r="P833" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="834" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B834" t="s">
+        <v>58</v>
+      </c>
+      <c r="C834" t="s">
+        <v>27</v>
+      </c>
+      <c r="D834" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E834" t="s">
+        <v>65</v>
+      </c>
+      <c r="F834" t="s">
+        <v>29</v>
+      </c>
+      <c r="G834">
+        <v>27</v>
+      </c>
+      <c r="H834" t="s">
+        <v>58</v>
+      </c>
+      <c r="I834" t="s">
+        <v>55</v>
+      </c>
+      <c r="J834" t="s">
+        <v>2394</v>
+      </c>
+      <c r="K834" t="s">
+        <v>24</v>
+      </c>
+      <c r="L834" t="s">
+        <v>25</v>
+      </c>
+      <c r="M834" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N834" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O834" t="s">
+        <v>24</v>
+      </c>
+      <c r="P834" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="835" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B835" t="s">
+        <v>58</v>
+      </c>
+      <c r="C835" t="s">
+        <v>41</v>
+      </c>
+      <c r="D835" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E835" t="s">
+        <v>65</v>
+      </c>
+      <c r="F835" t="s">
+        <v>29</v>
+      </c>
+      <c r="G835">
+        <v>40</v>
+      </c>
+      <c r="H835" t="s">
+        <v>129</v>
+      </c>
+      <c r="I835" t="s">
+        <v>22</v>
+      </c>
+      <c r="J835" t="s">
+        <v>2397</v>
+      </c>
+      <c r="K835" t="s">
+        <v>24</v>
+      </c>
+      <c r="L835" t="s">
+        <v>25</v>
+      </c>
+      <c r="M835" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N835" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O835" t="s">
+        <v>80</v>
+      </c>
+      <c r="P835" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="836" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B836" t="s">
+        <v>58</v>
+      </c>
+      <c r="C836" t="s">
+        <v>41</v>
+      </c>
+      <c r="D836" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E836" t="s">
+        <v>65</v>
+      </c>
+      <c r="F836" t="s">
+        <v>19</v>
+      </c>
+      <c r="G836">
+        <v>33</v>
+      </c>
+      <c r="H836" t="s">
+        <v>58</v>
+      </c>
+      <c r="I836" t="s">
+        <v>55</v>
+      </c>
+      <c r="J836" t="s">
+        <v>2399</v>
+      </c>
+      <c r="K836" t="s">
+        <v>24</v>
+      </c>
+      <c r="L836" t="s">
+        <v>25</v>
+      </c>
+      <c r="M836" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N836" t="s">
+        <v>2400</v>
+      </c>
+      <c r="O836" t="s">
+        <v>24</v>
+      </c>
+      <c r="P836" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="837" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B837" t="s">
+        <v>58</v>
+      </c>
+      <c r="C837" t="s">
+        <v>27</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E837" t="s">
+        <v>65</v>
+      </c>
+      <c r="F837" t="s">
+        <v>58</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837" t="s">
+        <v>523</v>
+      </c>
+      <c r="I837" t="s">
+        <v>335</v>
+      </c>
+      <c r="J837" t="s">
+        <v>2402</v>
+      </c>
+      <c r="K837" t="s">
+        <v>24</v>
+      </c>
+      <c r="L837" t="s">
+        <v>25</v>
+      </c>
+      <c r="M837" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N837" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O837" t="s">
+        <v>80</v>
+      </c>
+      <c r="P837" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B838" t="s">
+        <v>58</v>
+      </c>
+      <c r="C838" t="s">
+        <v>41</v>
+      </c>
+      <c r="D838" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E838" t="s">
+        <v>65</v>
+      </c>
+      <c r="F838" t="s">
+        <v>185</v>
+      </c>
+      <c r="G838">
+        <v>40</v>
+      </c>
+      <c r="H838" t="s">
+        <v>231</v>
+      </c>
+      <c r="I838" t="s">
+        <v>36</v>
+      </c>
+      <c r="J838" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K838" t="s">
+        <v>24</v>
+      </c>
+      <c r="L838" t="s">
+        <v>25</v>
+      </c>
+      <c r="M838" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N838" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O838" t="s">
+        <v>24</v>
+      </c>
+      <c r="P838" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B839" t="s">
+        <v>58</v>
+      </c>
+      <c r="C839" t="s">
+        <v>41</v>
+      </c>
+      <c r="D839" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E839" t="s">
+        <v>65</v>
+      </c>
+      <c r="F839" t="s">
+        <v>29</v>
+      </c>
+      <c r="G839">
+        <v>47</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I839" t="s">
+        <v>22</v>
+      </c>
+      <c r="J839" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K839" t="s">
+        <v>24</v>
+      </c>
+      <c r="L839" t="s">
+        <v>46</v>
+      </c>
+      <c r="M839" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N839" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O839" t="s">
+        <v>80</v>
+      </c>
+      <c r="P839" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B840" t="s">
+        <v>58</v>
+      </c>
+      <c r="C840" t="s">
+        <v>41</v>
+      </c>
+      <c r="D840" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E840" t="s">
+        <v>65</v>
+      </c>
+      <c r="F840" t="s">
+        <v>19</v>
+      </c>
+      <c r="G840">
+        <v>36</v>
+      </c>
+      <c r="H840" t="s">
+        <v>129</v>
+      </c>
+      <c r="I840" t="s">
+        <v>22</v>
+      </c>
+      <c r="J840" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K840" t="s">
+        <v>24</v>
+      </c>
+      <c r="L840" t="s">
+        <v>25</v>
+      </c>
+      <c r="M840" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N840" t="s">
+        <v>2409</v>
+      </c>
+      <c r="O840" t="s">
+        <v>24</v>
+      </c>
+      <c r="P840" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B841" t="s">
+        <v>58</v>
+      </c>
+      <c r="C841" t="s">
+        <v>41</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E841" t="s">
+        <v>65</v>
+      </c>
+      <c r="F841" t="s">
+        <v>292</v>
+      </c>
+      <c r="G841">
+        <v>40</v>
+      </c>
+      <c r="H841" t="s">
+        <v>58</v>
+      </c>
+      <c r="I841" t="s">
+        <v>55</v>
+      </c>
+      <c r="J841" t="s">
+        <v>2411</v>
+      </c>
+      <c r="K841" t="s">
+        <v>24</v>
+      </c>
+      <c r="L841" t="s">
+        <v>25</v>
+      </c>
+      <c r="M841" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N841" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O841" t="s">
+        <v>24</v>
+      </c>
+      <c r="P841" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B842" t="s">
+        <v>58</v>
+      </c>
+      <c r="C842" t="s">
+        <v>16</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E842" t="s">
+        <v>65</v>
+      </c>
+      <c r="F842" t="s">
+        <v>29</v>
+      </c>
+      <c r="G842">
+        <v>32</v>
+      </c>
+      <c r="H842" t="s">
+        <v>58</v>
+      </c>
+      <c r="I842" t="s">
+        <v>55</v>
+      </c>
+      <c r="J842" t="s">
+        <v>2413</v>
+      </c>
+      <c r="K842" t="s">
+        <v>24</v>
+      </c>
+      <c r="L842" t="s">
+        <v>46</v>
+      </c>
+      <c r="M842" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N842" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O842" t="s">
+        <v>80</v>
+      </c>
+      <c r="P842" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="843" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B843" t="s">
+        <v>58</v>
+      </c>
+      <c r="C843" t="s">
+        <v>27</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E843" t="s">
+        <v>65</v>
+      </c>
+      <c r="F843" t="s">
+        <v>19</v>
+      </c>
+      <c r="G843">
+        <v>44</v>
+      </c>
+      <c r="H843" t="s">
+        <v>21</v>
+      </c>
+      <c r="I843" t="s">
+        <v>157</v>
+      </c>
+      <c r="J843" t="s">
+        <v>2415</v>
+      </c>
+      <c r="K843" t="s">
+        <v>24</v>
+      </c>
+      <c r="L843" t="s">
+        <v>25</v>
+      </c>
+      <c r="M843" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N843" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O843" t="s">
+        <v>80</v>
+      </c>
+      <c r="P843" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="844" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B844" t="s">
+        <v>58</v>
+      </c>
+      <c r="C844" t="s">
+        <v>41</v>
+      </c>
+      <c r="D844" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E844" t="s">
+        <v>65</v>
+      </c>
+      <c r="F844" t="s">
+        <v>29</v>
+      </c>
+      <c r="G844">
+        <v>45</v>
+      </c>
+      <c r="H844" t="s">
+        <v>2417</v>
+      </c>
+      <c r="I844" t="s">
+        <v>22</v>
+      </c>
+      <c r="J844" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K844" t="s">
+        <v>24</v>
+      </c>
+      <c r="L844" t="s">
+        <v>25</v>
+      </c>
+      <c r="M844" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N844" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O844" t="s">
+        <v>24</v>
+      </c>
+      <c r="P844" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="845" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B845" t="s">
+        <v>58</v>
+      </c>
+      <c r="C845" t="s">
+        <v>27</v>
+      </c>
+      <c r="D845" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E845" t="s">
+        <v>65</v>
+      </c>
+      <c r="F845" t="s">
+        <v>19</v>
+      </c>
+      <c r="G845">
+        <v>28</v>
+      </c>
+      <c r="H845" t="s">
+        <v>132</v>
+      </c>
+      <c r="I845" t="s">
+        <v>335</v>
+      </c>
+      <c r="J845" t="s">
+        <v>2420</v>
+      </c>
+      <c r="K845" t="s">
+        <v>24</v>
+      </c>
+      <c r="L845" t="s">
+        <v>25</v>
+      </c>
+      <c r="M845" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N845" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O845" t="s">
+        <v>80</v>
+      </c>
+      <c r="P845" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="846" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B846" t="s">
+        <v>58</v>
+      </c>
+      <c r="C846" t="s">
+        <v>41</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E846" t="s">
+        <v>65</v>
+      </c>
+      <c r="F846" t="s">
+        <v>185</v>
+      </c>
+      <c r="G846">
+        <v>38</v>
+      </c>
+      <c r="H846" t="s">
+        <v>44</v>
+      </c>
+      <c r="I846" t="s">
+        <v>36</v>
+      </c>
+      <c r="J846" t="s">
+        <v>2422</v>
+      </c>
+      <c r="K846" t="s">
+        <v>24</v>
+      </c>
+      <c r="L846" t="s">
+        <v>25</v>
+      </c>
+      <c r="M846" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N846" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O846" t="s">
+        <v>80</v>
+      </c>
+      <c r="P846" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="847" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B847" t="s">
+        <v>58</v>
+      </c>
+      <c r="C847" t="s">
+        <v>27</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E847" t="s">
+        <v>18</v>
+      </c>
+      <c r="F847" t="s">
+        <v>29</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+      <c r="H847" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I847" t="s">
+        <v>55</v>
+      </c>
+      <c r="J847" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K847" t="s">
+        <v>24</v>
+      </c>
+      <c r="L847" t="s">
+        <v>25</v>
+      </c>
+      <c r="M847" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N847" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O847" t="s">
+        <v>24</v>
+      </c>
+      <c r="P847" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="848" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B848" t="s">
+        <v>58</v>
+      </c>
+      <c r="C848" t="s">
+        <v>41</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E848" t="s">
+        <v>18</v>
+      </c>
+      <c r="F848" t="s">
+        <v>29</v>
+      </c>
+      <c r="G848">
+        <v>21</v>
+      </c>
+      <c r="H848" t="s">
+        <v>21</v>
+      </c>
+      <c r="I848" t="s">
+        <v>22</v>
+      </c>
+      <c r="J848" t="s">
+        <v>2428</v>
+      </c>
+      <c r="K848" t="s">
+        <v>24</v>
+      </c>
+      <c r="L848" t="s">
+        <v>25</v>
+      </c>
+      <c r="M848" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N848" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O848" t="s">
+        <v>80</v>
+      </c>
+      <c r="P848" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="849" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B849" t="s">
+        <v>58</v>
+      </c>
+      <c r="C849" t="s">
+        <v>41</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E849" t="s">
+        <v>18</v>
+      </c>
+      <c r="F849" t="s">
+        <v>19</v>
+      </c>
+      <c r="G849">
+        <v>43</v>
+      </c>
+      <c r="H849" t="s">
+        <v>281</v>
+      </c>
+      <c r="I849" t="s">
+        <v>22</v>
+      </c>
+      <c r="J849" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K849" t="s">
+        <v>24</v>
+      </c>
+      <c r="L849" t="s">
+        <v>25</v>
+      </c>
+      <c r="M849" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N849" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O849" t="s">
+        <v>80</v>
+      </c>
+      <c r="P849" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="850" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B850" t="s">
+        <v>58</v>
+      </c>
+      <c r="C850" t="s">
+        <v>27</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E850" t="s">
+        <v>18</v>
+      </c>
+      <c r="F850" t="s">
+        <v>19</v>
+      </c>
+      <c r="G850">
+        <v>28</v>
+      </c>
+      <c r="H850" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I850" t="s">
+        <v>55</v>
+      </c>
+      <c r="J850" t="s">
+        <v>2434</v>
+      </c>
+      <c r="K850" t="s">
+        <v>24</v>
+      </c>
+      <c r="L850" t="s">
+        <v>25</v>
+      </c>
+      <c r="M850" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N850" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O850" t="s">
+        <v>24</v>
+      </c>
+      <c r="P850" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="851" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B851" t="s">
+        <v>58</v>
+      </c>
+      <c r="C851" t="s">
+        <v>41</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E851" t="s">
+        <v>18</v>
+      </c>
+      <c r="F851" t="s">
+        <v>29</v>
+      </c>
+      <c r="G851">
+        <v>24</v>
+      </c>
+      <c r="H851" t="s">
+        <v>21</v>
+      </c>
+      <c r="I851" t="s">
+        <v>22</v>
+      </c>
+      <c r="J851" t="s">
+        <v>2436</v>
+      </c>
+      <c r="K851" t="s">
+        <v>24</v>
+      </c>
+      <c r="L851" t="s">
+        <v>25</v>
+      </c>
+      <c r="M851" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N851" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O851" t="s">
+        <v>24</v>
+      </c>
+      <c r="P851" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="852" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B852" t="s">
+        <v>58</v>
+      </c>
+      <c r="C852" t="s">
+        <v>27</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E852" t="s">
+        <v>18</v>
+      </c>
+      <c r="F852" t="s">
+        <v>29</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852" t="s">
+        <v>129</v>
+      </c>
+      <c r="I852" t="s">
+        <v>36</v>
+      </c>
+      <c r="J852" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K852" t="s">
+        <v>80</v>
+      </c>
+      <c r="L852" t="s">
+        <v>25</v>
+      </c>
+      <c r="M852" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N852" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O852" t="s">
+        <v>24</v>
+      </c>
+      <c r="P852" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="853" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B853" t="s">
+        <v>58</v>
+      </c>
+      <c r="C853" t="s">
+        <v>27</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E853" t="s">
+        <v>65</v>
+      </c>
+      <c r="F853" t="s">
+        <v>19</v>
+      </c>
+      <c r="G853">
+        <v>41</v>
+      </c>
+      <c r="H853" t="s">
+        <v>129</v>
+      </c>
+      <c r="I853" t="s">
+        <v>55</v>
+      </c>
+      <c r="J853" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K853" t="s">
+        <v>24</v>
+      </c>
+      <c r="L853" t="s">
+        <v>25</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N853" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O853" t="s">
+        <v>24</v>
+      </c>
+      <c r="P853" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="854" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B854" t="s">
+        <v>58</v>
+      </c>
+      <c r="C854" t="s">
+        <v>27</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E854" t="s">
+        <v>65</v>
+      </c>
+      <c r="F854" t="s">
+        <v>29</v>
+      </c>
+      <c r="G854">
+        <v>25</v>
+      </c>
+      <c r="H854" t="s">
+        <v>21</v>
+      </c>
+      <c r="I854" t="s">
+        <v>22</v>
+      </c>
+      <c r="J854" t="s">
+        <v>2443</v>
+      </c>
+      <c r="K854" t="s">
+        <v>24</v>
+      </c>
+      <c r="L854" t="s">
+        <v>46</v>
+      </c>
+      <c r="M854" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N854" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O854" t="s">
+        <v>24</v>
+      </c>
+      <c r="P854" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="855" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B855" t="s">
+        <v>58</v>
+      </c>
+      <c r="C855" t="s">
+        <v>16</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E855" t="s">
+        <v>65</v>
+      </c>
+      <c r="F855" t="s">
+        <v>19</v>
+      </c>
+      <c r="G855">
+        <v>47</v>
+      </c>
+      <c r="H855" t="s">
+        <v>523</v>
+      </c>
+      <c r="I855" t="s">
+        <v>335</v>
+      </c>
+      <c r="J855" t="s">
+        <v>2446</v>
+      </c>
+      <c r="K855" t="s">
+        <v>24</v>
+      </c>
+      <c r="L855" t="s">
+        <v>450</v>
+      </c>
+      <c r="M855" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N855" t="s">
+        <v>2447</v>
+      </c>
+      <c r="O855" t="s">
+        <v>24</v>
+      </c>
+      <c r="P855" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="856" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B856" t="s">
+        <v>58</v>
+      </c>
+      <c r="C856" t="s">
+        <v>27</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E856" t="s">
+        <v>65</v>
+      </c>
+      <c r="F856" t="s">
+        <v>29</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856" t="s">
+        <v>2449</v>
+      </c>
+      <c r="I856" t="s">
+        <v>55</v>
+      </c>
+      <c r="J856" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K856" t="s">
+        <v>24</v>
+      </c>
+      <c r="L856" t="s">
+        <v>25</v>
+      </c>
+      <c r="M856" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N856" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O856" t="s">
+        <v>80</v>
+      </c>
+      <c r="P856" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="857" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B857" t="s">
+        <v>58</v>
+      </c>
+      <c r="C857" t="s">
+        <v>41</v>
+      </c>
+      <c r="D857" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E857" t="s">
+        <v>65</v>
+      </c>
+      <c r="F857" t="s">
+        <v>91</v>
+      </c>
+      <c r="G857">
+        <v>40</v>
+      </c>
+      <c r="H857" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I857" t="s">
+        <v>157</v>
+      </c>
+      <c r="J857" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K857" t="s">
+        <v>24</v>
+      </c>
+      <c r="L857" t="s">
+        <v>25</v>
+      </c>
+      <c r="M857" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N857" t="s">
+        <v>2454</v>
+      </c>
+      <c r="O857" t="s">
+        <v>80</v>
+      </c>
+      <c r="P857" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="858" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B858" t="s">
+        <v>58</v>
+      </c>
+      <c r="C858" t="s">
+        <v>16</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E858" t="s">
+        <v>65</v>
+      </c>
+      <c r="F858" t="s">
+        <v>19</v>
+      </c>
+      <c r="G858">
+        <v>45</v>
+      </c>
+      <c r="H858" t="s">
+        <v>502</v>
+      </c>
+      <c r="I858" t="s">
+        <v>22</v>
+      </c>
+      <c r="J858" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K858" t="s">
+        <v>24</v>
+      </c>
+      <c r="L858" t="s">
+        <v>148</v>
+      </c>
+      <c r="M858" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N858" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O858" t="s">
+        <v>80</v>
+      </c>
+      <c r="P858" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="859" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B859" t="s">
+        <v>58</v>
+      </c>
+      <c r="C859" t="s">
+        <v>16</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E859" t="s">
+        <v>65</v>
+      </c>
+      <c r="F859" t="s">
+        <v>19</v>
+      </c>
+      <c r="G859">
+        <v>50</v>
+      </c>
+      <c r="H859" t="s">
+        <v>58</v>
+      </c>
+      <c r="I859" t="s">
+        <v>55</v>
+      </c>
+      <c r="J859" t="s">
+        <v>2458</v>
+      </c>
+      <c r="K859" t="s">
+        <v>24</v>
+      </c>
+      <c r="L859" t="s">
+        <v>450</v>
+      </c>
+      <c r="M859" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N859" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O859" t="s">
+        <v>80</v>
+      </c>
+      <c r="P859" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="860" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B860" t="s">
+        <v>58</v>
+      </c>
+      <c r="C860" t="s">
+        <v>16</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E860" t="s">
+        <v>65</v>
+      </c>
+      <c r="F860" t="s">
+        <v>29</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I860" t="s">
+        <v>55</v>
+      </c>
+      <c r="J860" t="s">
+        <v>2460</v>
+      </c>
+      <c r="K860" t="s">
+        <v>24</v>
+      </c>
+      <c r="L860" t="s">
+        <v>25</v>
+      </c>
+      <c r="M860" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N860" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O860" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P860" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="861" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B861" t="s">
+        <v>58</v>
+      </c>
+      <c r="C861" t="s">
+        <v>41</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E861" t="s">
+        <v>65</v>
+      </c>
+      <c r="F861" t="s">
+        <v>29</v>
+      </c>
+      <c r="G861">
+        <v>11</v>
+      </c>
+      <c r="H861" t="s">
+        <v>281</v>
+      </c>
+      <c r="I861" t="s">
+        <v>22</v>
+      </c>
+      <c r="J861" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K861" t="s">
+        <v>24</v>
+      </c>
+      <c r="L861" t="s">
+        <v>25</v>
+      </c>
+      <c r="M861" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N861" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O861" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P861" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="862" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B862" t="s">
+        <v>58</v>
+      </c>
+      <c r="C862" t="s">
+        <v>41</v>
+      </c>
+      <c r="D862" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E862" t="s">
+        <v>65</v>
+      </c>
+      <c r="F862" t="s">
+        <v>58</v>
+      </c>
+      <c r="G862">
+        <v>33</v>
+      </c>
+      <c r="H862" t="s">
+        <v>618</v>
+      </c>
+      <c r="I862" t="s">
+        <v>22</v>
+      </c>
+      <c r="J862" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K862" t="s">
+        <v>24</v>
+      </c>
+      <c r="L862" t="s">
+        <v>25</v>
+      </c>
+      <c r="M862" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N862" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O862" t="s">
+        <v>80</v>
+      </c>
+      <c r="P862" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="863" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B863" t="s">
+        <v>58</v>
+      </c>
+      <c r="C863" t="s">
+        <v>27</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E863" t="s">
+        <v>65</v>
+      </c>
+      <c r="F863" t="s">
+        <v>29</v>
+      </c>
+      <c r="G863">
+        <v>13</v>
+      </c>
+      <c r="H863" t="s">
+        <v>2466</v>
+      </c>
+      <c r="I863" t="s">
+        <v>157</v>
+      </c>
+      <c r="J863" t="s">
+        <v>2467</v>
+      </c>
+      <c r="K863" t="s">
+        <v>24</v>
+      </c>
+      <c r="L863" t="s">
+        <v>25</v>
+      </c>
+      <c r="M863" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N863" t="s">
+        <v>2468</v>
+      </c>
+      <c r="O863" t="s">
+        <v>24</v>
+      </c>
+      <c r="P863" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="864" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B864" t="s">
+        <v>58</v>
+      </c>
+      <c r="C864" t="s">
+        <v>27</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E864" t="s">
+        <v>65</v>
+      </c>
+      <c r="F864" t="s">
+        <v>19</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+      <c r="H864" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I864" t="s">
+        <v>55</v>
+      </c>
+      <c r="J864" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K864" t="s">
+        <v>24</v>
+      </c>
+      <c r="L864" t="s">
+        <v>25</v>
+      </c>
+      <c r="M864" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N864" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O864" t="s">
+        <v>24</v>
+      </c>
+      <c r="P864" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="865" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B865" t="s">
+        <v>58</v>
+      </c>
+      <c r="C865" t="s">
+        <v>27</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E865" t="s">
+        <v>65</v>
+      </c>
+      <c r="F865" t="s">
+        <v>29</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865" t="s">
+        <v>58</v>
+      </c>
+      <c r="I865" t="s">
+        <v>85</v>
+      </c>
+      <c r="J865" t="s">
+        <v>2474</v>
+      </c>
+      <c r="K865" t="s">
+        <v>24</v>
+      </c>
+      <c r="L865" t="s">
+        <v>25</v>
+      </c>
+      <c r="M865" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N865" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O865" t="s">
+        <v>80</v>
+      </c>
+      <c r="P865" t="s">
+        <v>2249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Consolidado_Bridge_2025.xlsx
+++ b/Consolidado_Bridge_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d87aadaabdc2cb/Documentos/nwb/bridge/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="671" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FAB16D-447A-4505-8F4B-4538363A9532}"/>
+  <xr:revisionPtr revIDLastSave="719" documentId="8_{C607EACA-C650-4A5E-95C7-07DDA7668303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4261A574-D8E1-4007-9F19-58E0C6CBBA50}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEFB68E0-0739-433A-A945-0FEA615287DD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2025 Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$1127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025 Consolidado'!$A$1:$P$1240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16972" uniqueCount="3067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18667" uniqueCount="3340">
   <si>
     <t>Quando</t>
   </si>
@@ -9263,6 +9263,825 @@
   </si>
   <si>
     <t>Já esta inserida no gc</t>
+  </si>
+  <si>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>Othon Valentim</t>
+  </si>
+  <si>
+    <t>32 99936-6286</t>
+  </si>
+  <si>
+    <t>Leonardo César Fonseca Cintra De Oliveira</t>
+  </si>
+  <si>
+    <t>21 99297-5887</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>Patrick Carvalho</t>
+  </si>
+  <si>
+    <t>21 97526-8434</t>
+  </si>
+  <si>
+    <t>Carlos Alberto</t>
+  </si>
+  <si>
+    <t>21 99450-8877</t>
+  </si>
+  <si>
+    <t>Roziane Da Silva De Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa Esperança </t>
+  </si>
+  <si>
+    <t>Seropedica / --</t>
+  </si>
+  <si>
+    <t>24 99814-3208</t>
+  </si>
+  <si>
+    <t>Indo ao gc pink</t>
+  </si>
+  <si>
+    <t>Tasiana Silva</t>
+  </si>
+  <si>
+    <t>21 97077-3831</t>
+  </si>
+  <si>
+    <t>Congrega em outra igreja</t>
+  </si>
+  <si>
+    <t>Luiana Monteiro De Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92225-4121</t>
+  </si>
+  <si>
+    <t>Maria Elza Souza</t>
+  </si>
+  <si>
+    <t>21 99684-7790</t>
+  </si>
+  <si>
+    <t>Encaminhada ao GC Copacabana</t>
+  </si>
+  <si>
+    <t>Luzia Cruz</t>
+  </si>
+  <si>
+    <t>21 98055-0805</t>
+  </si>
+  <si>
+    <t>Pietra Espindola</t>
+  </si>
+  <si>
+    <t>21 99369-0597</t>
+  </si>
+  <si>
+    <t>Antonia Carlos Souza</t>
+  </si>
+  <si>
+    <t>Rio Se Janeiro / --</t>
+  </si>
+  <si>
+    <t>21 97537-4484</t>
+  </si>
+  <si>
+    <t>Andréia Marques</t>
+  </si>
+  <si>
+    <t>21 99369-5649</t>
+  </si>
+  <si>
+    <t>ângela Alencar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpoador </t>
+  </si>
+  <si>
+    <t>92 98509-5227</t>
+  </si>
+  <si>
+    <t>Thayana Nascimento De Oliveira</t>
+  </si>
+  <si>
+    <t>encaminhada ao 27+</t>
+  </si>
+  <si>
+    <t>Juliana Nascimento De Oliveira</t>
+  </si>
+  <si>
+    <t>21 96900-2755</t>
+  </si>
+  <si>
+    <t>Bruna Alves</t>
+  </si>
+  <si>
+    <t>21 99894-6212</t>
+  </si>
+  <si>
+    <t>Tânia Lima</t>
+  </si>
+  <si>
+    <t>21 97639-8700</t>
+  </si>
+  <si>
+    <t>Maria De Lourdes Bernardo Fernandes</t>
+  </si>
+  <si>
+    <t>21 98780-6262</t>
+  </si>
+  <si>
+    <t>12/10/2025</t>
+  </si>
+  <si>
+    <t>Israel Matos</t>
+  </si>
+  <si>
+    <t>21 96556-3831</t>
+  </si>
+  <si>
+    <t>Paulo César Costa Celestino</t>
+  </si>
+  <si>
+    <t>21 98015-7326</t>
+  </si>
+  <si>
+    <t>Jorge Jose Teixeira Veloso</t>
+  </si>
+  <si>
+    <t>21 97470-2757</t>
+  </si>
+  <si>
+    <t>Luiz Felipe</t>
+  </si>
+  <si>
+    <t>21 96897-3751</t>
+  </si>
+  <si>
+    <t>Leandro Felipe De Souza Henriques</t>
+  </si>
+  <si>
+    <t>21 97494-0304</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>Lucas Roberto</t>
+  </si>
+  <si>
+    <t>Centro / Catumbi</t>
+  </si>
+  <si>
+    <t>21 98237-3891</t>
+  </si>
+  <si>
+    <t>Aline Azevedo</t>
+  </si>
+  <si>
+    <t>21 98171-3557</t>
+  </si>
+  <si>
+    <t>Elayne Fernandes França</t>
+  </si>
+  <si>
+    <t>21 97983-0486</t>
+  </si>
+  <si>
+    <t>Cristiane Gomes Correa Silva Salem</t>
+  </si>
+  <si>
+    <t>Praia Do Siqueira</t>
+  </si>
+  <si>
+    <t>Cabo Frio / RJ</t>
+  </si>
+  <si>
+    <t>22 98872-4480</t>
+  </si>
+  <si>
+    <t>Norma Azevedo</t>
+  </si>
+  <si>
+    <t>Icaraí</t>
+  </si>
+  <si>
+    <t>Niterói / RJ</t>
+  </si>
+  <si>
+    <t>21 99724-0086</t>
+  </si>
+  <si>
+    <t>Juliana Silva</t>
+  </si>
+  <si>
+    <t>21 96546-7571</t>
+  </si>
+  <si>
+    <t>Maria De Fátima Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuquinha </t>
+  </si>
+  <si>
+    <t>21 96677-9947</t>
+  </si>
+  <si>
+    <t>Ana Paula Andrade</t>
+  </si>
+  <si>
+    <t>21 97228-9410</t>
+  </si>
+  <si>
+    <t>Danielle Samara Silva Matos</t>
+  </si>
+  <si>
+    <t>Praça Seca</t>
+  </si>
+  <si>
+    <t>21 97633-6723</t>
+  </si>
+  <si>
+    <t>Loide Almeida Santos</t>
+  </si>
+  <si>
+    <t>21 96496-0962</t>
+  </si>
+  <si>
+    <t>Débora Real</t>
+  </si>
+  <si>
+    <t>21 99751-7042</t>
+  </si>
+  <si>
+    <t>Roselin De Jesus Matins</t>
+  </si>
+  <si>
+    <t>21 21996-6811</t>
+  </si>
+  <si>
+    <t>Numero incorreto</t>
+  </si>
+  <si>
+    <t>Taiane Loiola</t>
+  </si>
+  <si>
+    <t>21 97233-1476</t>
+  </si>
+  <si>
+    <t>Clara Pereira De Sousa</t>
+  </si>
+  <si>
+    <t>Larajeira</t>
+  </si>
+  <si>
+    <t>21 99872-8157</t>
+  </si>
+  <si>
+    <t>Encaminhada ao Nexteen</t>
+  </si>
+  <si>
+    <t>Stephanie Ornelha Nascimento</t>
+  </si>
+  <si>
+    <t>21 96712-9232</t>
+  </si>
+  <si>
+    <t>Alexandra Takenawa</t>
+  </si>
+  <si>
+    <t>21 98601-6721</t>
+  </si>
+  <si>
+    <t>Ana Carolina Matos</t>
+  </si>
+  <si>
+    <t>21 99727-1818</t>
+  </si>
+  <si>
+    <t>Duane Milena Cordeiro De Almeida</t>
+  </si>
+  <si>
+    <t>21 97201-9449</t>
+  </si>
+  <si>
+    <t>Mirella Da Silva Alves De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praça Da Bandeira </t>
+  </si>
+  <si>
+    <t>21 98197-7098</t>
+  </si>
+  <si>
+    <t>Ana Luiza</t>
+  </si>
+  <si>
+    <t>21 99409-1077</t>
+  </si>
+  <si>
+    <t>Encaminhada para copacabana</t>
+  </si>
+  <si>
+    <t>Lauren Hermsdorff Rohem</t>
+  </si>
+  <si>
+    <t>Cordeiro  / RJ</t>
+  </si>
+  <si>
+    <t>21 97921-4646</t>
+  </si>
+  <si>
+    <t>encaminhada 27+</t>
+  </si>
+  <si>
+    <t>Izabella Pancini</t>
+  </si>
+  <si>
+    <t>21 98505-1076</t>
+  </si>
+  <si>
+    <t>Teresa Cristina</t>
+  </si>
+  <si>
+    <t>21 99839-4942</t>
+  </si>
+  <si>
+    <t>Caroline Maximino</t>
+  </si>
+  <si>
+    <t>21 96441-1501</t>
+  </si>
+  <si>
+    <t>19/10/2025</t>
+  </si>
+  <si>
+    <t>Júlio Marcos Pires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catete </t>
+  </si>
+  <si>
+    <t>21 98204-1428</t>
+  </si>
+  <si>
+    <t>Pablo Pablo</t>
+  </si>
+  <si>
+    <t>Pilares</t>
+  </si>
+  <si>
+    <t>21 97231-0646</t>
+  </si>
+  <si>
+    <t>Roberto Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachambi </t>
+  </si>
+  <si>
+    <t>21 95921-7749</t>
+  </si>
+  <si>
+    <t>Lucas Matheus Cavalcante</t>
+  </si>
+  <si>
+    <t>21 95906-0041</t>
+  </si>
+  <si>
+    <t>Matheus Melino</t>
+  </si>
+  <si>
+    <t>21 97699-3883</t>
+  </si>
+  <si>
+    <t>Rodrigo Cobalea</t>
+  </si>
+  <si>
+    <t>21 95903-3781</t>
+  </si>
+  <si>
+    <t>Cauê Miguel Rego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grotão </t>
+  </si>
+  <si>
+    <t>21 98225-9009</t>
+  </si>
+  <si>
+    <t>Andreas Juhl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4015-4812</t>
+  </si>
+  <si>
+    <t>Rosane Chagas Boneco</t>
+  </si>
+  <si>
+    <t>Thaísa Vianna</t>
+  </si>
+  <si>
+    <t>Freguesia (jacarepaguá)</t>
+  </si>
+  <si>
+    <t>21 97531-6666</t>
+  </si>
+  <si>
+    <t>Helainne Barbosa</t>
+  </si>
+  <si>
+    <t>21 99032-7558</t>
+  </si>
+  <si>
+    <t>Luisa Amaral</t>
+  </si>
+  <si>
+    <t>21 99127-3670</t>
+  </si>
+  <si>
+    <t>Monique Gomez Villela</t>
+  </si>
+  <si>
+    <t>21 97226-3318</t>
+  </si>
+  <si>
+    <t>Vilma Marciel</t>
+  </si>
+  <si>
+    <t>-- / SE</t>
+  </si>
+  <si>
+    <t>79 99976-7230</t>
+  </si>
+  <si>
+    <t>Mora em aracaju</t>
+  </si>
+  <si>
+    <t>Dila Barbosa</t>
+  </si>
+  <si>
+    <t>Kathleen Vila</t>
+  </si>
+  <si>
+    <t>21 99822-9277</t>
+  </si>
+  <si>
+    <t>Maria Zenaide Cavalcante Cristo</t>
+  </si>
+  <si>
+    <t>Recife  / --</t>
+  </si>
+  <si>
+    <t>81 97710-1899</t>
+  </si>
+  <si>
+    <t>Luma Araújo</t>
+  </si>
+  <si>
+    <t>21 99501-4690</t>
+  </si>
+  <si>
+    <t>Alanis Veloso</t>
+  </si>
+  <si>
+    <t>21 99633-4247</t>
+  </si>
+  <si>
+    <t>Amanda Tornelli</t>
+  </si>
+  <si>
+    <t>21 99754-8002</t>
+  </si>
+  <si>
+    <t>Natasha Martins</t>
+  </si>
+  <si>
+    <t>21 97537-1060</t>
+  </si>
+  <si>
+    <t>Sara Veloso</t>
+  </si>
+  <si>
+    <t>21 97954-7677</t>
+  </si>
+  <si>
+    <t>Ja esta indo ao gc</t>
+  </si>
+  <si>
+    <t>Michele Santos</t>
+  </si>
+  <si>
+    <t>21 99964-7582</t>
+  </si>
+  <si>
+    <t>Zahie Storani</t>
+  </si>
+  <si>
+    <t>21 21999-4048</t>
+  </si>
+  <si>
+    <t>Maria Eriksen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3028-1862</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>Beatriz Gomes</t>
+  </si>
+  <si>
+    <t>21 9787-9959</t>
+  </si>
+  <si>
+    <t>Giulia Sá</t>
+  </si>
+  <si>
+    <t>21 99831-8175</t>
+  </si>
+  <si>
+    <t>Manuela Souza Dos Santos</t>
+  </si>
+  <si>
+    <t>21 97978-6205</t>
+  </si>
+  <si>
+    <t>Julina Gille</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro / AL</t>
+  </si>
+  <si>
+    <t>21 98260-1524</t>
+  </si>
+  <si>
+    <t>26/10/2025</t>
+  </si>
+  <si>
+    <t>Jose Felipe De Sousa Carvalho Iovino</t>
+  </si>
+  <si>
+    <t>21 99193-9293</t>
+  </si>
+  <si>
+    <t>Paulo Abreu</t>
+  </si>
+  <si>
+    <t>21 99296-3921</t>
+  </si>
+  <si>
+    <t>Jorge Alves</t>
+  </si>
+  <si>
+    <t>21 96535-9134</t>
+  </si>
+  <si>
+    <t>Adriano Cavalcante De Oliveira</t>
+  </si>
+  <si>
+    <t>21 98588-5795</t>
+  </si>
+  <si>
+    <t>Andre Joaquim De Barros</t>
+  </si>
+  <si>
+    <t>21 9499-6760</t>
+  </si>
+  <si>
+    <t>Cristina Capanema</t>
+  </si>
+  <si>
+    <t>21 99293-8720</t>
+  </si>
+  <si>
+    <t>Isabelle Da Hora</t>
+  </si>
+  <si>
+    <t>21 99753-9403</t>
+  </si>
+  <si>
+    <t>Tentando encaminhar para o gc</t>
+  </si>
+  <si>
+    <t>Mariana Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94811-2211</t>
+  </si>
+  <si>
+    <t>Liliane Cristina Oliveira Da Costa</t>
+  </si>
+  <si>
+    <t>21 96425-0772</t>
+  </si>
+  <si>
+    <t>Sara Pimentel</t>
+  </si>
+  <si>
+    <t>21 98668-2720</t>
+  </si>
+  <si>
+    <t>encaminhada para o gc copacabana</t>
+  </si>
+  <si>
+    <t>Tereza Viera</t>
+  </si>
+  <si>
+    <t>21 96779-3483</t>
+  </si>
+  <si>
+    <t>Stefane Soares</t>
+  </si>
+  <si>
+    <t>21 98098-9781</t>
+  </si>
+  <si>
+    <t>Julia Soares Menezes</t>
+  </si>
+  <si>
+    <t>11 97609-0227</t>
+  </si>
+  <si>
+    <t>Bruna Menezes</t>
+  </si>
+  <si>
+    <t>71 92001-4093</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>Giovana Silva</t>
+  </si>
+  <si>
+    <t>21 99020-1536</t>
+  </si>
+  <si>
+    <t>Isabela Araújo De Sousa</t>
+  </si>
+  <si>
+    <t>Parque Anchieta</t>
+  </si>
+  <si>
+    <t>21 97835-0621</t>
+  </si>
+  <si>
+    <t>Ana Paula Cavalcante Ferreira</t>
+  </si>
+  <si>
+    <t>21 99804-0833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonayde </t>
+  </si>
+  <si>
+    <t>Maria Da Graça</t>
+  </si>
+  <si>
+    <t>21 96518-5720</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Guedes</t>
+  </si>
+  <si>
+    <t>21 96448-5915</t>
+  </si>
+  <si>
+    <t>Aline Duarte</t>
+  </si>
+  <si>
+    <t>21 96509-2734</t>
+  </si>
+  <si>
+    <t>Carla Brigida</t>
+  </si>
+  <si>
+    <t>Rio De Janeito / RJ</t>
+  </si>
+  <si>
+    <t>21 97538-4172</t>
+  </si>
+  <si>
+    <t>Stephany Flores</t>
+  </si>
+  <si>
+    <t>51 99369-3731</t>
+  </si>
+  <si>
+    <t>Mayza Almeida De Abreu</t>
+  </si>
+  <si>
+    <t>99 8158-5763</t>
+  </si>
+  <si>
+    <t>Camila Baltar Rocha Fialho</t>
+  </si>
+  <si>
+    <t>21 98988-6585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandra </t>
+  </si>
+  <si>
+    <t>21 99491-0162</t>
+  </si>
+  <si>
+    <t>Karina Brandão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caxias </t>
+  </si>
+  <si>
+    <t>21 98792-9619</t>
+  </si>
+  <si>
+    <t>Yara De Lima Leite</t>
+  </si>
+  <si>
+    <t>21 98315-3055</t>
+  </si>
+  <si>
+    <t>Maria Fátima</t>
+  </si>
+  <si>
+    <t>21 99637-0614</t>
+  </si>
+  <si>
+    <t>encaminhada gc maes</t>
+  </si>
+  <si>
+    <t>Juliana Setaro</t>
+  </si>
+  <si>
+    <t>21 97011-3519</t>
+  </si>
+  <si>
+    <t>Tainara De Jesus Silva</t>
+  </si>
+  <si>
+    <t>21 96461-0000</t>
+  </si>
+  <si>
+    <t>Jeniffer Yasmin</t>
+  </si>
+  <si>
+    <t>21 21920-1469</t>
+  </si>
+  <si>
+    <t>Bárbara Souza</t>
+  </si>
+  <si>
+    <t>21 99573-6801</t>
+  </si>
+  <si>
+    <t>Encaminhada ao gc tijuca</t>
+  </si>
+  <si>
+    <t>Tainá Brum Nunes</t>
+  </si>
+  <si>
+    <t>Jardim Metrópole</t>
+  </si>
+  <si>
+    <t>21 97745-9045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bia </t>
+  </si>
+  <si>
+    <t>21 99796-2215</t>
+  </si>
+  <si>
+    <t>Vânia Cavalcanti</t>
+  </si>
+  <si>
+    <t>21 99988-5602</t>
+  </si>
+  <si>
+    <t>Lunna De Oliveira Ribeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muzema </t>
+  </si>
+  <si>
+    <t>21 97760-3752</t>
+  </si>
+  <si>
+    <t>É de outra igreja. Estava visitando</t>
   </si>
 </sst>
 </file>
@@ -9344,6 +10163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9663,12 +10486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F662FB8-528C-4013-B4C5-67C7C16EE720}">
-  <dimension ref="A1:P1127"/>
+  <dimension ref="A1:P1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F1033" sqref="F1033"/>
+      <selection pane="bottomLeft" activeCell="G1241" sqref="G1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11292,7 +12115,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -11642,7 +12465,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -11889,7 +12712,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -12139,7 +12962,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -13639,7 +14462,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>294</v>
       </c>
@@ -14389,7 +15212,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>347</v>
       </c>
@@ -15489,7 +16312,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -64612,6 +65435,9 @@
       <c r="F1101" t="s">
         <v>185</v>
       </c>
+      <c r="G1101">
+        <v>30</v>
+      </c>
       <c r="H1101" t="s">
         <v>3004</v>
       </c>
@@ -65937,6 +66763,5656 @@
         <v>24</v>
       </c>
       <c r="P1127" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1128">
+        <v>41</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1128" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1128" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K1128" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1128" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1128" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1128" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1128" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1128" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1129">
+        <v>31</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1129" t="s">
+        <v>3071</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1129" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1129" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1129" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1129" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1130">
+        <v>28</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I1130" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1130" t="s">
+        <v>3074</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1130" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1130" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1130" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1130" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1130" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1131">
+        <v>51</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1131" t="s">
+        <v>3076</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1131" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1131" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1131" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1131" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1131" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1132">
+        <v>40</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>3078</v>
+      </c>
+      <c r="I1132" t="s">
+        <v>3079</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>3080</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1132" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1132" t="s">
+        <v>3081</v>
+      </c>
+      <c r="O1132" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1132" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1133">
+        <v>31</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>867</v>
+      </c>
+      <c r="I1133" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1133" t="s">
+        <v>3083</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1133" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1133" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1133" t="s">
+        <v>3084</v>
+      </c>
+      <c r="O1133" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1133" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1134">
+        <v>45</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1134" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1134" t="s">
+        <v>3086</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1134" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1134" t="s">
+        <v>1795</v>
+      </c>
+      <c r="O1134" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1134" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1135">
+        <v>54</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>3088</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1135" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1135" t="s">
+        <v>3089</v>
+      </c>
+      <c r="O1135" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1135" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1136">
+        <v>38</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>3091</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1136" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1136" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1136" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1136" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1136" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1137">
+        <v>30</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1137" t="s">
+        <v>3093</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1137" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1137" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1137" t="s">
+        <v>3028</v>
+      </c>
+      <c r="O1137" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1137" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1138">
+        <v>65</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I1138" t="s">
+        <v>3095</v>
+      </c>
+      <c r="J1138" t="s">
+        <v>3096</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1138" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1138" t="s">
+        <v>3028</v>
+      </c>
+      <c r="O1138" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1138" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1139">
+        <v>40</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1139" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1139" t="s">
+        <v>3098</v>
+      </c>
+      <c r="K1139" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1139" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1139" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1139" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1139" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1139" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1140">
+        <v>32</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>3100</v>
+      </c>
+      <c r="I1140" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1140" t="s">
+        <v>3101</v>
+      </c>
+      <c r="K1140" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1140" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1140" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1140" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1140" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1141">
+        <v>32</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1141" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1141" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K1141" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1141" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1141" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O1141" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1141" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1142">
+        <v>30</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1142" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1142" t="s">
+        <v>3105</v>
+      </c>
+      <c r="K1142" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1142" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1142" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N1142" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O1142" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1142" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1143">
+        <v>18</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>3107</v>
+      </c>
+      <c r="K1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1143" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1143" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1143" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1144">
+        <v>56</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>3109</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1144" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1144" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1144" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1145">
+        <v>69</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>3111</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1145" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1145" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1145" t="s">
+        <v>3028</v>
+      </c>
+      <c r="O1145" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1145" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1146">
+        <v>46</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>816</v>
+      </c>
+      <c r="I1146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>3114</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1146" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1146" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1146" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1146" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1146" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1147">
+        <v>41</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1147" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1147" t="s">
+        <v>3116</v>
+      </c>
+      <c r="K1147" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1147" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1147" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1147" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1147" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1148">
+        <v>64</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>2527</v>
+      </c>
+      <c r="I1148" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1148" t="s">
+        <v>3118</v>
+      </c>
+      <c r="K1148" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1148" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1148" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1148" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1149">
+        <v>30</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>3120</v>
+      </c>
+      <c r="K1149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1149" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1149" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1149" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1149" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1149" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1150">
+        <v>30</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1150" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>3122</v>
+      </c>
+      <c r="K1150" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1150" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1150" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1150" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1150" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1150" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1151">
+        <v>18</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>3126</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1151" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1151" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1151" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1151" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1151" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1152">
+        <v>39</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>3128</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1152" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1152" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1152" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1152" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1153">
+        <v>30</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>3130</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1153" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1153" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1153" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1153" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1153" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1154">
+        <v>39</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>3134</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1154" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1154" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1154" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1154" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1155">
+        <v>68</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>3136</v>
+      </c>
+      <c r="I1155" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J1155" t="s">
+        <v>3138</v>
+      </c>
+      <c r="K1155" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1155" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1155" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1155" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1155" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1156">
+        <v>30</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>3140</v>
+      </c>
+      <c r="K1156" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1156" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1156" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1156" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1156" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1157">
+        <v>61</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>3142</v>
+      </c>
+      <c r="I1157" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>3143</v>
+      </c>
+      <c r="K1157" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1157" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1157" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1157" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1157" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1157" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1158">
+        <v>26</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1158" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K1158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1158" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1158" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1158" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1158" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1159">
+        <v>25</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>3147</v>
+      </c>
+      <c r="I1159" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>3148</v>
+      </c>
+      <c r="K1159" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1159" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1159" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1159" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1159" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1159" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1160">
+        <v>59</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K1160" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1160" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1160" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1160" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1160" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1160" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1161">
+        <v>30</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1161" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>3152</v>
+      </c>
+      <c r="K1161" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1161" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1161" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1161" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1161" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1162">
+        <v>44</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>3154</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1162" t="s">
+        <v>445</v>
+      </c>
+      <c r="M1162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1162" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1162" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1162" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1163">
+        <v>30</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>3157</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1163" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1163" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P1163" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1164">
+        <v>15</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I1164" t="s">
+        <v>2378</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>3160</v>
+      </c>
+      <c r="K1164" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1164" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1164" t="s">
+        <v>3161</v>
+      </c>
+      <c r="O1164" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1164" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1165">
+        <v>26</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>3163</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1165" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1165" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1165" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O1165" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1165" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1166">
+        <v>49</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>3165</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1166" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1166" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1166" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>3166</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1167">
+        <v>33</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>3167</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1167" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1167" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1167" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1167" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1168">
+        <v>29</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>3169</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1168" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1168" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1168" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1168" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1169">
+        <v>30</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>3171</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>3172</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1169" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1169" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1169" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1169" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1170">
+        <v>30</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1170" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1170" t="s">
+        <v>3175</v>
+      </c>
+      <c r="O1170" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1170" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1171">
+        <v>35</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>3177</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>3178</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1171" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1171" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O1171" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1171" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1172">
+        <v>29</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>3181</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1172" t="s">
+        <v>457</v>
+      </c>
+      <c r="M1172" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1172" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1172" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1172" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1173">
+        <v>62</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>3183</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1173" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1173" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1173" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1173" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1173" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1174">
+        <v>31</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>3185</v>
+      </c>
+      <c r="K1174" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1174" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1174" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1174" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O1174" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P1174" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1175">
+        <v>55</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>3189</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1175" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1175" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1175" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1175" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1176">
+        <v>30</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1176" t="s">
+        <v>457</v>
+      </c>
+      <c r="M1176" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1176" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1176" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1176" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1177">
+        <v>34</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>3194</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>3195</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1177" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1177" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1177" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1177" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1177" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1178">
+        <v>14</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>3197</v>
+      </c>
+      <c r="K1178" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1178" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1178" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1178" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1178" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1179">
+        <v>20</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>3199</v>
+      </c>
+      <c r="K1179" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1179" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1179" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1179" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1179" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1180">
+        <v>30</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>3201</v>
+      </c>
+      <c r="K1180" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1180" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1180" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1180" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1180" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1181">
+        <v>18</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>3203</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>3204</v>
+      </c>
+      <c r="K1181" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1181" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1181" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1181" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1181" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1181" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1182">
+        <v>22</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K1182" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1182" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1182" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1182" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1182" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1182" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1183">
+        <v>45</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>2765</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1183" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1183" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1183" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1183" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1184">
+        <v>38</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>3209</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>3210</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1184" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1184" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1184" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1184" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1185">
+        <v>36</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>3212</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1185" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1185" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1185" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1185" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1186">
+        <v>23</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>3214</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1186" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1186" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1186" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1186" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1186" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1187">
+        <v>34</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>2344</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>3216</v>
+      </c>
+      <c r="K1187" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1187" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1187" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1187" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1187" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1187" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>3217</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1188">
+        <v>53</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>3218</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>3219</v>
+      </c>
+      <c r="K1188" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1188" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1188" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1188" t="s">
+        <v>3220</v>
+      </c>
+      <c r="O1188" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1188" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1189">
+        <v>31</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>2273</v>
+      </c>
+      <c r="K1189" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1189" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1189" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1189" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1189" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1189" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1190">
+        <v>30</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>3223</v>
+      </c>
+      <c r="K1190" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1190" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1190" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1190" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1190" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1190" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1191">
+        <v>64</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>3225</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>3226</v>
+      </c>
+      <c r="K1191" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1191" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1191" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1191" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1191" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1192">
+        <v>35</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>3228</v>
+      </c>
+      <c r="K1192" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1192" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1192" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1192" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1192" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1192" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1193">
+        <v>20</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>3230</v>
+      </c>
+      <c r="K1193" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1193" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1193" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1193" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1193" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1193" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1194">
+        <v>30</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>3232</v>
+      </c>
+      <c r="K1194" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1194" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1194" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1194" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1194" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1194" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1195">
+        <v>27</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>3234</v>
+      </c>
+      <c r="K1195" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1195" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1195" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1195" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O1195" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1195" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1196">
+        <v>15</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>3236</v>
+      </c>
+      <c r="K1196" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1196" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1196" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1196" t="s">
+        <v>3237</v>
+      </c>
+      <c r="O1196" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1196" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1197">
+        <v>45</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K1197" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1197" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1197" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1197" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O1197" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1197" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1198">
+        <v>38</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>3241</v>
+      </c>
+      <c r="K1198" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1198" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1198" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1198" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1198" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1198" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1199">
+        <v>30</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>3243</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K1199" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1199" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1199" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1199" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1199" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1199" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1200">
+        <v>24</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K1200" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1200" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1200" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1200" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1200" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1200" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1201">
+        <v>28</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>3249</v>
+      </c>
+      <c r="K1201" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1201" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1201" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1201" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1201" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1201" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1202">
+        <v>33</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>3251</v>
+      </c>
+      <c r="K1202" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1202" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1202" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1202" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1202" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1202" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1203">
+        <v>45</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>3253</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>3254</v>
+      </c>
+      <c r="K1203" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1203" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1203" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1203" t="s">
+        <v>3089</v>
+      </c>
+      <c r="O1203" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1203" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1204">
+        <v>24</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K1204" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1204" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1204" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1204" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1204" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1204" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1205">
+        <v>42</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>3259</v>
+      </c>
+      <c r="K1205" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1205" t="s">
+        <v>445</v>
+      </c>
+      <c r="M1205" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1205" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1205" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1205" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1206">
+        <v>44</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>3261</v>
+      </c>
+      <c r="K1206" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1206" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1206" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1206" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1206" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1207">
+        <v>30</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>3263</v>
+      </c>
+      <c r="K1207" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1207" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1207" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1207" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1207" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1207" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1208">
+        <v>30</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K1208" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1208" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1208" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1208" t="s">
+        <v>2303</v>
+      </c>
+      <c r="O1208" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1208" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1209">
+        <v>30</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>3267</v>
+      </c>
+      <c r="K1209" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1209" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1209" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1209" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1209" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1209" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1210">
+        <v>18</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1210" t="s">
+        <v>3269</v>
+      </c>
+      <c r="K1210" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1210" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1210" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1210" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1210" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1211">
+        <v>40</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1211" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K1211" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1211" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1211" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1211" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1211" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1211" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1212">
+        <v>41</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1212" t="s">
+        <v>3274</v>
+      </c>
+      <c r="K1212" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1212" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1212" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1212" t="s">
+        <v>2371</v>
+      </c>
+      <c r="O1212" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1212" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1213">
+        <v>24</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1213" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1213" t="s">
+        <v>3276</v>
+      </c>
+      <c r="K1213" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1213" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1213" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1213" t="s">
+        <v>3277</v>
+      </c>
+      <c r="O1213" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1213" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1214">
+        <v>65</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1214" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1214" t="s">
+        <v>3279</v>
+      </c>
+      <c r="K1214" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1214" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1214" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1214" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1214" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1214" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1215">
+        <v>33</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K1215" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1215" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1215" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1215" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1215" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1216">
+        <v>22</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>3283</v>
+      </c>
+      <c r="K1216" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1216" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1216" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1216" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1216" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1217">
+        <v>26</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K1217" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1217" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1217" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1217" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1217" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1217" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1218">
+        <v>21</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>3288</v>
+      </c>
+      <c r="K1218" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1218" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1218" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1218" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1218" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1218" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1219">
+        <v>43</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K1219" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1219" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1219" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1219" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1219" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1219" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1220">
+        <v>27</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>3290</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>3291</v>
+      </c>
+      <c r="K1220" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1220" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1220" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1220" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1220" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1220" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1221">
+        <v>52</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>3293</v>
+      </c>
+      <c r="K1221" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1221" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1221" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1221" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1221" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1221" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1222">
+        <v>38</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K1222" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1222" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1222" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1222" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O1222" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1222" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1223">
+        <v>27</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>3298</v>
+      </c>
+      <c r="K1223" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1223" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1223" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1223" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O1223" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1223" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1224">
+        <v>36</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>3300</v>
+      </c>
+      <c r="K1224" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1224" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1224" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1224" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1224" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1224" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1225">
+        <v>26</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>3302</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>3303</v>
+      </c>
+      <c r="K1225" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1225" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1225" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1225" t="s">
+        <v>3270</v>
+      </c>
+      <c r="O1225" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1225" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1226">
+        <v>30</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>3305</v>
+      </c>
+      <c r="K1226" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1226" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1226" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1226" t="s">
+        <v>922</v>
+      </c>
+      <c r="O1226" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1226" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1227">
+        <v>22</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>507</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>3307</v>
+      </c>
+      <c r="K1227" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1227" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1227" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1227" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1227" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1227" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1228">
+        <v>31</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>364</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>3309</v>
+      </c>
+      <c r="K1228" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1228" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1228" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1228" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1228" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1228" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1229">
+        <v>30</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>790</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>3311</v>
+      </c>
+      <c r="K1229" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1229" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1229" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1229" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1229" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1229" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1230">
+        <v>30</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>3314</v>
+      </c>
+      <c r="K1230" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1230" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1230" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1230" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1230" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1230" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1231">
+        <v>26</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>573</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>3316</v>
+      </c>
+      <c r="K1231" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1231" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1231" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1231" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1231" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1231" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1232">
+        <v>34</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K1232" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1232" t="s">
+        <v>3319</v>
+      </c>
+      <c r="O1232" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1232" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1233">
+        <v>28</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>881</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K1233" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1233" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1233" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1233" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O1233" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1233" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1234">
+        <v>30</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>3323</v>
+      </c>
+      <c r="K1234" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1234" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1234" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1234" t="s">
+        <v>2475</v>
+      </c>
+      <c r="O1234" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1234" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1235">
+        <v>26</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>3325</v>
+      </c>
+      <c r="K1235" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1235" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1235" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1235" t="s">
+        <v>3155</v>
+      </c>
+      <c r="O1235" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1235" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1236">
+        <v>35</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>3327</v>
+      </c>
+      <c r="K1236" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1236" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1236" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1236" t="s">
+        <v>3328</v>
+      </c>
+      <c r="O1236" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1236" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1237">
+        <v>29</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K1237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1237" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1237" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1237" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1237" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1237" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1238">
+        <v>30</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>3333</v>
+      </c>
+      <c r="K1238" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1238" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1238" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1238" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1238" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1238" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1239">
+        <v>30</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>3335</v>
+      </c>
+      <c r="K1239" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1239" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1239" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1239" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1239" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P1239" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1240">
+        <v>42</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1240" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1240" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1240" t="s">
+        <v>3339</v>
+      </c>
+      <c r="O1240" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1240" t="s">
         <v>824</v>
       </c>
     </row>
